--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="3" r:id="rId1"/>
-    <sheet name="Voice Data" sheetId="5" r:id="rId2"/>
-    <sheet name="USSD Code Data" sheetId="1" r:id="rId3"/>
-    <sheet name="Recharge Data" sheetId="2" r:id="rId4"/>
+    <sheet name="ussd_code_data" sheetId="1" r:id="rId2"/>
+    <sheet name="Voice Data" sheetId="5" r:id="rId3"/>
+    <sheet name="recharge_data" sheetId="2" r:id="rId4"/>
     <sheet name="Test Cases" sheetId="4" r:id="rId5"/>
+    <sheet name="balance_enquires" sheetId="6" r:id="rId6"/>
+    <sheet name="p2p_transfer" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="330">
   <si>
     <t>Execution</t>
   </si>
@@ -1005,6 +1007,9 @@
   </si>
   <si>
     <t>Voice_Roaming - International_Other</t>
+  </si>
+  <si>
+    <t>2,2</t>
   </si>
 </sst>
 </file>
@@ -1628,53 +1633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="6:6">
-      <c r="F6" s="24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="6:6">
-      <c r="F7" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="6:6">
-      <c r="F8" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4404,12 +4366,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F6:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:6">
+      <c r="F6" s="24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4483,7 +4488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4574,4 +4579,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenario" sheetId="3" r:id="rId1"/>
-    <sheet name="ussd_code_data" sheetId="1" r:id="rId2"/>
-    <sheet name="Voice Data" sheetId="5" r:id="rId3"/>
-    <sheet name="recharge_data" sheetId="2" r:id="rId4"/>
-    <sheet name="Test Cases" sheetId="4" r:id="rId5"/>
-    <sheet name="balance_enquires" sheetId="6" r:id="rId6"/>
-    <sheet name="p2p_transfer" sheetId="7" r:id="rId7"/>
+    <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
+    <sheet name="Node_Parameter" sheetId="9" r:id="rId2"/>
+    <sheet name="cdr_parameters" sheetId="11" r:id="rId3"/>
+    <sheet name="Test Scenario" sheetId="3" r:id="rId4"/>
+    <sheet name="ussd_code_data" sheetId="1" r:id="rId5"/>
+    <sheet name="Voice Data" sheetId="5" r:id="rId6"/>
+    <sheet name="recharge_data" sheetId="2" r:id="rId7"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId8"/>
+    <sheet name="balance_enquires" sheetId="6" r:id="rId9"/>
+    <sheet name="p2p_transfer" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="575">
   <si>
     <t>Execution</t>
   </si>
@@ -1010,13 +1013,748 @@
   </si>
   <si>
     <t>2,2</t>
+  </si>
+  <si>
+    <t>Node_To_Validate</t>
+  </si>
+  <si>
+    <t>S no</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>value4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>value5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>value6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>value7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>value8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>value9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>value10</t>
+  </si>
+  <si>
+    <t>Parameter11</t>
+  </si>
+  <si>
+    <t>value11</t>
+  </si>
+  <si>
+    <t>Parameter12</t>
+  </si>
+  <si>
+    <t>value12</t>
+  </si>
+  <si>
+    <t>Parameter13</t>
+  </si>
+  <si>
+    <t>value13</t>
+  </si>
+  <si>
+    <t>Parameter14</t>
+  </si>
+  <si>
+    <t>value14</t>
+  </si>
+  <si>
+    <t>Parameter15</t>
+  </si>
+  <si>
+    <t>value15</t>
+  </si>
+  <si>
+    <t>Parameter16</t>
+  </si>
+  <si>
+    <t>value16</t>
+  </si>
+  <si>
+    <t>Parameter17</t>
+  </si>
+  <si>
+    <t>value17</t>
+  </si>
+  <si>
+    <t>Parameter18</t>
+  </si>
+  <si>
+    <t>value18</t>
+  </si>
+  <si>
+    <t>Parameter19</t>
+  </si>
+  <si>
+    <t>value19</t>
+  </si>
+  <si>
+    <t>Parameter20</t>
+  </si>
+  <si>
+    <t>value20</t>
+  </si>
+  <si>
+    <t>Parameter21</t>
+  </si>
+  <si>
+    <t>value21</t>
+  </si>
+  <si>
+    <t>Parameter22</t>
+  </si>
+  <si>
+    <t>value22</t>
+  </si>
+  <si>
+    <t>Parameter23</t>
+  </si>
+  <si>
+    <t>value23</t>
+  </si>
+  <si>
+    <t>Parameter24</t>
+  </si>
+  <si>
+    <t>value24</t>
+  </si>
+  <si>
+    <t>Parameter25</t>
+  </si>
+  <si>
+    <t>value25</t>
+  </si>
+  <si>
+    <t>Parameter26</t>
+  </si>
+  <si>
+    <t>value26</t>
+  </si>
+  <si>
+    <t>Parameter27</t>
+  </si>
+  <si>
+    <t>value27</t>
+  </si>
+  <si>
+    <t>Parameter28</t>
+  </si>
+  <si>
+    <t>value28</t>
+  </si>
+  <si>
+    <t>Parameter29</t>
+  </si>
+  <si>
+    <t>value29</t>
+  </si>
+  <si>
+    <t>Parameter30</t>
+  </si>
+  <si>
+    <t>value30</t>
+  </si>
+  <si>
+    <t>Parameter31</t>
+  </si>
+  <si>
+    <t>value31</t>
+  </si>
+  <si>
+    <t>Parameter32</t>
+  </si>
+  <si>
+    <t>value32</t>
+  </si>
+  <si>
+    <t>Parameter33</t>
+  </si>
+  <si>
+    <t>value33</t>
+  </si>
+  <si>
+    <t>Parameter34</t>
+  </si>
+  <si>
+    <t>value34</t>
+  </si>
+  <si>
+    <t>Parameter35</t>
+  </si>
+  <si>
+    <t>value35</t>
+  </si>
+  <si>
+    <t>Parameter36</t>
+  </si>
+  <si>
+    <t>value36</t>
+  </si>
+  <si>
+    <t>Parameter37</t>
+  </si>
+  <si>
+    <t>value37</t>
+  </si>
+  <si>
+    <t>Parameter38</t>
+  </si>
+  <si>
+    <t>value38</t>
+  </si>
+  <si>
+    <t>Parameter39</t>
+  </si>
+  <si>
+    <t>value39</t>
+  </si>
+  <si>
+    <t>Parameter40</t>
+  </si>
+  <si>
+    <t>value40</t>
+  </si>
+  <si>
+    <t>Parameter41</t>
+  </si>
+  <si>
+    <t>value41</t>
+  </si>
+  <si>
+    <t>Parameter42</t>
+  </si>
+  <si>
+    <t>value42</t>
+  </si>
+  <si>
+    <t>Parameter43</t>
+  </si>
+  <si>
+    <t>value43</t>
+  </si>
+  <si>
+    <t>Parameter44</t>
+  </si>
+  <si>
+    <t>value44</t>
+  </si>
+  <si>
+    <t>Parameter45</t>
+  </si>
+  <si>
+    <t>value45</t>
+  </si>
+  <si>
+    <t>Parameter46</t>
+  </si>
+  <si>
+    <t>value46</t>
+  </si>
+  <si>
+    <t>Parameter47</t>
+  </si>
+  <si>
+    <t>value47</t>
+  </si>
+  <si>
+    <t>Parameter48</t>
+  </si>
+  <si>
+    <t>value48</t>
+  </si>
+  <si>
+    <t>Parameter49</t>
+  </si>
+  <si>
+    <t>value49</t>
+  </si>
+  <si>
+    <t>Parameter50</t>
+  </si>
+  <si>
+    <t>value50</t>
+  </si>
+  <si>
+    <t>Parameter51</t>
+  </si>
+  <si>
+    <t>value51</t>
+  </si>
+  <si>
+    <t>Parameter52</t>
+  </si>
+  <si>
+    <t>value52</t>
+  </si>
+  <si>
+    <t>Parameter53</t>
+  </si>
+  <si>
+    <t>value53</t>
+  </si>
+  <si>
+    <t>Parameter54</t>
+  </si>
+  <si>
+    <t>value54</t>
+  </si>
+  <si>
+    <t>Parameter55</t>
+  </si>
+  <si>
+    <t>value55</t>
+  </si>
+  <si>
+    <t>Parameter56</t>
+  </si>
+  <si>
+    <t>value56</t>
+  </si>
+  <si>
+    <t>Parameter57</t>
+  </si>
+  <si>
+    <t>value57</t>
+  </si>
+  <si>
+    <t>Parameter58</t>
+  </si>
+  <si>
+    <t>value58</t>
+  </si>
+  <si>
+    <t>Parameter59</t>
+  </si>
+  <si>
+    <t>value59</t>
+  </si>
+  <si>
+    <t>Parameter60</t>
+  </si>
+  <si>
+    <t>value60</t>
+  </si>
+  <si>
+    <t>Parameter61</t>
+  </si>
+  <si>
+    <t>value61</t>
+  </si>
+  <si>
+    <t>Parameter62</t>
+  </si>
+  <si>
+    <t>value62</t>
+  </si>
+  <si>
+    <t>Parameter63</t>
+  </si>
+  <si>
+    <t>value63</t>
+  </si>
+  <si>
+    <t>Parameter64</t>
+  </si>
+  <si>
+    <t>value64</t>
+  </si>
+  <si>
+    <t>Parameter65</t>
+  </si>
+  <si>
+    <t>value65</t>
+  </si>
+  <si>
+    <t>Parameter66</t>
+  </si>
+  <si>
+    <t>value66</t>
+  </si>
+  <si>
+    <t>Parameter67</t>
+  </si>
+  <si>
+    <t>value67</t>
+  </si>
+  <si>
+    <t>Parameter68</t>
+  </si>
+  <si>
+    <t>value68</t>
+  </si>
+  <si>
+    <t>Parameter69</t>
+  </si>
+  <si>
+    <t>value69</t>
+  </si>
+  <si>
+    <t>Parameter70</t>
+  </si>
+  <si>
+    <t>value70</t>
+  </si>
+  <si>
+    <t>Parameter71</t>
+  </si>
+  <si>
+    <t>value71</t>
+  </si>
+  <si>
+    <t>CCN</t>
+  </si>
+  <si>
+    <t>subscriptionIDValue</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>adjustmentRecordType[0]</t>
+  </si>
+  <si>
+    <t>sdpID[0]</t>
+  </si>
+  <si>
+    <t>cdrID[0]</t>
+  </si>
+  <si>
+    <t>accountNumber[0]</t>
+  </si>
+  <si>
+    <t>subscriberNumber[0]</t>
+  </si>
+  <si>
+    <t>adjustmentTimeStamp[0]</t>
+  </si>
+  <si>
+    <t>serviceClassId[0]</t>
+  </si>
+  <si>
+    <t>currencyType[0]</t>
+  </si>
+  <si>
+    <t>originNodeType[0]</t>
+  </si>
+  <si>
+    <t>originNodeId[0]</t>
+  </si>
+  <si>
+    <t>origTransactionID[0]</t>
+  </si>
+  <si>
+    <t>origTransactionTimeStamp[0]</t>
+  </si>
+  <si>
+    <t>originOperatorId[0]</t>
+  </si>
+  <si>
+    <t>accountFlagsBefore[0]</t>
+  </si>
+  <si>
+    <t>accountFlagsAfter[0]</t>
+  </si>
+  <si>
+    <t>activationDate[0]</t>
+  </si>
+  <si>
+    <t>offerID[0]</t>
+  </si>
+  <si>
+    <t>action[0]</t>
+  </si>
+  <si>
+    <t>offerType[0]</t>
+  </si>
+  <si>
+    <t>offerDisabledAfter[0]</t>
+  </si>
+  <si>
+    <t>subscriptionIDValue[1]</t>
+  </si>
+  <si>
+    <t>triggerTime[1]</t>
+  </si>
+  <si>
+    <t>nodeName[1]</t>
+  </si>
+  <si>
+    <t>serviceContextID[1]</t>
+  </si>
+  <si>
+    <t>chargingContextID[1]</t>
+  </si>
+  <si>
+    <t>serviceSessionID[1]</t>
+  </si>
+  <si>
+    <t>recordIdentificationNumber[1]</t>
+  </si>
+  <si>
+    <t>partialSequenceNumber[1]</t>
+  </si>
+  <si>
+    <t>lastPartialOutput[1]</t>
+  </si>
+  <si>
+    <t>subscriptionIDType[1]</t>
+  </si>
+  <si>
+    <t>sessionId[1]</t>
+  </si>
+  <si>
+    <t>ccRequestNumber[1]</t>
+  </si>
+  <si>
+    <t>originRealm[1]</t>
+  </si>
+  <si>
+    <t>originHost[1]</t>
+  </si>
+  <si>
+    <t>serviceIdentifier[1]</t>
+  </si>
+  <si>
+    <t>tariffChangeUsage[1]</t>
+  </si>
+  <si>
+    <t>amount[1]</t>
+  </si>
+  <si>
+    <t>decimals[1]</t>
+  </si>
+  <si>
+    <t>currency[1]</t>
+  </si>
+  <si>
+    <t>eventTime[1]</t>
+  </si>
+  <si>
+    <t>serviceScenario[1]</t>
+  </si>
+  <si>
+    <t>roamingPosition[1]</t>
+  </si>
+  <si>
+    <t>servedAccount[1]</t>
+  </si>
+  <si>
+    <t>serviceClassID[1]</t>
+  </si>
+  <si>
+    <t>accountGroupID[1]</t>
+  </si>
+  <si>
+    <t>accountValueBefore[1]</t>
+  </si>
+  <si>
+    <t>amount[2]</t>
+  </si>
+  <si>
+    <t>decimals[2]</t>
+  </si>
+  <si>
+    <t>currency[2]</t>
+  </si>
+  <si>
+    <t>accountValueAfter[1]</t>
+  </si>
+  <si>
+    <t>amount[3]</t>
+  </si>
+  <si>
+    <t>decimals[3]</t>
+  </si>
+  <si>
+    <t>currency[3]</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>More Time Recharge</t>
+  </si>
+  <si>
+    <t>originTimeStamp</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>accountInformationBeforeRefill</t>
+  </si>
+  <si>
+    <t>permanentServiceClass</t>
+  </si>
+  <si>
+    <t>accountInformationAfterRefill</t>
+  </si>
+  <si>
+    <t>treeDefinedFields</t>
+  </si>
+  <si>
+    <t>externalData</t>
+  </si>
+  <si>
+    <t>externalData2</t>
+  </si>
+  <si>
+    <t>externalData3</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>Refrence_ID</t>
+  </si>
+  <si>
+    <t>triggerTime</t>
+  </si>
+  <si>
+    <t>nodeName</t>
+  </si>
+  <si>
+    <t>serviceContextID</t>
+  </si>
+  <si>
+    <t>chargingContextID</t>
+  </si>
+  <si>
+    <t>serviceSessionID</t>
+  </si>
+  <si>
+    <t>recordIdentificationNumber</t>
+  </si>
+  <si>
+    <t>partialSequenceNumber</t>
+  </si>
+  <si>
+    <t>lastPartialOutput</t>
+  </si>
+  <si>
+    <t>subscriptionIDType</t>
+  </si>
+  <si>
+    <t>sessionId</t>
+  </si>
+  <si>
+    <t>ccRequestNumber</t>
+  </si>
+  <si>
+    <t>originRealm</t>
+  </si>
+  <si>
+    <t>originHost</t>
+  </si>
+  <si>
+    <t>serviceIdentifier</t>
+  </si>
+  <si>
+    <t>tariffChangeUsage</t>
+  </si>
+  <si>
+    <t>amount[0]</t>
+  </si>
+  <si>
+    <t>decimals[0]</t>
+  </si>
+  <si>
+    <t>currency[0]</t>
+  </si>
+  <si>
+    <t>eventTime[0]</t>
+  </si>
+  <si>
+    <t>triggerTime[0]</t>
+  </si>
+  <si>
+    <t>serviceScenario[0]</t>
+  </si>
+  <si>
+    <t>roamingPosition</t>
+  </si>
+  <si>
+    <t>servedAccount</t>
+  </si>
+  <si>
+    <t>serviceClassID</t>
+  </si>
+  <si>
+    <t>accountGroupID</t>
+  </si>
+  <si>
+    <t>accountValueBefore[0]</t>
+  </si>
+  <si>
+    <t>accountValueAfter[0]</t>
+  </si>
+  <si>
+    <t>CIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,6 +1790,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Ericsson Hilda"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1208,7 +1960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1265,6 +2017,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,6 +2327,2066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>$U$6:$U$13</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EM6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:143">
+      <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" t="s">
+        <v>345</v>
+      </c>
+      <c r="M1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" t="s">
+        <v>352</v>
+      </c>
+      <c r="T1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U1" t="s">
+        <v>354</v>
+      </c>
+      <c r="V1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>393</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>397</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>410</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>411</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>412</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>413</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>414</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>415</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>416</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>417</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>418</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>419</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>420</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>421</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>422</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>423</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>424</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>425</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>426</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>427</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>428</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>429</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>430</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>432</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>433</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>434</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>435</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>436</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>437</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>438</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>439</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>440</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>441</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>442</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>443</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>444</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>445</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>446</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>447</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>448</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>449</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>450</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>451</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>452</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>453</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>454</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>455</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>456</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>457</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>458</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>459</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>460</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>461</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>462</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>463</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>464</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>465</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>466</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>467</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>468</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>469</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>470</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>471</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>472</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>473</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>474</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>475</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:143">
+      <c r="A2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K2" t="s">
+        <v>479</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:143">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L3" t="s">
+        <v>485</v>
+      </c>
+      <c r="M3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N3" t="s">
+        <v>486</v>
+      </c>
+      <c r="O3" t="s">
+        <v>479</v>
+      </c>
+      <c r="P3" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>479</v>
+      </c>
+      <c r="R3" t="s">
+        <v>488</v>
+      </c>
+      <c r="S3" t="s">
+        <v>479</v>
+      </c>
+      <c r="T3" t="s">
+        <v>489</v>
+      </c>
+      <c r="U3" t="s">
+        <v>479</v>
+      </c>
+      <c r="V3" t="s">
+        <v>490</v>
+      </c>
+      <c r="W3" t="s">
+        <v>479</v>
+      </c>
+      <c r="X3" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>499</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>500</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:143">
+      <c r="A4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="E4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="I4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="K4" t="s">
+        <v>479</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="M4" t="s">
+        <v>479</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="O4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>479</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="S4" t="s">
+        <v>479</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="U4" t="s">
+        <v>479</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="W4" t="s">
+        <v>479</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>515</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>516</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>502</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>521</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>523</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>524</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>525</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>526</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>527</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>528</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>529</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>530</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BN4" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>532</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>533</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BV4" s="28"/>
+      <c r="BZ4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CD4" s="28"/>
+      <c r="CF4" s="28"/>
+      <c r="CH4" s="28"/>
+      <c r="CJ4" s="28"/>
+      <c r="CL4" s="28"/>
+      <c r="CN4" s="28"/>
+      <c r="CP4" s="28"/>
+      <c r="EF4" s="28"/>
+    </row>
+    <row r="5" spans="1:143">
+      <c r="A5" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="B5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="I5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="K5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="M5" t="s">
+        <v>479</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="O5" t="s">
+        <v>479</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>479</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="S5" t="s">
+        <v>479</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="U5" t="s">
+        <v>479</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="W5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:143">
+      <c r="A6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>"CCN_Voice,AIR,SDP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"CCN,AIR,SDP"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EO6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.54296875" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:145">
+      <c r="A1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V1" t="s">
+        <v>353</v>
+      </c>
+      <c r="W1" t="s">
+        <v>354</v>
+      </c>
+      <c r="X1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>393</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>397</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>409</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>410</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>411</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>412</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>414</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>415</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>417</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>418</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>419</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>420</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>421</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>422</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>423</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>424</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>425</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>426</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>427</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>428</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>429</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>430</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>432</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>433</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>434</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>435</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>436</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>437</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>438</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>439</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>440</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>441</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>442</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>443</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>444</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>445</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>446</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>447</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>448</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>449</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>450</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>451</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>452</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>453</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>454</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>455</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>456</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>457</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>458</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>459</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>460</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>461</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>462</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>463</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>464</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>465</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>466</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>467</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>468</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>469</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>470</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>471</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>472</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>473</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>474</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>475</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:145">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K2" t="s">
+        <v>479</v>
+      </c>
+      <c r="M2" t="s">
+        <v>479</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:145" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" t="s">
+        <v>482</v>
+      </c>
+      <c r="I3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L3" t="s">
+        <v>484</v>
+      </c>
+      <c r="M3" t="s">
+        <v>479</v>
+      </c>
+      <c r="N3" t="s">
+        <v>485</v>
+      </c>
+      <c r="O3" t="s">
+        <v>479</v>
+      </c>
+      <c r="P3" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>479</v>
+      </c>
+      <c r="R3" t="s">
+        <v>487</v>
+      </c>
+      <c r="S3" t="s">
+        <v>479</v>
+      </c>
+      <c r="T3" t="s">
+        <v>488</v>
+      </c>
+      <c r="U3" t="s">
+        <v>479</v>
+      </c>
+      <c r="V3" t="s">
+        <v>489</v>
+      </c>
+      <c r="W3" t="s">
+        <v>479</v>
+      </c>
+      <c r="X3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>492</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>499</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>500</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:145">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="K4" t="s">
+        <v>479</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="M4" t="s">
+        <v>479</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="O4" t="s">
+        <v>479</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>479</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="S4" t="s">
+        <v>479</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="U4" t="s">
+        <v>479</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="W4" t="s">
+        <v>479</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z4" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>560</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>561</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>562</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>563</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>564</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>565</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>569</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>571</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>572</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>517</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>518</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>519</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>573</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BP4" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>528</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>529</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BX4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CD4" s="28"/>
+      <c r="CF4" s="28"/>
+      <c r="CH4" s="28"/>
+      <c r="CJ4" s="28"/>
+      <c r="CL4" s="28"/>
+      <c r="CN4" s="28"/>
+      <c r="CP4" s="28"/>
+      <c r="CR4" s="28"/>
+      <c r="EH4" s="28"/>
+    </row>
+    <row r="5" spans="1:145">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="G5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="I5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="K5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="M5" t="s">
+        <v>479</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="O5" t="s">
+        <v>479</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>479</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="S5" t="s">
+        <v>479</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="U5" t="s">
+        <v>479</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="W5" t="s">
+        <v>479</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:145">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"CCN_Voice,AIR,SDP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"CCN,AIR,SDP"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1631,12 +4448,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4366,12 +7183,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4409,7 +7226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4484,7 +7301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L12"/>
   <sheetViews>
@@ -4581,7 +7398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4633,58 +7450,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -8,22 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
-    <sheet name="Node_Parameter" sheetId="9" r:id="rId2"/>
-    <sheet name="cdr_parameters" sheetId="11" r:id="rId3"/>
-    <sheet name="Test Scenario" sheetId="3" r:id="rId4"/>
-    <sheet name="ussd_code_data" sheetId="1" r:id="rId5"/>
-    <sheet name="Voice Data" sheetId="5" r:id="rId6"/>
-    <sheet name="recharge_data" sheetId="2" r:id="rId7"/>
-    <sheet name="Test Cases" sheetId="4" r:id="rId8"/>
-    <sheet name="balance_enquires" sheetId="6" r:id="rId9"/>
-    <sheet name="p2p_transfer" sheetId="7" r:id="rId10"/>
+    <sheet name="cdr_parameters" sheetId="11" r:id="rId2"/>
+    <sheet name="Test Scenario" sheetId="3" r:id="rId3"/>
+    <sheet name="ussd_code_data" sheetId="1" r:id="rId4"/>
+    <sheet name="Voice Data" sheetId="5" r:id="rId5"/>
+    <sheet name="recharge_data" sheetId="2" r:id="rId6"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId7"/>
+    <sheet name="balance_enquires" sheetId="6" r:id="rId8"/>
+    <sheet name="p2p_transfer" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="459">
   <si>
     <t>Execution</t>
   </si>
@@ -1033,549 +1032,177 @@
     <t>Parameter1</t>
   </si>
   <si>
-    <t>value1</t>
-  </si>
-  <si>
     <t>Parameter2</t>
   </si>
   <si>
-    <t>value2</t>
-  </si>
-  <si>
     <t>Parameter3</t>
   </si>
   <si>
-    <t>value3</t>
-  </si>
-  <si>
     <t>Parameter4</t>
   </si>
   <si>
-    <t>value4</t>
-  </si>
-  <si>
     <t>Parameter5</t>
   </si>
   <si>
-    <t>value5</t>
-  </si>
-  <si>
     <t>Parameter6</t>
   </si>
   <si>
-    <t>value6</t>
-  </si>
-  <si>
     <t>Parameter7</t>
   </si>
   <si>
-    <t>value7</t>
-  </si>
-  <si>
     <t>Parameter8</t>
   </si>
   <si>
-    <t>value8</t>
-  </si>
-  <si>
     <t>Parameter9</t>
   </si>
   <si>
-    <t>value9</t>
-  </si>
-  <si>
     <t>Parameter10</t>
   </si>
   <si>
-    <t>value10</t>
-  </si>
-  <si>
     <t>Parameter11</t>
   </si>
   <si>
-    <t>value11</t>
-  </si>
-  <si>
     <t>Parameter12</t>
   </si>
   <si>
-    <t>value12</t>
-  </si>
-  <si>
     <t>Parameter13</t>
   </si>
   <si>
-    <t>value13</t>
-  </si>
-  <si>
     <t>Parameter14</t>
   </si>
   <si>
-    <t>value14</t>
-  </si>
-  <si>
     <t>Parameter15</t>
   </si>
   <si>
-    <t>value15</t>
-  </si>
-  <si>
     <t>Parameter16</t>
   </si>
   <si>
-    <t>value16</t>
-  </si>
-  <si>
     <t>Parameter17</t>
   </si>
   <si>
-    <t>value17</t>
-  </si>
-  <si>
     <t>Parameter18</t>
   </si>
   <si>
-    <t>value18</t>
-  </si>
-  <si>
     <t>Parameter19</t>
   </si>
   <si>
-    <t>value19</t>
-  </si>
-  <si>
     <t>Parameter20</t>
   </si>
   <si>
-    <t>value20</t>
-  </si>
-  <si>
     <t>Parameter21</t>
   </si>
   <si>
-    <t>value21</t>
-  </si>
-  <si>
     <t>Parameter22</t>
   </si>
   <si>
-    <t>value22</t>
-  </si>
-  <si>
     <t>Parameter23</t>
   </si>
   <si>
-    <t>value23</t>
-  </si>
-  <si>
     <t>Parameter24</t>
   </si>
   <si>
-    <t>value24</t>
-  </si>
-  <si>
     <t>Parameter25</t>
   </si>
   <si>
-    <t>value25</t>
-  </si>
-  <si>
     <t>Parameter26</t>
   </si>
   <si>
-    <t>value26</t>
-  </si>
-  <si>
     <t>Parameter27</t>
   </si>
   <si>
-    <t>value27</t>
-  </si>
-  <si>
     <t>Parameter28</t>
   </si>
   <si>
-    <t>value28</t>
-  </si>
-  <si>
     <t>Parameter29</t>
   </si>
   <si>
-    <t>value29</t>
-  </si>
-  <si>
     <t>Parameter30</t>
   </si>
   <si>
-    <t>value30</t>
-  </si>
-  <si>
     <t>Parameter31</t>
   </si>
   <si>
-    <t>value31</t>
-  </si>
-  <si>
     <t>Parameter32</t>
   </si>
   <si>
-    <t>value32</t>
-  </si>
-  <si>
     <t>Parameter33</t>
   </si>
   <si>
-    <t>value33</t>
-  </si>
-  <si>
     <t>Parameter34</t>
   </si>
   <si>
-    <t>value34</t>
-  </si>
-  <si>
     <t>Parameter35</t>
   </si>
   <si>
-    <t>value35</t>
-  </si>
-  <si>
     <t>Parameter36</t>
   </si>
   <si>
-    <t>value36</t>
-  </si>
-  <si>
     <t>Parameter37</t>
   </si>
   <si>
-    <t>value37</t>
-  </si>
-  <si>
     <t>Parameter38</t>
   </si>
   <si>
-    <t>value38</t>
-  </si>
-  <si>
     <t>Parameter39</t>
   </si>
   <si>
-    <t>value39</t>
-  </si>
-  <si>
     <t>Parameter40</t>
   </si>
   <si>
-    <t>value40</t>
-  </si>
-  <si>
     <t>Parameter41</t>
   </si>
   <si>
-    <t>value41</t>
-  </si>
-  <si>
     <t>Parameter42</t>
   </si>
   <si>
-    <t>value42</t>
-  </si>
-  <si>
     <t>Parameter43</t>
   </si>
   <si>
-    <t>value43</t>
-  </si>
-  <si>
     <t>Parameter44</t>
   </si>
   <si>
-    <t>value44</t>
-  </si>
-  <si>
     <t>Parameter45</t>
   </si>
   <si>
-    <t>value45</t>
-  </si>
-  <si>
     <t>Parameter46</t>
   </si>
   <si>
-    <t>value46</t>
-  </si>
-  <si>
     <t>Parameter47</t>
   </si>
   <si>
-    <t>value47</t>
-  </si>
-  <si>
     <t>Parameter48</t>
   </si>
   <si>
-    <t>value48</t>
-  </si>
-  <si>
     <t>Parameter49</t>
   </si>
   <si>
-    <t>value49</t>
-  </si>
-  <si>
     <t>Parameter50</t>
   </si>
   <si>
-    <t>value50</t>
-  </si>
-  <si>
     <t>Parameter51</t>
   </si>
   <si>
-    <t>value51</t>
-  </si>
-  <si>
     <t>Parameter52</t>
   </si>
   <si>
-    <t>value52</t>
-  </si>
-  <si>
-    <t>Parameter53</t>
-  </si>
-  <si>
-    <t>value53</t>
-  </si>
-  <si>
-    <t>Parameter54</t>
-  </si>
-  <si>
-    <t>value54</t>
-  </si>
-  <si>
-    <t>Parameter55</t>
-  </si>
-  <si>
-    <t>value55</t>
-  </si>
-  <si>
-    <t>Parameter56</t>
-  </si>
-  <si>
-    <t>value56</t>
-  </si>
-  <si>
-    <t>Parameter57</t>
-  </si>
-  <si>
-    <t>value57</t>
-  </si>
-  <si>
-    <t>Parameter58</t>
-  </si>
-  <si>
-    <t>value58</t>
-  </si>
-  <si>
-    <t>Parameter59</t>
-  </si>
-  <si>
-    <t>value59</t>
-  </si>
-  <si>
-    <t>Parameter60</t>
-  </si>
-  <si>
-    <t>value60</t>
-  </si>
-  <si>
-    <t>Parameter61</t>
-  </si>
-  <si>
-    <t>value61</t>
-  </si>
-  <si>
-    <t>Parameter62</t>
-  </si>
-  <si>
-    <t>value62</t>
-  </si>
-  <si>
-    <t>Parameter63</t>
-  </si>
-  <si>
-    <t>value63</t>
-  </si>
-  <si>
-    <t>Parameter64</t>
-  </si>
-  <si>
-    <t>value64</t>
-  </si>
-  <si>
-    <t>Parameter65</t>
-  </si>
-  <si>
-    <t>value65</t>
-  </si>
-  <si>
-    <t>Parameter66</t>
-  </si>
-  <si>
-    <t>value66</t>
-  </si>
-  <si>
-    <t>Parameter67</t>
-  </si>
-  <si>
-    <t>value67</t>
-  </si>
-  <si>
-    <t>Parameter68</t>
-  </si>
-  <si>
-    <t>value68</t>
-  </si>
-  <si>
-    <t>Parameter69</t>
-  </si>
-  <si>
-    <t>value69</t>
-  </si>
-  <si>
-    <t>Parameter70</t>
-  </si>
-  <si>
-    <t>value70</t>
-  </si>
-  <si>
-    <t>Parameter71</t>
-  </si>
-  <si>
-    <t>value71</t>
-  </si>
-  <si>
     <t>CCN</t>
   </si>
   <si>
     <t>subscriptionIDValue</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>accountNumber</t>
   </si>
   <si>
-    <t>adjustmentRecordType[0]</t>
-  </si>
-  <si>
-    <t>sdpID[0]</t>
-  </si>
-  <si>
-    <t>cdrID[0]</t>
-  </si>
-  <si>
-    <t>accountNumber[0]</t>
-  </si>
-  <si>
-    <t>subscriberNumber[0]</t>
-  </si>
-  <si>
-    <t>adjustmentTimeStamp[0]</t>
-  </si>
-  <si>
-    <t>serviceClassId[0]</t>
-  </si>
-  <si>
-    <t>currencyType[0]</t>
-  </si>
-  <si>
-    <t>originNodeType[0]</t>
-  </si>
-  <si>
-    <t>originNodeId[0]</t>
-  </si>
-  <si>
-    <t>origTransactionID[0]</t>
-  </si>
-  <si>
-    <t>origTransactionTimeStamp[0]</t>
-  </si>
-  <si>
-    <t>originOperatorId[0]</t>
-  </si>
-  <si>
-    <t>accountFlagsBefore[0]</t>
-  </si>
-  <si>
-    <t>accountFlagsAfter[0]</t>
-  </si>
-  <si>
-    <t>activationDate[0]</t>
-  </si>
-  <si>
-    <t>offerID[0]</t>
-  </si>
-  <si>
-    <t>action[0]</t>
-  </si>
-  <si>
-    <t>offerType[0]</t>
-  </si>
-  <si>
-    <t>offerDisabledAfter[0]</t>
-  </si>
-  <si>
     <t>subscriptionIDValue[1]</t>
   </si>
   <si>
     <t>triggerTime[1]</t>
   </si>
   <si>
-    <t>nodeName[1]</t>
-  </si>
-  <si>
-    <t>serviceContextID[1]</t>
-  </si>
-  <si>
-    <t>chargingContextID[1]</t>
-  </si>
-  <si>
-    <t>serviceSessionID[1]</t>
-  </si>
-  <si>
-    <t>recordIdentificationNumber[1]</t>
-  </si>
-  <si>
-    <t>partialSequenceNumber[1]</t>
-  </si>
-  <si>
-    <t>lastPartialOutput[1]</t>
-  </si>
-  <si>
     <t>subscriptionIDType[1]</t>
   </si>
   <si>
-    <t>sessionId[1]</t>
-  </si>
-  <si>
-    <t>ccRequestNumber[1]</t>
-  </si>
-  <si>
-    <t>originRealm[1]</t>
-  </si>
-  <si>
-    <t>originHost[1]</t>
-  </si>
-  <si>
-    <t>serviceIdentifier[1]</t>
-  </si>
-  <si>
-    <t>tariffChangeUsage[1]</t>
-  </si>
-  <si>
     <t>amount[1]</t>
   </si>
   <si>
@@ -1585,27 +1212,6 @@
     <t>currency[1]</t>
   </si>
   <si>
-    <t>eventTime[1]</t>
-  </si>
-  <si>
-    <t>serviceScenario[1]</t>
-  </si>
-  <si>
-    <t>roamingPosition[1]</t>
-  </si>
-  <si>
-    <t>servedAccount[1]</t>
-  </si>
-  <si>
-    <t>serviceClassID[1]</t>
-  </si>
-  <si>
-    <t>accountGroupID[1]</t>
-  </si>
-  <si>
-    <t>accountValueBefore[1]</t>
-  </si>
-  <si>
     <t>amount[2]</t>
   </si>
   <si>
@@ -1615,24 +1221,9 @@
     <t>currency[2]</t>
   </si>
   <si>
-    <t>accountValueAfter[1]</t>
-  </si>
-  <si>
-    <t>amount[3]</t>
-  </si>
-  <si>
-    <t>decimals[3]</t>
-  </si>
-  <si>
-    <t>currency[3]</t>
-  </si>
-  <si>
     <t>AIR</t>
   </si>
   <si>
-    <t>More Time Recharge</t>
-  </si>
-  <si>
     <t>originTimeStamp</t>
   </si>
   <si>
@@ -1642,84 +1233,18 @@
     <t>accountInformationBeforeRefill</t>
   </si>
   <si>
-    <t>permanentServiceClass</t>
-  </si>
-  <si>
-    <t>accountInformationAfterRefill</t>
-  </si>
-  <si>
-    <t>treeDefinedFields</t>
-  </si>
-  <si>
-    <t>externalData</t>
-  </si>
-  <si>
     <t>externalData2</t>
   </si>
   <si>
-    <t>externalData3</t>
-  </si>
-  <si>
     <t>Execution Control</t>
   </si>
   <si>
     <t>Refrence_ID</t>
   </si>
   <si>
-    <t>triggerTime</t>
-  </si>
-  <si>
-    <t>nodeName</t>
-  </si>
-  <si>
-    <t>serviceContextID</t>
-  </si>
-  <si>
-    <t>chargingContextID</t>
-  </si>
-  <si>
-    <t>serviceSessionID</t>
-  </si>
-  <si>
-    <t>recordIdentificationNumber</t>
-  </si>
-  <si>
-    <t>partialSequenceNumber</t>
-  </si>
-  <si>
-    <t>lastPartialOutput</t>
-  </si>
-  <si>
-    <t>subscriptionIDType</t>
-  </si>
-  <si>
-    <t>sessionId</t>
-  </si>
-  <si>
     <t>ccRequestNumber</t>
   </si>
   <si>
-    <t>originRealm</t>
-  </si>
-  <si>
-    <t>originHost</t>
-  </si>
-  <si>
-    <t>serviceIdentifier</t>
-  </si>
-  <si>
-    <t>tariffChangeUsage</t>
-  </si>
-  <si>
-    <t>amount[0]</t>
-  </si>
-  <si>
-    <t>decimals[0]</t>
-  </si>
-  <si>
-    <t>currency[0]</t>
-  </si>
-  <si>
     <t>eventTime[0]</t>
   </si>
   <si>
@@ -1729,18 +1254,6 @@
     <t>serviceScenario[0]</t>
   </si>
   <si>
-    <t>roamingPosition</t>
-  </si>
-  <si>
-    <t>servedAccount</t>
-  </si>
-  <si>
-    <t>serviceClassID</t>
-  </si>
-  <si>
-    <t>accountGroupID</t>
-  </si>
-  <si>
     <t>accountValueBefore[0]</t>
   </si>
   <si>
@@ -1748,6 +1261,144 @@
   </si>
   <si>
     <t>CIS</t>
+  </si>
+  <si>
+    <t>resultCode[0]</t>
+  </si>
+  <si>
+    <t>resultCodeExtension[0]</t>
+  </si>
+  <si>
+    <t>nodeName[0]</t>
+  </si>
+  <si>
+    <t>serviceContextID[0]</t>
+  </si>
+  <si>
+    <t>chargingContextID[0]</t>
+  </si>
+  <si>
+    <t>serviceSessionID[0]</t>
+  </si>
+  <si>
+    <t>recordIdentificationNumber[0]</t>
+  </si>
+  <si>
+    <t>subscriptionIDType[0]</t>
+  </si>
+  <si>
+    <t>subscriptionIDValue[0]</t>
+  </si>
+  <si>
+    <t>callReference[0]</t>
+  </si>
+  <si>
+    <t>mSCAddress[0]</t>
+  </si>
+  <si>
+    <t>nonServedSubscriptionID[0]</t>
+  </si>
+  <si>
+    <t>roamingPosition[0]</t>
+  </si>
+  <si>
+    <t>lastPartialOutput[0]</t>
+  </si>
+  <si>
+    <t>tariffChangeUsage[0]</t>
+  </si>
+  <si>
+    <t>timeUnit[0]</t>
+  </si>
+  <si>
+    <t>partialSequenceNumber[0]</t>
+  </si>
+  <si>
+    <t>sessionId[0]</t>
+  </si>
+  <si>
+    <t>originRealm[0]</t>
+  </si>
+  <si>
+    <t>originHost[0]</t>
+  </si>
+  <si>
+    <t>serviceIdentifier[0]</t>
+  </si>
+  <si>
+    <t>servedAccount[0]</t>
+  </si>
+  <si>
+    <t>serviceClassID[0]</t>
+  </si>
+  <si>
+    <t>accountGroupID[0]</t>
+  </si>
+  <si>
+    <t>accumulatorID[0]</t>
+  </si>
+  <si>
+    <t>accumulatorChange[0]</t>
+  </si>
+  <si>
+    <t>accumulatorAfter[0]</t>
+  </si>
+  <si>
+    <t>accumulatorBeforeSession[0]</t>
+  </si>
+  <si>
+    <t>accountFlags[0]</t>
+  </si>
+  <si>
+    <t>accountBalance[0]</t>
+  </si>
+  <si>
+    <t>creditClearancePeriod[0]</t>
+  </si>
+  <si>
+    <t>RefillDedicatedAccountV2[0]</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID[0]</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnit[0]</t>
+  </si>
+  <si>
+    <t>permanentServiceClass[0]</t>
+  </si>
+  <si>
+    <t>serviceFeeExpiryDate[0]</t>
+  </si>
+  <si>
+    <t>supervisionExpiryDate[0]</t>
+  </si>
+  <si>
+    <t>offerIdentifier[0]</t>
+  </si>
+  <si>
+    <t>supervisionExpiryDate[1]</t>
+  </si>
+  <si>
+    <t>accountInformationAfterRefill[0]</t>
+  </si>
+  <si>
+    <t>accountFlags[1]</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID[2]</t>
+  </si>
+  <si>
+    <t>accountBalance[2]</t>
+  </si>
+  <si>
+    <t>clearedAccountValue</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnit[2]</t>
+  </si>
+  <si>
+    <t>externalData1</t>
   </si>
 </sst>
 </file>
@@ -2327,16 +1978,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2352,53 +2003,229 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" s="5" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>$U$6:$U$13</formula1>
+      <formula1>$U$6:$U$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,1009 +2233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EM6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="12.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:143">
-      <c r="A1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I1" t="s">
-        <v>342</v>
-      </c>
-      <c r="J1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M1" t="s">
-        <v>346</v>
-      </c>
-      <c r="N1" t="s">
-        <v>347</v>
-      </c>
-      <c r="O1" t="s">
-        <v>348</v>
-      </c>
-      <c r="P1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>350</v>
-      </c>
-      <c r="R1" t="s">
-        <v>351</v>
-      </c>
-      <c r="S1" t="s">
-        <v>352</v>
-      </c>
-      <c r="T1" t="s">
-        <v>353</v>
-      </c>
-      <c r="U1" t="s">
-        <v>354</v>
-      </c>
-      <c r="V1" t="s">
-        <v>355</v>
-      </c>
-      <c r="W1" t="s">
-        <v>356</v>
-      </c>
-      <c r="X1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>385</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>386</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>391</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>392</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>393</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>394</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>395</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>396</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>397</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>399</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>403</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>404</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>405</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>408</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>409</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>410</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>411</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>412</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>413</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>414</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>415</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>416</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>417</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>418</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>419</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>420</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>422</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>423</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>424</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>425</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>426</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>427</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>428</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>429</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>430</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>431</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>432</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>433</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>434</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>435</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>436</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>437</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>438</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>439</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>440</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>441</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>442</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>443</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>444</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>445</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>446</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>447</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>448</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>450</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>451</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>452</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>453</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>454</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>455</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>456</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>457</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>458</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>459</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>460</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>461</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>462</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>463</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>464</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>465</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>466</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>467</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>468</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>469</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>470</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>471</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>472</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>473</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>474</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>475</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:143">
-      <c r="A2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K2" t="s">
-        <v>479</v>
-      </c>
-      <c r="L2" s="27"/>
-      <c r="M2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:143">
-      <c r="A3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I3" t="s">
-        <v>479</v>
-      </c>
-      <c r="J3" t="s">
-        <v>484</v>
-      </c>
-      <c r="K3" t="s">
-        <v>479</v>
-      </c>
-      <c r="L3" t="s">
-        <v>485</v>
-      </c>
-      <c r="M3" t="s">
-        <v>479</v>
-      </c>
-      <c r="N3" t="s">
-        <v>486</v>
-      </c>
-      <c r="O3" t="s">
-        <v>479</v>
-      </c>
-      <c r="P3" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>479</v>
-      </c>
-      <c r="R3" t="s">
-        <v>488</v>
-      </c>
-      <c r="S3" t="s">
-        <v>479</v>
-      </c>
-      <c r="T3" t="s">
-        <v>489</v>
-      </c>
-      <c r="U3" t="s">
-        <v>479</v>
-      </c>
-      <c r="V3" t="s">
-        <v>490</v>
-      </c>
-      <c r="W3" t="s">
-        <v>479</v>
-      </c>
-      <c r="X3" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>493</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>494</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>495</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>497</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>498</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>499</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>500</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:143">
-      <c r="A4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="E4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="I4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="K4" t="s">
-        <v>479</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="M4" t="s">
-        <v>479</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="O4" t="s">
-        <v>479</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>479</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="S4" t="s">
-        <v>479</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="U4" t="s">
-        <v>479</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="W4" t="s">
-        <v>479</v>
-      </c>
-      <c r="X4" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>512</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>513</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>514</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>515</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>516</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>517</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>518</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>519</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>520</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>502</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>521</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>522</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>523</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>524</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>525</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>527</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>528</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>529</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>530</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BN4" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>532</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>533</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BV4" s="28"/>
-      <c r="BZ4" s="28"/>
-      <c r="CB4" s="28"/>
-      <c r="CD4" s="28"/>
-      <c r="CF4" s="28"/>
-      <c r="CH4" s="28"/>
-      <c r="CJ4" s="28"/>
-      <c r="CL4" s="28"/>
-      <c r="CN4" s="28"/>
-      <c r="CP4" s="28"/>
-      <c r="EF4" s="28"/>
-    </row>
-    <row r="5" spans="1:143">
-      <c r="A5" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="B5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="E5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="G5" t="s">
-        <v>479</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="I5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="K5" t="s">
-        <v>479</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="M5" t="s">
-        <v>479</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="O5" t="s">
-        <v>479</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>479</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="S5" t="s">
-        <v>479</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="U5" t="s">
-        <v>479</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="W5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:143">
-      <c r="A6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>"CCN_Voice,AIR,SDP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"CCN,AIR,SDP"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EO6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3419,37 +2249,27 @@
     <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.7265625" customWidth="1"/>
     <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.453125" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>404</v>
       </c>
       <c r="B1" t="s">
-        <v>546</v>
+        <v>405</v>
       </c>
       <c r="C1" t="s">
         <v>334</v>
@@ -3610,278 +2430,8 @@
       <c r="BC1" t="s">
         <v>386</v>
       </c>
-      <c r="BD1" t="s">
-        <v>387</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>391</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>392</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>393</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>394</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>395</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>396</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>397</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>399</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>403</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>404</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>405</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>408</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>409</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>410</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>411</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>412</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>414</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>415</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>416</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>417</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>418</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>419</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>420</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>422</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>423</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>424</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>425</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>426</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>427</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>428</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>429</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>430</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>431</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>432</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>433</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>434</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>435</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>436</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>437</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>438</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>439</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>440</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>441</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>442</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>443</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>444</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>445</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>446</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>447</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>448</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>449</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>450</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>451</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>452</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>453</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>454</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>455</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>456</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>457</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>458</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>459</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>460</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>461</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>462</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>463</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>464</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>465</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>466</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>467</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>468</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>469</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>470</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>471</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>472</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>473</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>474</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>475</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:145">
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3889,32 +2439,73 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K2" t="s">
-        <v>479</v>
-      </c>
-      <c r="M2" t="s">
-        <v>479</v>
-      </c>
-      <c r="N2" s="27"/>
-      <c r="O2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:145" ht="15" customHeight="1">
+        <v>388</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3924,134 +2515,8 @@
       <c r="C3" t="s">
         <v>332</v>
       </c>
-      <c r="D3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H3" t="s">
-        <v>482</v>
-      </c>
-      <c r="I3" t="s">
-        <v>479</v>
-      </c>
-      <c r="J3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K3" t="s">
-        <v>479</v>
-      </c>
-      <c r="L3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M3" t="s">
-        <v>479</v>
-      </c>
-      <c r="N3" t="s">
-        <v>485</v>
-      </c>
-      <c r="O3" t="s">
-        <v>479</v>
-      </c>
-      <c r="P3" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>479</v>
-      </c>
-      <c r="R3" t="s">
-        <v>487</v>
-      </c>
-      <c r="S3" t="s">
-        <v>479</v>
-      </c>
-      <c r="T3" t="s">
-        <v>488</v>
-      </c>
-      <c r="U3" t="s">
-        <v>479</v>
-      </c>
-      <c r="V3" t="s">
-        <v>489</v>
-      </c>
-      <c r="W3" t="s">
-        <v>479</v>
-      </c>
-      <c r="X3" t="s">
-        <v>490</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>492</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>493</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>494</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>495</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>498</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>499</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>500</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:145">
+    </row>
+    <row r="4" spans="1:55">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4061,229 +2526,122 @@
       <c r="C4" t="s">
         <v>333</v>
       </c>
-      <c r="D4" t="s">
-        <v>478</v>
+      <c r="D4" s="27" t="s">
+        <v>388</v>
       </c>
       <c r="E4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="G4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H4" t="s">
-        <v>548</v>
-      </c>
-      <c r="I4" t="s">
-        <v>479</v>
+        <v>413</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>417</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="K4" t="s">
-        <v>479</v>
+        <v>418</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>419</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="M4" t="s">
-        <v>479</v>
+        <v>429</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>426</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="O4" t="s">
-        <v>479</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>552</v>
+        <v>420</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="P4" t="s">
+        <v>430</v>
       </c>
       <c r="Q4" t="s">
-        <v>479</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>553</v>
+        <v>426</v>
+      </c>
+      <c r="R4" t="s">
+        <v>406</v>
       </c>
       <c r="S4" t="s">
-        <v>479</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>554</v>
+        <v>431</v>
+      </c>
+      <c r="T4" t="s">
+        <v>432</v>
       </c>
       <c r="U4" t="s">
-        <v>479</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>555</v>
+        <v>433</v>
+      </c>
+      <c r="V4" t="s">
+        <v>427</v>
       </c>
       <c r="W4" t="s">
-        <v>479</v>
-      </c>
-      <c r="X4" s="28" t="s">
-        <v>478</v>
+        <v>407</v>
+      </c>
+      <c r="X4" t="s">
+        <v>391</v>
       </c>
       <c r="Y4" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z4" s="28" t="s">
-        <v>556</v>
+        <v>409</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>425</v>
       </c>
       <c r="AA4" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="AB4" t="s">
-        <v>557</v>
+        <v>435</v>
       </c>
       <c r="AC4" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="AD4" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>479</v>
+        <v>410</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG4" s="27" t="s">
+        <v>395</v>
       </c>
       <c r="AH4" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>561</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>479</v>
+        <v>411</v>
+      </c>
+      <c r="AI4" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK4" s="27" t="s">
+        <v>398</v>
       </c>
       <c r="AL4" t="s">
-        <v>562</v>
+        <v>437</v>
       </c>
       <c r="AM4" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="AN4" t="s">
-        <v>563</v>
+        <v>439</v>
       </c>
       <c r="AO4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>564</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>565</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>566</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>567</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>568</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>569</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>570</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>571</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>572</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>517</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>518</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>519</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>573</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BP4" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>528</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>529</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BX4" s="28"/>
-      <c r="CB4" s="28"/>
-      <c r="CD4" s="28"/>
-      <c r="CF4" s="28"/>
-      <c r="CH4" s="28"/>
-      <c r="CJ4" s="28"/>
-      <c r="CL4" s="28"/>
-      <c r="CN4" s="28"/>
-      <c r="CP4" s="28"/>
-      <c r="CR4" s="28"/>
-      <c r="EH4" s="28"/>
-    </row>
-    <row r="5" spans="1:145">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4291,76 +2649,82 @@
         <v>9</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="D5" t="s">
-        <v>480</v>
+        <v>399</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="G5" t="s">
-        <v>479</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="I5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="K5" t="s">
-        <v>479</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="M5" t="s">
-        <v>479</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="O5" t="s">
-        <v>479</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>479</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>541</v>
+        <v>400</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>450</v>
       </c>
       <c r="S5" t="s">
-        <v>479</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="U5" t="s">
-        <v>479</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="W5" t="s">
-        <v>479</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:145">
+        <v>451</v>
+      </c>
+      <c r="T5" t="s">
+        <v>452</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4368,7 +2732,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +2749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
@@ -4448,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -7183,7 +5547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:F10"/>
   <sheetViews>
@@ -7226,7 +5590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -7301,7 +5665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L12"/>
   <sheetViews>
@@ -7398,7 +5762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7450,4 +5814,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -1981,7 +1981,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2051,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>332</v>
@@ -2062,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>333</v>
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2436,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>387</v>
@@ -2510,7 +2510,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>332</v>
@@ -2521,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>333</v>
@@ -2646,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>399</v>
@@ -2817,7 +2817,7 @@
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -1981,7 +1981,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2051,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>332</v>
@@ -2062,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>333</v>
@@ -2817,7 +2817,7 @@
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="383">
   <si>
     <t>Execution</t>
   </si>
@@ -1010,6 +1010,166 @@
   </si>
   <si>
     <t>2,2</t>
+  </si>
+  <si>
+    <t>IDD Rate Cutters</t>
+  </si>
+  <si>
+    <t>*135*10#</t>
+  </si>
+  <si>
+    <t>SpecialSocial25GBDataBundle</t>
+  </si>
+  <si>
+    <t>Nepal Offer</t>
+  </si>
+  <si>
+    <t>*135*97#</t>
+  </si>
+  <si>
+    <t>HappinessSIM</t>
+  </si>
+  <si>
+    <t>Data24hBundle</t>
+  </si>
+  <si>
+    <t>*135*3733#</t>
+  </si>
+  <si>
+    <t>DailyRoamDataPack</t>
+  </si>
+  <si>
+    <t>*135*111#</t>
+  </si>
+  <si>
+    <t>WeeklyRoamDataPack</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDaily</t>
+  </si>
+  <si>
+    <t>*135*20#</t>
+  </si>
+  <si>
+    <t>RoamBndlASubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMonthly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMPlus</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubMonthly</t>
+  </si>
+  <si>
+    <t>RoamGCCDAct</t>
+  </si>
+  <si>
+    <t>RoamGCCDNRAct</t>
+  </si>
+  <si>
+    <t>RoamGCCWAct</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDRec</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDO</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSW</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSM</t>
+  </si>
+  <si>
+    <t>IntCommunity</t>
+  </si>
+  <si>
+    <t>*135*71#</t>
+  </si>
+  <si>
+    <t>SeamlessCallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*135*20# </t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>Post Call Notification</t>
+  </si>
+  <si>
+    <t>*135*50#</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>BronzeMPromo</t>
+  </si>
+  <si>
+    <t>*135*250#</t>
+  </si>
+  <si>
+    <t>Roaming Hajj Bundles</t>
+  </si>
+  <si>
+    <t>Data Bundles-Roaming Data Bundles</t>
+  </si>
+  <si>
+    <t>NonstopDailyDBundle3AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*135# </t>
+  </si>
+  <si>
+    <t>5,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>NonstopMonthlyDBundle50AED</t>
+  </si>
+  <si>
+    <t>5,2,1,1,2,1</t>
+  </si>
+  <si>
+    <t>HotSpotActive</t>
+  </si>
+  <si>
+    <t>*135*85#</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDailyRec</t>
+  </si>
+  <si>
+    <t>Local_PPU</t>
+  </si>
+  <si>
+    <t>*135*11#</t>
+  </si>
+  <si>
+    <t>Roaming_PPU_A_B_GCC</t>
+  </si>
+  <si>
+    <t>Data_Credit_Protection</t>
+  </si>
+  <si>
+    <t>7,1,3</t>
+  </si>
+  <si>
+    <t>7,1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*135*20#</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1265,6 +1425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1647,7 +1813,7 @@
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4321,45 +4487,758 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" ht="15" thickBot="1">
       <c r="B105" s="6"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="C105" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H105" s="22">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1">
       <c r="B106" s="6"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="C106" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H106" s="22">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1">
       <c r="B107" s="6"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="C107" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="G107" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1">
       <c r="B108" s="6"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" s="6"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="10"/>
+      <c r="C108" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="G108" s="28">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" thickBot="1">
+      <c r="C109" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G109" s="28"/>
+      <c r="H109" s="22">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" thickBot="1">
+      <c r="C110" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G110" s="28"/>
+      <c r="H110" s="22">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1">
+      <c r="C111" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G111" s="28"/>
+      <c r="H111" s="22">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1">
+      <c r="C112" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H112" s="22">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" ht="15" thickBot="1">
+      <c r="C113" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" s="22">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" ht="15" thickBot="1">
+      <c r="C114" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H114" s="22">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="15" thickBot="1">
+      <c r="C115" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H115" s="22">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" ht="15" thickBot="1">
+      <c r="C116" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" s="22">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" ht="15" thickBot="1">
+      <c r="C117" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117" s="22">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" ht="15" thickBot="1">
+      <c r="C118" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H118" s="22">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" ht="15" thickBot="1">
+      <c r="C119" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" ht="15" thickBot="1">
+      <c r="C120" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="15" thickBot="1">
+      <c r="C121" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" ht="15" thickBot="1">
+      <c r="C122" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" ht="15" thickBot="1">
+      <c r="C123" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" ht="15" thickBot="1">
+      <c r="C124" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" ht="15" thickBot="1">
+      <c r="C125" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" ht="15" thickBot="1">
+      <c r="C126" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" ht="15" thickBot="1">
+      <c r="C127" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" ht="15" thickBot="1">
+      <c r="C128" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" ht="15" thickBot="1">
+      <c r="C129" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G129" s="22">
+        <v>1</v>
+      </c>
+      <c r="H129" s="22">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" ht="15" thickBot="1">
+      <c r="C130" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G130" s="22">
+        <v>2</v>
+      </c>
+      <c r="H130" s="22">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" ht="15" thickBot="1">
+      <c r="C131" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="H131" s="22">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" ht="15" thickBot="1">
+      <c r="C132" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="G132" s="22">
+        <v>1</v>
+      </c>
+      <c r="H132" s="22">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" ht="29.5" thickBot="1">
+      <c r="C133" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G133" s="22">
+        <v>3</v>
+      </c>
+      <c r="H133" s="22">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" ht="15" thickBot="1">
+      <c r="C134" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H134" s="22">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" ht="15" thickBot="1">
+      <c r="C135" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" ht="15" thickBot="1">
+      <c r="C136" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H136" s="22">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="15" thickBot="1">
+      <c r="C137" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="H137" s="22">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="15" thickBot="1">
+      <c r="C138" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G138" s="22">
+        <v>1</v>
+      </c>
+      <c r="H138" s="22">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" ht="15" thickBot="1">
+      <c r="C139" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" s="22">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" ht="15" thickBot="1">
+      <c r="C140" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H140" s="22">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" ht="15" thickBot="1">
+      <c r="C141" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H141" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" ht="15" thickBot="1">
+      <c r="C142" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="H142" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" ht="15" thickBot="1">
+      <c r="C143" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H143" s="22">
+        <v>944</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4639,7 +5518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="422">
   <si>
     <t>Execution</t>
   </si>
@@ -1170,6 +1170,123 @@
   <si>
     <t xml:space="preserve">
 *135*20#</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>TC_142</t>
   </si>
 </sst>
 </file>
@@ -1801,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4488,7 +4605,12 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="15" thickBot="1">
-      <c r="B105" s="6"/>
+      <c r="A105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="C105" s="22" t="s">
         <v>330</v>
       </c>
@@ -4509,7 +4631,12 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1">
-      <c r="B106" s="6"/>
+      <c r="A106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="C106" s="22" t="s">
         <v>332</v>
       </c>
@@ -4530,7 +4657,12 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1">
-      <c r="B107" s="6"/>
+      <c r="A107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="C107" s="22" t="s">
         <v>333</v>
       </c>
@@ -4548,7 +4680,12 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1">
-      <c r="B108" s="6"/>
+      <c r="A108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="C108" s="22" t="s">
         <v>335</v>
       </c>
@@ -4569,6 +4706,12 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1">
+      <c r="A109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="C109" s="22" t="s">
         <v>336</v>
       </c>
@@ -4587,6 +4730,12 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="15" thickBot="1">
+      <c r="A110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="C110" s="22" t="s">
         <v>338</v>
       </c>
@@ -4605,6 +4754,12 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1">
+      <c r="A111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="C111" s="22" t="s">
         <v>340</v>
       </c>
@@ -4623,6 +4778,12 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1">
+      <c r="A112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="C112" s="22" t="s">
         <v>341</v>
       </c>
@@ -4642,7 +4803,13 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="15" thickBot="1">
+    <row r="113" spans="1:8" ht="15" thickBot="1">
+      <c r="A113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="C113" s="22" t="s">
         <v>343</v>
       </c>
@@ -4662,7 +4829,13 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="15" thickBot="1">
+    <row r="114" spans="1:8" ht="15" thickBot="1">
+      <c r="A114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="C114" s="22" t="s">
         <v>344</v>
       </c>
@@ -4682,7 +4855,13 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="15" thickBot="1">
+    <row r="115" spans="1:8" ht="15" thickBot="1">
+      <c r="A115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="C115" s="22" t="s">
         <v>345</v>
       </c>
@@ -4702,7 +4881,13 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="15" thickBot="1">
+    <row r="116" spans="1:8" ht="15" thickBot="1">
+      <c r="A116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="C116" s="22" t="s">
         <v>346</v>
       </c>
@@ -4722,7 +4907,13 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="15" thickBot="1">
+    <row r="117" spans="1:8" ht="15" thickBot="1">
+      <c r="A117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="C117" s="22" t="s">
         <v>347</v>
       </c>
@@ -4742,7 +4933,13 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="15" thickBot="1">
+    <row r="118" spans="1:8" ht="15" thickBot="1">
+      <c r="A118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="C118" s="22" t="s">
         <v>348</v>
       </c>
@@ -4762,7 +4959,13 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="15" thickBot="1">
+    <row r="119" spans="1:8" ht="15" thickBot="1">
+      <c r="A119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="C119" s="22" t="s">
         <v>349</v>
       </c>
@@ -4780,7 +4983,13 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="120" spans="3:8" ht="15" thickBot="1">
+    <row r="120" spans="1:8" ht="15" thickBot="1">
+      <c r="A120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="C120" s="22" t="s">
         <v>350</v>
       </c>
@@ -4798,7 +5007,13 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="121" spans="3:8" ht="15" thickBot="1">
+    <row r="121" spans="1:8" ht="15" thickBot="1">
+      <c r="A121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="C121" s="22" t="s">
         <v>351</v>
       </c>
@@ -4816,7 +5031,13 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="122" spans="3:8" ht="15" thickBot="1">
+    <row r="122" spans="1:8" ht="15" thickBot="1">
+      <c r="A122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="C122" s="22" t="s">
         <v>352</v>
       </c>
@@ -4834,7 +5055,13 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="123" spans="3:8" ht="15" thickBot="1">
+    <row r="123" spans="1:8" ht="15" thickBot="1">
+      <c r="A123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="C123" s="22" t="s">
         <v>353</v>
       </c>
@@ -4852,7 +5079,13 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="124" spans="3:8" ht="15" thickBot="1">
+    <row r="124" spans="1:8" ht="15" thickBot="1">
+      <c r="A124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="C124" s="22" t="s">
         <v>354</v>
       </c>
@@ -4870,7 +5103,13 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="125" spans="3:8" ht="15" thickBot="1">
+    <row r="125" spans="1:8" ht="15" thickBot="1">
+      <c r="A125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="C125" s="22" t="s">
         <v>355</v>
       </c>
@@ -4888,7 +5127,13 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="126" spans="3:8" ht="15" thickBot="1">
+    <row r="126" spans="1:8" ht="15" thickBot="1">
+      <c r="A126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="C126" s="22" t="s">
         <v>356</v>
       </c>
@@ -4906,7 +5151,13 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="127" spans="3:8" ht="15" thickBot="1">
+    <row r="127" spans="1:8" ht="15" thickBot="1">
+      <c r="A127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="C127" s="22" t="s">
         <v>358</v>
       </c>
@@ -4924,7 +5175,13 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="128" spans="3:8" ht="15" thickBot="1">
+    <row r="128" spans="1:8" ht="15" thickBot="1">
+      <c r="A128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="C128" s="22" t="s">
         <v>360</v>
       </c>
@@ -4942,7 +5199,13 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="15" thickBot="1">
+    <row r="129" spans="1:8" ht="15" thickBot="1">
+      <c r="A129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="C129" s="22" t="s">
         <v>361</v>
       </c>
@@ -4962,7 +5225,13 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="15" thickBot="1">
+    <row r="130" spans="1:8" ht="15" thickBot="1">
+      <c r="A130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="C130" s="22" t="s">
         <v>363</v>
       </c>
@@ -4982,7 +5251,13 @@
         <v>832</v>
       </c>
     </row>
-    <row r="131" spans="3:8" ht="15" thickBot="1">
+    <row r="131" spans="1:8" ht="15" thickBot="1">
+      <c r="A131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>409</v>
+      </c>
       <c r="C131" s="22" t="s">
         <v>363</v>
       </c>
@@ -5002,7 +5277,13 @@
         <v>832</v>
       </c>
     </row>
-    <row r="132" spans="3:8" ht="15" thickBot="1">
+    <row r="132" spans="1:8" ht="15" thickBot="1">
+      <c r="A132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="C132" s="22" t="s">
         <v>364</v>
       </c>
@@ -5022,7 +5303,13 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="133" spans="3:8" ht="29.5" thickBot="1">
+    <row r="133" spans="1:8" ht="29.5" thickBot="1">
+      <c r="A133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="C133" s="22" t="s">
         <v>366</v>
       </c>
@@ -5042,7 +5329,13 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="134" spans="3:8" ht="15" thickBot="1">
+    <row r="134" spans="1:8" ht="15" thickBot="1">
+      <c r="A134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="C134" s="22" t="s">
         <v>366</v>
       </c>
@@ -5062,7 +5355,13 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="135" spans="3:8" ht="15" thickBot="1">
+    <row r="135" spans="1:8" ht="15" thickBot="1">
+      <c r="A135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="C135" s="22" t="s">
         <v>367</v>
       </c>
@@ -5080,7 +5379,13 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="136" spans="3:8" ht="15" thickBot="1">
+    <row r="136" spans="1:8" ht="15" thickBot="1">
+      <c r="A136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>414</v>
+      </c>
       <c r="C136" s="22" t="s">
         <v>368</v>
       </c>
@@ -5100,7 +5405,13 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="15" thickBot="1">
+    <row r="137" spans="1:8" ht="15" thickBot="1">
+      <c r="A137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="C137" s="22" t="s">
         <v>371</v>
       </c>
@@ -5120,7 +5431,13 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="15" thickBot="1">
+    <row r="138" spans="1:8" ht="15" thickBot="1">
+      <c r="A138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="C138" s="22" t="s">
         <v>373</v>
       </c>
@@ -5140,7 +5457,13 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="15" thickBot="1">
+    <row r="139" spans="1:8" ht="15" thickBot="1">
+      <c r="A139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="C139" s="22" t="s">
         <v>375</v>
       </c>
@@ -5160,7 +5483,13 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="15" thickBot="1">
+    <row r="140" spans="1:8" ht="15" thickBot="1">
+      <c r="A140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>418</v>
+      </c>
       <c r="C140" s="22" t="s">
         <v>376</v>
       </c>
@@ -5180,7 +5509,13 @@
         <v>790</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="15" thickBot="1">
+    <row r="141" spans="1:8" ht="15" thickBot="1">
+      <c r="A141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="C141" s="22" t="s">
         <v>378</v>
       </c>
@@ -5200,7 +5535,13 @@
         <v>957</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="15" thickBot="1">
+    <row r="142" spans="1:8" ht="15" thickBot="1">
+      <c r="A142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="C142" s="22" t="s">
         <v>378</v>
       </c>
@@ -5220,7 +5561,13 @@
         <v>957</v>
       </c>
     </row>
-    <row r="143" spans="3:8" ht="15" thickBot="1">
+    <row r="143" spans="1:8" ht="15" thickBot="1">
+      <c r="A143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="C143" s="22" t="s">
         <v>379</v>
       </c>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,25 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
-    <sheet name="cdr_parameters" sheetId="11" r:id="rId2"/>
-    <sheet name="Test Scenario" sheetId="3" r:id="rId3"/>
-    <sheet name="ussd_code_data" sheetId="1" r:id="rId4"/>
-    <sheet name="Voice Data" sheetId="5" r:id="rId5"/>
-    <sheet name="recharge_data" sheetId="2" r:id="rId6"/>
-    <sheet name="Test Cases" sheetId="4" r:id="rId7"/>
-    <sheet name="balance_enquires" sheetId="6" r:id="rId8"/>
-    <sheet name="p2p_transfer" sheetId="7" r:id="rId9"/>
+    <sheet name="Test Scenario" sheetId="3" r:id="rId1"/>
+    <sheet name="ussd_code_data" sheetId="1" r:id="rId2"/>
+    <sheet name="Voice Data" sheetId="5" r:id="rId3"/>
+    <sheet name="recharge_data" sheetId="2" r:id="rId4"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId5"/>
+    <sheet name="balance_enquires" sheetId="6" r:id="rId6"/>
+    <sheet name="p2p_transfer" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="422">
   <si>
     <t>Execution</t>
   </si>
@@ -1014,398 +1012,288 @@
     <t>2,2</t>
   </si>
   <si>
-    <t>Node_To_Validate</t>
-  </si>
-  <si>
-    <t>S no</t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t>OCC</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Parameter1</t>
-  </si>
-  <si>
-    <t>Parameter2</t>
-  </si>
-  <si>
-    <t>Parameter3</t>
-  </si>
-  <si>
-    <t>Parameter4</t>
-  </si>
-  <si>
-    <t>Parameter5</t>
-  </si>
-  <si>
-    <t>Parameter6</t>
-  </si>
-  <si>
-    <t>Parameter7</t>
-  </si>
-  <si>
-    <t>Parameter8</t>
-  </si>
-  <si>
-    <t>Parameter9</t>
-  </si>
-  <si>
-    <t>Parameter10</t>
-  </si>
-  <si>
-    <t>Parameter11</t>
-  </si>
-  <si>
-    <t>Parameter12</t>
-  </si>
-  <si>
-    <t>Parameter13</t>
-  </si>
-  <si>
-    <t>Parameter14</t>
-  </si>
-  <si>
-    <t>Parameter15</t>
-  </si>
-  <si>
-    <t>Parameter16</t>
-  </si>
-  <si>
-    <t>Parameter17</t>
-  </si>
-  <si>
-    <t>Parameter18</t>
-  </si>
-  <si>
-    <t>Parameter19</t>
-  </si>
-  <si>
-    <t>Parameter20</t>
-  </si>
-  <si>
-    <t>Parameter21</t>
-  </si>
-  <si>
-    <t>Parameter22</t>
-  </si>
-  <si>
-    <t>Parameter23</t>
-  </si>
-  <si>
-    <t>Parameter24</t>
-  </si>
-  <si>
-    <t>Parameter25</t>
-  </si>
-  <si>
-    <t>Parameter26</t>
-  </si>
-  <si>
-    <t>Parameter27</t>
-  </si>
-  <si>
-    <t>Parameter28</t>
-  </si>
-  <si>
-    <t>Parameter29</t>
-  </si>
-  <si>
-    <t>Parameter30</t>
-  </si>
-  <si>
-    <t>Parameter31</t>
-  </si>
-  <si>
-    <t>Parameter32</t>
-  </si>
-  <si>
-    <t>Parameter33</t>
-  </si>
-  <si>
-    <t>Parameter34</t>
-  </si>
-  <si>
-    <t>Parameter35</t>
-  </si>
-  <si>
-    <t>Parameter36</t>
-  </si>
-  <si>
-    <t>Parameter37</t>
-  </si>
-  <si>
-    <t>Parameter38</t>
-  </si>
-  <si>
-    <t>Parameter39</t>
-  </si>
-  <si>
-    <t>Parameter40</t>
-  </si>
-  <si>
-    <t>Parameter41</t>
-  </si>
-  <si>
-    <t>Parameter42</t>
-  </si>
-  <si>
-    <t>Parameter43</t>
-  </si>
-  <si>
-    <t>Parameter44</t>
-  </si>
-  <si>
-    <t>Parameter45</t>
-  </si>
-  <si>
-    <t>Parameter46</t>
-  </si>
-  <si>
-    <t>Parameter47</t>
-  </si>
-  <si>
-    <t>Parameter48</t>
-  </si>
-  <si>
-    <t>Parameter49</t>
-  </si>
-  <si>
-    <t>Parameter50</t>
-  </si>
-  <si>
-    <t>Parameter51</t>
-  </si>
-  <si>
-    <t>Parameter52</t>
-  </si>
-  <si>
-    <t>CCN</t>
-  </si>
-  <si>
-    <t>subscriptionIDValue</t>
-  </si>
-  <si>
-    <t>accountNumber</t>
-  </si>
-  <si>
-    <t>subscriptionIDValue[1]</t>
-  </si>
-  <si>
-    <t>triggerTime[1]</t>
-  </si>
-  <si>
-    <t>subscriptionIDType[1]</t>
-  </si>
-  <si>
-    <t>amount[1]</t>
-  </si>
-  <si>
-    <t>decimals[1]</t>
-  </si>
-  <si>
-    <t>currency[1]</t>
-  </si>
-  <si>
-    <t>amount[2]</t>
-  </si>
-  <si>
-    <t>decimals[2]</t>
-  </si>
-  <si>
-    <t>currency[2]</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>originTimeStamp</t>
-  </si>
-  <si>
-    <t>subscriberNumber</t>
-  </si>
-  <si>
-    <t>accountInformationBeforeRefill</t>
-  </si>
-  <si>
-    <t>externalData2</t>
-  </si>
-  <si>
-    <t>Execution Control</t>
-  </si>
-  <si>
-    <t>Refrence_ID</t>
-  </si>
-  <si>
-    <t>ccRequestNumber</t>
-  </si>
-  <si>
-    <t>eventTime[0]</t>
-  </si>
-  <si>
-    <t>triggerTime[0]</t>
-  </si>
-  <si>
-    <t>serviceScenario[0]</t>
-  </si>
-  <si>
-    <t>accountValueBefore[0]</t>
-  </si>
-  <si>
-    <t>accountValueAfter[0]</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>resultCode[0]</t>
-  </si>
-  <si>
-    <t>resultCodeExtension[0]</t>
-  </si>
-  <si>
-    <t>nodeName[0]</t>
-  </si>
-  <si>
-    <t>serviceContextID[0]</t>
-  </si>
-  <si>
-    <t>chargingContextID[0]</t>
-  </si>
-  <si>
-    <t>serviceSessionID[0]</t>
-  </si>
-  <si>
-    <t>recordIdentificationNumber[0]</t>
-  </si>
-  <si>
-    <t>subscriptionIDType[0]</t>
-  </si>
-  <si>
-    <t>subscriptionIDValue[0]</t>
-  </si>
-  <si>
-    <t>callReference[0]</t>
-  </si>
-  <si>
-    <t>mSCAddress[0]</t>
-  </si>
-  <si>
-    <t>nonServedSubscriptionID[0]</t>
-  </si>
-  <si>
-    <t>roamingPosition[0]</t>
-  </si>
-  <si>
-    <t>lastPartialOutput[0]</t>
-  </si>
-  <si>
-    <t>tariffChangeUsage[0]</t>
-  </si>
-  <si>
-    <t>timeUnit[0]</t>
-  </si>
-  <si>
-    <t>partialSequenceNumber[0]</t>
-  </si>
-  <si>
-    <t>sessionId[0]</t>
-  </si>
-  <si>
-    <t>originRealm[0]</t>
-  </si>
-  <si>
-    <t>originHost[0]</t>
-  </si>
-  <si>
-    <t>serviceIdentifier[0]</t>
-  </si>
-  <si>
-    <t>servedAccount[0]</t>
-  </si>
-  <si>
-    <t>serviceClassID[0]</t>
-  </si>
-  <si>
-    <t>accountGroupID[0]</t>
-  </si>
-  <si>
-    <t>accumulatorID[0]</t>
-  </si>
-  <si>
-    <t>accumulatorChange[0]</t>
-  </si>
-  <si>
-    <t>accumulatorAfter[0]</t>
-  </si>
-  <si>
-    <t>accumulatorBeforeSession[0]</t>
-  </si>
-  <si>
-    <t>accountFlags[0]</t>
-  </si>
-  <si>
-    <t>accountBalance[0]</t>
-  </si>
-  <si>
-    <t>creditClearancePeriod[0]</t>
-  </si>
-  <si>
-    <t>RefillDedicatedAccountV2[0]</t>
-  </si>
-  <si>
-    <t>dedicatedAccountID[0]</t>
-  </si>
-  <si>
-    <t>dedicatedAccountUnit[0]</t>
-  </si>
-  <si>
-    <t>permanentServiceClass[0]</t>
-  </si>
-  <si>
-    <t>serviceFeeExpiryDate[0]</t>
-  </si>
-  <si>
-    <t>supervisionExpiryDate[0]</t>
-  </si>
-  <si>
-    <t>offerIdentifier[0]</t>
-  </si>
-  <si>
-    <t>supervisionExpiryDate[1]</t>
-  </si>
-  <si>
-    <t>accountInformationAfterRefill[0]</t>
-  </si>
-  <si>
-    <t>accountFlags[1]</t>
-  </si>
-  <si>
-    <t>dedicatedAccountID[2]</t>
-  </si>
-  <si>
-    <t>accountBalance[2]</t>
-  </si>
-  <si>
-    <t>clearedAccountValue</t>
-  </si>
-  <si>
-    <t>dedicatedAccountUnit[2]</t>
-  </si>
-  <si>
-    <t>externalData1</t>
+    <t>IDD Rate Cutters</t>
+  </si>
+  <si>
+    <t>*135*10#</t>
+  </si>
+  <si>
+    <t>SpecialSocial25GBDataBundle</t>
+  </si>
+  <si>
+    <t>Nepal Offer</t>
+  </si>
+  <si>
+    <t>*135*97#</t>
+  </si>
+  <si>
+    <t>HappinessSIM</t>
+  </si>
+  <si>
+    <t>Data24hBundle</t>
+  </si>
+  <si>
+    <t>*135*3733#</t>
+  </si>
+  <si>
+    <t>DailyRoamDataPack</t>
+  </si>
+  <si>
+    <t>*135*111#</t>
+  </si>
+  <si>
+    <t>WeeklyRoamDataPack</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDaily</t>
+  </si>
+  <si>
+    <t>*135*20#</t>
+  </si>
+  <si>
+    <t>RoamBndlASubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMonthly</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMPlus</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubDaily</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubWeekly</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubMonthly</t>
+  </si>
+  <si>
+    <t>RoamGCCDAct</t>
+  </si>
+  <si>
+    <t>RoamGCCDNRAct</t>
+  </si>
+  <si>
+    <t>RoamGCCWAct</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDRec</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDO</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSW</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSM</t>
+  </si>
+  <si>
+    <t>IntCommunity</t>
+  </si>
+  <si>
+    <t>*135*71#</t>
+  </si>
+  <si>
+    <t>SeamlessCallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*135*20# </t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>Post Call Notification</t>
+  </si>
+  <si>
+    <t>*135*50#</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>BronzeMPromo</t>
+  </si>
+  <si>
+    <t>*135*250#</t>
+  </si>
+  <si>
+    <t>Roaming Hajj Bundles</t>
+  </si>
+  <si>
+    <t>Data Bundles-Roaming Data Bundles</t>
+  </si>
+  <si>
+    <t>NonstopDailyDBundle3AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*135# </t>
+  </si>
+  <si>
+    <t>5,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>NonstopMonthlyDBundle50AED</t>
+  </si>
+  <si>
+    <t>5,2,1,1,2,1</t>
+  </si>
+  <si>
+    <t>HotSpotActive</t>
+  </si>
+  <si>
+    <t>*135*85#</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDailyRec</t>
+  </si>
+  <si>
+    <t>Local_PPU</t>
+  </si>
+  <si>
+    <t>*135*11#</t>
+  </si>
+  <si>
+    <t>Roaming_PPU_A_B_GCC</t>
+  </si>
+  <si>
+    <t>Data_Credit_Protection</t>
+  </si>
+  <si>
+    <t>7,1,3</t>
+  </si>
+  <si>
+    <t>7,1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*135*20#</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>TC_142</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1441,20 +1329,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Ericsson Hilda"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF990000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1611,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1669,10 +1543,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,779 +1853,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>$U$6:$U$12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55">
-      <c r="A1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M1" t="s">
-        <v>344</v>
-      </c>
-      <c r="N1" t="s">
-        <v>345</v>
-      </c>
-      <c r="O1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>348</v>
-      </c>
-      <c r="R1" t="s">
-        <v>349</v>
-      </c>
-      <c r="S1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T1" t="s">
-        <v>351</v>
-      </c>
-      <c r="U1" t="s">
-        <v>352</v>
-      </c>
-      <c r="V1" t="s">
-        <v>353</v>
-      </c>
-      <c r="W1" t="s">
-        <v>354</v>
-      </c>
-      <c r="X1" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>356</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>385</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="P4" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>426</v>
-      </c>
-      <c r="R4" t="s">
-        <v>406</v>
-      </c>
-      <c r="S4" t="s">
-        <v>431</v>
-      </c>
-      <c r="T4" t="s">
-        <v>432</v>
-      </c>
-      <c r="U4" t="s">
-        <v>433</v>
-      </c>
-      <c r="V4" t="s">
-        <v>427</v>
-      </c>
-      <c r="W4" t="s">
-        <v>407</v>
-      </c>
-      <c r="X4" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF4" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="AG4" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AI4" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ4" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>437</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>439</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="S5" t="s">
-        <v>451</v>
-      </c>
-      <c r="T5" t="s">
-        <v>452</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"CCN_Voice,AIR,SDP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"CCN,AIR,SDP"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,12 +1914,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2828,7 +1930,7 @@
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5502,57 +4604,1000 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="B105" s="6"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" s="6"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" s="6"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" s="6"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" s="6"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="10"/>
+    <row r="105" spans="1:8" ht="15" thickBot="1">
+      <c r="A105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H105" s="22">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1">
+      <c r="A106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H106" s="22">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1">
+      <c r="A107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="G107" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1">
+      <c r="A108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="G108" s="28">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" thickBot="1">
+      <c r="A109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G109" s="28"/>
+      <c r="H109" s="22">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" thickBot="1">
+      <c r="A110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G110" s="28"/>
+      <c r="H110" s="22">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1">
+      <c r="A111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="G111" s="28"/>
+      <c r="H111" s="22">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1">
+      <c r="A112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H112" s="22">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickBot="1">
+      <c r="A113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" s="22">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" thickBot="1">
+      <c r="A114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H114" s="22">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" thickBot="1">
+      <c r="A115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H115" s="22">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickBot="1">
+      <c r="A116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H116" s="22">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1">
+      <c r="A117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117" s="22">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1">
+      <c r="A118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H118" s="22">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1">
+      <c r="A119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1">
+      <c r="A120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" thickBot="1">
+      <c r="A121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" thickBot="1">
+      <c r="A122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" thickBot="1">
+      <c r="A123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1">
+      <c r="A124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1">
+      <c r="A125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" thickBot="1">
+      <c r="A126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" thickBot="1">
+      <c r="A127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1">
+      <c r="A128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1">
+      <c r="A129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G129" s="22">
+        <v>1</v>
+      </c>
+      <c r="H129" s="22">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" thickBot="1">
+      <c r="A130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G130" s="22">
+        <v>2</v>
+      </c>
+      <c r="H130" s="22">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1">
+      <c r="A131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="H131" s="22">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" thickBot="1">
+      <c r="A132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="G132" s="22">
+        <v>1</v>
+      </c>
+      <c r="H132" s="22">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29.5" thickBot="1">
+      <c r="A133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G133" s="22">
+        <v>3</v>
+      </c>
+      <c r="H133" s="22">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" thickBot="1">
+      <c r="A134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H134" s="22">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" thickBot="1">
+      <c r="A135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" thickBot="1">
+      <c r="A136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="H136" s="22">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" thickBot="1">
+      <c r="A137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="H137" s="22">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" thickBot="1">
+      <c r="A138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G138" s="22">
+        <v>1</v>
+      </c>
+      <c r="H138" s="22">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" thickBot="1">
+      <c r="A139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" s="22">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" thickBot="1">
+      <c r="A140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H140" s="22">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" thickBot="1">
+      <c r="A141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H141" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" thickBot="1">
+      <c r="A142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="H142" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1">
+      <c r="A143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H143" s="22">
+        <v>944</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5590,7 +5635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5665,7 +5710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L12"/>
   <sheetViews>
@@ -5762,7 +5807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5816,7 +5861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenario" sheetId="3" r:id="rId1"/>
-    <sheet name="ussd_code_data" sheetId="1" r:id="rId2"/>
-    <sheet name="Voice Data" sheetId="5" r:id="rId3"/>
-    <sheet name="recharge_data" sheetId="2" r:id="rId4"/>
-    <sheet name="Test Cases" sheetId="4" r:id="rId5"/>
-    <sheet name="balance_enquires" sheetId="6" r:id="rId6"/>
-    <sheet name="p2p_transfer" sheetId="7" r:id="rId7"/>
+    <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
+    <sheet name="cdr_parameters" sheetId="11" r:id="rId2"/>
+    <sheet name="Test Scenario" sheetId="3" r:id="rId3"/>
+    <sheet name="ussd_code_data" sheetId="1" r:id="rId4"/>
+    <sheet name="Voice Data" sheetId="5" r:id="rId5"/>
+    <sheet name="recharge_data" sheetId="2" r:id="rId6"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId7"/>
+    <sheet name="balance_enquires" sheetId="6" r:id="rId8"/>
+    <sheet name="p2p_transfer" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="460">
   <si>
     <t>Execution</t>
   </si>
@@ -1012,288 +1014,401 @@
     <t>2,2</t>
   </si>
   <si>
-    <t>IDD Rate Cutters</t>
-  </si>
-  <si>
-    <t>*135*10#</t>
-  </si>
-  <si>
-    <t>SpecialSocial25GBDataBundle</t>
-  </si>
-  <si>
-    <t>Nepal Offer</t>
-  </si>
-  <si>
-    <t>*135*97#</t>
-  </si>
-  <si>
-    <t>HappinessSIM</t>
-  </si>
-  <si>
-    <t>Data24hBundle</t>
-  </si>
-  <si>
-    <t>*135*3733#</t>
-  </si>
-  <si>
-    <t>DailyRoamDataPack</t>
-  </si>
-  <si>
-    <t>*135*111#</t>
-  </si>
-  <si>
-    <t>WeeklyRoamDataPack</t>
-  </si>
-  <si>
-    <t>RoamBndlASubDaily</t>
-  </si>
-  <si>
-    <t>*135*20#</t>
-  </si>
-  <si>
-    <t>RoamBndlASubWeekly</t>
-  </si>
-  <si>
-    <t>RoamBndlASubMonthly</t>
-  </si>
-  <si>
-    <t>RoamBndlASubMPlus</t>
-  </si>
-  <si>
-    <t>RoamBndlBSubDaily</t>
-  </si>
-  <si>
-    <t>RoamBndlBSubWeekly</t>
-  </si>
-  <si>
-    <t>RoamBndlBSubMonthly</t>
-  </si>
-  <si>
-    <t>RoamGCCDAct</t>
-  </si>
-  <si>
-    <t>RoamGCCDNRAct</t>
-  </si>
-  <si>
-    <t>RoamGCCWAct</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSDRec</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSDO</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSW</t>
-  </si>
-  <si>
-    <t>RoamBndlASubSM</t>
-  </si>
-  <si>
-    <t>IntCommunity</t>
-  </si>
-  <si>
-    <t>*135*71#</t>
-  </si>
-  <si>
-    <t>SeamlessCallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*135*20# </t>
-  </si>
-  <si>
-    <t>Campaign Management</t>
-  </si>
-  <si>
-    <t>Post Call Notification</t>
-  </si>
-  <si>
-    <t>*135*50#</t>
-  </si>
-  <si>
-    <t>PPU</t>
-  </si>
-  <si>
-    <t>BronzeMPromo</t>
-  </si>
-  <si>
-    <t>*135*250#</t>
-  </si>
-  <si>
-    <t>Roaming Hajj Bundles</t>
-  </si>
-  <si>
-    <t>Data Bundles-Roaming Data Bundles</t>
-  </si>
-  <si>
-    <t>NonstopDailyDBundle3AED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*135# </t>
-  </si>
-  <si>
-    <t>5,2,1,1,1,1</t>
-  </si>
-  <si>
-    <t>NonstopMonthlyDBundle50AED</t>
-  </si>
-  <si>
-    <t>5,2,1,1,2,1</t>
-  </si>
-  <si>
-    <t>HotSpotActive</t>
-  </si>
-  <si>
-    <t>*135*85#</t>
-  </si>
-  <si>
-    <t>RoamBndlASubDailyRec</t>
-  </si>
-  <si>
-    <t>Local_PPU</t>
-  </si>
-  <si>
-    <t>*135*11#</t>
-  </si>
-  <si>
-    <t>Roaming_PPU_A_B_GCC</t>
-  </si>
-  <si>
-    <t>Data_Credit_Protection</t>
-  </si>
-  <si>
-    <t>7,1,3</t>
-  </si>
-  <si>
-    <t>7,1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-*135*20#</t>
-  </si>
-  <si>
-    <t>TC_104</t>
-  </si>
-  <si>
-    <t>TC_105</t>
-  </si>
-  <si>
-    <t>TC_106</t>
-  </si>
-  <si>
-    <t>TC_107</t>
-  </si>
-  <si>
-    <t>TC_108</t>
-  </si>
-  <si>
-    <t>TC_109</t>
-  </si>
-  <si>
-    <t>TC_110</t>
-  </si>
-  <si>
-    <t>TC_111</t>
-  </si>
-  <si>
-    <t>TC_112</t>
-  </si>
-  <si>
-    <t>TC_113</t>
-  </si>
-  <si>
-    <t>TC_114</t>
-  </si>
-  <si>
-    <t>TC_115</t>
-  </si>
-  <si>
-    <t>TC_116</t>
-  </si>
-  <si>
-    <t>TC_117</t>
-  </si>
-  <si>
-    <t>TC_118</t>
-  </si>
-  <si>
-    <t>TC_119</t>
-  </si>
-  <si>
-    <t>TC_120</t>
-  </si>
-  <si>
-    <t>TC_121</t>
-  </si>
-  <si>
-    <t>TC_122</t>
-  </si>
-  <si>
-    <t>TC_123</t>
-  </si>
-  <si>
-    <t>TC_124</t>
-  </si>
-  <si>
-    <t>TC_125</t>
-  </si>
-  <si>
-    <t>TC_126</t>
-  </si>
-  <si>
-    <t>TC_127</t>
-  </si>
-  <si>
-    <t>TC_128</t>
-  </si>
-  <si>
-    <t>TC_129</t>
-  </si>
-  <si>
-    <t>TC_130</t>
-  </si>
-  <si>
-    <t>TC_131</t>
-  </si>
-  <si>
-    <t>TC_132</t>
-  </si>
-  <si>
-    <t>TC_133</t>
-  </si>
-  <si>
-    <t>TC_134</t>
-  </si>
-  <si>
-    <t>TC_135</t>
-  </si>
-  <si>
-    <t>TC_136</t>
-  </si>
-  <si>
-    <t>TC_137</t>
-  </si>
-  <si>
-    <t>TC_138</t>
-  </si>
-  <si>
-    <t>TC_139</t>
-  </si>
-  <si>
-    <t>TC_140</t>
-  </si>
-  <si>
-    <t>TC_141</t>
-  </si>
-  <si>
-    <t>TC_142</t>
+    <t>Node_To_Validate</t>
+  </si>
+  <si>
+    <t>S no</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Parameter2</t>
+  </si>
+  <si>
+    <t>Parameter3</t>
+  </si>
+  <si>
+    <t>Parameter4</t>
+  </si>
+  <si>
+    <t>Parameter5</t>
+  </si>
+  <si>
+    <t>Parameter6</t>
+  </si>
+  <si>
+    <t>Parameter7</t>
+  </si>
+  <si>
+    <t>Parameter8</t>
+  </si>
+  <si>
+    <t>Parameter9</t>
+  </si>
+  <si>
+    <t>Parameter10</t>
+  </si>
+  <si>
+    <t>Parameter11</t>
+  </si>
+  <si>
+    <t>Parameter12</t>
+  </si>
+  <si>
+    <t>Parameter13</t>
+  </si>
+  <si>
+    <t>Parameter14</t>
+  </si>
+  <si>
+    <t>Parameter15</t>
+  </si>
+  <si>
+    <t>Parameter16</t>
+  </si>
+  <si>
+    <t>Parameter17</t>
+  </si>
+  <si>
+    <t>Parameter18</t>
+  </si>
+  <si>
+    <t>Parameter19</t>
+  </si>
+  <si>
+    <t>Parameter20</t>
+  </si>
+  <si>
+    <t>Parameter21</t>
+  </si>
+  <si>
+    <t>Parameter22</t>
+  </si>
+  <si>
+    <t>Parameter23</t>
+  </si>
+  <si>
+    <t>Parameter24</t>
+  </si>
+  <si>
+    <t>Parameter25</t>
+  </si>
+  <si>
+    <t>Parameter26</t>
+  </si>
+  <si>
+    <t>Parameter27</t>
+  </si>
+  <si>
+    <t>Parameter28</t>
+  </si>
+  <si>
+    <t>Parameter29</t>
+  </si>
+  <si>
+    <t>Parameter30</t>
+  </si>
+  <si>
+    <t>Parameter31</t>
+  </si>
+  <si>
+    <t>Parameter32</t>
+  </si>
+  <si>
+    <t>Parameter33</t>
+  </si>
+  <si>
+    <t>Parameter34</t>
+  </si>
+  <si>
+    <t>Parameter35</t>
+  </si>
+  <si>
+    <t>Parameter36</t>
+  </si>
+  <si>
+    <t>Parameter37</t>
+  </si>
+  <si>
+    <t>Parameter38</t>
+  </si>
+  <si>
+    <t>Parameter39</t>
+  </si>
+  <si>
+    <t>Parameter40</t>
+  </si>
+  <si>
+    <t>Parameter41</t>
+  </si>
+  <si>
+    <t>Parameter42</t>
+  </si>
+  <si>
+    <t>Parameter43</t>
+  </si>
+  <si>
+    <t>Parameter44</t>
+  </si>
+  <si>
+    <t>Parameter45</t>
+  </si>
+  <si>
+    <t>Parameter46</t>
+  </si>
+  <si>
+    <t>Parameter47</t>
+  </si>
+  <si>
+    <t>Parameter48</t>
+  </si>
+  <si>
+    <t>Parameter49</t>
+  </si>
+  <si>
+    <t>Parameter50</t>
+  </si>
+  <si>
+    <t>Parameter51</t>
+  </si>
+  <si>
+    <t>Parameter52</t>
+  </si>
+  <si>
+    <t>CCN</t>
+  </si>
+  <si>
+    <t>subscriptionIDValue</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>subscriptionIDValue[1]</t>
+  </si>
+  <si>
+    <t>triggerTime[1]</t>
+  </si>
+  <si>
+    <t>subscriptionIDType[1]</t>
+  </si>
+  <si>
+    <t>amount[1]</t>
+  </si>
+  <si>
+    <t>decimals[1]</t>
+  </si>
+  <si>
+    <t>currency[1]</t>
+  </si>
+  <si>
+    <t>amount[2]</t>
+  </si>
+  <si>
+    <t>decimals[2]</t>
+  </si>
+  <si>
+    <t>currency[2]</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>originTimeStamp</t>
+  </si>
+  <si>
+    <t>subscriberNumber</t>
+  </si>
+  <si>
+    <t>accountInformationBeforeRefill</t>
+  </si>
+  <si>
+    <t>externalData2</t>
+  </si>
+  <si>
+    <t>Execution Control</t>
+  </si>
+  <si>
+    <t>Refrence_ID</t>
+  </si>
+  <si>
+    <t>ccRequestNumber</t>
+  </si>
+  <si>
+    <t>eventTime[0]</t>
+  </si>
+  <si>
+    <t>triggerTime[0]</t>
+  </si>
+  <si>
+    <t>serviceScenario[0]</t>
+  </si>
+  <si>
+    <t>accountValueBefore[0]</t>
+  </si>
+  <si>
+    <t>accountValueAfter[0]</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>resultCode[0]</t>
+  </si>
+  <si>
+    <t>resultCodeExtension[0]</t>
+  </si>
+  <si>
+    <t>nodeName[0]</t>
+  </si>
+  <si>
+    <t>serviceContextID[0]</t>
+  </si>
+  <si>
+    <t>chargingContextID[0]</t>
+  </si>
+  <si>
+    <t>serviceSessionID[0]</t>
+  </si>
+  <si>
+    <t>recordIdentificationNumber[0]</t>
+  </si>
+  <si>
+    <t>subscriptionIDType[0]</t>
+  </si>
+  <si>
+    <t>subscriptionIDValue[0]</t>
+  </si>
+  <si>
+    <t>callReference[0]</t>
+  </si>
+  <si>
+    <t>mSCAddress[0]</t>
+  </si>
+  <si>
+    <t>nonServedSubscriptionID[0]</t>
+  </si>
+  <si>
+    <t>roamingPosition[0]</t>
+  </si>
+  <si>
+    <t>lastPartialOutput[0]</t>
+  </si>
+  <si>
+    <t>tariffChangeUsage[0]</t>
+  </si>
+  <si>
+    <t>timeUnit[0]</t>
+  </si>
+  <si>
+    <t>partialSequenceNumber[0]</t>
+  </si>
+  <si>
+    <t>sessionId[0]</t>
+  </si>
+  <si>
+    <t>originRealm[0]</t>
+  </si>
+  <si>
+    <t>originHost[0]</t>
+  </si>
+  <si>
+    <t>serviceIdentifier[0]</t>
+  </si>
+  <si>
+    <t>servedAccount[0]</t>
+  </si>
+  <si>
+    <t>serviceClassID[0]</t>
+  </si>
+  <si>
+    <t>accountGroupID[0]</t>
+  </si>
+  <si>
+    <t>accumulatorID[0]</t>
+  </si>
+  <si>
+    <t>accumulatorChange[0]</t>
+  </si>
+  <si>
+    <t>accumulatorAfter[0]</t>
+  </si>
+  <si>
+    <t>accumulatorBeforeSession[0]</t>
+  </si>
+  <si>
+    <t>accountFlags[0]</t>
+  </si>
+  <si>
+    <t>accountBalance[0]</t>
+  </si>
+  <si>
+    <t>creditClearancePeriod[0]</t>
+  </si>
+  <si>
+    <t>RefillDedicatedAccountV2[0]</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID[0]</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnit[0]</t>
+  </si>
+  <si>
+    <t>permanentServiceClass[0]</t>
+  </si>
+  <si>
+    <t>serviceFeeExpiryDate[0]</t>
+  </si>
+  <si>
+    <t>supervisionExpiryDate[0]</t>
+  </si>
+  <si>
+    <t>offerIdentifier[0]</t>
+  </si>
+  <si>
+    <t>supervisionExpiryDate[1]</t>
+  </si>
+  <si>
+    <t>accountInformationAfterRefill[0]</t>
+  </si>
+  <si>
+    <t>accountFlags[1]</t>
+  </si>
+  <si>
+    <t>dedicatedAccountID[2]</t>
+  </si>
+  <si>
+    <t>accountBalance[2]</t>
+  </si>
+  <si>
+    <t>clearedAccountValue</t>
+  </si>
+  <si>
+    <t>dedicatedAccountUnit[2]</t>
+  </si>
+  <si>
+    <t>externalData1</t>
+  </si>
+  <si>
+    <t>CISOLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,6 +1444,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Ericsson Hilda"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1485,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1543,11 +1672,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1853,6 +1981,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>$U$6:$U$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V1" t="s">
+        <v>353</v>
+      </c>
+      <c r="W1" t="s">
+        <v>354</v>
+      </c>
+      <c r="X1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="P4" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" t="s">
+        <v>406</v>
+      </c>
+      <c r="S4" t="s">
+        <v>431</v>
+      </c>
+      <c r="T4" t="s">
+        <v>432</v>
+      </c>
+      <c r="U4" t="s">
+        <v>433</v>
+      </c>
+      <c r="V4" t="s">
+        <v>427</v>
+      </c>
+      <c r="W4" t="s">
+        <v>407</v>
+      </c>
+      <c r="X4" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG4" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI4" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK4" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="S5" t="s">
+        <v>451</v>
+      </c>
+      <c r="T5" t="s">
+        <v>452</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"CCN_Voice,AIR,SDP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"CCN,AIR,SDP"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1914,12 +2826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1930,7 +2842,7 @@
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4604,1000 +5516,57 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" thickBot="1">
-      <c r="A105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H105" s="22">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1">
-      <c r="A106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H106" s="22">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1">
-      <c r="A107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="G107" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1">
-      <c r="A108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="G108" s="28">
-        <v>1</v>
-      </c>
-      <c r="H108" s="22">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15" thickBot="1">
-      <c r="A109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="G109" s="28"/>
-      <c r="H109" s="22">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1">
-      <c r="A110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="G110" s="28"/>
-      <c r="H110" s="22">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1">
-      <c r="A111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="G111" s="28"/>
-      <c r="H111" s="22">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15" thickBot="1">
-      <c r="A112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G112" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H112" s="22">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15" thickBot="1">
-      <c r="A113" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G113" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H113" s="22">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15" thickBot="1">
-      <c r="A114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G114" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H114" s="22">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1">
-      <c r="A115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H115" s="22">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1">
-      <c r="A116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H116" s="22">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15" thickBot="1">
-      <c r="A117" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H117" s="22">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15" thickBot="1">
-      <c r="A118" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H118" s="22">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" thickBot="1">
-      <c r="A119" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1">
-      <c r="A120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" thickBot="1">
-      <c r="A121" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" thickBot="1">
-      <c r="A122" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" thickBot="1">
-      <c r="A123" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" thickBot="1">
-      <c r="A124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" thickBot="1">
-      <c r="A125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" thickBot="1">
-      <c r="A126" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1">
-      <c r="A127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" thickBot="1">
-      <c r="A128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15" thickBot="1">
-      <c r="A129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G129" s="22">
-        <v>1</v>
-      </c>
-      <c r="H129" s="22">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15" thickBot="1">
-      <c r="A130" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G130" s="22">
-        <v>2</v>
-      </c>
-      <c r="H130" s="22">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15" thickBot="1">
-      <c r="A131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F131" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="H131" s="22">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15" thickBot="1">
-      <c r="A132" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C132" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="G132" s="22">
-        <v>1</v>
-      </c>
-      <c r="H132" s="22">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="29.5" thickBot="1">
-      <c r="A133" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G133" s="22">
-        <v>3</v>
-      </c>
-      <c r="H133" s="22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15" thickBot="1">
-      <c r="A134" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F134" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="H134" s="22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15" thickBot="1">
-      <c r="A135" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15" thickBot="1">
-      <c r="A136" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="H136" s="22">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15" thickBot="1">
-      <c r="A137" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H137" s="22">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15" thickBot="1">
-      <c r="A138" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="G138" s="22">
-        <v>1</v>
-      </c>
-      <c r="H138" s="22">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15" thickBot="1">
-      <c r="A139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G139" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H139" s="22">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15" thickBot="1">
-      <c r="A140" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H140" s="22">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15" thickBot="1">
-      <c r="A141" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H141" s="22">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15" thickBot="1">
-      <c r="A142" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="H142" s="22">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1">
-      <c r="A143" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H143" s="22">
-        <v>944</v>
-      </c>
+    <row r="105" spans="1:8">
+      <c r="B105" s="6"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" s="6"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="6"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" s="6"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="6"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5635,7 +5604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5710,7 +5679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L12"/>
   <sheetViews>
@@ -5807,7 +5776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5861,7 +5830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -223,25 +223,16 @@
     <t>Daily 60 MB for AED 2</t>
   </si>
   <si>
-    <t>5,2,1,1,1</t>
-  </si>
-  <si>
     <t>TC_020</t>
   </si>
   <si>
     <t>Daily 150 MB for AED 4</t>
   </si>
   <si>
-    <t>5,2,2,1</t>
-  </si>
-  <si>
     <t>TC_021</t>
   </si>
   <si>
     <t>Daily 100 MB for AED 3</t>
-  </si>
-  <si>
-    <t>5,2,3,1</t>
   </si>
   <si>
     <t>TC_022</t>
@@ -1287,13 +1278,22 @@
   </si>
   <si>
     <t>TC_142</t>
+  </si>
+  <si>
+    <t>5,3,1,1,1</t>
+  </si>
+  <si>
+    <t>5,3,1,2,1</t>
+  </si>
+  <si>
+    <t>5,3,1,3,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,8 +1330,15 @@
       <color theme="1"/>
       <name val="Ericsson Hilda"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,6 +1355,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1485,7 +1498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1548,6 +1561,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,47 +1883,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -1918,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2427,8 +2444,8 @@
       <c r="F20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>67</v>
+      <c r="G20" s="29" t="s">
+        <v>419</v>
       </c>
       <c r="H20" s="8">
         <v>997</v>
@@ -2439,10 +2456,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>11</v>
@@ -2453,8 +2470,8 @@
       <c r="F21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>70</v>
+      <c r="G21" s="29" t="s">
+        <v>420</v>
       </c>
       <c r="H21" s="8">
         <v>1000</v>
@@ -2465,10 +2482,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>11</v>
@@ -2479,8 +2496,8 @@
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>73</v>
+      <c r="G22" s="30" t="s">
+        <v>421</v>
       </c>
       <c r="H22" s="8">
         <v>1001</v>
@@ -2491,22 +2508,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="8">
         <v>1150</v>
@@ -2517,10 +2534,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>11</v>
@@ -2529,10 +2546,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H24" s="8">
         <v>1152</v>
@@ -2543,10 +2560,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>11</v>
@@ -2555,10 +2572,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H25" s="8">
         <v>1153</v>
@@ -2569,10 +2586,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>11</v>
@@ -2581,10 +2598,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H26" s="8">
         <v>1154</v>
@@ -2595,10 +2612,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>11</v>
@@ -2607,10 +2624,10 @@
         <v>12</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H27" s="8">
         <v>1155</v>
@@ -2621,10 +2638,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>11</v>
@@ -2633,10 +2650,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H28" s="8">
         <v>1156</v>
@@ -2647,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>11</v>
@@ -2659,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H29" s="8">
         <v>1158</v>
@@ -2673,22 +2690,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="H30" s="8">
         <v>1619</v>
@@ -2699,10 +2716,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>11</v>
@@ -2711,10 +2728,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H31" s="8">
         <v>1539</v>
@@ -2725,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
@@ -2737,10 +2754,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H32" s="8">
         <v>1613</v>
@@ -2751,10 +2768,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>11</v>
@@ -2763,10 +2780,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H33" s="8">
         <v>1580</v>
@@ -2777,10 +2794,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
@@ -2789,10 +2806,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H34" s="8">
         <v>1581</v>
@@ -2803,10 +2820,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>11</v>
@@ -2815,10 +2832,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H35" s="8">
         <v>1568</v>
@@ -2829,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>11</v>
@@ -2841,10 +2858,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H36" s="8">
         <v>1569</v>
@@ -2855,10 +2872,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>11</v>
@@ -2867,10 +2884,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" s="8">
         <v>1570</v>
@@ -2881,10 +2898,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>11</v>
@@ -2893,10 +2910,10 @@
         <v>12</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H38" s="8">
         <v>1555</v>
@@ -2907,10 +2924,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>11</v>
@@ -2919,10 +2936,10 @@
         <v>12</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H39" s="8">
         <v>1565</v>
@@ -2933,10 +2950,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>11</v>
@@ -2945,10 +2962,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H40" s="8">
         <v>1563</v>
@@ -2959,10 +2976,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>11</v>
@@ -2971,10 +2988,10 @@
         <v>12</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H41" s="8">
         <v>1564</v>
@@ -2985,10 +3002,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>11</v>
@@ -2997,10 +3014,10 @@
         <v>12</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H42" s="8">
         <v>1597</v>
@@ -3011,10 +3028,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>11</v>
@@ -3023,10 +3040,10 @@
         <v>12</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H43" s="8">
         <v>1598</v>
@@ -3037,10 +3054,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>11</v>
@@ -3049,10 +3066,10 @@
         <v>12</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H44" s="8">
         <v>1537</v>
@@ -3063,10 +3080,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>11</v>
@@ -3075,10 +3092,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H45" s="8">
         <v>1545</v>
@@ -3089,10 +3106,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>11</v>
@@ -3101,10 +3118,10 @@
         <v>12</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H46" s="8">
         <v>1544</v>
@@ -3115,10 +3132,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>11</v>
@@ -3127,10 +3144,10 @@
         <v>12</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H47" s="8">
         <v>1543</v>
@@ -3141,10 +3158,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>11</v>
@@ -3153,10 +3170,10 @@
         <v>12</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H48" s="8">
         <v>1548</v>
@@ -3167,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>11</v>
@@ -3179,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H49" s="8">
         <v>1549</v>
@@ -3193,10 +3210,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>11</v>
@@ -3205,10 +3222,10 @@
         <v>12</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H50" s="8">
         <v>1567</v>
@@ -3219,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>11</v>
@@ -3231,10 +3248,10 @@
         <v>12</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H51" s="8">
         <v>1577</v>
@@ -3245,10 +3262,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>11</v>
@@ -3257,10 +3274,10 @@
         <v>12</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H52" s="8">
         <v>1578</v>
@@ -3271,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>11</v>
@@ -3283,10 +3300,10 @@
         <v>12</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H53" s="8">
         <v>1660</v>
@@ -3297,10 +3314,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>11</v>
@@ -3309,10 +3326,10 @@
         <v>12</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H54" s="8">
         <v>1661</v>
@@ -3323,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>11</v>
@@ -3335,10 +3352,10 @@
         <v>12</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H55" s="8">
         <v>1662</v>
@@ -3349,10 +3366,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>11</v>
@@ -3361,10 +3378,10 @@
         <v>12</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H56" s="8">
         <v>1663</v>
@@ -3375,10 +3392,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>11</v>
@@ -3387,10 +3404,10 @@
         <v>12</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H57" s="8">
         <v>1664</v>
@@ -3401,10 +3418,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>11</v>
@@ -3413,10 +3430,10 @@
         <v>12</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H58" s="8">
         <v>1665</v>
@@ -3427,10 +3444,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>11</v>
@@ -3439,10 +3456,10 @@
         <v>12</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H59" s="8">
         <v>1666</v>
@@ -3453,10 +3470,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>11</v>
@@ -3465,7 +3482,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="8">
@@ -3477,10 +3494,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>11</v>
@@ -3489,7 +3506,7 @@
         <v>12</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="8">
@@ -3501,10 +3518,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>11</v>
@@ -3513,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="8">
@@ -3525,10 +3542,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>11</v>
@@ -3537,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
@@ -3551,10 +3568,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>11</v>
@@ -3563,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G64" s="17">
         <v>2</v>
@@ -3577,10 +3594,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>11</v>
@@ -3589,10 +3606,10 @@
         <v>12</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H65" s="8">
         <v>966</v>
@@ -3603,10 +3620,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>11</v>
@@ -3618,7 +3635,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H66" s="8">
         <v>1145</v>
@@ -3629,10 +3646,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>11</v>
@@ -3644,7 +3661,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H67" s="8">
         <v>1147</v>
@@ -3655,10 +3672,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>11</v>
@@ -3670,7 +3687,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H68" s="8">
         <v>1149</v>
@@ -3681,10 +3698,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>11</v>
@@ -3693,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
@@ -3707,10 +3724,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>11</v>
@@ -3719,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
@@ -3733,10 +3750,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>11</v>
@@ -3745,7 +3762,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="8">
@@ -3757,10 +3774,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>11</v>
@@ -3769,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="8">
@@ -3781,10 +3798,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>11</v>
@@ -3793,7 +3810,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="8">
@@ -3805,10 +3822,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>11</v>
@@ -3817,7 +3834,7 @@
         <v>12</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
@@ -3831,10 +3848,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>11</v>
@@ -3846,7 +3863,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H75" s="8">
         <v>1458</v>
@@ -3857,10 +3874,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>11</v>
@@ -3872,7 +3889,7 @@
         <v>13</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H76" s="8">
         <v>1459</v>
@@ -3883,10 +3900,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>11</v>
@@ -3898,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H77" s="8">
         <v>1460</v>
@@ -3909,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
@@ -3924,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H78" s="8">
         <v>1461</v>
@@ -3935,10 +3952,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>11</v>
@@ -3950,7 +3967,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H79" s="8">
         <v>1462</v>
@@ -3961,10 +3978,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>11</v>
@@ -3976,7 +3993,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H80" s="8">
         <v>1463</v>
@@ -3987,10 +4004,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>11</v>
@@ -4002,7 +4019,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H81" s="8">
         <v>1464</v>
@@ -4013,10 +4030,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>11</v>
@@ -4028,7 +4045,7 @@
         <v>13</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H82" s="8">
         <v>1465</v>
@@ -4039,10 +4056,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>11</v>
@@ -4054,7 +4071,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H83" s="8">
         <v>1467</v>
@@ -4065,10 +4082,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
@@ -4080,7 +4097,7 @@
         <v>13</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H84" s="8">
         <v>1468</v>
@@ -4091,10 +4108,10 @@
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>11</v>
@@ -4106,7 +4123,7 @@
         <v>13</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H85" s="8">
         <v>1469</v>
@@ -4117,10 +4134,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
@@ -4132,7 +4149,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H86" s="8">
         <v>1470</v>
@@ -4143,10 +4160,10 @@
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
@@ -4158,7 +4175,7 @@
         <v>13</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H87" s="8">
         <v>1471</v>
@@ -4169,10 +4186,10 @@
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>11</v>
@@ -4184,7 +4201,7 @@
         <v>13</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H88" s="8">
         <v>1472</v>
@@ -4195,10 +4212,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>11</v>
@@ -4210,7 +4227,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H89" s="8">
         <v>1269</v>
@@ -4221,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>11</v>
@@ -4233,10 +4250,10 @@
         <v>12</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H90" s="8">
         <v>1805</v>
@@ -4247,10 +4264,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>11</v>
@@ -4259,10 +4276,10 @@
         <v>12</v>
       </c>
       <c r="F91" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="H91" s="8">
         <v>1818</v>
@@ -4273,10 +4290,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>11</v>
@@ -4285,10 +4302,10 @@
         <v>12</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H92" s="8">
         <v>1819</v>
@@ -4299,10 +4316,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>11</v>
@@ -4311,10 +4328,10 @@
         <v>12</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H93" s="8">
         <v>1802</v>
@@ -4325,10 +4342,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>11</v>
@@ -4337,10 +4354,10 @@
         <v>12</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H94" s="8">
         <v>1803</v>
@@ -4351,10 +4368,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>11</v>
@@ -4363,10 +4380,10 @@
         <v>12</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H95" s="8">
         <v>1803</v>
@@ -4377,10 +4394,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>11</v>
@@ -4389,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="8">
@@ -4401,10 +4418,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>11</v>
@@ -4413,7 +4430,7 @@
         <v>12</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G97" s="17">
         <v>1</v>
@@ -4427,10 +4444,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>11</v>
@@ -4439,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G98" s="17">
         <v>1</v>
@@ -4453,10 +4470,10 @@
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>11</v>
@@ -4465,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G99" s="17">
         <v>1</v>
@@ -4479,10 +4496,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>11</v>
@@ -4491,10 +4508,10 @@
         <v>12</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H100" s="8">
         <v>1616</v>
@@ -4505,10 +4522,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>11</v>
@@ -4517,10 +4534,10 @@
         <v>12</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H101" s="8">
         <v>1591</v>
@@ -4531,10 +4548,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>11</v>
@@ -4543,10 +4560,10 @@
         <v>12</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H102" s="8">
         <v>1528</v>
@@ -4557,10 +4574,10 @@
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>11</v>
@@ -4569,10 +4586,10 @@
         <v>12</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H103" s="8">
         <v>1533</v>
@@ -4583,10 +4600,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>11</v>
@@ -4595,10 +4612,10 @@
         <v>12</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H104" s="8">
         <v>1523</v>
@@ -4609,10 +4626,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>11</v>
@@ -4621,10 +4638,10 @@
         <v>12</v>
       </c>
       <c r="F105" s="27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H105" s="22">
         <v>828</v>
@@ -4635,10 +4652,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>11</v>
@@ -4647,10 +4664,10 @@
         <v>12</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H106" s="22">
         <v>1157</v>
@@ -4661,10 +4678,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>11</v>
@@ -4673,7 +4690,7 @@
         <v>12</v>
       </c>
       <c r="F107" s="27" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G107" s="28">
         <v>1</v>
@@ -4684,10 +4701,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>11</v>
@@ -4696,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G108" s="28">
         <v>1</v>
@@ -4710,10 +4727,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>11</v>
@@ -4722,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G109" s="28"/>
       <c r="H109" s="22">
@@ -4734,10 +4751,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>11</v>
@@ -4746,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G110" s="28"/>
       <c r="H110" s="22">
@@ -4758,10 +4775,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -4770,7 +4787,7 @@
         <v>12</v>
       </c>
       <c r="F111" s="27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G111" s="28"/>
       <c r="H111" s="22">
@@ -4782,10 +4799,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>11</v>
@@ -4794,10 +4811,10 @@
         <v>12</v>
       </c>
       <c r="F112" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H112" s="22">
         <v>1232</v>
@@ -4808,10 +4825,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>11</v>
@@ -4820,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="F113" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H113" s="22">
         <v>1233</v>
@@ -4834,10 +4851,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>11</v>
@@ -4846,10 +4863,10 @@
         <v>12</v>
       </c>
       <c r="F114" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H114" s="22">
         <v>1234</v>
@@ -4860,10 +4877,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>11</v>
@@ -4872,10 +4889,10 @@
         <v>12</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H115" s="22">
         <v>1235</v>
@@ -4886,10 +4903,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>11</v>
@@ -4898,10 +4915,10 @@
         <v>12</v>
       </c>
       <c r="F116" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H116" s="22">
         <v>1240</v>
@@ -4912,10 +4929,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>11</v>
@@ -4924,10 +4941,10 @@
         <v>12</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H117" s="22">
         <v>1242</v>
@@ -4938,10 +4955,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>11</v>
@@ -4950,10 +4967,10 @@
         <v>12</v>
       </c>
       <c r="F118" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H118" s="22">
         <v>1243</v>
@@ -4964,10 +4981,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -4976,7 +4993,7 @@
         <v>12</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G119" s="22"/>
       <c r="H119" s="22">
@@ -4988,10 +5005,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>11</v>
@@ -5000,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G120" s="22"/>
       <c r="H120" s="22">
@@ -5012,10 +5029,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>11</v>
@@ -5024,7 +5041,7 @@
         <v>12</v>
       </c>
       <c r="F121" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G121" s="22"/>
       <c r="H121" s="22">
@@ -5036,10 +5053,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>11</v>
@@ -5048,7 +5065,7 @@
         <v>12</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G122" s="22"/>
       <c r="H122" s="22">
@@ -5060,10 +5077,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>11</v>
@@ -5072,7 +5089,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G123" s="22"/>
       <c r="H123" s="22">
@@ -5084,10 +5101,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>11</v>
@@ -5096,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G124" s="22"/>
       <c r="H124" s="22">
@@ -5108,10 +5125,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>11</v>
@@ -5120,7 +5137,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G125" s="22"/>
       <c r="H125" s="22">
@@ -5132,10 +5149,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>11</v>
@@ -5144,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="F126" s="27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G126" s="22"/>
       <c r="H126" s="22">
@@ -5156,10 +5173,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>11</v>
@@ -5168,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G127" s="22"/>
       <c r="H127" s="22">
@@ -5180,10 +5197,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>11</v>
@@ -5192,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G128" s="22"/>
       <c r="H128" s="22">
@@ -5204,10 +5221,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>11</v>
@@ -5216,7 +5233,7 @@
         <v>12</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G129" s="22">
         <v>1</v>
@@ -5230,10 +5247,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>11</v>
@@ -5242,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G130" s="22">
         <v>2</v>
@@ -5256,10 +5273,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
@@ -5271,7 +5288,7 @@
         <v>13</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H131" s="22">
         <v>832</v>
@@ -5282,10 +5299,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>11</v>
@@ -5294,7 +5311,7 @@
         <v>12</v>
       </c>
       <c r="F132" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G132" s="22">
         <v>1</v>
@@ -5308,10 +5325,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>11</v>
@@ -5320,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G133" s="22">
         <v>3</v>
@@ -5334,10 +5351,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>11</v>
@@ -5349,7 +5366,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H134" s="22">
         <v>1800</v>
@@ -5360,10 +5377,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>11</v>
@@ -5372,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="F135" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G135" s="22"/>
       <c r="H135" s="22">
@@ -5384,10 +5401,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>11</v>
@@ -5396,10 +5413,10 @@
         <v>12</v>
       </c>
       <c r="F136" s="27" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H136" s="22">
         <v>1146</v>
@@ -5410,10 +5427,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>11</v>
@@ -5425,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H137" s="22">
         <v>1148</v>
@@ -5436,10 +5453,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>11</v>
@@ -5448,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="F138" s="27" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G138" s="22">
         <v>1</v>
@@ -5462,10 +5479,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>11</v>
@@ -5474,10 +5491,10 @@
         <v>12</v>
       </c>
       <c r="F139" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H139" s="22">
         <v>1940</v>
@@ -5488,10 +5505,10 @@
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>11</v>
@@ -5500,10 +5517,10 @@
         <v>12</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H140" s="22">
         <v>790</v>
@@ -5514,10 +5531,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>11</v>
@@ -5526,10 +5543,10 @@
         <v>12</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H141" s="22">
         <v>957</v>
@@ -5540,10 +5557,10 @@
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>11</v>
@@ -5555,7 +5572,7 @@
         <v>13</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H142" s="22">
         <v>957</v>
@@ -5566,10 +5583,10 @@
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>11</v>
@@ -5578,10 +5595,10 @@
         <v>12</v>
       </c>
       <c r="F143" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H143" s="22">
         <v>944</v>
@@ -5589,6 +5606,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5607,27 +5625,27 @@
   <sheetData>
     <row r="6" spans="6:6">
       <c r="F6" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5728,77 +5746,77 @@
   <sheetData>
     <row r="4" spans="6:12">
       <c r="F4" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="6:12">
       <c r="F5" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="6:12">
       <c r="F6" s="26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="6:12">
       <c r="F7" s="26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="6:12">
       <c r="F8" s="26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" s="26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" s="26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" s="26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" s="26" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5844,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -5898,16 +5916,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -225,27 +225,18 @@
     <t>Daily 60 MB for AED 2</t>
   </si>
   <si>
-    <t>5,2,1,1,1</t>
-  </si>
-  <si>
     <t>TC_020</t>
   </si>
   <si>
     <t>Daily 150 MB for AED 4</t>
   </si>
   <si>
-    <t>5,2,2,1</t>
-  </si>
-  <si>
     <t>TC_021</t>
   </si>
   <si>
     <t>Daily 100 MB for AED 3</t>
   </si>
   <si>
-    <t>5,2,3,1</t>
-  </si>
-  <si>
     <t>TC_022</t>
   </si>
   <si>
@@ -1402,6 +1393,15 @@
   </si>
   <si>
     <t>CISOLD</t>
+  </si>
+  <si>
+    <t>5,3,1,1,1</t>
+  </si>
+  <si>
+    <t>5,3,1,2,1</t>
+  </si>
+  <si>
+    <t>5,3,1,3,1</t>
   </si>
 </sst>
 </file>
@@ -1983,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1996,13 +1996,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2035,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2098,10 +2098,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2109,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2120,10 +2120,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2131,10 +2131,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2142,10 +2142,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2153,10 +2153,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2164,10 +2164,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2175,10 +2175,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2186,10 +2186,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2197,10 +2197,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2208,10 +2208,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2219,10 +2219,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2269,169 +2269,169 @@
   <sheetData>
     <row r="1" spans="1:55">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
         <v>334</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>336</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>337</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>338</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>339</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>340</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>341</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>342</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>343</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>344</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>345</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>346</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>348</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>349</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>350</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>351</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>353</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>354</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>355</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>356</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>357</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>358</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>359</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>360</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>361</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>362</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>363</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>364</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>365</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>366</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>367</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>368</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>369</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>370</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>371</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>372</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>373</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>374</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>375</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>376</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>377</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>378</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>379</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>380</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>381</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>382</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>383</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>385</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -2442,70 +2442,70 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="P2" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="D2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="L2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q2" s="27" t="s">
+      <c r="T2" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="W2" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="T2" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="U2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>425</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -2516,7 +2516,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -2527,121 +2527,121 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="P4" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>423</v>
+      </c>
+      <c r="R4" t="s">
+        <v>403</v>
+      </c>
+      <c r="S4" t="s">
+        <v>428</v>
+      </c>
+      <c r="T4" t="s">
+        <v>429</v>
+      </c>
+      <c r="U4" t="s">
+        <v>430</v>
+      </c>
+      <c r="V4" t="s">
+        <v>424</v>
+      </c>
+      <c r="W4" t="s">
+        <v>404</v>
+      </c>
+      <c r="X4" t="s">
         <v>388</v>
       </c>
-      <c r="E4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="Y4" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG4" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH4" t="s">
         <v>408</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="P4" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>426</v>
-      </c>
-      <c r="R4" t="s">
-        <v>406</v>
-      </c>
-      <c r="S4" t="s">
-        <v>431</v>
-      </c>
-      <c r="T4" t="s">
-        <v>432</v>
-      </c>
-      <c r="U4" t="s">
-        <v>433</v>
-      </c>
-      <c r="V4" t="s">
-        <v>427</v>
-      </c>
-      <c r="W4" t="s">
-        <v>407</v>
-      </c>
-      <c r="X4" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AI4" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK4" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL4" t="s">
         <v>434</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AM4" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AN4" t="s">
         <v>436</v>
       </c>
-      <c r="AD4" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF4" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="AG4" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AI4" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ4" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>437</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>439</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -2652,79 +2652,79 @@
         <v>20</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="S5" t="s">
+        <v>448</v>
+      </c>
+      <c r="T5" t="s">
+        <v>449</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA5" t="s">
         <v>400</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="S5" t="s">
-        <v>451</v>
-      </c>
-      <c r="T5" t="s">
-        <v>452</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -2735,7 +2735,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -2746,7 +2746,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -2778,47 +2778,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2830,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3340,7 +3340,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="H20" s="8">
         <v>997</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>11</v>
@@ -3366,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="H21" s="8">
         <v>1000</v>
@@ -3377,10 +3377,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>11</v>
@@ -3392,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="H22" s="8">
         <v>1001</v>
@@ -3403,22 +3403,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="8">
         <v>1150</v>
@@ -3429,10 +3429,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>11</v>
@@ -3441,10 +3441,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H24" s="8">
         <v>1152</v>
@@ -3455,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>11</v>
@@ -3467,10 +3467,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H25" s="8">
         <v>1153</v>
@@ -3481,10 +3481,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>11</v>
@@ -3493,10 +3493,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H26" s="8">
         <v>1154</v>
@@ -3507,10 +3507,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>11</v>
@@ -3519,10 +3519,10 @@
         <v>12</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H27" s="8">
         <v>1155</v>
@@ -3533,10 +3533,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>11</v>
@@ -3545,10 +3545,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H28" s="8">
         <v>1156</v>
@@ -3559,10 +3559,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>11</v>
@@ -3571,10 +3571,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H29" s="8">
         <v>1158</v>
@@ -3585,22 +3585,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="H30" s="8">
         <v>1619</v>
@@ -3611,10 +3611,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>11</v>
@@ -3623,10 +3623,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H31" s="8">
         <v>1539</v>
@@ -3637,10 +3637,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
@@ -3649,10 +3649,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H32" s="8">
         <v>1613</v>
@@ -3663,10 +3663,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>11</v>
@@ -3675,10 +3675,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H33" s="8">
         <v>1580</v>
@@ -3689,10 +3689,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
@@ -3701,10 +3701,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H34" s="8">
         <v>1581</v>
@@ -3715,10 +3715,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>11</v>
@@ -3727,10 +3727,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H35" s="8">
         <v>1568</v>
@@ -3741,10 +3741,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>11</v>
@@ -3753,10 +3753,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H36" s="8">
         <v>1569</v>
@@ -3767,10 +3767,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>11</v>
@@ -3779,10 +3779,10 @@
         <v>12</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" s="8">
         <v>1570</v>
@@ -3793,10 +3793,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>11</v>
@@ -3805,10 +3805,10 @@
         <v>12</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H38" s="8">
         <v>1555</v>
@@ -3819,10 +3819,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>11</v>
@@ -3831,10 +3831,10 @@
         <v>12</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H39" s="8">
         <v>1565</v>
@@ -3845,10 +3845,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>11</v>
@@ -3857,10 +3857,10 @@
         <v>12</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H40" s="8">
         <v>1563</v>
@@ -3871,10 +3871,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>11</v>
@@ -3883,10 +3883,10 @@
         <v>12</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H41" s="8">
         <v>1564</v>
@@ -3897,10 +3897,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>11</v>
@@ -3909,10 +3909,10 @@
         <v>12</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H42" s="8">
         <v>1597</v>
@@ -3923,10 +3923,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>11</v>
@@ -3935,10 +3935,10 @@
         <v>12</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H43" s="8">
         <v>1598</v>
@@ -3949,10 +3949,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>11</v>
@@ -3961,10 +3961,10 @@
         <v>12</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H44" s="8">
         <v>1537</v>
@@ -3975,10 +3975,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>11</v>
@@ -3987,10 +3987,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H45" s="8">
         <v>1545</v>
@@ -4001,10 +4001,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>11</v>
@@ -4013,10 +4013,10 @@
         <v>12</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H46" s="8">
         <v>1544</v>
@@ -4027,10 +4027,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>11</v>
@@ -4039,10 +4039,10 @@
         <v>12</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H47" s="8">
         <v>1543</v>
@@ -4053,10 +4053,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>11</v>
@@ -4065,10 +4065,10 @@
         <v>12</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H48" s="8">
         <v>1548</v>
@@ -4079,10 +4079,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>11</v>
@@ -4091,10 +4091,10 @@
         <v>12</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H49" s="8">
         <v>1549</v>
@@ -4105,10 +4105,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>11</v>
@@ -4117,10 +4117,10 @@
         <v>12</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H50" s="8">
         <v>1567</v>
@@ -4131,10 +4131,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>11</v>
@@ -4143,10 +4143,10 @@
         <v>12</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H51" s="8">
         <v>1577</v>
@@ -4157,10 +4157,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>11</v>
@@ -4169,10 +4169,10 @@
         <v>12</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H52" s="8">
         <v>1578</v>
@@ -4183,10 +4183,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>11</v>
@@ -4195,10 +4195,10 @@
         <v>12</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H53" s="8">
         <v>1660</v>
@@ -4209,10 +4209,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>11</v>
@@ -4221,10 +4221,10 @@
         <v>12</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H54" s="8">
         <v>1661</v>
@@ -4235,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>11</v>
@@ -4247,10 +4247,10 @@
         <v>12</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H55" s="8">
         <v>1662</v>
@@ -4261,10 +4261,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>11</v>
@@ -4273,10 +4273,10 @@
         <v>12</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H56" s="8">
         <v>1663</v>
@@ -4287,10 +4287,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>11</v>
@@ -4299,10 +4299,10 @@
         <v>12</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H57" s="8">
         <v>1664</v>
@@ -4313,10 +4313,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>11</v>
@@ -4325,10 +4325,10 @@
         <v>12</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H58" s="8">
         <v>1665</v>
@@ -4339,10 +4339,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>11</v>
@@ -4351,10 +4351,10 @@
         <v>12</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H59" s="8">
         <v>1666</v>
@@ -4365,10 +4365,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>11</v>
@@ -4377,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="8">
@@ -4389,10 +4389,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>11</v>
@@ -4401,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="8">
@@ -4413,10 +4413,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>11</v>
@@ -4425,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="8">
@@ -4437,10 +4437,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>11</v>
@@ -4449,7 +4449,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>11</v>
@@ -4475,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G64" s="17">
         <v>2</v>
@@ -4489,10 +4489,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>11</v>
@@ -4501,10 +4501,10 @@
         <v>12</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H65" s="8">
         <v>966</v>
@@ -4515,10 +4515,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>11</v>
@@ -4530,7 +4530,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H66" s="8">
         <v>1145</v>
@@ -4541,10 +4541,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>11</v>
@@ -4556,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H67" s="8">
         <v>1147</v>
@@ -4567,10 +4567,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>11</v>
@@ -4582,7 +4582,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H68" s="8">
         <v>1149</v>
@@ -4593,10 +4593,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>11</v>
@@ -4605,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
@@ -4619,10 +4619,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>11</v>
@@ -4631,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
@@ -4645,10 +4645,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>11</v>
@@ -4657,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="8">
@@ -4669,10 +4669,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>11</v>
@@ -4681,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="8">
@@ -4693,10 +4693,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>11</v>
@@ -4705,7 +4705,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="8">
@@ -4717,10 +4717,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>11</v>
@@ -4729,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
@@ -4743,10 +4743,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>11</v>
@@ -4758,7 +4758,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H75" s="8">
         <v>1458</v>
@@ -4769,10 +4769,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>11</v>
@@ -4784,7 +4784,7 @@
         <v>13</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H76" s="8">
         <v>1459</v>
@@ -4795,10 +4795,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>11</v>
@@ -4810,7 +4810,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H77" s="8">
         <v>1460</v>
@@ -4821,10 +4821,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
@@ -4836,7 +4836,7 @@
         <v>13</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H78" s="8">
         <v>1461</v>
@@ -4847,10 +4847,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>11</v>
@@ -4862,7 +4862,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H79" s="8">
         <v>1462</v>
@@ -4873,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>11</v>
@@ -4888,7 +4888,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H80" s="8">
         <v>1463</v>
@@ -4899,10 +4899,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>11</v>
@@ -4914,7 +4914,7 @@
         <v>13</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H81" s="8">
         <v>1464</v>
@@ -4925,10 +4925,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>11</v>
@@ -4940,7 +4940,7 @@
         <v>13</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H82" s="8">
         <v>1465</v>
@@ -4951,10 +4951,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>11</v>
@@ -4966,7 +4966,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H83" s="8">
         <v>1467</v>
@@ -4977,10 +4977,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
@@ -4992,7 +4992,7 @@
         <v>13</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H84" s="8">
         <v>1468</v>
@@ -5003,10 +5003,10 @@
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>11</v>
@@ -5018,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H85" s="8">
         <v>1469</v>
@@ -5029,10 +5029,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
@@ -5044,7 +5044,7 @@
         <v>13</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H86" s="8">
         <v>1470</v>
@@ -5055,10 +5055,10 @@
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
@@ -5070,7 +5070,7 @@
         <v>13</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H87" s="8">
         <v>1471</v>
@@ -5081,10 +5081,10 @@
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>11</v>
@@ -5096,7 +5096,7 @@
         <v>13</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H88" s="8">
         <v>1472</v>
@@ -5107,10 +5107,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>11</v>
@@ -5122,7 +5122,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H89" s="8">
         <v>1269</v>
@@ -5133,10 +5133,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>11</v>
@@ -5145,10 +5145,10 @@
         <v>12</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H90" s="8">
         <v>1805</v>
@@ -5159,10 +5159,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>11</v>
@@ -5171,10 +5171,10 @@
         <v>12</v>
       </c>
       <c r="F91" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="H91" s="8">
         <v>1818</v>
@@ -5185,10 +5185,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>11</v>
@@ -5197,10 +5197,10 @@
         <v>12</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H92" s="8">
         <v>1819</v>
@@ -5211,10 +5211,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>11</v>
@@ -5223,10 +5223,10 @@
         <v>12</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H93" s="8">
         <v>1802</v>
@@ -5237,10 +5237,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>11</v>
@@ -5249,10 +5249,10 @@
         <v>12</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H94" s="8">
         <v>1803</v>
@@ -5263,10 +5263,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>11</v>
@@ -5275,10 +5275,10 @@
         <v>12</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H95" s="8">
         <v>1803</v>
@@ -5289,10 +5289,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>11</v>
@@ -5301,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="8">
@@ -5313,10 +5313,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>11</v>
@@ -5325,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G97" s="17">
         <v>1</v>
@@ -5339,10 +5339,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>11</v>
@@ -5351,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G98" s="17">
         <v>1</v>
@@ -5365,10 +5365,10 @@
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>11</v>
@@ -5377,7 +5377,7 @@
         <v>12</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G99" s="17">
         <v>1</v>
@@ -5391,10 +5391,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>11</v>
@@ -5403,10 +5403,10 @@
         <v>12</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H100" s="8">
         <v>1616</v>
@@ -5417,10 +5417,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>11</v>
@@ -5429,10 +5429,10 @@
         <v>12</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H101" s="8">
         <v>1591</v>
@@ -5443,10 +5443,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>11</v>
@@ -5455,10 +5455,10 @@
         <v>12</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H102" s="8">
         <v>1528</v>
@@ -5469,10 +5469,10 @@
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>11</v>
@@ -5481,10 +5481,10 @@
         <v>12</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H103" s="8">
         <v>1533</v>
@@ -5495,10 +5495,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>11</v>
@@ -5507,10 +5507,10 @@
         <v>12</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H104" s="8">
         <v>1523</v>
@@ -5576,27 +5576,27 @@
   <sheetData>
     <row r="6" spans="6:6">
       <c r="F6" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5697,77 +5697,77 @@
   <sheetData>
     <row r="4" spans="6:12">
       <c r="F4" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="6:12">
       <c r="F5" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="6:12">
       <c r="F6" s="26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="6:12">
       <c r="F7" s="26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="6:12">
       <c r="F8" s="26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" s="26" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" s="26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" s="26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" s="26" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5813,10 +5813,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -5867,16 +5867,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="461">
   <si>
     <t>Execution</t>
   </si>
@@ -1402,6 +1402,9 @@
   </si>
   <si>
     <t>5,3,1,3,1</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1981,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1992,9 +1995,10 @@
     <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:17">
       <c r="A1" s="24" t="s">
         <v>328</v>
       </c>
@@ -2004,8 +2008,11 @@
       <c r="C1" s="24" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2015,30 +2022,42 @@
       <c r="C2" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2048,8 +2067,14 @@
       <c r="C5" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2059,8 +2084,11 @@
       <c r="C6" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2070,8 +2098,11 @@
       <c r="C7" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2081,8 +2112,11 @@
       <c r="C8" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2092,8 +2126,11 @@
       <c r="C9" s="5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2103,8 +2140,11 @@
       <c r="C10" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2114,8 +2154,11 @@
       <c r="C11" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2125,8 +2168,11 @@
       <c r="C12" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2136,8 +2182,11 @@
       <c r="C13" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2147,8 +2196,11 @@
       <c r="C14" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2158,8 +2210,11 @@
       <c r="C15" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2169,8 +2224,11 @@
       <c r="C16" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="C17" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="C18" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2202,8 +2266,11 @@
       <c r="C19" s="5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2213,8 +2280,11 @@
       <c r="C20" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2224,11 +2294,17 @@
       <c r="C21" s="5" t="s">
         <v>396</v>
       </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>$U$6:$U$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>$Q$4:$Q$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2830,7 +2906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="553">
   <si>
     <t>Execution</t>
   </si>
@@ -1405,6 +1405,283 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>IDD Rate Cutters</t>
+  </si>
+  <si>
+    <t>*135*10#</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>SpecialSocial25GBDataBundle</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>Nepal Offer</t>
+  </si>
+  <si>
+    <t>*135*97#</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>HappinessSIM</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>Data24hBundle</t>
+  </si>
+  <si>
+    <t>*135*3733#</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>DailyRoamDataPack</t>
+  </si>
+  <si>
+    <t>*135*111#</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>WeeklyRoamDataPack</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDaily</t>
+  </si>
+  <si>
+    <t>*135*20#</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>RoamBndlASubWeekly</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMonthly</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>RoamBndlASubMPlus</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubDaily</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubWeekly</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>RoamBndlBSubMonthly</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>RoamGCCDAct</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>RoamGCCDNRAct</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>RoamGCCWAct</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDRec</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSDO</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSW</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>RoamBndlASubSM</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>IntCommunity</t>
+  </si>
+  <si>
+    <t>*135*71#</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>SeamlessCallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*135*20# </t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>Post Call Notification</t>
+  </si>
+  <si>
+    <t>*135*50#</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>7,1,2</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>BronzeMPromo</t>
+  </si>
+  <si>
+    <t>*135*250#</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>Roaming Hajj Bundles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*135*20#</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>7,1,3</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>Data Bundles-Roaming Data Bundles</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>NonstopDailyDBundle3AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*135# </t>
+  </si>
+  <si>
+    <t>5,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>NonstopMonthlyDBundle50AED</t>
+  </si>
+  <si>
+    <t>5,2,1,1,2,1</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>HotSpotActive</t>
+  </si>
+  <si>
+    <t>*135*85#</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>RoamBndlASubDailyRec</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>Local_PPU</t>
+  </si>
+  <si>
+    <t>*135*11#</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Roaming_PPU_A_B_GCC</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>Data_Credit_Protection</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,6 +1757,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1617,7 +1900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1679,6 +1962,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1986,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2904,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2918,7 +3210,7 @@
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3415,7 +3707,7 @@
       <c r="F20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="28" t="s">
         <v>457</v>
       </c>
       <c r="H20" s="8">
@@ -3441,7 +3733,7 @@
       <c r="F21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="28" t="s">
         <v>458</v>
       </c>
       <c r="H21" s="8">
@@ -3467,7 +3759,7 @@
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="30" t="s">
         <v>459</v>
       </c>
       <c r="H22" s="8">
@@ -5592,45 +5884,988 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="B105" s="6"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" s="6"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" s="6"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" s="6"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" s="6"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="10"/>
+    <row r="105" spans="1:8" ht="15" thickBot="1">
+      <c r="A105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H105" s="22">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1">
+      <c r="A106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H106" s="22">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1">
+      <c r="A107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="G107" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1">
+      <c r="A108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G108" s="32">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" thickBot="1">
+      <c r="A109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="G109" s="32"/>
+      <c r="H109" s="22">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" thickBot="1">
+      <c r="A110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="G110" s="32"/>
+      <c r="H110" s="22">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1">
+      <c r="A111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="G111" s="32"/>
+      <c r="H111" s="22">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1">
+      <c r="A112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" s="22">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickBot="1">
+      <c r="A113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H113" s="22">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" thickBot="1">
+      <c r="A114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H114" s="22">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" thickBot="1">
+      <c r="A115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H115" s="22">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickBot="1">
+      <c r="A116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" s="22">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1">
+      <c r="A117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H117" s="22">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1">
+      <c r="A118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H118" s="22">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1">
+      <c r="A119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1">
+      <c r="A120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" thickBot="1">
+      <c r="A121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" thickBot="1">
+      <c r="A122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" thickBot="1">
+      <c r="A123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1">
+      <c r="A124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1">
+      <c r="A125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" thickBot="1">
+      <c r="A126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" thickBot="1">
+      <c r="A127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1">
+      <c r="A128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1">
+      <c r="A129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="G129" s="22">
+        <v>1</v>
+      </c>
+      <c r="H129" s="22">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" thickBot="1">
+      <c r="A130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="G130" s="22">
+        <v>2</v>
+      </c>
+      <c r="H130" s="22">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1">
+      <c r="A131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="H131" s="22">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" thickBot="1">
+      <c r="A132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="G132" s="22">
+        <v>1</v>
+      </c>
+      <c r="H132" s="22">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29.5" thickBot="1">
+      <c r="A133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="G133" s="22">
+        <v>3</v>
+      </c>
+      <c r="H133" s="22">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" thickBot="1">
+      <c r="A134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="H134" s="22">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" thickBot="1">
+      <c r="A135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" thickBot="1">
+      <c r="A136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="H136" s="22">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" thickBot="1">
+      <c r="A137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="H137" s="22">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" thickBot="1">
+      <c r="A138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="G138" s="22">
+        <v>1</v>
+      </c>
+      <c r="H138" s="22">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" thickBot="1">
+      <c r="A139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H139" s="22">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" thickBot="1">
+      <c r="A140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H140" s="22">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" thickBot="1">
+      <c r="A141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H141" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" thickBot="1">
+      <c r="A142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="H142" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1">
+      <c r="A143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H143" s="22">
+        <v>944</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -12,18 +12,19 @@
     <sheet name="Test Scenario" sheetId="3" r:id="rId3"/>
     <sheet name="ussd_code_data" sheetId="1" r:id="rId4"/>
     <sheet name="API" sheetId="12" r:id="rId5"/>
-    <sheet name="Voice Data" sheetId="5" r:id="rId6"/>
-    <sheet name="recharge_data" sheetId="2" r:id="rId7"/>
-    <sheet name="Test Cases" sheetId="4" r:id="rId8"/>
-    <sheet name="balance_enquires" sheetId="6" r:id="rId9"/>
-    <sheet name="p2p_transfer" sheetId="7" r:id="rId10"/>
+    <sheet name="API2" sheetId="13" r:id="rId6"/>
+    <sheet name="Voice Data" sheetId="5" r:id="rId7"/>
+    <sheet name="recharge_data" sheetId="2" r:id="rId8"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId9"/>
+    <sheet name="balance_enquires" sheetId="6" r:id="rId10"/>
+    <sheet name="p2p_transfer" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="776">
   <si>
     <t>Execution</t>
   </si>
@@ -2325,6 +2326,33 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Capture_Value1</t>
+  </si>
+  <si>
+    <t>Value24</t>
+  </si>
+  <si>
+    <t>Value25</t>
+  </si>
+  <si>
+    <t>Value26</t>
+  </si>
+  <si>
+    <t>Value27</t>
+  </si>
+  <si>
+    <t>Value28</t>
+  </si>
+  <si>
+    <t>activationStatusFlag</t>
+  </si>
+  <si>
+    <t>negativeBarringStatusFlag</t>
+  </si>
+  <si>
+    <t>activationDate</t>
   </si>
 </sst>
 </file>
@@ -3299,6 +3327,60 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7620,8 +7702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO957"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -21102,6 +21184,6758 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CC1598"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81">
+      <c r="A1" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ1" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="AR1" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS1" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>768</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="BF1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI1" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="BJ1" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="BK1" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="BL1" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="BM1" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="BN1" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="BO1" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="BP1" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="BQ1" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="BR1" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS1" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="BT1" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="BU1" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="BV1" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BW1" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="BX1" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="BY1" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="BZ1" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="CA1" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="CB1" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="CC1" s="33" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>773</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>774</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81">
+      <c r="A6" s="34"/>
+      <c r="B6" s="44"/>
+    </row>
+    <row r="7" spans="1:81">
+      <c r="A7" s="34"/>
+      <c r="B7" s="44"/>
+    </row>
+    <row r="8" spans="1:81">
+      <c r="A8" s="34"/>
+      <c r="B8" s="44"/>
+    </row>
+    <row r="9" spans="1:81">
+      <c r="A9" s="34"/>
+      <c r="B9" s="44"/>
+    </row>
+    <row r="10" spans="1:81">
+      <c r="A10" s="34"/>
+      <c r="B10" s="44"/>
+    </row>
+    <row r="11" spans="1:81">
+      <c r="A11" s="34"/>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:81">
+      <c r="A12" s="34"/>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:81">
+      <c r="A13" s="34"/>
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:81">
+      <c r="A14" s="34"/>
+      <c r="B14" s="44"/>
+    </row>
+    <row r="15" spans="1:81">
+      <c r="A15" s="34"/>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:81">
+      <c r="A16" s="34"/>
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="44"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="44"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="44"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="44"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="44"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="44"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="44"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="44"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="44"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="44"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="34"/>
+      <c r="B29" s="44"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="34"/>
+      <c r="B30" s="44"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="44"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="44"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="34"/>
+      <c r="B34" s="44"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="34"/>
+      <c r="B35" s="44"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="44"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="34"/>
+      <c r="B37" s="44"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="34"/>
+      <c r="B38" s="44"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="34"/>
+      <c r="B39" s="44"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="34"/>
+      <c r="B40" s="44"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="34"/>
+      <c r="B41" s="44"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="34"/>
+      <c r="B42" s="44"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="34"/>
+      <c r="B43" s="44"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="34"/>
+      <c r="B44" s="44"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="34"/>
+      <c r="B45" s="44"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="34"/>
+      <c r="B46" s="44"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="34"/>
+      <c r="B47" s="44"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="34"/>
+      <c r="B48" s="44"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="34"/>
+      <c r="B49" s="44"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="34"/>
+      <c r="B50" s="44"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="34"/>
+      <c r="B51" s="44"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="34"/>
+      <c r="B52" s="44"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="34"/>
+      <c r="B53" s="44"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="34"/>
+      <c r="B54" s="44"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="34"/>
+      <c r="B55" s="44"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="34"/>
+      <c r="B56" s="44"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="34"/>
+      <c r="B57" s="44"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="34"/>
+      <c r="B58" s="44"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="34"/>
+      <c r="B59" s="44"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="34"/>
+      <c r="B60" s="44"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="34"/>
+      <c r="B61" s="44"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="34"/>
+      <c r="B62" s="44"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="34"/>
+      <c r="B63" s="44"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="34"/>
+      <c r="B64" s="44"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="34"/>
+      <c r="B65" s="44"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="34"/>
+      <c r="B66" s="44"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="34"/>
+      <c r="B67" s="44"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="34"/>
+      <c r="B68" s="44"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="34"/>
+      <c r="B69" s="44"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="34"/>
+      <c r="B70" s="44"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="34"/>
+      <c r="B71" s="44"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="34"/>
+      <c r="B72" s="44"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="34"/>
+      <c r="B73" s="44"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="34"/>
+      <c r="B74" s="44"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="34"/>
+      <c r="B75" s="44"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="34"/>
+      <c r="B76" s="44"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="34"/>
+      <c r="B77" s="44"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="34"/>
+      <c r="B78" s="44"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="34"/>
+      <c r="B79" s="44"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="34"/>
+      <c r="B80" s="44"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="34"/>
+      <c r="B81" s="44"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="34"/>
+      <c r="B82" s="44"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="34"/>
+      <c r="B83" s="44"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="34"/>
+      <c r="B84" s="44"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="34"/>
+      <c r="B85" s="44"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="34"/>
+      <c r="B86" s="44"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="34"/>
+      <c r="B87" s="44"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="34"/>
+      <c r="B88" s="44"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="34"/>
+      <c r="B89" s="44"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="34"/>
+      <c r="B90" s="44"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="34"/>
+      <c r="B91" s="44"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="34"/>
+      <c r="B92" s="44"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="34"/>
+      <c r="B93" s="44"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="34"/>
+      <c r="B94" s="44"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="34"/>
+      <c r="B95" s="44"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="34"/>
+      <c r="B96" s="44"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="34"/>
+      <c r="B97" s="44"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="34"/>
+      <c r="B98" s="44"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="34"/>
+      <c r="B99" s="44"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="34"/>
+      <c r="B100" s="44"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="34"/>
+      <c r="B101" s="44"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="34"/>
+      <c r="B102" s="44"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="34"/>
+      <c r="B103" s="44"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="34"/>
+      <c r="B104" s="44"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="34"/>
+      <c r="B105" s="44"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="34"/>
+      <c r="B106" s="44"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="34"/>
+      <c r="B107" s="44"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="34"/>
+      <c r="B108" s="44"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="34"/>
+      <c r="B109" s="44"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="34"/>
+      <c r="B110" s="44"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="34"/>
+      <c r="B111" s="44"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="34"/>
+      <c r="B112" s="44"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="34"/>
+      <c r="B113" s="44"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="34"/>
+      <c r="B114" s="44"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="34"/>
+      <c r="B115" s="44"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="34"/>
+      <c r="B116" s="44"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="34"/>
+      <c r="B117" s="44"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="34"/>
+      <c r="B118" s="44"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="34"/>
+      <c r="B119" s="44"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="34"/>
+      <c r="B120" s="44"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="34"/>
+      <c r="B121" s="44"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="34"/>
+      <c r="B122" s="44"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="34"/>
+      <c r="B123" s="44"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="34"/>
+      <c r="B124" s="44"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="34"/>
+      <c r="B125" s="44"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="34"/>
+      <c r="B126" s="44"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="34"/>
+      <c r="B127" s="44"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="34"/>
+      <c r="B128" s="44"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="34"/>
+      <c r="B129" s="44"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="34"/>
+      <c r="B130" s="44"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="34"/>
+      <c r="B131" s="44"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="34"/>
+      <c r="B132" s="44"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="34"/>
+      <c r="B133" s="44"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="34"/>
+      <c r="B134" s="44"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="34"/>
+      <c r="B135" s="44"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="34"/>
+      <c r="B136" s="44"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="34"/>
+      <c r="B137" s="44"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="34"/>
+      <c r="B138" s="44"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="34"/>
+      <c r="B139" s="44"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="34"/>
+      <c r="B140" s="44"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="34"/>
+      <c r="B141" s="44"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="34"/>
+      <c r="B142" s="44"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="34"/>
+      <c r="B143" s="44"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="34"/>
+      <c r="B144" s="44"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="34"/>
+      <c r="B145" s="44"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="34"/>
+      <c r="B146" s="44"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="34"/>
+      <c r="B147" s="44"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="34"/>
+      <c r="B148" s="44"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="34"/>
+      <c r="B149" s="44"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="34"/>
+      <c r="B150" s="44"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="34"/>
+      <c r="B151" s="44"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="34"/>
+      <c r="B152" s="44"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="34"/>
+      <c r="B153" s="44"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="34"/>
+      <c r="B154" s="44"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="34"/>
+      <c r="B155" s="44"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="34"/>
+      <c r="B156" s="44"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="34"/>
+      <c r="B157" s="44"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="34"/>
+      <c r="B158" s="44"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="34"/>
+      <c r="B159" s="44"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="34"/>
+      <c r="B160" s="44"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="34"/>
+      <c r="B161" s="44"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="34"/>
+      <c r="B162" s="44"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="34"/>
+      <c r="B163" s="44"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="34"/>
+      <c r="B164" s="44"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="34"/>
+      <c r="B165" s="44"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="34"/>
+      <c r="B166" s="44"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="34"/>
+      <c r="B167" s="44"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="34"/>
+      <c r="B168" s="44"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="34"/>
+      <c r="B169" s="44"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="34"/>
+      <c r="B170" s="44"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="34"/>
+      <c r="B171" s="44"/>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="34"/>
+      <c r="B172" s="44"/>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="34"/>
+      <c r="B173" s="44"/>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="34"/>
+      <c r="B174" s="44"/>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="34"/>
+      <c r="B175" s="44"/>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="34"/>
+      <c r="B176" s="44"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="34"/>
+      <c r="B177" s="44"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="34"/>
+      <c r="B178" s="44"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="34"/>
+      <c r="B179" s="44"/>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="34"/>
+      <c r="B180" s="44"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="34"/>
+      <c r="B181" s="44"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="34"/>
+      <c r="B182" s="44"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="34"/>
+      <c r="B183" s="44"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="34"/>
+      <c r="B184" s="44"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="34"/>
+      <c r="B185" s="44"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="34"/>
+      <c r="B186" s="44"/>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="34"/>
+      <c r="B187" s="44"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="34"/>
+      <c r="B188" s="44"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="34"/>
+      <c r="B189" s="44"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="34"/>
+      <c r="B190" s="44"/>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="34"/>
+      <c r="B191" s="44"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="34"/>
+      <c r="B192" s="44"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="34"/>
+      <c r="B193" s="44"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="34"/>
+      <c r="B194" s="44"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="34"/>
+      <c r="B195" s="44"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="34"/>
+      <c r="B196" s="44"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="34"/>
+      <c r="B197" s="44"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="34"/>
+      <c r="B198" s="44"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="34"/>
+      <c r="B199" s="44"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="34"/>
+      <c r="B200" s="44"/>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="34"/>
+      <c r="B201" s="44"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="34"/>
+      <c r="B202" s="44"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="34"/>
+      <c r="B203" s="44"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="34"/>
+      <c r="B204" s="44"/>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="34"/>
+      <c r="B205" s="44"/>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="34"/>
+      <c r="B206" s="44"/>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="34"/>
+      <c r="B207" s="44"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="34"/>
+      <c r="B208" s="44"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="34"/>
+      <c r="B209" s="44"/>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="34"/>
+      <c r="B210" s="44"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="34"/>
+      <c r="B211" s="44"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="34"/>
+      <c r="B212" s="44"/>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="34"/>
+      <c r="B213" s="44"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="34"/>
+      <c r="B214" s="44"/>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="34"/>
+      <c r="B215" s="44"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="34"/>
+      <c r="B216" s="44"/>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="34"/>
+      <c r="B217" s="44"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="34"/>
+      <c r="B218" s="44"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="34"/>
+      <c r="B219" s="44"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="34"/>
+      <c r="B220" s="44"/>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="34"/>
+      <c r="B221" s="44"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="34"/>
+      <c r="B222" s="44"/>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="34"/>
+      <c r="B223" s="44"/>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="34"/>
+      <c r="B224" s="44"/>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="34"/>
+      <c r="B225" s="44"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="34"/>
+      <c r="B226" s="44"/>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="34"/>
+      <c r="B227" s="44"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="34"/>
+      <c r="B228" s="44"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="34"/>
+      <c r="B229" s="44"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="34"/>
+      <c r="B230" s="44"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="34"/>
+      <c r="B231" s="44"/>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="34"/>
+      <c r="B232" s="44"/>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="34"/>
+      <c r="B233" s="44"/>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="34"/>
+      <c r="B234" s="44"/>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="34"/>
+      <c r="B235" s="44"/>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="34"/>
+      <c r="B236" s="44"/>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="34"/>
+      <c r="B237" s="44"/>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="34"/>
+      <c r="B238" s="44"/>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="34"/>
+      <c r="B239" s="44"/>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="34"/>
+      <c r="B240" s="44"/>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="34"/>
+      <c r="B241" s="44"/>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="34"/>
+      <c r="B242" s="44"/>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="34"/>
+      <c r="B243" s="44"/>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="34"/>
+      <c r="B244" s="44"/>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="34"/>
+      <c r="B245" s="44"/>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="34"/>
+      <c r="B246" s="44"/>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="34"/>
+      <c r="B247" s="44"/>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="34"/>
+      <c r="B248" s="44"/>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="34"/>
+      <c r="B249" s="44"/>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="34"/>
+      <c r="B250" s="44"/>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="34"/>
+      <c r="B251" s="44"/>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="34"/>
+      <c r="B252" s="44"/>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="34"/>
+      <c r="B253" s="44"/>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="34"/>
+      <c r="B254" s="44"/>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="34"/>
+      <c r="B255" s="44"/>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="34"/>
+      <c r="B256" s="44"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="34"/>
+      <c r="B257" s="44"/>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="34"/>
+      <c r="B258" s="44"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="34"/>
+      <c r="B259" s="44"/>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="34"/>
+      <c r="B260" s="44"/>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="34"/>
+      <c r="B261" s="44"/>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="34"/>
+      <c r="B262" s="44"/>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="34"/>
+      <c r="B263" s="44"/>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="34"/>
+      <c r="B264" s="44"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="34"/>
+      <c r="B265" s="44"/>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="34"/>
+      <c r="B266" s="44"/>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="34"/>
+      <c r="B267" s="44"/>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="34"/>
+      <c r="B268" s="44"/>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="34"/>
+      <c r="B269" s="44"/>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="34"/>
+      <c r="B270" s="44"/>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="34"/>
+      <c r="B271" s="44"/>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="34"/>
+      <c r="B272" s="44"/>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="34"/>
+      <c r="B273" s="44"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="34"/>
+      <c r="B274" s="44"/>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="34"/>
+      <c r="B275" s="44"/>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="34"/>
+      <c r="B276" s="44"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="34"/>
+      <c r="B277" s="44"/>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="34"/>
+      <c r="B278" s="44"/>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="34"/>
+      <c r="B279" s="44"/>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="34"/>
+      <c r="B280" s="44"/>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="34"/>
+      <c r="B281" s="44"/>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="34"/>
+      <c r="B282" s="44"/>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="34"/>
+      <c r="B283" s="44"/>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="34"/>
+      <c r="B284" s="44"/>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="34"/>
+      <c r="B285" s="44"/>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="34"/>
+      <c r="B286" s="44"/>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="34"/>
+      <c r="B287" s="44"/>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="34"/>
+      <c r="B288" s="44"/>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="34"/>
+      <c r="B289" s="44"/>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="34"/>
+      <c r="B290" s="44"/>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="34"/>
+      <c r="B291" s="44"/>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="34"/>
+      <c r="B292" s="44"/>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="34"/>
+      <c r="B293" s="44"/>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="34"/>
+      <c r="B294" s="44"/>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="34"/>
+      <c r="B295" s="44"/>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="34"/>
+      <c r="B296" s="44"/>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="34"/>
+      <c r="B297" s="44"/>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="34"/>
+      <c r="B298" s="44"/>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="34"/>
+      <c r="B299" s="44"/>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="34"/>
+      <c r="B300" s="44"/>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="34"/>
+      <c r="B301" s="44"/>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="34"/>
+      <c r="B302" s="44"/>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="34"/>
+      <c r="B303" s="44"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="34"/>
+      <c r="B304" s="44"/>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="34"/>
+      <c r="B305" s="44"/>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="34"/>
+      <c r="B306" s="44"/>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="34"/>
+      <c r="B307" s="44"/>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="34"/>
+      <c r="B308" s="44"/>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="34"/>
+      <c r="B309" s="44"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="34"/>
+      <c r="B310" s="44"/>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="34"/>
+      <c r="B311" s="44"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="34"/>
+      <c r="B312" s="44"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="34"/>
+      <c r="B313" s="44"/>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="34"/>
+      <c r="B314" s="44"/>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="34"/>
+      <c r="B315" s="44"/>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="34"/>
+      <c r="B316" s="44"/>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="34"/>
+      <c r="B317" s="44"/>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="34"/>
+      <c r="B318" s="44"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="34"/>
+      <c r="B319" s="44"/>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="34"/>
+      <c r="B320" s="44"/>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="34"/>
+      <c r="B321" s="44"/>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="34"/>
+      <c r="B322" s="44"/>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="34"/>
+      <c r="B323" s="44"/>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="34"/>
+      <c r="B324" s="44"/>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="34"/>
+      <c r="B325" s="44"/>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="34"/>
+      <c r="B326" s="44"/>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="34"/>
+      <c r="B327" s="44"/>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="34"/>
+      <c r="B328" s="44"/>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="34"/>
+      <c r="B329" s="44"/>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="34"/>
+      <c r="B330" s="44"/>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="34"/>
+      <c r="B331" s="44"/>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="34"/>
+      <c r="B332" s="44"/>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="34"/>
+      <c r="B333" s="44"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="34"/>
+      <c r="B334" s="44"/>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="34"/>
+      <c r="B335" s="44"/>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="34"/>
+      <c r="B336" s="44"/>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="34"/>
+      <c r="B337" s="44"/>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="34"/>
+      <c r="B338" s="44"/>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="34"/>
+      <c r="B339" s="44"/>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="34"/>
+      <c r="B340" s="44"/>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="34"/>
+      <c r="B341" s="44"/>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="34"/>
+      <c r="B342" s="44"/>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="34"/>
+      <c r="B343" s="44"/>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="34"/>
+      <c r="B344" s="44"/>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="34"/>
+      <c r="B345" s="44"/>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="34"/>
+      <c r="B346" s="44"/>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="34"/>
+      <c r="B347" s="44"/>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="34"/>
+      <c r="B348" s="44"/>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="34"/>
+      <c r="B349" s="44"/>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="34"/>
+      <c r="B350" s="44"/>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="34"/>
+      <c r="B351" s="44"/>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="34"/>
+      <c r="B352" s="44"/>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="34"/>
+      <c r="B353" s="44"/>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="34"/>
+      <c r="B354" s="44"/>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="34"/>
+      <c r="B355" s="44"/>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="34"/>
+      <c r="B356" s="44"/>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="34"/>
+      <c r="B357" s="44"/>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="34"/>
+      <c r="B358" s="44"/>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="34"/>
+      <c r="B359" s="44"/>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="34"/>
+      <c r="B360" s="44"/>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="34"/>
+      <c r="B361" s="44"/>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="34"/>
+      <c r="B362" s="44"/>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="34"/>
+      <c r="B363" s="44"/>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="34"/>
+      <c r="B364" s="44"/>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="34"/>
+      <c r="B365" s="44"/>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="34"/>
+      <c r="B366" s="44"/>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="34"/>
+      <c r="B367" s="44"/>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="34"/>
+      <c r="B368" s="44"/>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="34"/>
+      <c r="B369" s="44"/>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="34"/>
+      <c r="B370" s="44"/>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="34"/>
+      <c r="B371" s="44"/>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="34"/>
+      <c r="B372" s="44"/>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="34"/>
+      <c r="B373" s="44"/>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="34"/>
+      <c r="B374" s="44"/>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="34"/>
+      <c r="B375" s="44"/>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="34"/>
+      <c r="B376" s="44"/>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="34"/>
+      <c r="B377" s="44"/>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="34"/>
+      <c r="B378" s="44"/>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="34"/>
+      <c r="B379" s="44"/>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="34"/>
+      <c r="B380" s="44"/>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="34"/>
+      <c r="B381" s="44"/>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="34"/>
+      <c r="B382" s="44"/>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="34"/>
+      <c r="B383" s="44"/>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="34"/>
+      <c r="B384" s="44"/>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="34"/>
+      <c r="B385" s="44"/>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="34"/>
+      <c r="B386" s="44"/>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="34"/>
+      <c r="B387" s="44"/>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="34"/>
+      <c r="B388" s="44"/>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="34"/>
+      <c r="B389" s="44"/>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="34"/>
+      <c r="B390" s="44"/>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="34"/>
+      <c r="B391" s="44"/>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="34"/>
+      <c r="B392" s="44"/>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="34"/>
+      <c r="B393" s="44"/>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="34"/>
+      <c r="B394" s="44"/>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="34"/>
+      <c r="B395" s="44"/>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="34"/>
+      <c r="B396" s="44"/>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="34"/>
+      <c r="B397" s="44"/>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="34"/>
+      <c r="B398" s="44"/>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="34"/>
+      <c r="B399" s="44"/>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="34"/>
+      <c r="B400" s="44"/>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="34"/>
+      <c r="B401" s="44"/>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="34"/>
+      <c r="B402" s="44"/>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="34"/>
+      <c r="B403" s="44"/>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="34"/>
+      <c r="B404" s="44"/>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="34"/>
+      <c r="B405" s="44"/>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="34"/>
+      <c r="B406" s="44"/>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="34"/>
+      <c r="B407" s="44"/>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="34"/>
+      <c r="B408" s="44"/>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="34"/>
+      <c r="B409" s="44"/>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="34"/>
+      <c r="B410" s="44"/>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="34"/>
+      <c r="B411" s="44"/>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="34"/>
+      <c r="B412" s="44"/>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="34"/>
+      <c r="B413" s="44"/>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="34"/>
+      <c r="B414" s="44"/>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="34"/>
+      <c r="B415" s="44"/>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="34"/>
+      <c r="B416" s="44"/>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="34"/>
+      <c r="B417" s="44"/>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="34"/>
+      <c r="B418" s="44"/>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="34"/>
+      <c r="B419" s="44"/>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="34"/>
+      <c r="B420" s="44"/>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="34"/>
+      <c r="B421" s="44"/>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="34"/>
+      <c r="B422" s="44"/>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="34"/>
+      <c r="B423" s="44"/>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="34"/>
+      <c r="B424" s="44"/>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="34"/>
+      <c r="B425" s="44"/>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="34"/>
+      <c r="B426" s="44"/>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="34"/>
+      <c r="B427" s="44"/>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="34"/>
+      <c r="B428" s="44"/>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="34"/>
+      <c r="B429" s="44"/>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="34"/>
+      <c r="B430" s="44"/>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="34"/>
+      <c r="B431" s="44"/>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="34"/>
+      <c r="B432" s="44"/>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="34"/>
+      <c r="B433" s="44"/>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="34"/>
+      <c r="B434" s="44"/>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="34"/>
+      <c r="B435" s="44"/>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="34"/>
+      <c r="B436" s="44"/>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="34"/>
+      <c r="B437" s="44"/>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="34"/>
+      <c r="B438" s="44"/>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="34"/>
+      <c r="B439" s="44"/>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="34"/>
+      <c r="B440" s="44"/>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="34"/>
+      <c r="B441" s="44"/>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="34"/>
+      <c r="B442" s="44"/>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="34"/>
+      <c r="B443" s="44"/>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="34"/>
+      <c r="B444" s="44"/>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="34"/>
+      <c r="B445" s="44"/>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="34"/>
+      <c r="B446" s="44"/>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="34"/>
+      <c r="B447" s="44"/>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="34"/>
+      <c r="B448" s="44"/>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="34"/>
+      <c r="B449" s="44"/>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="34"/>
+      <c r="B450" s="44"/>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="34"/>
+      <c r="B451" s="44"/>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="34"/>
+      <c r="B452" s="44"/>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="34"/>
+      <c r="B453" s="44"/>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="34"/>
+      <c r="B454" s="44"/>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="34"/>
+      <c r="B455" s="44"/>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="34"/>
+      <c r="B456" s="44"/>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="34"/>
+      <c r="B457" s="44"/>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="34"/>
+      <c r="B458" s="44"/>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="34"/>
+      <c r="B459" s="44"/>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="34"/>
+      <c r="B460" s="44"/>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="34"/>
+      <c r="B461" s="44"/>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="34"/>
+      <c r="B462" s="44"/>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="34"/>
+      <c r="B463" s="44"/>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="34"/>
+      <c r="B464" s="44"/>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="34"/>
+      <c r="B465" s="44"/>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="34"/>
+      <c r="B466" s="44"/>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="34"/>
+      <c r="B467" s="44"/>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="34"/>
+      <c r="B468" s="44"/>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="34"/>
+      <c r="B469" s="44"/>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="34"/>
+      <c r="B470" s="44"/>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="34"/>
+      <c r="B471" s="44"/>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="34"/>
+      <c r="B472" s="44"/>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="34"/>
+      <c r="B473" s="44"/>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="34"/>
+      <c r="B474" s="44"/>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="34"/>
+      <c r="B475" s="44"/>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="34"/>
+      <c r="B476" s="44"/>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="34"/>
+      <c r="B477" s="44"/>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="34"/>
+      <c r="B478" s="44"/>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="34"/>
+      <c r="B479" s="44"/>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="34"/>
+      <c r="B480" s="44"/>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="34"/>
+      <c r="B481" s="44"/>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="34"/>
+      <c r="B482" s="44"/>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="34"/>
+      <c r="B483" s="44"/>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="34"/>
+      <c r="B484" s="44"/>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="34"/>
+      <c r="B485" s="44"/>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="34"/>
+      <c r="B486" s="44"/>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="34"/>
+      <c r="B487" s="44"/>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="34"/>
+      <c r="B488" s="44"/>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="34"/>
+      <c r="B489" s="44"/>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="34"/>
+      <c r="B490" s="44"/>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="34"/>
+      <c r="B491" s="44"/>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="34"/>
+      <c r="B492" s="44"/>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="34"/>
+      <c r="B493" s="44"/>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="34"/>
+      <c r="B494" s="44"/>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="34"/>
+      <c r="B495" s="44"/>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="34"/>
+      <c r="B496" s="44"/>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="34"/>
+      <c r="B497" s="44"/>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="34"/>
+      <c r="B498" s="44"/>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="34"/>
+      <c r="B499" s="44"/>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="34"/>
+      <c r="B500" s="44"/>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="34"/>
+      <c r="B501" s="44"/>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="34"/>
+      <c r="B502" s="44"/>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="34"/>
+      <c r="B503" s="44"/>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="34"/>
+      <c r="B504" s="44"/>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="34"/>
+      <c r="B505" s="44"/>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="34"/>
+      <c r="B506" s="44"/>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="34"/>
+      <c r="B507" s="44"/>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="34"/>
+      <c r="B508" s="44"/>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="34"/>
+      <c r="B509" s="44"/>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="34"/>
+      <c r="B510" s="44"/>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="34"/>
+      <c r="B511" s="44"/>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="34"/>
+      <c r="B512" s="44"/>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="34"/>
+      <c r="B513" s="44"/>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="34"/>
+      <c r="B514" s="44"/>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="34"/>
+      <c r="B515" s="44"/>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="34"/>
+      <c r="B516" s="44"/>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="34"/>
+      <c r="B517" s="44"/>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="34"/>
+      <c r="B518" s="44"/>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="34"/>
+      <c r="B519" s="44"/>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="34"/>
+      <c r="B520" s="44"/>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="34"/>
+      <c r="B521" s="44"/>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="34"/>
+      <c r="B522" s="44"/>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="34"/>
+      <c r="B523" s="44"/>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="34"/>
+      <c r="B524" s="44"/>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="34"/>
+      <c r="B525" s="44"/>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="34"/>
+      <c r="B526" s="44"/>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="34"/>
+      <c r="B527" s="44"/>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="34"/>
+      <c r="B528" s="44"/>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="34"/>
+      <c r="B529" s="44"/>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="34"/>
+      <c r="B530" s="44"/>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="34"/>
+      <c r="B531" s="44"/>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="34"/>
+      <c r="B532" s="44"/>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="34"/>
+      <c r="B533" s="44"/>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="34"/>
+      <c r="B534" s="44"/>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="34"/>
+      <c r="B535" s="44"/>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="34"/>
+      <c r="B536" s="44"/>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="34"/>
+      <c r="B537" s="44"/>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="34"/>
+      <c r="B538" s="44"/>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="34"/>
+      <c r="B539" s="44"/>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="34"/>
+      <c r="B540" s="44"/>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="34"/>
+      <c r="B541" s="44"/>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="34"/>
+      <c r="B542" s="44"/>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="34"/>
+      <c r="B543" s="44"/>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="34"/>
+      <c r="B544" s="44"/>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="34"/>
+      <c r="B545" s="44"/>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="34"/>
+      <c r="B546" s="44"/>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="34"/>
+      <c r="B547" s="44"/>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="34"/>
+      <c r="B548" s="44"/>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="34"/>
+      <c r="B549" s="44"/>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="34"/>
+      <c r="B550" s="44"/>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="34"/>
+      <c r="B551" s="44"/>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="34"/>
+      <c r="B552" s="44"/>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="34"/>
+      <c r="B553" s="44"/>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="34"/>
+      <c r="B554" s="44"/>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="34"/>
+      <c r="B555" s="44"/>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="34"/>
+      <c r="B556" s="44"/>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="34"/>
+      <c r="B557" s="44"/>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="34"/>
+      <c r="B558" s="44"/>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="34"/>
+      <c r="B559" s="44"/>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="34"/>
+      <c r="B560" s="44"/>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="34"/>
+      <c r="B561" s="44"/>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="34"/>
+      <c r="B562" s="44"/>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="34"/>
+      <c r="B563" s="44"/>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="34"/>
+      <c r="B564" s="44"/>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="34"/>
+      <c r="B565" s="44"/>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="34"/>
+      <c r="B566" s="44"/>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="34"/>
+      <c r="B567" s="44"/>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="34"/>
+      <c r="B568" s="44"/>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="34"/>
+      <c r="B569" s="44"/>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="34"/>
+      <c r="B570" s="44"/>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="34"/>
+      <c r="B571" s="44"/>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="34"/>
+      <c r="B572" s="44"/>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="34"/>
+      <c r="B573" s="44"/>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="34"/>
+      <c r="B574" s="44"/>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="34"/>
+      <c r="B575" s="44"/>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="34"/>
+      <c r="B576" s="44"/>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="34"/>
+      <c r="B577" s="44"/>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="34"/>
+      <c r="B578" s="44"/>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="34"/>
+      <c r="B579" s="44"/>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="34"/>
+      <c r="B580" s="44"/>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="34"/>
+      <c r="B581" s="44"/>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="34"/>
+      <c r="B582" s="44"/>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="34"/>
+      <c r="B583" s="44"/>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="34"/>
+      <c r="B584" s="44"/>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="34"/>
+      <c r="B585" s="44"/>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="34"/>
+      <c r="B586" s="44"/>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="34"/>
+      <c r="B587" s="44"/>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="34"/>
+      <c r="B588" s="44"/>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="34"/>
+      <c r="B589" s="44"/>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="34"/>
+      <c r="B590" s="44"/>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="34"/>
+      <c r="B591" s="44"/>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="34"/>
+      <c r="B592" s="44"/>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="34"/>
+      <c r="B593" s="44"/>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="34"/>
+      <c r="B594" s="44"/>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="34"/>
+      <c r="B595" s="44"/>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="34"/>
+      <c r="B596" s="44"/>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="34"/>
+      <c r="B597" s="44"/>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="34"/>
+      <c r="B598" s="44"/>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="34"/>
+      <c r="B599" s="44"/>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="34"/>
+      <c r="B600" s="44"/>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="34"/>
+      <c r="B601" s="44"/>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="34"/>
+      <c r="B602" s="44"/>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="34"/>
+      <c r="B603" s="44"/>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="34"/>
+      <c r="B604" s="44"/>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="34"/>
+      <c r="B605" s="44"/>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="34"/>
+      <c r="B606" s="44"/>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="34"/>
+      <c r="B607" s="44"/>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="34"/>
+      <c r="B608" s="44"/>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="34"/>
+      <c r="B609" s="44"/>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="34"/>
+      <c r="B610" s="44"/>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="34"/>
+      <c r="B611" s="44"/>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="34"/>
+      <c r="B612" s="44"/>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="34"/>
+      <c r="B613" s="44"/>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="34"/>
+      <c r="B614" s="44"/>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="34"/>
+      <c r="B615" s="44"/>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="34"/>
+      <c r="B616" s="44"/>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="34"/>
+      <c r="B617" s="44"/>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="34"/>
+      <c r="B618" s="44"/>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="34"/>
+      <c r="B619" s="44"/>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="34"/>
+      <c r="B620" s="44"/>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="34"/>
+      <c r="B621" s="44"/>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="34"/>
+      <c r="B622" s="44"/>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="34"/>
+      <c r="B623" s="44"/>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="34"/>
+      <c r="B624" s="44"/>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="34"/>
+      <c r="B625" s="44"/>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="34"/>
+      <c r="B626" s="44"/>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="34"/>
+      <c r="B627" s="44"/>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="34"/>
+      <c r="B628" s="44"/>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="34"/>
+      <c r="B629" s="44"/>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="34"/>
+      <c r="B630" s="44"/>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="34"/>
+      <c r="B631" s="44"/>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="34"/>
+      <c r="B632" s="44"/>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="34"/>
+      <c r="B633" s="44"/>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="34"/>
+      <c r="B634" s="44"/>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="34"/>
+      <c r="B635" s="44"/>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="34"/>
+      <c r="B636" s="44"/>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="34"/>
+      <c r="B637" s="44"/>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="34"/>
+      <c r="B638" s="44"/>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="34"/>
+      <c r="B639" s="44"/>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="34"/>
+      <c r="B640" s="44"/>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="34"/>
+      <c r="B641" s="44"/>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="34"/>
+      <c r="B642" s="44"/>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="34"/>
+      <c r="B643" s="44"/>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="34"/>
+      <c r="B644" s="44"/>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="34"/>
+      <c r="B645" s="44"/>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="34"/>
+      <c r="B646" s="44"/>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="34"/>
+      <c r="B647" s="44"/>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="34"/>
+      <c r="B648" s="44"/>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="34"/>
+      <c r="B649" s="44"/>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="34"/>
+      <c r="B650" s="44"/>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="34"/>
+      <c r="B651" s="44"/>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="34"/>
+      <c r="B652" s="44"/>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="34"/>
+      <c r="B653" s="44"/>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="34"/>
+      <c r="B654" s="44"/>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="34"/>
+      <c r="B655" s="44"/>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="34"/>
+      <c r="B656" s="44"/>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="34"/>
+      <c r="B657" s="44"/>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="34"/>
+      <c r="B658" s="44"/>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="34"/>
+      <c r="B659" s="44"/>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="34"/>
+      <c r="B660" s="44"/>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="34"/>
+      <c r="B661" s="44"/>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="34"/>
+      <c r="B662" s="44"/>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="34"/>
+      <c r="B663" s="44"/>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="34"/>
+      <c r="B664" s="44"/>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="34"/>
+      <c r="B665" s="44"/>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="34"/>
+      <c r="B666" s="44"/>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="34"/>
+      <c r="B667" s="44"/>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="34"/>
+      <c r="B668" s="44"/>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="34"/>
+      <c r="B669" s="44"/>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="34"/>
+      <c r="B670" s="44"/>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="34"/>
+      <c r="B671" s="44"/>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="34"/>
+      <c r="B672" s="44"/>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="34"/>
+      <c r="B673" s="44"/>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="34"/>
+      <c r="B674" s="44"/>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="34"/>
+      <c r="B675" s="44"/>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="34"/>
+      <c r="B676" s="44"/>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="34"/>
+      <c r="B677" s="44"/>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="34"/>
+      <c r="B678" s="44"/>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="34"/>
+      <c r="B679" s="44"/>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="34"/>
+      <c r="B680" s="44"/>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="34"/>
+      <c r="B681" s="44"/>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="34"/>
+      <c r="B682" s="44"/>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="34"/>
+      <c r="B683" s="44"/>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="34"/>
+      <c r="B684" s="44"/>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="34"/>
+      <c r="B685" s="44"/>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="34"/>
+      <c r="B686" s="44"/>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="34"/>
+      <c r="B687" s="44"/>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="34"/>
+      <c r="B688" s="44"/>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="34"/>
+      <c r="B689" s="44"/>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="34"/>
+      <c r="B690" s="44"/>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="34"/>
+      <c r="B691" s="44"/>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="34"/>
+      <c r="B692" s="44"/>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="34"/>
+      <c r="B693" s="44"/>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="34"/>
+      <c r="B694" s="44"/>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="34"/>
+      <c r="B695" s="44"/>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="34"/>
+      <c r="B696" s="44"/>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="34"/>
+      <c r="B697" s="44"/>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="34"/>
+      <c r="B698" s="44"/>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="34"/>
+      <c r="B699" s="44"/>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="34"/>
+      <c r="B700" s="44"/>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="34"/>
+      <c r="B701" s="44"/>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="34"/>
+      <c r="B702" s="44"/>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="34"/>
+      <c r="B703" s="44"/>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="34"/>
+      <c r="B704" s="44"/>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="34"/>
+      <c r="B705" s="44"/>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="34"/>
+      <c r="B706" s="44"/>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="34"/>
+      <c r="B707" s="44"/>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="34"/>
+      <c r="B708" s="44"/>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="34"/>
+      <c r="B709" s="44"/>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="34"/>
+      <c r="B710" s="44"/>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="34"/>
+      <c r="B711" s="44"/>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="34"/>
+      <c r="B712" s="44"/>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="34"/>
+      <c r="B713" s="44"/>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="34"/>
+      <c r="B714" s="44"/>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="34"/>
+      <c r="B715" s="44"/>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="34"/>
+      <c r="B716" s="44"/>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="34"/>
+      <c r="B717" s="44"/>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="34"/>
+      <c r="B718" s="44"/>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="34"/>
+      <c r="B719" s="44"/>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="34"/>
+      <c r="B720" s="44"/>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="34"/>
+      <c r="B721" s="44"/>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="34"/>
+      <c r="B722" s="44"/>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="34"/>
+      <c r="B723" s="44"/>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="34"/>
+      <c r="B724" s="44"/>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="34"/>
+      <c r="B725" s="44"/>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="34"/>
+      <c r="B726" s="44"/>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="34"/>
+      <c r="B727" s="44"/>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="34"/>
+      <c r="B728" s="44"/>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="34"/>
+      <c r="B729" s="44"/>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="34"/>
+      <c r="B730" s="44"/>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="34"/>
+      <c r="B731" s="44"/>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="34"/>
+      <c r="B732" s="44"/>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="34"/>
+      <c r="B733" s="44"/>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="34"/>
+      <c r="B734" s="44"/>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="34"/>
+      <c r="B735" s="44"/>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="34"/>
+      <c r="B736" s="44"/>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="34"/>
+      <c r="B737" s="44"/>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="34"/>
+      <c r="B738" s="44"/>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="34"/>
+      <c r="B739" s="44"/>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="34"/>
+      <c r="B740" s="44"/>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="34"/>
+      <c r="B741" s="44"/>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="34"/>
+      <c r="B742" s="44"/>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="34"/>
+      <c r="B743" s="44"/>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="34"/>
+      <c r="B744" s="44"/>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="34"/>
+      <c r="B745" s="44"/>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="34"/>
+      <c r="B746" s="44"/>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="34"/>
+      <c r="B747" s="44"/>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="34"/>
+      <c r="B748" s="44"/>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="34"/>
+      <c r="B749" s="44"/>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="34"/>
+      <c r="B750" s="44"/>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="34"/>
+      <c r="B751" s="44"/>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="34"/>
+      <c r="B752" s="44"/>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="34"/>
+      <c r="B753" s="44"/>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="34"/>
+      <c r="B754" s="44"/>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="34"/>
+      <c r="B755" s="44"/>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="34"/>
+      <c r="B756" s="44"/>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="34"/>
+      <c r="B757" s="44"/>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="34"/>
+      <c r="B758" s="44"/>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="34"/>
+      <c r="B759" s="44"/>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="34"/>
+      <c r="B760" s="44"/>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="34"/>
+      <c r="B761" s="44"/>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="34"/>
+      <c r="B762" s="44"/>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="34"/>
+      <c r="B763" s="44"/>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="34"/>
+      <c r="B764" s="44"/>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="34"/>
+      <c r="B765" s="44"/>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="34"/>
+      <c r="B766" s="44"/>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="34"/>
+      <c r="B767" s="44"/>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="34"/>
+      <c r="B768" s="44"/>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="34"/>
+      <c r="B769" s="44"/>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="34"/>
+      <c r="B770" s="44"/>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="34"/>
+      <c r="B771" s="44"/>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="34"/>
+      <c r="B772" s="44"/>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="34"/>
+      <c r="B773" s="44"/>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="34"/>
+      <c r="B774" s="44"/>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="34"/>
+      <c r="B775" s="44"/>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="34"/>
+      <c r="B776" s="44"/>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="34"/>
+      <c r="B777" s="44"/>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="34"/>
+      <c r="B778" s="44"/>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="34"/>
+      <c r="B779" s="44"/>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="34"/>
+      <c r="B780" s="44"/>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="34"/>
+      <c r="B781" s="44"/>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="34"/>
+      <c r="B782" s="44"/>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="34"/>
+      <c r="B783" s="44"/>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="34"/>
+      <c r="B784" s="44"/>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="34"/>
+      <c r="B785" s="44"/>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="34"/>
+      <c r="B786" s="44"/>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="34"/>
+      <c r="B787" s="44"/>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="34"/>
+      <c r="B788" s="44"/>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="34"/>
+      <c r="B789" s="44"/>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="34"/>
+      <c r="B790" s="44"/>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="34"/>
+      <c r="B791" s="44"/>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="34"/>
+      <c r="B792" s="44"/>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="34"/>
+      <c r="B793" s="44"/>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="34"/>
+      <c r="B794" s="44"/>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="34"/>
+      <c r="B795" s="44"/>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="34"/>
+      <c r="B796" s="44"/>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="34"/>
+      <c r="B797" s="44"/>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="34"/>
+      <c r="B798" s="44"/>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="34"/>
+      <c r="B799" s="44"/>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="34"/>
+      <c r="B800" s="44"/>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="34"/>
+      <c r="B801" s="44"/>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="34"/>
+      <c r="B802" s="44"/>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="34"/>
+      <c r="B803" s="44"/>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="34"/>
+      <c r="B804" s="44"/>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="34"/>
+      <c r="B805" s="44"/>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="34"/>
+      <c r="B806" s="44"/>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="34"/>
+      <c r="B807" s="44"/>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="34"/>
+      <c r="B808" s="44"/>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="34"/>
+      <c r="B809" s="44"/>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="34"/>
+      <c r="B810" s="44"/>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="34"/>
+      <c r="B811" s="44"/>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="34"/>
+      <c r="B812" s="44"/>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="34"/>
+      <c r="B813" s="44"/>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="34"/>
+      <c r="B814" s="44"/>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="34"/>
+      <c r="B815" s="44"/>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="34"/>
+      <c r="B816" s="44"/>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="34"/>
+      <c r="B817" s="44"/>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="34"/>
+      <c r="B818" s="44"/>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="34"/>
+      <c r="B819" s="44"/>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="34"/>
+      <c r="B820" s="44"/>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="34"/>
+      <c r="B821" s="44"/>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="34"/>
+      <c r="B822" s="44"/>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="34"/>
+      <c r="B823" s="44"/>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="34"/>
+      <c r="B824" s="44"/>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="34"/>
+      <c r="B825" s="44"/>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="34"/>
+      <c r="B826" s="44"/>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="34"/>
+      <c r="B827" s="44"/>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="34"/>
+      <c r="B828" s="44"/>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="34"/>
+      <c r="B829" s="44"/>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="34"/>
+      <c r="B830" s="44"/>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="34"/>
+      <c r="B831" s="44"/>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="34"/>
+      <c r="B832" s="44"/>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="34"/>
+      <c r="B833" s="44"/>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="34"/>
+      <c r="B834" s="44"/>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="34"/>
+      <c r="B835" s="44"/>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="34"/>
+      <c r="B836" s="44"/>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="34"/>
+      <c r="B837" s="44"/>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="34"/>
+      <c r="B838" s="44"/>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="34"/>
+      <c r="B839" s="44"/>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="34"/>
+      <c r="B840" s="44"/>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="34"/>
+      <c r="B841" s="44"/>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="34"/>
+      <c r="B842" s="44"/>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="34"/>
+      <c r="B843" s="44"/>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="34"/>
+      <c r="B844" s="44"/>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="34"/>
+      <c r="B845" s="44"/>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="34"/>
+      <c r="B846" s="44"/>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="34"/>
+      <c r="B847" s="44"/>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="34"/>
+      <c r="B848" s="44"/>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="34"/>
+      <c r="B849" s="44"/>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="34"/>
+      <c r="B850" s="44"/>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="34"/>
+      <c r="B851" s="44"/>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="34"/>
+      <c r="B852" s="44"/>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="34"/>
+      <c r="B853" s="44"/>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="34"/>
+      <c r="B854" s="44"/>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="34"/>
+      <c r="B855" s="44"/>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="34"/>
+      <c r="B856" s="44"/>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="34"/>
+      <c r="B857" s="44"/>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="34"/>
+      <c r="B858" s="44"/>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="34"/>
+      <c r="B859" s="44"/>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="34"/>
+      <c r="B860" s="44"/>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="34"/>
+      <c r="B861" s="44"/>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="34"/>
+      <c r="B862" s="44"/>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="34"/>
+      <c r="B863" s="44"/>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="34"/>
+      <c r="B864" s="44"/>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="34"/>
+      <c r="B865" s="44"/>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="34"/>
+      <c r="B866" s="44"/>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="34"/>
+      <c r="B867" s="44"/>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="34"/>
+      <c r="B868" s="44"/>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="34"/>
+      <c r="B869" s="44"/>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="34"/>
+      <c r="B870" s="44"/>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="34"/>
+      <c r="B871" s="44"/>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="34"/>
+      <c r="B872" s="44"/>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="34"/>
+      <c r="B873" s="44"/>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="34"/>
+      <c r="B874" s="44"/>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="34"/>
+      <c r="B875" s="44"/>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="34"/>
+      <c r="B876" s="44"/>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="34"/>
+      <c r="B877" s="44"/>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="34"/>
+      <c r="B878" s="44"/>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="34"/>
+      <c r="B879" s="44"/>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="34"/>
+      <c r="B880" s="44"/>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="34"/>
+      <c r="B881" s="44"/>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="34"/>
+      <c r="B882" s="44"/>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="34"/>
+      <c r="B883" s="44"/>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="34"/>
+      <c r="B884" s="44"/>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="34"/>
+      <c r="B885" s="44"/>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="34"/>
+      <c r="B886" s="44"/>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="34"/>
+      <c r="B887" s="44"/>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="34"/>
+      <c r="B888" s="44"/>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="34"/>
+      <c r="B889" s="44"/>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="34"/>
+      <c r="B890" s="44"/>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="34"/>
+      <c r="B891" s="44"/>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="34"/>
+      <c r="B892" s="44"/>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="34"/>
+      <c r="B893" s="44"/>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="34"/>
+      <c r="B894" s="44"/>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="34"/>
+      <c r="B895" s="44"/>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="34"/>
+      <c r="B896" s="44"/>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="34"/>
+      <c r="B897" s="44"/>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="34"/>
+      <c r="B898" s="44"/>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="34"/>
+      <c r="B899" s="44"/>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="34"/>
+      <c r="B900" s="44"/>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="34"/>
+      <c r="B901" s="44"/>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="34"/>
+      <c r="B902" s="44"/>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="34"/>
+      <c r="B903" s="44"/>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="34"/>
+      <c r="B904" s="44"/>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="34"/>
+      <c r="B905" s="44"/>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="34"/>
+      <c r="B906" s="44"/>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="34"/>
+      <c r="B907" s="44"/>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="34"/>
+      <c r="B908" s="44"/>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="34"/>
+      <c r="B909" s="44"/>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="34"/>
+      <c r="B910" s="44"/>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="34"/>
+      <c r="B911" s="44"/>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="34"/>
+      <c r="B912" s="44"/>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="34"/>
+      <c r="B913" s="44"/>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="34"/>
+      <c r="B914" s="44"/>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="34"/>
+      <c r="B915" s="44"/>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="34"/>
+      <c r="B916" s="44"/>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="34"/>
+      <c r="B917" s="44"/>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="34"/>
+      <c r="B918" s="44"/>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="34"/>
+      <c r="B919" s="44"/>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="34"/>
+      <c r="B920" s="44"/>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="34"/>
+      <c r="B921" s="44"/>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="34"/>
+      <c r="B922" s="44"/>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="34"/>
+      <c r="B923" s="44"/>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="34"/>
+      <c r="B924" s="44"/>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="34"/>
+      <c r="B925" s="44"/>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="34"/>
+      <c r="B926" s="44"/>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="34"/>
+      <c r="B927" s="44"/>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="34"/>
+      <c r="B928" s="44"/>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="34"/>
+      <c r="B929" s="44"/>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="34"/>
+      <c r="B930" s="44"/>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="34"/>
+      <c r="B931" s="44"/>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="34"/>
+      <c r="B932" s="44"/>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="34"/>
+      <c r="B933" s="44"/>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="34"/>
+      <c r="B934" s="44"/>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="34"/>
+      <c r="B935" s="44"/>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="34"/>
+      <c r="B936" s="44"/>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="34"/>
+      <c r="B937" s="44"/>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="34"/>
+      <c r="B938" s="44"/>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="34"/>
+      <c r="B939" s="44"/>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="34"/>
+      <c r="B940" s="44"/>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="34"/>
+      <c r="B941" s="44"/>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="34"/>
+      <c r="B942" s="44"/>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="34"/>
+      <c r="B943" s="44"/>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="34"/>
+      <c r="B944" s="44"/>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="34"/>
+      <c r="B945" s="44"/>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="34"/>
+      <c r="B946" s="44"/>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="34"/>
+      <c r="B947" s="44"/>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="34"/>
+      <c r="B948" s="44"/>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="34"/>
+      <c r="B949" s="44"/>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="34"/>
+      <c r="B950" s="44"/>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="34"/>
+      <c r="B951" s="44"/>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="34"/>
+      <c r="B952" s="44"/>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="34"/>
+      <c r="B953" s="44"/>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="34"/>
+      <c r="B954" s="44"/>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="34"/>
+      <c r="B955" s="44"/>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="34"/>
+      <c r="B956" s="44"/>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="34"/>
+      <c r="B957" s="44"/>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="34"/>
+      <c r="B958" s="44"/>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="34"/>
+      <c r="B959" s="44"/>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="34"/>
+      <c r="B960" s="44"/>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="34"/>
+      <c r="B961" s="44"/>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="34"/>
+      <c r="B962" s="44"/>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="34"/>
+      <c r="B963" s="44"/>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="34"/>
+      <c r="B964" s="44"/>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="34"/>
+      <c r="B965" s="44"/>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="34"/>
+      <c r="B966" s="44"/>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="34"/>
+      <c r="B967" s="44"/>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="34"/>
+      <c r="B968" s="44"/>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="34"/>
+      <c r="B969" s="44"/>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="34"/>
+      <c r="B970" s="44"/>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="34"/>
+      <c r="B971" s="44"/>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="34"/>
+      <c r="B972" s="44"/>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="34"/>
+      <c r="B973" s="44"/>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="34"/>
+      <c r="B974" s="44"/>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="34"/>
+      <c r="B975" s="44"/>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="34"/>
+      <c r="B976" s="44"/>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="34"/>
+      <c r="B977" s="44"/>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="34"/>
+      <c r="B978" s="44"/>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="34"/>
+      <c r="B979" s="44"/>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="34"/>
+      <c r="B980" s="44"/>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="34"/>
+      <c r="B981" s="44"/>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="34"/>
+      <c r="B982" s="44"/>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="34"/>
+      <c r="B983" s="44"/>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="34"/>
+      <c r="B984" s="44"/>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="34"/>
+      <c r="B985" s="44"/>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="34"/>
+      <c r="B986" s="44"/>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="34"/>
+      <c r="B987" s="44"/>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="34"/>
+      <c r="B988" s="44"/>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="34"/>
+      <c r="B989" s="44"/>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="34"/>
+      <c r="B990" s="44"/>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="34"/>
+      <c r="B991" s="44"/>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="34"/>
+      <c r="B992" s="44"/>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="34"/>
+      <c r="B993" s="44"/>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="34"/>
+      <c r="B994" s="44"/>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="34"/>
+      <c r="B995" s="44"/>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="34"/>
+      <c r="B996" s="44"/>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="34"/>
+      <c r="B997" s="44"/>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="34"/>
+      <c r="B998" s="44"/>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="34"/>
+      <c r="B999" s="44"/>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="34"/>
+      <c r="B1000" s="44"/>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="34"/>
+      <c r="B1001" s="44"/>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="34"/>
+      <c r="B1002" s="44"/>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="34"/>
+      <c r="B1003" s="44"/>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="34"/>
+      <c r="B1004" s="44"/>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" s="34"/>
+      <c r="B1005" s="44"/>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="34"/>
+      <c r="B1006" s="44"/>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="34"/>
+      <c r="B1007" s="44"/>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" s="34"/>
+      <c r="B1008" s="44"/>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="34"/>
+      <c r="B1009" s="44"/>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="34"/>
+      <c r="B1010" s="44"/>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="34"/>
+      <c r="B1011" s="44"/>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="34"/>
+      <c r="B1012" s="44"/>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="34"/>
+      <c r="B1013" s="44"/>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="34"/>
+      <c r="B1014" s="44"/>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="34"/>
+      <c r="B1015" s="44"/>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="34"/>
+      <c r="B1016" s="44"/>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="34"/>
+      <c r="B1017" s="44"/>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="34"/>
+      <c r="B1018" s="44"/>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="34"/>
+      <c r="B1019" s="44"/>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="34"/>
+      <c r="B1020" s="44"/>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="34"/>
+      <c r="B1021" s="44"/>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="34"/>
+      <c r="B1022" s="44"/>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="34"/>
+      <c r="B1023" s="44"/>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="34"/>
+      <c r="B1024" s="44"/>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="34"/>
+      <c r="B1025" s="44"/>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="34"/>
+      <c r="B1026" s="44"/>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="34"/>
+      <c r="B1027" s="44"/>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="34"/>
+      <c r="B1028" s="44"/>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="34"/>
+      <c r="B1029" s="44"/>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="34"/>
+      <c r="B1030" s="44"/>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" s="34"/>
+      <c r="B1031" s="44"/>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" s="34"/>
+      <c r="B1032" s="44"/>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" s="34"/>
+      <c r="B1033" s="44"/>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="34"/>
+      <c r="B1034" s="44"/>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" s="34"/>
+      <c r="B1035" s="44"/>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="34"/>
+      <c r="B1036" s="44"/>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" s="34"/>
+      <c r="B1037" s="44"/>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="34"/>
+      <c r="B1038" s="44"/>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="A1039" s="34"/>
+      <c r="B1039" s="44"/>
+    </row>
+    <row r="1040" spans="1:2">
+      <c r="A1040" s="34"/>
+      <c r="B1040" s="44"/>
+    </row>
+    <row r="1041" spans="1:2">
+      <c r="A1041" s="34"/>
+      <c r="B1041" s="44"/>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="A1042" s="34"/>
+      <c r="B1042" s="44"/>
+    </row>
+    <row r="1043" spans="1:2">
+      <c r="A1043" s="34"/>
+      <c r="B1043" s="44"/>
+    </row>
+    <row r="1044" spans="1:2">
+      <c r="A1044" s="34"/>
+      <c r="B1044" s="44"/>
+    </row>
+    <row r="1045" spans="1:2">
+      <c r="A1045" s="34"/>
+      <c r="B1045" s="44"/>
+    </row>
+    <row r="1046" spans="1:2">
+      <c r="A1046" s="34"/>
+      <c r="B1046" s="44"/>
+    </row>
+    <row r="1047" spans="1:2">
+      <c r="A1047" s="34"/>
+      <c r="B1047" s="44"/>
+    </row>
+    <row r="1048" spans="1:2">
+      <c r="A1048" s="34"/>
+      <c r="B1048" s="44"/>
+    </row>
+    <row r="1049" spans="1:2">
+      <c r="A1049" s="34"/>
+      <c r="B1049" s="44"/>
+    </row>
+    <row r="1050" spans="1:2">
+      <c r="A1050" s="34"/>
+      <c r="B1050" s="44"/>
+    </row>
+    <row r="1051" spans="1:2">
+      <c r="A1051" s="34"/>
+      <c r="B1051" s="44"/>
+    </row>
+    <row r="1052" spans="1:2">
+      <c r="A1052" s="34"/>
+      <c r="B1052" s="44"/>
+    </row>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="34"/>
+      <c r="B1053" s="44"/>
+    </row>
+    <row r="1054" spans="1:2">
+      <c r="A1054" s="34"/>
+      <c r="B1054" s="44"/>
+    </row>
+    <row r="1055" spans="1:2">
+      <c r="A1055" s="34"/>
+      <c r="B1055" s="44"/>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="A1056" s="34"/>
+      <c r="B1056" s="44"/>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="A1057" s="34"/>
+      <c r="B1057" s="44"/>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="A1058" s="34"/>
+      <c r="B1058" s="44"/>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="A1059" s="34"/>
+      <c r="B1059" s="44"/>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="A1060" s="34"/>
+      <c r="B1060" s="44"/>
+    </row>
+    <row r="1061" spans="1:2">
+      <c r="A1061" s="34"/>
+      <c r="B1061" s="44"/>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" s="34"/>
+      <c r="B1062" s="44"/>
+    </row>
+    <row r="1063" spans="1:2">
+      <c r="A1063" s="34"/>
+      <c r="B1063" s="44"/>
+    </row>
+    <row r="1064" spans="1:2">
+      <c r="A1064" s="34"/>
+      <c r="B1064" s="44"/>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="A1065" s="34"/>
+      <c r="B1065" s="44"/>
+    </row>
+    <row r="1066" spans="1:2">
+      <c r="A1066" s="34"/>
+      <c r="B1066" s="44"/>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" s="34"/>
+      <c r="B1067" s="44"/>
+    </row>
+    <row r="1068" spans="1:2">
+      <c r="A1068" s="34"/>
+      <c r="B1068" s="44"/>
+    </row>
+    <row r="1069" spans="1:2">
+      <c r="A1069" s="34"/>
+      <c r="B1069" s="44"/>
+    </row>
+    <row r="1070" spans="1:2">
+      <c r="A1070" s="34"/>
+      <c r="B1070" s="44"/>
+    </row>
+    <row r="1071" spans="1:2">
+      <c r="A1071" s="34"/>
+      <c r="B1071" s="44"/>
+    </row>
+    <row r="1072" spans="1:2">
+      <c r="A1072" s="34"/>
+      <c r="B1072" s="44"/>
+    </row>
+    <row r="1073" spans="1:2">
+      <c r="A1073" s="34"/>
+      <c r="B1073" s="44"/>
+    </row>
+    <row r="1074" spans="1:2">
+      <c r="A1074" s="34"/>
+      <c r="B1074" s="44"/>
+    </row>
+    <row r="1075" spans="1:2">
+      <c r="A1075" s="34"/>
+      <c r="B1075" s="44"/>
+    </row>
+    <row r="1076" spans="1:2">
+      <c r="A1076" s="34"/>
+      <c r="B1076" s="44"/>
+    </row>
+    <row r="1077" spans="1:2">
+      <c r="A1077" s="34"/>
+      <c r="B1077" s="44"/>
+    </row>
+    <row r="1078" spans="1:2">
+      <c r="A1078" s="34"/>
+      <c r="B1078" s="44"/>
+    </row>
+    <row r="1079" spans="1:2">
+      <c r="A1079" s="34"/>
+      <c r="B1079" s="44"/>
+    </row>
+    <row r="1080" spans="1:2">
+      <c r="A1080" s="34"/>
+      <c r="B1080" s="44"/>
+    </row>
+    <row r="1081" spans="1:2">
+      <c r="A1081" s="34"/>
+      <c r="B1081" s="44"/>
+    </row>
+    <row r="1082" spans="1:2">
+      <c r="A1082" s="34"/>
+      <c r="B1082" s="44"/>
+    </row>
+    <row r="1083" spans="1:2">
+      <c r="A1083" s="34"/>
+      <c r="B1083" s="44"/>
+    </row>
+    <row r="1084" spans="1:2">
+      <c r="A1084" s="34"/>
+      <c r="B1084" s="44"/>
+    </row>
+    <row r="1085" spans="1:2">
+      <c r="A1085" s="34"/>
+      <c r="B1085" s="44"/>
+    </row>
+    <row r="1086" spans="1:2">
+      <c r="A1086" s="34"/>
+      <c r="B1086" s="44"/>
+    </row>
+    <row r="1087" spans="1:2">
+      <c r="A1087" s="34"/>
+      <c r="B1087" s="44"/>
+    </row>
+    <row r="1088" spans="1:2">
+      <c r="A1088" s="34"/>
+      <c r="B1088" s="44"/>
+    </row>
+    <row r="1089" spans="1:2">
+      <c r="A1089" s="34"/>
+      <c r="B1089" s="44"/>
+    </row>
+    <row r="1090" spans="1:2">
+      <c r="A1090" s="34"/>
+      <c r="B1090" s="44"/>
+    </row>
+    <row r="1091" spans="1:2">
+      <c r="A1091" s="34"/>
+      <c r="B1091" s="44"/>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="A1092" s="34"/>
+      <c r="B1092" s="44"/>
+    </row>
+    <row r="1093" spans="1:2">
+      <c r="A1093" s="34"/>
+      <c r="B1093" s="44"/>
+    </row>
+    <row r="1094" spans="1:2">
+      <c r="A1094" s="34"/>
+      <c r="B1094" s="44"/>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="34"/>
+      <c r="B1095" s="44"/>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="A1096" s="34"/>
+      <c r="B1096" s="44"/>
+    </row>
+    <row r="1097" spans="1:2">
+      <c r="A1097" s="34"/>
+      <c r="B1097" s="44"/>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="34"/>
+      <c r="B1098" s="44"/>
+    </row>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="34"/>
+      <c r="B1099" s="44"/>
+    </row>
+    <row r="1100" spans="1:2">
+      <c r="A1100" s="34"/>
+      <c r="B1100" s="44"/>
+    </row>
+    <row r="1101" spans="1:2">
+      <c r="A1101" s="34"/>
+      <c r="B1101" s="44"/>
+    </row>
+    <row r="1102" spans="1:2">
+      <c r="A1102" s="34"/>
+      <c r="B1102" s="44"/>
+    </row>
+    <row r="1103" spans="1:2">
+      <c r="A1103" s="34"/>
+      <c r="B1103" s="44"/>
+    </row>
+    <row r="1104" spans="1:2">
+      <c r="A1104" s="34"/>
+      <c r="B1104" s="44"/>
+    </row>
+    <row r="1105" spans="1:2">
+      <c r="A1105" s="34"/>
+      <c r="B1105" s="44"/>
+    </row>
+    <row r="1106" spans="1:2">
+      <c r="A1106" s="34"/>
+      <c r="B1106" s="44"/>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="A1107" s="34"/>
+      <c r="B1107" s="44"/>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="A1108" s="34"/>
+      <c r="B1108" s="44"/>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="A1109" s="34"/>
+      <c r="B1109" s="44"/>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="A1110" s="34"/>
+      <c r="B1110" s="44"/>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="A1111" s="34"/>
+      <c r="B1111" s="44"/>
+    </row>
+    <row r="1112" spans="1:2">
+      <c r="A1112" s="34"/>
+      <c r="B1112" s="44"/>
+    </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="34"/>
+      <c r="B1113" s="44"/>
+    </row>
+    <row r="1114" spans="1:2">
+      <c r="A1114" s="34"/>
+      <c r="B1114" s="44"/>
+    </row>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="34"/>
+      <c r="B1115" s="44"/>
+    </row>
+    <row r="1116" spans="1:2">
+      <c r="A1116" s="34"/>
+      <c r="B1116" s="44"/>
+    </row>
+    <row r="1117" spans="1:2">
+      <c r="A1117" s="34"/>
+      <c r="B1117" s="44"/>
+    </row>
+    <row r="1118" spans="1:2">
+      <c r="A1118" s="34"/>
+      <c r="B1118" s="44"/>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="A1119" s="34"/>
+      <c r="B1119" s="44"/>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="34"/>
+      <c r="B1120" s="44"/>
+    </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="34"/>
+      <c r="B1121" s="44"/>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="34"/>
+      <c r="B1122" s="44"/>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="34"/>
+      <c r="B1123" s="44"/>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="A1124" s="34"/>
+      <c r="B1124" s="44"/>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="A1125" s="34"/>
+      <c r="B1125" s="44"/>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="A1126" s="34"/>
+      <c r="B1126" s="44"/>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="34"/>
+      <c r="B1127" s="44"/>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="34"/>
+      <c r="B1128" s="44"/>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="34"/>
+      <c r="B1129" s="44"/>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="34"/>
+      <c r="B1130" s="44"/>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="34"/>
+      <c r="B1131" s="44"/>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" s="34"/>
+      <c r="B1132" s="44"/>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="34"/>
+      <c r="B1133" s="44"/>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="34"/>
+      <c r="B1134" s="44"/>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="34"/>
+      <c r="B1135" s="44"/>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" s="34"/>
+      <c r="B1136" s="44"/>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="34"/>
+      <c r="B1137" s="44"/>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="34"/>
+      <c r="B1138" s="44"/>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="34"/>
+      <c r="B1139" s="44"/>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="34"/>
+      <c r="B1140" s="44"/>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="34"/>
+      <c r="B1141" s="44"/>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="A1142" s="34"/>
+      <c r="B1142" s="44"/>
+    </row>
+    <row r="1143" spans="1:2">
+      <c r="A1143" s="34"/>
+      <c r="B1143" s="44"/>
+    </row>
+    <row r="1144" spans="1:2">
+      <c r="A1144" s="34"/>
+      <c r="B1144" s="44"/>
+    </row>
+    <row r="1145" spans="1:2">
+      <c r="A1145" s="34"/>
+      <c r="B1145" s="44"/>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="A1146" s="34"/>
+      <c r="B1146" s="44"/>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="34"/>
+      <c r="B1147" s="44"/>
+    </row>
+    <row r="1148" spans="1:2">
+      <c r="A1148" s="34"/>
+      <c r="B1148" s="44"/>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="A1149" s="34"/>
+      <c r="B1149" s="44"/>
+    </row>
+    <row r="1150" spans="1:2">
+      <c r="A1150" s="34"/>
+      <c r="B1150" s="44"/>
+    </row>
+    <row r="1151" spans="1:2">
+      <c r="A1151" s="34"/>
+      <c r="B1151" s="44"/>
+    </row>
+    <row r="1152" spans="1:2">
+      <c r="A1152" s="34"/>
+      <c r="B1152" s="44"/>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" s="34"/>
+      <c r="B1153" s="44"/>
+    </row>
+    <row r="1154" spans="1:2">
+      <c r="A1154" s="34"/>
+      <c r="B1154" s="44"/>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="A1155" s="34"/>
+      <c r="B1155" s="44"/>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="34"/>
+      <c r="B1156" s="44"/>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="A1157" s="34"/>
+      <c r="B1157" s="44"/>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="A1158" s="34"/>
+      <c r="B1158" s="44"/>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="A1159" s="34"/>
+      <c r="B1159" s="44"/>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="A1160" s="34"/>
+      <c r="B1160" s="44"/>
+    </row>
+    <row r="1161" spans="1:2">
+      <c r="A1161" s="34"/>
+      <c r="B1161" s="44"/>
+    </row>
+    <row r="1162" spans="1:2">
+      <c r="A1162" s="34"/>
+      <c r="B1162" s="44"/>
+    </row>
+    <row r="1163" spans="1:2">
+      <c r="A1163" s="34"/>
+      <c r="B1163" s="44"/>
+    </row>
+    <row r="1164" spans="1:2">
+      <c r="A1164" s="34"/>
+      <c r="B1164" s="44"/>
+    </row>
+    <row r="1165" spans="1:2">
+      <c r="A1165" s="34"/>
+      <c r="B1165" s="44"/>
+    </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" s="34"/>
+      <c r="B1166" s="44"/>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" s="34"/>
+      <c r="B1167" s="44"/>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" s="34"/>
+      <c r="B1168" s="44"/>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" s="34"/>
+      <c r="B1169" s="44"/>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" s="34"/>
+      <c r="B1170" s="44"/>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" s="34"/>
+      <c r="B1171" s="44"/>
+    </row>
+    <row r="1172" spans="1:2">
+      <c r="A1172" s="34"/>
+      <c r="B1172" s="44"/>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" s="34"/>
+      <c r="B1173" s="44"/>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" s="34"/>
+      <c r="B1174" s="44"/>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" s="34"/>
+      <c r="B1175" s="44"/>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" s="34"/>
+      <c r="B1176" s="44"/>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" s="34"/>
+      <c r="B1177" s="44"/>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="A1178" s="34"/>
+      <c r="B1178" s="44"/>
+    </row>
+    <row r="1179" spans="1:2">
+      <c r="A1179" s="34"/>
+      <c r="B1179" s="44"/>
+    </row>
+    <row r="1180" spans="1:2">
+      <c r="A1180" s="34"/>
+      <c r="B1180" s="44"/>
+    </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" s="34"/>
+      <c r="B1181" s="44"/>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" s="34"/>
+      <c r="B1182" s="44"/>
+    </row>
+    <row r="1183" spans="1:2">
+      <c r="A1183" s="34"/>
+      <c r="B1183" s="44"/>
+    </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" s="34"/>
+      <c r="B1184" s="44"/>
+    </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" s="34"/>
+      <c r="B1185" s="44"/>
+    </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" s="34"/>
+      <c r="B1186" s="44"/>
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" s="34"/>
+      <c r="B1187" s="44"/>
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" s="34"/>
+      <c r="B1188" s="44"/>
+    </row>
+    <row r="1189" spans="1:2">
+      <c r="A1189" s="34"/>
+      <c r="B1189" s="44"/>
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="A1190" s="34"/>
+      <c r="B1190" s="44"/>
+    </row>
+    <row r="1191" spans="1:2">
+      <c r="A1191" s="34"/>
+      <c r="B1191" s="44"/>
+    </row>
+    <row r="1192" spans="1:2">
+      <c r="A1192" s="34"/>
+      <c r="B1192" s="44"/>
+    </row>
+    <row r="1193" spans="1:2">
+      <c r="A1193" s="34"/>
+      <c r="B1193" s="44"/>
+    </row>
+    <row r="1194" spans="1:2">
+      <c r="A1194" s="34"/>
+      <c r="B1194" s="44"/>
+    </row>
+    <row r="1195" spans="1:2">
+      <c r="A1195" s="34"/>
+      <c r="B1195" s="44"/>
+    </row>
+    <row r="1196" spans="1:2">
+      <c r="A1196" s="34"/>
+      <c r="B1196" s="44"/>
+    </row>
+    <row r="1197" spans="1:2">
+      <c r="A1197" s="34"/>
+      <c r="B1197" s="44"/>
+    </row>
+    <row r="1198" spans="1:2">
+      <c r="A1198" s="34"/>
+      <c r="B1198" s="44"/>
+    </row>
+    <row r="1199" spans="1:2">
+      <c r="A1199" s="34"/>
+      <c r="B1199" s="44"/>
+    </row>
+    <row r="1200" spans="1:2">
+      <c r="A1200" s="34"/>
+      <c r="B1200" s="44"/>
+    </row>
+    <row r="1201" spans="1:2">
+      <c r="A1201" s="34"/>
+      <c r="B1201" s="44"/>
+    </row>
+    <row r="1202" spans="1:2">
+      <c r="A1202" s="34"/>
+      <c r="B1202" s="44"/>
+    </row>
+    <row r="1203" spans="1:2">
+      <c r="A1203" s="34"/>
+      <c r="B1203" s="44"/>
+    </row>
+    <row r="1204" spans="1:2">
+      <c r="A1204" s="34"/>
+      <c r="B1204" s="44"/>
+    </row>
+    <row r="1205" spans="1:2">
+      <c r="A1205" s="34"/>
+      <c r="B1205" s="44"/>
+    </row>
+    <row r="1206" spans="1:2">
+      <c r="A1206" s="34"/>
+      <c r="B1206" s="44"/>
+    </row>
+    <row r="1207" spans="1:2">
+      <c r="A1207" s="34"/>
+      <c r="B1207" s="44"/>
+    </row>
+    <row r="1208" spans="1:2">
+      <c r="A1208" s="34"/>
+      <c r="B1208" s="44"/>
+    </row>
+    <row r="1209" spans="1:2">
+      <c r="A1209" s="34"/>
+      <c r="B1209" s="44"/>
+    </row>
+    <row r="1210" spans="1:2">
+      <c r="A1210" s="34"/>
+      <c r="B1210" s="44"/>
+    </row>
+    <row r="1211" spans="1:2">
+      <c r="A1211" s="34"/>
+      <c r="B1211" s="44"/>
+    </row>
+    <row r="1212" spans="1:2">
+      <c r="A1212" s="34"/>
+      <c r="B1212" s="44"/>
+    </row>
+    <row r="1213" spans="1:2">
+      <c r="A1213" s="34"/>
+      <c r="B1213" s="44"/>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="A1214" s="34"/>
+      <c r="B1214" s="44"/>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="A1215" s="34"/>
+      <c r="B1215" s="44"/>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" s="34"/>
+      <c r="B1216" s="44"/>
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="A1217" s="34"/>
+      <c r="B1217" s="44"/>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="A1218" s="34"/>
+      <c r="B1218" s="44"/>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="A1219" s="34"/>
+      <c r="B1219" s="44"/>
+    </row>
+    <row r="1220" spans="1:2">
+      <c r="A1220" s="34"/>
+      <c r="B1220" s="44"/>
+    </row>
+    <row r="1221" spans="1:2">
+      <c r="A1221" s="34"/>
+      <c r="B1221" s="44"/>
+    </row>
+    <row r="1222" spans="1:2">
+      <c r="A1222" s="34"/>
+      <c r="B1222" s="44"/>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="A1223" s="34"/>
+      <c r="B1223" s="44"/>
+    </row>
+    <row r="1224" spans="1:2">
+      <c r="A1224" s="34"/>
+      <c r="B1224" s="44"/>
+    </row>
+    <row r="1225" spans="1:2">
+      <c r="A1225" s="34"/>
+      <c r="B1225" s="44"/>
+    </row>
+    <row r="1226" spans="1:2">
+      <c r="A1226" s="34"/>
+      <c r="B1226" s="44"/>
+    </row>
+    <row r="1227" spans="1:2">
+      <c r="A1227" s="34"/>
+      <c r="B1227" s="44"/>
+    </row>
+    <row r="1228" spans="1:2">
+      <c r="A1228" s="34"/>
+      <c r="B1228" s="44"/>
+    </row>
+    <row r="1229" spans="1:2">
+      <c r="A1229" s="34"/>
+      <c r="B1229" s="44"/>
+    </row>
+    <row r="1230" spans="1:2">
+      <c r="A1230" s="34"/>
+      <c r="B1230" s="44"/>
+    </row>
+    <row r="1231" spans="1:2">
+      <c r="A1231" s="34"/>
+      <c r="B1231" s="44"/>
+    </row>
+    <row r="1232" spans="1:2">
+      <c r="A1232" s="34"/>
+      <c r="B1232" s="44"/>
+    </row>
+    <row r="1233" spans="1:2">
+      <c r="A1233" s="34"/>
+      <c r="B1233" s="44"/>
+    </row>
+    <row r="1234" spans="1:2">
+      <c r="A1234" s="34"/>
+      <c r="B1234" s="44"/>
+    </row>
+    <row r="1235" spans="1:2">
+      <c r="A1235" s="34"/>
+      <c r="B1235" s="44"/>
+    </row>
+    <row r="1236" spans="1:2">
+      <c r="A1236" s="34"/>
+      <c r="B1236" s="44"/>
+    </row>
+    <row r="1237" spans="1:2">
+      <c r="A1237" s="34"/>
+      <c r="B1237" s="44"/>
+    </row>
+    <row r="1238" spans="1:2">
+      <c r="A1238" s="34"/>
+      <c r="B1238" s="44"/>
+    </row>
+    <row r="1239" spans="1:2">
+      <c r="A1239" s="34"/>
+      <c r="B1239" s="44"/>
+    </row>
+    <row r="1240" spans="1:2">
+      <c r="A1240" s="34"/>
+      <c r="B1240" s="44"/>
+    </row>
+    <row r="1241" spans="1:2">
+      <c r="A1241" s="34"/>
+      <c r="B1241" s="44"/>
+    </row>
+    <row r="1242" spans="1:2">
+      <c r="A1242" s="34"/>
+      <c r="B1242" s="44"/>
+    </row>
+    <row r="1243" spans="1:2">
+      <c r="A1243" s="34"/>
+      <c r="B1243" s="44"/>
+    </row>
+    <row r="1244" spans="1:2">
+      <c r="A1244" s="34"/>
+      <c r="B1244" s="44"/>
+    </row>
+    <row r="1245" spans="1:2">
+      <c r="A1245" s="34"/>
+      <c r="B1245" s="44"/>
+    </row>
+    <row r="1246" spans="1:2">
+      <c r="A1246" s="34"/>
+      <c r="B1246" s="44"/>
+    </row>
+    <row r="1247" spans="1:2">
+      <c r="A1247" s="34"/>
+      <c r="B1247" s="44"/>
+    </row>
+    <row r="1248" spans="1:2">
+      <c r="A1248" s="34"/>
+      <c r="B1248" s="44"/>
+    </row>
+    <row r="1249" spans="1:2">
+      <c r="A1249" s="34"/>
+      <c r="B1249" s="44"/>
+    </row>
+    <row r="1250" spans="1:2">
+      <c r="A1250" s="34"/>
+      <c r="B1250" s="44"/>
+    </row>
+    <row r="1251" spans="1:2">
+      <c r="A1251" s="34"/>
+      <c r="B1251" s="44"/>
+    </row>
+    <row r="1252" spans="1:2">
+      <c r="A1252" s="34"/>
+      <c r="B1252" s="44"/>
+    </row>
+    <row r="1253" spans="1:2">
+      <c r="A1253" s="34"/>
+      <c r="B1253" s="44"/>
+    </row>
+    <row r="1254" spans="1:2">
+      <c r="A1254" s="34"/>
+      <c r="B1254" s="44"/>
+    </row>
+    <row r="1255" spans="1:2">
+      <c r="A1255" s="34"/>
+      <c r="B1255" s="44"/>
+    </row>
+    <row r="1256" spans="1:2">
+      <c r="A1256" s="34"/>
+      <c r="B1256" s="44"/>
+    </row>
+    <row r="1257" spans="1:2">
+      <c r="A1257" s="34"/>
+      <c r="B1257" s="44"/>
+    </row>
+    <row r="1258" spans="1:2">
+      <c r="A1258" s="34"/>
+      <c r="B1258" s="44"/>
+    </row>
+    <row r="1259" spans="1:2">
+      <c r="A1259" s="34"/>
+      <c r="B1259" s="44"/>
+    </row>
+    <row r="1260" spans="1:2">
+      <c r="A1260" s="34"/>
+      <c r="B1260" s="44"/>
+    </row>
+    <row r="1261" spans="1:2">
+      <c r="A1261" s="34"/>
+      <c r="B1261" s="44"/>
+    </row>
+    <row r="1262" spans="1:2">
+      <c r="A1262" s="34"/>
+      <c r="B1262" s="44"/>
+    </row>
+    <row r="1263" spans="1:2">
+      <c r="A1263" s="34"/>
+      <c r="B1263" s="44"/>
+    </row>
+    <row r="1264" spans="1:2">
+      <c r="A1264" s="34"/>
+      <c r="B1264" s="44"/>
+    </row>
+    <row r="1265" spans="1:2">
+      <c r="A1265" s="34"/>
+      <c r="B1265" s="44"/>
+    </row>
+    <row r="1266" spans="1:2">
+      <c r="A1266" s="34"/>
+      <c r="B1266" s="44"/>
+    </row>
+    <row r="1267" spans="1:2">
+      <c r="A1267" s="34"/>
+      <c r="B1267" s="44"/>
+    </row>
+    <row r="1268" spans="1:2">
+      <c r="A1268" s="34"/>
+      <c r="B1268" s="44"/>
+    </row>
+    <row r="1269" spans="1:2">
+      <c r="A1269" s="34"/>
+      <c r="B1269" s="44"/>
+    </row>
+    <row r="1270" spans="1:2">
+      <c r="A1270" s="34"/>
+      <c r="B1270" s="44"/>
+    </row>
+    <row r="1271" spans="1:2">
+      <c r="A1271" s="34"/>
+      <c r="B1271" s="44"/>
+    </row>
+    <row r="1272" spans="1:2">
+      <c r="A1272" s="34"/>
+      <c r="B1272" s="44"/>
+    </row>
+    <row r="1273" spans="1:2">
+      <c r="A1273" s="34"/>
+      <c r="B1273" s="44"/>
+    </row>
+    <row r="1274" spans="1:2">
+      <c r="A1274" s="34"/>
+      <c r="B1274" s="44"/>
+    </row>
+    <row r="1275" spans="1:2">
+      <c r="A1275" s="34"/>
+      <c r="B1275" s="44"/>
+    </row>
+    <row r="1276" spans="1:2">
+      <c r="A1276" s="34"/>
+      <c r="B1276" s="44"/>
+    </row>
+    <row r="1277" spans="1:2">
+      <c r="A1277" s="34"/>
+      <c r="B1277" s="44"/>
+    </row>
+    <row r="1278" spans="1:2">
+      <c r="A1278" s="34"/>
+      <c r="B1278" s="44"/>
+    </row>
+    <row r="1279" spans="1:2">
+      <c r="A1279" s="34"/>
+      <c r="B1279" s="44"/>
+    </row>
+    <row r="1280" spans="1:2">
+      <c r="A1280" s="34"/>
+      <c r="B1280" s="44"/>
+    </row>
+    <row r="1281" spans="1:2">
+      <c r="A1281" s="34"/>
+      <c r="B1281" s="44"/>
+    </row>
+    <row r="1282" spans="1:2">
+      <c r="A1282" s="34"/>
+      <c r="B1282" s="44"/>
+    </row>
+    <row r="1283" spans="1:2">
+      <c r="A1283" s="34"/>
+      <c r="B1283" s="44"/>
+    </row>
+    <row r="1284" spans="1:2">
+      <c r="A1284" s="34"/>
+      <c r="B1284" s="44"/>
+    </row>
+    <row r="1285" spans="1:2">
+      <c r="A1285" s="34"/>
+      <c r="B1285" s="44"/>
+    </row>
+    <row r="1286" spans="1:2">
+      <c r="A1286" s="34"/>
+      <c r="B1286" s="44"/>
+    </row>
+    <row r="1287" spans="1:2">
+      <c r="A1287" s="34"/>
+      <c r="B1287" s="44"/>
+    </row>
+    <row r="1288" spans="1:2">
+      <c r="A1288" s="34"/>
+      <c r="B1288" s="44"/>
+    </row>
+    <row r="1289" spans="1:2">
+      <c r="A1289" s="34"/>
+      <c r="B1289" s="44"/>
+    </row>
+    <row r="1290" spans="1:2">
+      <c r="A1290" s="34"/>
+      <c r="B1290" s="44"/>
+    </row>
+    <row r="1291" spans="1:2">
+      <c r="A1291" s="34"/>
+      <c r="B1291" s="44"/>
+    </row>
+    <row r="1292" spans="1:2">
+      <c r="A1292" s="34"/>
+      <c r="B1292" s="44"/>
+    </row>
+    <row r="1293" spans="1:2">
+      <c r="A1293" s="34"/>
+      <c r="B1293" s="44"/>
+    </row>
+    <row r="1294" spans="1:2">
+      <c r="A1294" s="34"/>
+      <c r="B1294" s="44"/>
+    </row>
+    <row r="1295" spans="1:2">
+      <c r="A1295" s="34"/>
+      <c r="B1295" s="44"/>
+    </row>
+    <row r="1296" spans="1:2">
+      <c r="A1296" s="34"/>
+      <c r="B1296" s="44"/>
+    </row>
+    <row r="1297" spans="1:2">
+      <c r="A1297" s="34"/>
+      <c r="B1297" s="44"/>
+    </row>
+    <row r="1298" spans="1:2">
+      <c r="A1298" s="34"/>
+      <c r="B1298" s="44"/>
+    </row>
+    <row r="1299" spans="1:2">
+      <c r="A1299" s="34"/>
+      <c r="B1299" s="44"/>
+    </row>
+    <row r="1300" spans="1:2">
+      <c r="A1300" s="34"/>
+      <c r="B1300" s="44"/>
+    </row>
+    <row r="1301" spans="1:2">
+      <c r="A1301" s="34"/>
+      <c r="B1301" s="44"/>
+    </row>
+    <row r="1302" spans="1:2">
+      <c r="A1302" s="34"/>
+      <c r="B1302" s="44"/>
+    </row>
+    <row r="1303" spans="1:2">
+      <c r="A1303" s="34"/>
+      <c r="B1303" s="44"/>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="A1304" s="34"/>
+      <c r="B1304" s="44"/>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="A1305" s="34"/>
+      <c r="B1305" s="44"/>
+    </row>
+    <row r="1306" spans="1:2">
+      <c r="A1306" s="34"/>
+      <c r="B1306" s="44"/>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="A1307" s="34"/>
+      <c r="B1307" s="44"/>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="A1308" s="34"/>
+      <c r="B1308" s="44"/>
+    </row>
+    <row r="1309" spans="1:2">
+      <c r="A1309" s="34"/>
+      <c r="B1309" s="44"/>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="A1310" s="34"/>
+      <c r="B1310" s="44"/>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="A1311" s="34"/>
+      <c r="B1311" s="44"/>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" s="34"/>
+      <c r="B1312" s="44"/>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" s="34"/>
+      <c r="B1313" s="44"/>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" s="34"/>
+      <c r="B1314" s="44"/>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" s="34"/>
+      <c r="B1315" s="44"/>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" s="34"/>
+      <c r="B1316" s="44"/>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" s="34"/>
+      <c r="B1317" s="44"/>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" s="34"/>
+      <c r="B1318" s="44"/>
+    </row>
+    <row r="1319" spans="1:2">
+      <c r="A1319" s="34"/>
+      <c r="B1319" s="44"/>
+    </row>
+    <row r="1320" spans="1:2">
+      <c r="A1320" s="34"/>
+      <c r="B1320" s="44"/>
+    </row>
+    <row r="1321" spans="1:2">
+      <c r="A1321" s="34"/>
+      <c r="B1321" s="44"/>
+    </row>
+    <row r="1322" spans="1:2">
+      <c r="A1322" s="34"/>
+      <c r="B1322" s="44"/>
+    </row>
+    <row r="1323" spans="1:2">
+      <c r="A1323" s="34"/>
+      <c r="B1323" s="44"/>
+    </row>
+    <row r="1324" spans="1:2">
+      <c r="A1324" s="34"/>
+      <c r="B1324" s="44"/>
+    </row>
+    <row r="1325" spans="1:2">
+      <c r="A1325" s="34"/>
+      <c r="B1325" s="44"/>
+    </row>
+    <row r="1326" spans="1:2">
+      <c r="A1326" s="34"/>
+      <c r="B1326" s="44"/>
+    </row>
+    <row r="1327" spans="1:2">
+      <c r="A1327" s="34"/>
+      <c r="B1327" s="44"/>
+    </row>
+    <row r="1328" spans="1:2">
+      <c r="A1328" s="34"/>
+      <c r="B1328" s="44"/>
+    </row>
+    <row r="1329" spans="1:2">
+      <c r="A1329" s="34"/>
+      <c r="B1329" s="44"/>
+    </row>
+    <row r="1330" spans="1:2">
+      <c r="A1330" s="34"/>
+      <c r="B1330" s="44"/>
+    </row>
+    <row r="1331" spans="1:2">
+      <c r="A1331" s="34"/>
+      <c r="B1331" s="44"/>
+    </row>
+    <row r="1332" spans="1:2">
+      <c r="A1332" s="34"/>
+      <c r="B1332" s="44"/>
+    </row>
+    <row r="1333" spans="1:2">
+      <c r="A1333" s="34"/>
+      <c r="B1333" s="44"/>
+    </row>
+    <row r="1334" spans="1:2">
+      <c r="A1334" s="34"/>
+      <c r="B1334" s="44"/>
+    </row>
+    <row r="1335" spans="1:2">
+      <c r="A1335" s="34"/>
+      <c r="B1335" s="44"/>
+    </row>
+    <row r="1336" spans="1:2">
+      <c r="A1336" s="34"/>
+      <c r="B1336" s="44"/>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" s="34"/>
+      <c r="B1337" s="44"/>
+    </row>
+    <row r="1338" spans="1:2">
+      <c r="A1338" s="34"/>
+      <c r="B1338" s="44"/>
+    </row>
+    <row r="1339" spans="1:2">
+      <c r="A1339" s="34"/>
+      <c r="B1339" s="44"/>
+    </row>
+    <row r="1340" spans="1:2">
+      <c r="A1340" s="34"/>
+      <c r="B1340" s="44"/>
+    </row>
+    <row r="1341" spans="1:2">
+      <c r="A1341" s="34"/>
+      <c r="B1341" s="44"/>
+    </row>
+    <row r="1342" spans="1:2">
+      <c r="A1342" s="34"/>
+      <c r="B1342" s="44"/>
+    </row>
+    <row r="1343" spans="1:2">
+      <c r="A1343" s="34"/>
+      <c r="B1343" s="44"/>
+    </row>
+    <row r="1344" spans="1:2">
+      <c r="A1344" s="34"/>
+      <c r="B1344" s="44"/>
+    </row>
+    <row r="1345" spans="1:2">
+      <c r="A1345" s="34"/>
+      <c r="B1345" s="44"/>
+    </row>
+    <row r="1346" spans="1:2">
+      <c r="A1346" s="34"/>
+      <c r="B1346" s="44"/>
+    </row>
+    <row r="1347" spans="1:2">
+      <c r="A1347" s="34"/>
+      <c r="B1347" s="44"/>
+    </row>
+    <row r="1348" spans="1:2">
+      <c r="A1348" s="34"/>
+      <c r="B1348" s="44"/>
+    </row>
+    <row r="1349" spans="1:2">
+      <c r="A1349" s="34"/>
+      <c r="B1349" s="44"/>
+    </row>
+    <row r="1350" spans="1:2">
+      <c r="A1350" s="34"/>
+      <c r="B1350" s="44"/>
+    </row>
+    <row r="1351" spans="1:2">
+      <c r="A1351" s="34"/>
+      <c r="B1351" s="44"/>
+    </row>
+    <row r="1352" spans="1:2">
+      <c r="A1352" s="34"/>
+      <c r="B1352" s="44"/>
+    </row>
+    <row r="1353" spans="1:2">
+      <c r="A1353" s="34"/>
+      <c r="B1353" s="44"/>
+    </row>
+    <row r="1354" spans="1:2">
+      <c r="A1354" s="34"/>
+      <c r="B1354" s="44"/>
+    </row>
+    <row r="1355" spans="1:2">
+      <c r="A1355" s="34"/>
+      <c r="B1355" s="44"/>
+    </row>
+    <row r="1356" spans="1:2">
+      <c r="A1356" s="34"/>
+      <c r="B1356" s="44"/>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="A1357" s="34"/>
+      <c r="B1357" s="44"/>
+    </row>
+    <row r="1358" spans="1:2">
+      <c r="A1358" s="34"/>
+      <c r="B1358" s="44"/>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="A1359" s="34"/>
+      <c r="B1359" s="44"/>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" s="34"/>
+      <c r="B1360" s="44"/>
+    </row>
+    <row r="1361" spans="1:2">
+      <c r="A1361" s="34"/>
+      <c r="B1361" s="44"/>
+    </row>
+    <row r="1362" spans="1:2">
+      <c r="A1362" s="34"/>
+      <c r="B1362" s="44"/>
+    </row>
+    <row r="1363" spans="1:2">
+      <c r="A1363" s="34"/>
+      <c r="B1363" s="44"/>
+    </row>
+    <row r="1364" spans="1:2">
+      <c r="A1364" s="34"/>
+      <c r="B1364" s="44"/>
+    </row>
+    <row r="1365" spans="1:2">
+      <c r="A1365" s="34"/>
+      <c r="B1365" s="44"/>
+    </row>
+    <row r="1366" spans="1:2">
+      <c r="A1366" s="34"/>
+      <c r="B1366" s="44"/>
+    </row>
+    <row r="1367" spans="1:2">
+      <c r="A1367" s="34"/>
+      <c r="B1367" s="44"/>
+    </row>
+    <row r="1368" spans="1:2">
+      <c r="A1368" s="34"/>
+      <c r="B1368" s="44"/>
+    </row>
+    <row r="1369" spans="1:2">
+      <c r="A1369" s="34"/>
+      <c r="B1369" s="44"/>
+    </row>
+    <row r="1370" spans="1:2">
+      <c r="A1370" s="34"/>
+      <c r="B1370" s="44"/>
+    </row>
+    <row r="1371" spans="1:2">
+      <c r="A1371" s="34"/>
+      <c r="B1371" s="44"/>
+    </row>
+    <row r="1372" spans="1:2">
+      <c r="A1372" s="34"/>
+      <c r="B1372" s="44"/>
+    </row>
+    <row r="1373" spans="1:2">
+      <c r="A1373" s="34"/>
+      <c r="B1373" s="44"/>
+    </row>
+    <row r="1374" spans="1:2">
+      <c r="A1374" s="34"/>
+      <c r="B1374" s="44"/>
+    </row>
+    <row r="1375" spans="1:2">
+      <c r="A1375" s="34"/>
+      <c r="B1375" s="44"/>
+    </row>
+    <row r="1376" spans="1:2">
+      <c r="A1376" s="34"/>
+      <c r="B1376" s="44"/>
+    </row>
+    <row r="1377" spans="1:2">
+      <c r="A1377" s="34"/>
+      <c r="B1377" s="44"/>
+    </row>
+    <row r="1378" spans="1:2">
+      <c r="A1378" s="34"/>
+      <c r="B1378" s="44"/>
+    </row>
+    <row r="1379" spans="1:2">
+      <c r="A1379" s="34"/>
+      <c r="B1379" s="44"/>
+    </row>
+    <row r="1380" spans="1:2">
+      <c r="A1380" s="34"/>
+      <c r="B1380" s="44"/>
+    </row>
+    <row r="1381" spans="1:2">
+      <c r="A1381" s="34"/>
+      <c r="B1381" s="44"/>
+    </row>
+    <row r="1382" spans="1:2">
+      <c r="A1382" s="34"/>
+      <c r="B1382" s="44"/>
+    </row>
+    <row r="1383" spans="1:2">
+      <c r="A1383" s="34"/>
+      <c r="B1383" s="44"/>
+    </row>
+    <row r="1384" spans="1:2">
+      <c r="A1384" s="34"/>
+      <c r="B1384" s="44"/>
+    </row>
+    <row r="1385" spans="1:2">
+      <c r="A1385" s="34"/>
+      <c r="B1385" s="44"/>
+    </row>
+    <row r="1386" spans="1:2">
+      <c r="A1386" s="34"/>
+      <c r="B1386" s="44"/>
+    </row>
+    <row r="1387" spans="1:2">
+      <c r="A1387" s="34"/>
+      <c r="B1387" s="44"/>
+    </row>
+    <row r="1388" spans="1:2">
+      <c r="A1388" s="34"/>
+      <c r="B1388" s="44"/>
+    </row>
+    <row r="1389" spans="1:2">
+      <c r="A1389" s="34"/>
+      <c r="B1389" s="44"/>
+    </row>
+    <row r="1390" spans="1:2">
+      <c r="A1390" s="34"/>
+      <c r="B1390" s="44"/>
+    </row>
+    <row r="1391" spans="1:2">
+      <c r="A1391" s="34"/>
+      <c r="B1391" s="44"/>
+    </row>
+    <row r="1392" spans="1:2">
+      <c r="A1392" s="34"/>
+      <c r="B1392" s="44"/>
+    </row>
+    <row r="1393" spans="1:2">
+      <c r="A1393" s="34"/>
+      <c r="B1393" s="44"/>
+    </row>
+    <row r="1394" spans="1:2">
+      <c r="A1394" s="34"/>
+      <c r="B1394" s="44"/>
+    </row>
+    <row r="1395" spans="1:2">
+      <c r="A1395" s="34"/>
+      <c r="B1395" s="44"/>
+    </row>
+    <row r="1396" spans="1:2">
+      <c r="A1396" s="34"/>
+      <c r="B1396" s="44"/>
+    </row>
+    <row r="1397" spans="1:2">
+      <c r="A1397" s="34"/>
+      <c r="B1397" s="44"/>
+    </row>
+    <row r="1398" spans="1:2">
+      <c r="A1398" s="34"/>
+      <c r="B1398" s="44"/>
+    </row>
+    <row r="1399" spans="1:2">
+      <c r="A1399" s="34"/>
+      <c r="B1399" s="44"/>
+    </row>
+    <row r="1400" spans="1:2">
+      <c r="A1400" s="34"/>
+      <c r="B1400" s="44"/>
+    </row>
+    <row r="1401" spans="1:2">
+      <c r="A1401" s="34"/>
+      <c r="B1401" s="44"/>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" s="34"/>
+      <c r="B1402" s="44"/>
+    </row>
+    <row r="1403" spans="1:2">
+      <c r="A1403" s="34"/>
+      <c r="B1403" s="44"/>
+    </row>
+    <row r="1404" spans="1:2">
+      <c r="A1404" s="34"/>
+      <c r="B1404" s="44"/>
+    </row>
+    <row r="1405" spans="1:2">
+      <c r="A1405" s="34"/>
+      <c r="B1405" s="44"/>
+    </row>
+    <row r="1406" spans="1:2">
+      <c r="A1406" s="34"/>
+      <c r="B1406" s="44"/>
+    </row>
+    <row r="1407" spans="1:2">
+      <c r="A1407" s="34"/>
+      <c r="B1407" s="44"/>
+    </row>
+    <row r="1408" spans="1:2">
+      <c r="A1408" s="34"/>
+      <c r="B1408" s="44"/>
+    </row>
+    <row r="1409" spans="1:2">
+      <c r="A1409" s="34"/>
+      <c r="B1409" s="44"/>
+    </row>
+    <row r="1410" spans="1:2">
+      <c r="A1410" s="34"/>
+      <c r="B1410" s="44"/>
+    </row>
+    <row r="1411" spans="1:2">
+      <c r="A1411" s="34"/>
+      <c r="B1411" s="44"/>
+    </row>
+    <row r="1412" spans="1:2">
+      <c r="A1412" s="34"/>
+      <c r="B1412" s="44"/>
+    </row>
+    <row r="1413" spans="1:2">
+      <c r="A1413" s="34"/>
+      <c r="B1413" s="44"/>
+    </row>
+    <row r="1414" spans="1:2">
+      <c r="A1414" s="34"/>
+      <c r="B1414" s="44"/>
+    </row>
+    <row r="1415" spans="1:2">
+      <c r="A1415" s="34"/>
+      <c r="B1415" s="44"/>
+    </row>
+    <row r="1416" spans="1:2">
+      <c r="A1416" s="34"/>
+      <c r="B1416" s="44"/>
+    </row>
+    <row r="1417" spans="1:2">
+      <c r="A1417" s="34"/>
+      <c r="B1417" s="44"/>
+    </row>
+    <row r="1418" spans="1:2">
+      <c r="A1418" s="34"/>
+      <c r="B1418" s="44"/>
+    </row>
+    <row r="1419" spans="1:2">
+      <c r="A1419" s="34"/>
+      <c r="B1419" s="44"/>
+    </row>
+    <row r="1420" spans="1:2">
+      <c r="A1420" s="34"/>
+      <c r="B1420" s="44"/>
+    </row>
+    <row r="1421" spans="1:2">
+      <c r="A1421" s="34"/>
+      <c r="B1421" s="44"/>
+    </row>
+    <row r="1422" spans="1:2">
+      <c r="A1422" s="34"/>
+      <c r="B1422" s="44"/>
+    </row>
+    <row r="1423" spans="1:2">
+      <c r="A1423" s="34"/>
+      <c r="B1423" s="44"/>
+    </row>
+    <row r="1424" spans="1:2">
+      <c r="A1424" s="34"/>
+      <c r="B1424" s="44"/>
+    </row>
+    <row r="1425" spans="1:2">
+      <c r="A1425" s="34"/>
+      <c r="B1425" s="44"/>
+    </row>
+    <row r="1426" spans="1:2">
+      <c r="A1426" s="34"/>
+      <c r="B1426" s="44"/>
+    </row>
+    <row r="1427" spans="1:2">
+      <c r="A1427" s="34"/>
+      <c r="B1427" s="44"/>
+    </row>
+    <row r="1428" spans="1:2">
+      <c r="A1428" s="34"/>
+      <c r="B1428" s="44"/>
+    </row>
+    <row r="1429" spans="1:2">
+      <c r="A1429" s="34"/>
+      <c r="B1429" s="44"/>
+    </row>
+    <row r="1430" spans="1:2">
+      <c r="A1430" s="34"/>
+      <c r="B1430" s="44"/>
+    </row>
+    <row r="1431" spans="1:2">
+      <c r="A1431" s="34"/>
+      <c r="B1431" s="44"/>
+    </row>
+    <row r="1432" spans="1:2">
+      <c r="A1432" s="34"/>
+      <c r="B1432" s="44"/>
+    </row>
+    <row r="1433" spans="1:2">
+      <c r="A1433" s="34"/>
+      <c r="B1433" s="44"/>
+    </row>
+    <row r="1434" spans="1:2">
+      <c r="A1434" s="34"/>
+      <c r="B1434" s="44"/>
+    </row>
+    <row r="1435" spans="1:2">
+      <c r="A1435" s="34"/>
+      <c r="B1435" s="44"/>
+    </row>
+    <row r="1436" spans="1:2">
+      <c r="A1436" s="34"/>
+      <c r="B1436" s="44"/>
+    </row>
+    <row r="1437" spans="1:2">
+      <c r="A1437" s="34"/>
+      <c r="B1437" s="44"/>
+    </row>
+    <row r="1438" spans="1:2">
+      <c r="A1438" s="34"/>
+      <c r="B1438" s="44"/>
+    </row>
+    <row r="1439" spans="1:2">
+      <c r="A1439" s="34"/>
+      <c r="B1439" s="44"/>
+    </row>
+    <row r="1440" spans="1:2">
+      <c r="A1440" s="34"/>
+      <c r="B1440" s="44"/>
+    </row>
+    <row r="1441" spans="1:2">
+      <c r="A1441" s="34"/>
+      <c r="B1441" s="44"/>
+    </row>
+    <row r="1442" spans="1:2">
+      <c r="A1442" s="34"/>
+      <c r="B1442" s="44"/>
+    </row>
+    <row r="1443" spans="1:2">
+      <c r="A1443" s="34"/>
+      <c r="B1443" s="44"/>
+    </row>
+    <row r="1444" spans="1:2">
+      <c r="A1444" s="34"/>
+      <c r="B1444" s="44"/>
+    </row>
+    <row r="1445" spans="1:2">
+      <c r="A1445" s="34"/>
+      <c r="B1445" s="44"/>
+    </row>
+    <row r="1446" spans="1:2">
+      <c r="A1446" s="34"/>
+      <c r="B1446" s="44"/>
+    </row>
+    <row r="1447" spans="1:2">
+      <c r="A1447" s="34"/>
+      <c r="B1447" s="44"/>
+    </row>
+    <row r="1448" spans="1:2">
+      <c r="A1448" s="34"/>
+      <c r="B1448" s="44"/>
+    </row>
+    <row r="1449" spans="1:2">
+      <c r="A1449" s="34"/>
+      <c r="B1449" s="44"/>
+    </row>
+    <row r="1450" spans="1:2">
+      <c r="A1450" s="34"/>
+      <c r="B1450" s="44"/>
+    </row>
+    <row r="1451" spans="1:2">
+      <c r="A1451" s="34"/>
+      <c r="B1451" s="44"/>
+    </row>
+    <row r="1452" spans="1:2">
+      <c r="A1452" s="34"/>
+      <c r="B1452" s="44"/>
+    </row>
+    <row r="1453" spans="1:2">
+      <c r="A1453" s="34"/>
+      <c r="B1453" s="44"/>
+    </row>
+    <row r="1454" spans="1:2">
+      <c r="A1454" s="34"/>
+      <c r="B1454" s="44"/>
+    </row>
+    <row r="1455" spans="1:2">
+      <c r="A1455" s="34"/>
+      <c r="B1455" s="44"/>
+    </row>
+    <row r="1456" spans="1:2">
+      <c r="A1456" s="34"/>
+      <c r="B1456" s="44"/>
+    </row>
+    <row r="1457" spans="1:2">
+      <c r="A1457" s="34"/>
+      <c r="B1457" s="44"/>
+    </row>
+    <row r="1458" spans="1:2">
+      <c r="A1458" s="34"/>
+      <c r="B1458" s="44"/>
+    </row>
+    <row r="1459" spans="1:2">
+      <c r="A1459" s="34"/>
+      <c r="B1459" s="44"/>
+    </row>
+    <row r="1460" spans="1:2">
+      <c r="A1460" s="34"/>
+      <c r="B1460" s="44"/>
+    </row>
+    <row r="1461" spans="1:2">
+      <c r="A1461" s="34"/>
+      <c r="B1461" s="44"/>
+    </row>
+    <row r="1462" spans="1:2">
+      <c r="A1462" s="34"/>
+      <c r="B1462" s="44"/>
+    </row>
+    <row r="1463" spans="1:2">
+      <c r="A1463" s="34"/>
+      <c r="B1463" s="44"/>
+    </row>
+    <row r="1464" spans="1:2">
+      <c r="A1464" s="34"/>
+      <c r="B1464" s="44"/>
+    </row>
+    <row r="1465" spans="1:2">
+      <c r="A1465" s="34"/>
+      <c r="B1465" s="44"/>
+    </row>
+    <row r="1466" spans="1:2">
+      <c r="A1466" s="34"/>
+      <c r="B1466" s="44"/>
+    </row>
+    <row r="1467" spans="1:2">
+      <c r="A1467" s="34"/>
+      <c r="B1467" s="44"/>
+    </row>
+    <row r="1468" spans="1:2">
+      <c r="A1468" s="34"/>
+      <c r="B1468" s="44"/>
+    </row>
+    <row r="1469" spans="1:2">
+      <c r="A1469" s="34"/>
+      <c r="B1469" s="44"/>
+    </row>
+    <row r="1470" spans="1:2">
+      <c r="A1470" s="34"/>
+      <c r="B1470" s="44"/>
+    </row>
+    <row r="1471" spans="1:2">
+      <c r="A1471" s="34"/>
+      <c r="B1471" s="44"/>
+    </row>
+    <row r="1472" spans="1:2">
+      <c r="A1472" s="34"/>
+      <c r="B1472" s="44"/>
+    </row>
+    <row r="1473" spans="1:2">
+      <c r="A1473" s="34"/>
+      <c r="B1473" s="44"/>
+    </row>
+    <row r="1474" spans="1:2">
+      <c r="A1474" s="34"/>
+      <c r="B1474" s="44"/>
+    </row>
+    <row r="1475" spans="1:2">
+      <c r="A1475" s="34"/>
+      <c r="B1475" s="44"/>
+    </row>
+    <row r="1476" spans="1:2">
+      <c r="A1476" s="34"/>
+      <c r="B1476" s="44"/>
+    </row>
+    <row r="1477" spans="1:2">
+      <c r="A1477" s="34"/>
+      <c r="B1477" s="44"/>
+    </row>
+    <row r="1478" spans="1:2">
+      <c r="A1478" s="34"/>
+      <c r="B1478" s="44"/>
+    </row>
+    <row r="1479" spans="1:2">
+      <c r="A1479" s="34"/>
+      <c r="B1479" s="44"/>
+    </row>
+    <row r="1480" spans="1:2">
+      <c r="A1480" s="34"/>
+      <c r="B1480" s="44"/>
+    </row>
+    <row r="1481" spans="1:2">
+      <c r="A1481" s="34"/>
+      <c r="B1481" s="44"/>
+    </row>
+    <row r="1482" spans="1:2">
+      <c r="A1482" s="34"/>
+      <c r="B1482" s="44"/>
+    </row>
+    <row r="1483" spans="1:2">
+      <c r="A1483" s="34"/>
+      <c r="B1483" s="44"/>
+    </row>
+    <row r="1484" spans="1:2">
+      <c r="A1484" s="34"/>
+      <c r="B1484" s="44"/>
+    </row>
+    <row r="1485" spans="1:2">
+      <c r="A1485" s="34"/>
+      <c r="B1485" s="44"/>
+    </row>
+    <row r="1486" spans="1:2">
+      <c r="A1486" s="34"/>
+      <c r="B1486" s="44"/>
+    </row>
+    <row r="1487" spans="1:2">
+      <c r="A1487" s="34"/>
+      <c r="B1487" s="44"/>
+    </row>
+    <row r="1488" spans="1:2">
+      <c r="A1488" s="34"/>
+      <c r="B1488" s="44"/>
+    </row>
+    <row r="1489" spans="1:2">
+      <c r="A1489" s="34"/>
+      <c r="B1489" s="44"/>
+    </row>
+    <row r="1490" spans="1:2">
+      <c r="A1490" s="34"/>
+      <c r="B1490" s="44"/>
+    </row>
+    <row r="1491" spans="1:2">
+      <c r="A1491" s="34"/>
+      <c r="B1491" s="44"/>
+    </row>
+    <row r="1492" spans="1:2">
+      <c r="A1492" s="34"/>
+      <c r="B1492" s="44"/>
+    </row>
+    <row r="1493" spans="1:2">
+      <c r="A1493" s="34"/>
+      <c r="B1493" s="44"/>
+    </row>
+    <row r="1494" spans="1:2">
+      <c r="A1494" s="34"/>
+      <c r="B1494" s="44"/>
+    </row>
+    <row r="1495" spans="1:2">
+      <c r="A1495" s="34"/>
+      <c r="B1495" s="44"/>
+    </row>
+    <row r="1496" spans="1:2">
+      <c r="A1496" s="34"/>
+      <c r="B1496" s="44"/>
+    </row>
+    <row r="1497" spans="1:2">
+      <c r="A1497" s="34"/>
+      <c r="B1497" s="44"/>
+    </row>
+    <row r="1498" spans="1:2">
+      <c r="A1498" s="34"/>
+      <c r="B1498" s="44"/>
+    </row>
+    <row r="1499" spans="1:2">
+      <c r="A1499" s="34"/>
+      <c r="B1499" s="44"/>
+    </row>
+    <row r="1500" spans="1:2">
+      <c r="A1500" s="34"/>
+      <c r="B1500" s="44"/>
+    </row>
+    <row r="1501" spans="1:2">
+      <c r="A1501" s="34"/>
+      <c r="B1501" s="44"/>
+    </row>
+    <row r="1502" spans="1:2">
+      <c r="A1502" s="34"/>
+      <c r="B1502" s="44"/>
+    </row>
+    <row r="1503" spans="1:2">
+      <c r="A1503" s="34"/>
+      <c r="B1503" s="44"/>
+    </row>
+    <row r="1504" spans="1:2">
+      <c r="A1504" s="34"/>
+      <c r="B1504" s="44"/>
+    </row>
+    <row r="1505" spans="1:2">
+      <c r="A1505" s="34"/>
+      <c r="B1505" s="44"/>
+    </row>
+    <row r="1506" spans="1:2">
+      <c r="A1506" s="34"/>
+      <c r="B1506" s="44"/>
+    </row>
+    <row r="1507" spans="1:2">
+      <c r="A1507" s="34"/>
+      <c r="B1507" s="44"/>
+    </row>
+    <row r="1508" spans="1:2">
+      <c r="A1508" s="34"/>
+      <c r="B1508" s="44"/>
+    </row>
+    <row r="1509" spans="1:2">
+      <c r="A1509" s="34"/>
+      <c r="B1509" s="44"/>
+    </row>
+    <row r="1510" spans="1:2">
+      <c r="A1510" s="34"/>
+      <c r="B1510" s="44"/>
+    </row>
+    <row r="1511" spans="1:2">
+      <c r="A1511" s="34"/>
+      <c r="B1511" s="44"/>
+    </row>
+    <row r="1512" spans="1:2">
+      <c r="A1512" s="34"/>
+      <c r="B1512" s="44"/>
+    </row>
+    <row r="1513" spans="1:2">
+      <c r="A1513" s="34"/>
+      <c r="B1513" s="44"/>
+    </row>
+    <row r="1514" spans="1:2">
+      <c r="A1514" s="34"/>
+      <c r="B1514" s="44"/>
+    </row>
+    <row r="1515" spans="1:2">
+      <c r="A1515" s="34"/>
+      <c r="B1515" s="44"/>
+    </row>
+    <row r="1516" spans="1:2">
+      <c r="A1516" s="34"/>
+      <c r="B1516" s="44"/>
+    </row>
+    <row r="1517" spans="1:2">
+      <c r="A1517" s="34"/>
+      <c r="B1517" s="44"/>
+    </row>
+    <row r="1518" spans="1:2">
+      <c r="A1518" s="34"/>
+      <c r="B1518" s="44"/>
+    </row>
+    <row r="1519" spans="1:2">
+      <c r="A1519" s="34"/>
+      <c r="B1519" s="44"/>
+    </row>
+    <row r="1520" spans="1:2">
+      <c r="A1520" s="34"/>
+      <c r="B1520" s="44"/>
+    </row>
+    <row r="1521" spans="1:2">
+      <c r="A1521" s="34"/>
+      <c r="B1521" s="44"/>
+    </row>
+    <row r="1522" spans="1:2">
+      <c r="A1522" s="34"/>
+      <c r="B1522" s="44"/>
+    </row>
+    <row r="1523" spans="1:2">
+      <c r="A1523" s="34"/>
+      <c r="B1523" s="44"/>
+    </row>
+    <row r="1524" spans="1:2">
+      <c r="A1524" s="34"/>
+      <c r="B1524" s="44"/>
+    </row>
+    <row r="1525" spans="1:2">
+      <c r="A1525" s="34"/>
+      <c r="B1525" s="44"/>
+    </row>
+    <row r="1526" spans="1:2">
+      <c r="A1526" s="34"/>
+      <c r="B1526" s="44"/>
+    </row>
+    <row r="1527" spans="1:2">
+      <c r="A1527" s="34"/>
+      <c r="B1527" s="44"/>
+    </row>
+    <row r="1528" spans="1:2">
+      <c r="A1528" s="34"/>
+      <c r="B1528" s="44"/>
+    </row>
+    <row r="1529" spans="1:2">
+      <c r="A1529" s="34"/>
+      <c r="B1529" s="44"/>
+    </row>
+    <row r="1530" spans="1:2">
+      <c r="A1530" s="34"/>
+      <c r="B1530" s="44"/>
+    </row>
+    <row r="1531" spans="1:2">
+      <c r="A1531" s="34"/>
+      <c r="B1531" s="44"/>
+    </row>
+    <row r="1532" spans="1:2">
+      <c r="A1532" s="34"/>
+      <c r="B1532" s="44"/>
+    </row>
+    <row r="1533" spans="1:2">
+      <c r="A1533" s="34"/>
+      <c r="B1533" s="44"/>
+    </row>
+    <row r="1534" spans="1:2">
+      <c r="A1534" s="34"/>
+      <c r="B1534" s="44"/>
+    </row>
+    <row r="1535" spans="1:2">
+      <c r="A1535" s="34"/>
+      <c r="B1535" s="44"/>
+    </row>
+    <row r="1536" spans="1:2">
+      <c r="A1536" s="34"/>
+      <c r="B1536" s="44"/>
+    </row>
+    <row r="1537" spans="1:2">
+      <c r="A1537" s="34"/>
+      <c r="B1537" s="44"/>
+    </row>
+    <row r="1538" spans="1:2">
+      <c r="A1538" s="34"/>
+      <c r="B1538" s="44"/>
+    </row>
+    <row r="1539" spans="1:2">
+      <c r="A1539" s="34"/>
+      <c r="B1539" s="44"/>
+    </row>
+    <row r="1540" spans="1:2">
+      <c r="A1540" s="34"/>
+      <c r="B1540" s="44"/>
+    </row>
+    <row r="1541" spans="1:2">
+      <c r="A1541" s="34"/>
+      <c r="B1541" s="44"/>
+    </row>
+    <row r="1542" spans="1:2">
+      <c r="A1542" s="34"/>
+      <c r="B1542" s="44"/>
+    </row>
+    <row r="1543" spans="1:2">
+      <c r="A1543" s="34"/>
+      <c r="B1543" s="44"/>
+    </row>
+    <row r="1544" spans="1:2">
+      <c r="A1544" s="34"/>
+      <c r="B1544" s="44"/>
+    </row>
+    <row r="1545" spans="1:2">
+      <c r="A1545" s="34"/>
+      <c r="B1545" s="44"/>
+    </row>
+    <row r="1546" spans="1:2">
+      <c r="A1546" s="34"/>
+      <c r="B1546" s="44"/>
+    </row>
+    <row r="1547" spans="1:2">
+      <c r="A1547" s="34"/>
+      <c r="B1547" s="44"/>
+    </row>
+    <row r="1548" spans="1:2">
+      <c r="A1548" s="34"/>
+      <c r="B1548" s="44"/>
+    </row>
+    <row r="1549" spans="1:2">
+      <c r="A1549" s="34"/>
+      <c r="B1549" s="44"/>
+    </row>
+    <row r="1550" spans="1:2">
+      <c r="A1550" s="34"/>
+      <c r="B1550" s="44"/>
+    </row>
+    <row r="1551" spans="1:2">
+      <c r="A1551" s="34"/>
+      <c r="B1551" s="44"/>
+    </row>
+    <row r="1552" spans="1:2">
+      <c r="A1552" s="34"/>
+      <c r="B1552" s="44"/>
+    </row>
+    <row r="1553" spans="1:2">
+      <c r="A1553" s="34"/>
+      <c r="B1553" s="44"/>
+    </row>
+    <row r="1554" spans="1:2">
+      <c r="A1554" s="34"/>
+      <c r="B1554" s="44"/>
+    </row>
+    <row r="1555" spans="1:2">
+      <c r="A1555" s="34"/>
+      <c r="B1555" s="44"/>
+    </row>
+    <row r="1556" spans="1:2">
+      <c r="A1556" s="34"/>
+      <c r="B1556" s="44"/>
+    </row>
+    <row r="1557" spans="1:2">
+      <c r="A1557" s="34"/>
+      <c r="B1557" s="44"/>
+    </row>
+    <row r="1558" spans="1:2">
+      <c r="A1558" s="34"/>
+      <c r="B1558" s="44"/>
+    </row>
+    <row r="1559" spans="1:2">
+      <c r="A1559" s="34"/>
+      <c r="B1559" s="44"/>
+    </row>
+    <row r="1560" spans="1:2">
+      <c r="A1560" s="34"/>
+      <c r="B1560" s="44"/>
+    </row>
+    <row r="1561" spans="1:2">
+      <c r="A1561" s="34"/>
+      <c r="B1561" s="44"/>
+    </row>
+    <row r="1562" spans="1:2">
+      <c r="A1562" s="34"/>
+      <c r="B1562" s="44"/>
+    </row>
+    <row r="1563" spans="1:2">
+      <c r="A1563" s="34"/>
+      <c r="B1563" s="44"/>
+    </row>
+    <row r="1564" spans="1:2">
+      <c r="A1564" s="34"/>
+      <c r="B1564" s="44"/>
+    </row>
+    <row r="1565" spans="1:2">
+      <c r="A1565" s="34"/>
+      <c r="B1565" s="44"/>
+    </row>
+    <row r="1566" spans="1:2">
+      <c r="A1566" s="34"/>
+      <c r="B1566" s="44"/>
+    </row>
+    <row r="1567" spans="1:2">
+      <c r="A1567" s="34"/>
+      <c r="B1567" s="44"/>
+    </row>
+    <row r="1568" spans="1:2">
+      <c r="A1568" s="34"/>
+      <c r="B1568" s="44"/>
+    </row>
+    <row r="1569" spans="1:2">
+      <c r="A1569" s="34"/>
+      <c r="B1569" s="44"/>
+    </row>
+    <row r="1570" spans="1:2">
+      <c r="A1570" s="34"/>
+      <c r="B1570" s="44"/>
+    </row>
+    <row r="1571" spans="1:2">
+      <c r="A1571" s="34"/>
+      <c r="B1571" s="44"/>
+    </row>
+    <row r="1572" spans="1:2">
+      <c r="A1572" s="34"/>
+      <c r="B1572" s="44"/>
+    </row>
+    <row r="1573" spans="1:2">
+      <c r="A1573" s="34"/>
+      <c r="B1573" s="44"/>
+    </row>
+    <row r="1574" spans="1:2">
+      <c r="A1574" s="34"/>
+      <c r="B1574" s="44"/>
+    </row>
+    <row r="1575" spans="1:2">
+      <c r="A1575" s="34"/>
+      <c r="B1575" s="44"/>
+    </row>
+    <row r="1576" spans="1:2">
+      <c r="A1576" s="34"/>
+      <c r="B1576" s="44"/>
+    </row>
+    <row r="1577" spans="1:2">
+      <c r="A1577" s="34"/>
+      <c r="B1577" s="44"/>
+    </row>
+    <row r="1578" spans="1:2">
+      <c r="A1578" s="34"/>
+      <c r="B1578" s="44"/>
+    </row>
+    <row r="1579" spans="1:2">
+      <c r="A1579" s="34"/>
+      <c r="B1579" s="44"/>
+    </row>
+    <row r="1580" spans="1:2">
+      <c r="A1580" s="34"/>
+      <c r="B1580" s="44"/>
+    </row>
+    <row r="1581" spans="1:2">
+      <c r="A1581" s="34"/>
+      <c r="B1581" s="44"/>
+    </row>
+    <row r="1582" spans="1:2">
+      <c r="A1582" s="34"/>
+      <c r="B1582" s="44"/>
+    </row>
+    <row r="1583" spans="1:2">
+      <c r="A1583" s="34"/>
+      <c r="B1583" s="44"/>
+    </row>
+    <row r="1584" spans="1:2">
+      <c r="A1584" s="34"/>
+      <c r="B1584" s="44"/>
+    </row>
+    <row r="1585" spans="1:2">
+      <c r="A1585" s="34"/>
+      <c r="B1585" s="44"/>
+    </row>
+    <row r="1586" spans="1:2">
+      <c r="A1586" s="34"/>
+      <c r="B1586" s="44"/>
+    </row>
+    <row r="1587" spans="1:2">
+      <c r="A1587" s="34"/>
+      <c r="B1587" s="44"/>
+    </row>
+    <row r="1588" spans="1:2">
+      <c r="A1588" s="34"/>
+      <c r="B1588" s="44"/>
+    </row>
+    <row r="1589" spans="1:2">
+      <c r="A1589" s="34"/>
+      <c r="B1589" s="44"/>
+    </row>
+    <row r="1590" spans="1:2">
+      <c r="A1590" s="34"/>
+      <c r="B1590" s="44"/>
+    </row>
+    <row r="1591" spans="1:2">
+      <c r="A1591" s="34"/>
+      <c r="B1591" s="44"/>
+    </row>
+    <row r="1592" spans="1:2">
+      <c r="A1592" s="34"/>
+      <c r="B1592" s="44"/>
+    </row>
+    <row r="1593" spans="1:2">
+      <c r="A1593" s="34"/>
+      <c r="B1593" s="44"/>
+    </row>
+    <row r="1594" spans="1:2">
+      <c r="A1594" s="34"/>
+      <c r="B1594" s="44"/>
+    </row>
+    <row r="1595" spans="1:2">
+      <c r="A1595" s="34"/>
+      <c r="B1595" s="44"/>
+    </row>
+    <row r="1596" spans="1:2">
+      <c r="A1596" s="34"/>
+      <c r="B1596" s="44"/>
+    </row>
+    <row r="1597" spans="1:2">
+      <c r="A1597" s="34"/>
+      <c r="B1597" s="44"/>
+    </row>
+    <row r="1598" spans="1:2">
+      <c r="A1598" s="34"/>
+      <c r="B1598" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21143,7 +27977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -21218,7 +28052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L12"/>
   <sheetViews>
@@ -21313,58 +28147,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -21187,7 +21187,7 @@
   <dimension ref="A1:CC1598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="773">
   <si>
     <t>Execution</t>
   </si>
@@ -2344,15 +2344,6 @@
   </si>
   <si>
     <t>Value28</t>
-  </si>
-  <si>
-    <t>activationStatusFlag</t>
-  </si>
-  <si>
-    <t>negativeBarringStatusFlag</t>
-  </si>
-  <si>
-    <t>activationDate</t>
   </si>
 </sst>
 </file>
@@ -21187,7 +21178,7 @@
   <dimension ref="A1:CC1598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21536,21 +21527,6 @@
       <c r="B4">
         <v>200</v>
       </c>
-      <c r="D4" t="s">
-        <v>773</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>774</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>775</v>
-      </c>
     </row>
     <row r="5" spans="1:81">
       <c r="A5" t="s">

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -12,19 +12,18 @@
     <sheet name="Test Scenario" sheetId="3" r:id="rId3"/>
     <sheet name="ussd_code_data" sheetId="1" r:id="rId4"/>
     <sheet name="API" sheetId="12" r:id="rId5"/>
-    <sheet name="API2" sheetId="13" r:id="rId6"/>
-    <sheet name="Voice Data" sheetId="5" r:id="rId7"/>
-    <sheet name="recharge_data" sheetId="2" r:id="rId8"/>
-    <sheet name="Test Cases" sheetId="4" r:id="rId9"/>
-    <sheet name="balance_enquires" sheetId="6" r:id="rId10"/>
-    <sheet name="p2p_transfer" sheetId="7" r:id="rId11"/>
+    <sheet name="Voice Data" sheetId="5" r:id="rId6"/>
+    <sheet name="recharge_data" sheetId="2" r:id="rId7"/>
+    <sheet name="Test Cases" sheetId="4" r:id="rId8"/>
+    <sheet name="balance_enquires" sheetId="6" r:id="rId9"/>
+    <sheet name="p2p_transfer" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="767">
   <si>
     <t>Execution</t>
   </si>
@@ -2326,24 +2325,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Capture_Value1</t>
-  </si>
-  <si>
-    <t>Value24</t>
-  </si>
-  <si>
-    <t>Value25</t>
-  </si>
-  <si>
-    <t>Value26</t>
-  </si>
-  <si>
-    <t>Value27</t>
-  </si>
-  <si>
-    <t>Value28</t>
   </si>
 </sst>
 </file>
@@ -2987,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3024,7 +3005,7 @@
         <v>409</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>460</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3314,60 +3295,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -21175,6743 +21102,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC1598"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:81">
-      <c r="A1" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>765</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>767</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>564</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE1" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="AF1" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG1" s="33" t="s">
-        <v>575</v>
-      </c>
-      <c r="AH1" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="AI1" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="AJ1" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="AK1" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="AL1" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM1" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="AN1" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="AO1" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="AP1" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="AQ1" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="AR1" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="AS1" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="AT1" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="AU1" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="AV1" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="AW1" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="AX1" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="AY1" s="33" t="s">
-        <v>768</v>
-      </c>
-      <c r="AZ1" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="BA1" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="BB1" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="BC1" s="33" t="s">
-        <v>770</v>
-      </c>
-      <c r="BD1" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>771</v>
-      </c>
-      <c r="BF1" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="BG1" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="BH1" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="BI1" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="BJ1" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="BK1" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="BL1" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="BM1" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="BN1" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="BO1" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="BP1" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="BQ1" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="BR1" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="BS1" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="BT1" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="BU1" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="BV1" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="BW1" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="BX1" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="BY1" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="BZ1" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="CA1" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="CB1" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="CC1" s="33" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:81">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:81">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:81">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:81">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81">
-      <c r="A6" s="34"/>
-      <c r="B6" s="44"/>
-    </row>
-    <row r="7" spans="1:81">
-      <c r="A7" s="34"/>
-      <c r="B7" s="44"/>
-    </row>
-    <row r="8" spans="1:81">
-      <c r="A8" s="34"/>
-      <c r="B8" s="44"/>
-    </row>
-    <row r="9" spans="1:81">
-      <c r="A9" s="34"/>
-      <c r="B9" s="44"/>
-    </row>
-    <row r="10" spans="1:81">
-      <c r="A10" s="34"/>
-      <c r="B10" s="44"/>
-    </row>
-    <row r="11" spans="1:81">
-      <c r="A11" s="34"/>
-      <c r="B11" s="44"/>
-    </row>
-    <row r="12" spans="1:81">
-      <c r="A12" s="34"/>
-      <c r="B12" s="44"/>
-    </row>
-    <row r="13" spans="1:81">
-      <c r="A13" s="34"/>
-      <c r="B13" s="44"/>
-    </row>
-    <row r="14" spans="1:81">
-      <c r="A14" s="34"/>
-      <c r="B14" s="44"/>
-    </row>
-    <row r="15" spans="1:81">
-      <c r="A15" s="34"/>
-      <c r="B15" s="44"/>
-    </row>
-    <row r="16" spans="1:81">
-      <c r="A16" s="34"/>
-      <c r="B16" s="44"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="44"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="44"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="44"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="44"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="44"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="44"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="44"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="44"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="44"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="44"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="44"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="44"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="44"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="44"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="44"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="44"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="44"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="44"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="44"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="44"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="44"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="44"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="44"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="44"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="44"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="44"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="44"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="44"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="44"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="34"/>
-      <c r="B46" s="44"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="44"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="44"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="44"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="44"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="34"/>
-      <c r="B51" s="44"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="44"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="44"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="44"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="44"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="44"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="44"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="44"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="44"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="44"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="44"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="44"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="44"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="34"/>
-      <c r="B64" s="44"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="34"/>
-      <c r="B65" s="44"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="44"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="44"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="34"/>
-      <c r="B68" s="44"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="34"/>
-      <c r="B69" s="44"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="34"/>
-      <c r="B70" s="44"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="34"/>
-      <c r="B71" s="44"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="34"/>
-      <c r="B72" s="44"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="34"/>
-      <c r="B73" s="44"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="34"/>
-      <c r="B74" s="44"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="34"/>
-      <c r="B75" s="44"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="34"/>
-      <c r="B76" s="44"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="44"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="34"/>
-      <c r="B78" s="44"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="34"/>
-      <c r="B79" s="44"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="34"/>
-      <c r="B80" s="44"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="34"/>
-      <c r="B81" s="44"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="34"/>
-      <c r="B82" s="44"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="34"/>
-      <c r="B83" s="44"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="44"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="34"/>
-      <c r="B85" s="44"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="34"/>
-      <c r="B86" s="44"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="34"/>
-      <c r="B87" s="44"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="34"/>
-      <c r="B88" s="44"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="34"/>
-      <c r="B89" s="44"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="34"/>
-      <c r="B90" s="44"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="34"/>
-      <c r="B91" s="44"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="34"/>
-      <c r="B92" s="44"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="34"/>
-      <c r="B93" s="44"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="34"/>
-      <c r="B94" s="44"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="34"/>
-      <c r="B95" s="44"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="34"/>
-      <c r="B96" s="44"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="34"/>
-      <c r="B97" s="44"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="34"/>
-      <c r="B98" s="44"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="34"/>
-      <c r="B99" s="44"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="34"/>
-      <c r="B100" s="44"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="34"/>
-      <c r="B101" s="44"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="34"/>
-      <c r="B102" s="44"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="34"/>
-      <c r="B103" s="44"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="34"/>
-      <c r="B104" s="44"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="34"/>
-      <c r="B105" s="44"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="34"/>
-      <c r="B106" s="44"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="34"/>
-      <c r="B107" s="44"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="34"/>
-      <c r="B108" s="44"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="34"/>
-      <c r="B109" s="44"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="34"/>
-      <c r="B110" s="44"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="34"/>
-      <c r="B111" s="44"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="34"/>
-      <c r="B112" s="44"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="34"/>
-      <c r="B113" s="44"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="34"/>
-      <c r="B114" s="44"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="34"/>
-      <c r="B115" s="44"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="34"/>
-      <c r="B116" s="44"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="34"/>
-      <c r="B117" s="44"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="34"/>
-      <c r="B118" s="44"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="34"/>
-      <c r="B119" s="44"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="34"/>
-      <c r="B120" s="44"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="34"/>
-      <c r="B121" s="44"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="34"/>
-      <c r="B122" s="44"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="34"/>
-      <c r="B123" s="44"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="34"/>
-      <c r="B124" s="44"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="34"/>
-      <c r="B125" s="44"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="34"/>
-      <c r="B126" s="44"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="34"/>
-      <c r="B127" s="44"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="34"/>
-      <c r="B128" s="44"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="34"/>
-      <c r="B129" s="44"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="34"/>
-      <c r="B130" s="44"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="34"/>
-      <c r="B131" s="44"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="34"/>
-      <c r="B132" s="44"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="34"/>
-      <c r="B133" s="44"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="34"/>
-      <c r="B134" s="44"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="34"/>
-      <c r="B135" s="44"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="34"/>
-      <c r="B136" s="44"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="34"/>
-      <c r="B137" s="44"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="34"/>
-      <c r="B138" s="44"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="34"/>
-      <c r="B139" s="44"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="34"/>
-      <c r="B140" s="44"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="34"/>
-      <c r="B141" s="44"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="34"/>
-      <c r="B142" s="44"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="34"/>
-      <c r="B143" s="44"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="34"/>
-      <c r="B144" s="44"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="34"/>
-      <c r="B145" s="44"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="34"/>
-      <c r="B146" s="44"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="34"/>
-      <c r="B147" s="44"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="34"/>
-      <c r="B148" s="44"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="34"/>
-      <c r="B149" s="44"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="34"/>
-      <c r="B150" s="44"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="34"/>
-      <c r="B151" s="44"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="34"/>
-      <c r="B152" s="44"/>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="34"/>
-      <c r="B153" s="44"/>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="34"/>
-      <c r="B154" s="44"/>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="34"/>
-      <c r="B155" s="44"/>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="34"/>
-      <c r="B156" s="44"/>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="34"/>
-      <c r="B157" s="44"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="34"/>
-      <c r="B158" s="44"/>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="34"/>
-      <c r="B159" s="44"/>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="34"/>
-      <c r="B160" s="44"/>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="34"/>
-      <c r="B161" s="44"/>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="34"/>
-      <c r="B162" s="44"/>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="34"/>
-      <c r="B163" s="44"/>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="34"/>
-      <c r="B164" s="44"/>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="34"/>
-      <c r="B165" s="44"/>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="34"/>
-      <c r="B166" s="44"/>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="34"/>
-      <c r="B167" s="44"/>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="34"/>
-      <c r="B168" s="44"/>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="34"/>
-      <c r="B169" s="44"/>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="34"/>
-      <c r="B170" s="44"/>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="34"/>
-      <c r="B171" s="44"/>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="34"/>
-      <c r="B172" s="44"/>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="34"/>
-      <c r="B173" s="44"/>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="34"/>
-      <c r="B174" s="44"/>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="34"/>
-      <c r="B175" s="44"/>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="34"/>
-      <c r="B176" s="44"/>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="34"/>
-      <c r="B177" s="44"/>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="34"/>
-      <c r="B178" s="44"/>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="34"/>
-      <c r="B179" s="44"/>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="34"/>
-      <c r="B180" s="44"/>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="34"/>
-      <c r="B181" s="44"/>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="34"/>
-      <c r="B182" s="44"/>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="34"/>
-      <c r="B183" s="44"/>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="34"/>
-      <c r="B184" s="44"/>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="34"/>
-      <c r="B185" s="44"/>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="34"/>
-      <c r="B186" s="44"/>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="34"/>
-      <c r="B187" s="44"/>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="34"/>
-      <c r="B188" s="44"/>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="34"/>
-      <c r="B189" s="44"/>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="34"/>
-      <c r="B190" s="44"/>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="34"/>
-      <c r="B191" s="44"/>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="34"/>
-      <c r="B192" s="44"/>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="34"/>
-      <c r="B193" s="44"/>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="34"/>
-      <c r="B194" s="44"/>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="34"/>
-      <c r="B195" s="44"/>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="34"/>
-      <c r="B196" s="44"/>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="34"/>
-      <c r="B197" s="44"/>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="34"/>
-      <c r="B198" s="44"/>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="34"/>
-      <c r="B199" s="44"/>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="34"/>
-      <c r="B200" s="44"/>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="34"/>
-      <c r="B201" s="44"/>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="34"/>
-      <c r="B202" s="44"/>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="34"/>
-      <c r="B203" s="44"/>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="34"/>
-      <c r="B204" s="44"/>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="34"/>
-      <c r="B205" s="44"/>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="34"/>
-      <c r="B206" s="44"/>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="34"/>
-      <c r="B207" s="44"/>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="34"/>
-      <c r="B208" s="44"/>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="34"/>
-      <c r="B209" s="44"/>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="34"/>
-      <c r="B210" s="44"/>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="34"/>
-      <c r="B211" s="44"/>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="34"/>
-      <c r="B212" s="44"/>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="34"/>
-      <c r="B213" s="44"/>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="34"/>
-      <c r="B214" s="44"/>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="34"/>
-      <c r="B215" s="44"/>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="34"/>
-      <c r="B216" s="44"/>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="34"/>
-      <c r="B217" s="44"/>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="34"/>
-      <c r="B218" s="44"/>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="34"/>
-      <c r="B219" s="44"/>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="34"/>
-      <c r="B220" s="44"/>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="34"/>
-      <c r="B221" s="44"/>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="34"/>
-      <c r="B222" s="44"/>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="34"/>
-      <c r="B223" s="44"/>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="34"/>
-      <c r="B224" s="44"/>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="34"/>
-      <c r="B225" s="44"/>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="34"/>
-      <c r="B226" s="44"/>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="34"/>
-      <c r="B227" s="44"/>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="34"/>
-      <c r="B228" s="44"/>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="34"/>
-      <c r="B229" s="44"/>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="34"/>
-      <c r="B230" s="44"/>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="34"/>
-      <c r="B231" s="44"/>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="34"/>
-      <c r="B232" s="44"/>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="34"/>
-      <c r="B233" s="44"/>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="34"/>
-      <c r="B234" s="44"/>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="34"/>
-      <c r="B235" s="44"/>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="34"/>
-      <c r="B236" s="44"/>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="34"/>
-      <c r="B237" s="44"/>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="34"/>
-      <c r="B238" s="44"/>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="34"/>
-      <c r="B239" s="44"/>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="34"/>
-      <c r="B240" s="44"/>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="34"/>
-      <c r="B241" s="44"/>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="34"/>
-      <c r="B242" s="44"/>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="34"/>
-      <c r="B243" s="44"/>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="34"/>
-      <c r="B244" s="44"/>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="34"/>
-      <c r="B245" s="44"/>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="34"/>
-      <c r="B246" s="44"/>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="34"/>
-      <c r="B247" s="44"/>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="34"/>
-      <c r="B248" s="44"/>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="34"/>
-      <c r="B249" s="44"/>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="34"/>
-      <c r="B250" s="44"/>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="34"/>
-      <c r="B251" s="44"/>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="34"/>
-      <c r="B252" s="44"/>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="34"/>
-      <c r="B253" s="44"/>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="34"/>
-      <c r="B254" s="44"/>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="34"/>
-      <c r="B255" s="44"/>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="34"/>
-      <c r="B256" s="44"/>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="34"/>
-      <c r="B257" s="44"/>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="34"/>
-      <c r="B258" s="44"/>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="34"/>
-      <c r="B259" s="44"/>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="34"/>
-      <c r="B260" s="44"/>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="34"/>
-      <c r="B261" s="44"/>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="34"/>
-      <c r="B262" s="44"/>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="34"/>
-      <c r="B263" s="44"/>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="34"/>
-      <c r="B264" s="44"/>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="34"/>
-      <c r="B265" s="44"/>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="34"/>
-      <c r="B266" s="44"/>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="34"/>
-      <c r="B267" s="44"/>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="34"/>
-      <c r="B268" s="44"/>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="34"/>
-      <c r="B269" s="44"/>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="34"/>
-      <c r="B270" s="44"/>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="34"/>
-      <c r="B271" s="44"/>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="34"/>
-      <c r="B272" s="44"/>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="34"/>
-      <c r="B273" s="44"/>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="34"/>
-      <c r="B274" s="44"/>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="34"/>
-      <c r="B275" s="44"/>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="34"/>
-      <c r="B276" s="44"/>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="34"/>
-      <c r="B277" s="44"/>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="34"/>
-      <c r="B278" s="44"/>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="34"/>
-      <c r="B279" s="44"/>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="34"/>
-      <c r="B280" s="44"/>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="34"/>
-      <c r="B281" s="44"/>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="34"/>
-      <c r="B282" s="44"/>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="34"/>
-      <c r="B283" s="44"/>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="34"/>
-      <c r="B284" s="44"/>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="34"/>
-      <c r="B285" s="44"/>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="34"/>
-      <c r="B286" s="44"/>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="34"/>
-      <c r="B287" s="44"/>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="34"/>
-      <c r="B288" s="44"/>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="34"/>
-      <c r="B289" s="44"/>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="34"/>
-      <c r="B290" s="44"/>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="34"/>
-      <c r="B291" s="44"/>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="34"/>
-      <c r="B292" s="44"/>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="34"/>
-      <c r="B293" s="44"/>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="34"/>
-      <c r="B294" s="44"/>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="34"/>
-      <c r="B295" s="44"/>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="34"/>
-      <c r="B296" s="44"/>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="34"/>
-      <c r="B297" s="44"/>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="34"/>
-      <c r="B298" s="44"/>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="34"/>
-      <c r="B299" s="44"/>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="34"/>
-      <c r="B300" s="44"/>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="34"/>
-      <c r="B301" s="44"/>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="34"/>
-      <c r="B302" s="44"/>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="34"/>
-      <c r="B303" s="44"/>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="34"/>
-      <c r="B304" s="44"/>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="34"/>
-      <c r="B305" s="44"/>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="34"/>
-      <c r="B306" s="44"/>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="34"/>
-      <c r="B307" s="44"/>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="34"/>
-      <c r="B308" s="44"/>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="34"/>
-      <c r="B309" s="44"/>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="34"/>
-      <c r="B310" s="44"/>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="34"/>
-      <c r="B311" s="44"/>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="34"/>
-      <c r="B312" s="44"/>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="34"/>
-      <c r="B313" s="44"/>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="34"/>
-      <c r="B314" s="44"/>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="34"/>
-      <c r="B315" s="44"/>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="34"/>
-      <c r="B316" s="44"/>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="34"/>
-      <c r="B317" s="44"/>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="34"/>
-      <c r="B318" s="44"/>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="34"/>
-      <c r="B319" s="44"/>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="34"/>
-      <c r="B320" s="44"/>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="34"/>
-      <c r="B321" s="44"/>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="34"/>
-      <c r="B322" s="44"/>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="34"/>
-      <c r="B323" s="44"/>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="34"/>
-      <c r="B324" s="44"/>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="34"/>
-      <c r="B325" s="44"/>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="34"/>
-      <c r="B326" s="44"/>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="34"/>
-      <c r="B327" s="44"/>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="34"/>
-      <c r="B328" s="44"/>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="34"/>
-      <c r="B329" s="44"/>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="34"/>
-      <c r="B330" s="44"/>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="34"/>
-      <c r="B331" s="44"/>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="34"/>
-      <c r="B332" s="44"/>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="34"/>
-      <c r="B333" s="44"/>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="34"/>
-      <c r="B334" s="44"/>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="34"/>
-      <c r="B335" s="44"/>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="34"/>
-      <c r="B336" s="44"/>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="34"/>
-      <c r="B337" s="44"/>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="34"/>
-      <c r="B338" s="44"/>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="34"/>
-      <c r="B339" s="44"/>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="34"/>
-      <c r="B340" s="44"/>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="34"/>
-      <c r="B341" s="44"/>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="34"/>
-      <c r="B342" s="44"/>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="34"/>
-      <c r="B343" s="44"/>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="34"/>
-      <c r="B344" s="44"/>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="34"/>
-      <c r="B345" s="44"/>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="34"/>
-      <c r="B346" s="44"/>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="34"/>
-      <c r="B347" s="44"/>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="34"/>
-      <c r="B348" s="44"/>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="34"/>
-      <c r="B349" s="44"/>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="34"/>
-      <c r="B350" s="44"/>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="34"/>
-      <c r="B351" s="44"/>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="34"/>
-      <c r="B352" s="44"/>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="34"/>
-      <c r="B353" s="44"/>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="34"/>
-      <c r="B354" s="44"/>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="34"/>
-      <c r="B355" s="44"/>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="34"/>
-      <c r="B356" s="44"/>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="34"/>
-      <c r="B357" s="44"/>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="34"/>
-      <c r="B358" s="44"/>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="34"/>
-      <c r="B359" s="44"/>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="34"/>
-      <c r="B360" s="44"/>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="34"/>
-      <c r="B361" s="44"/>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="34"/>
-      <c r="B362" s="44"/>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="34"/>
-      <c r="B363" s="44"/>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="34"/>
-      <c r="B364" s="44"/>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="34"/>
-      <c r="B365" s="44"/>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" s="34"/>
-      <c r="B366" s="44"/>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" s="34"/>
-      <c r="B367" s="44"/>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="34"/>
-      <c r="B368" s="44"/>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" s="34"/>
-      <c r="B369" s="44"/>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="34"/>
-      <c r="B370" s="44"/>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" s="34"/>
-      <c r="B371" s="44"/>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" s="34"/>
-      <c r="B372" s="44"/>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" s="34"/>
-      <c r="B373" s="44"/>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" s="34"/>
-      <c r="B374" s="44"/>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" s="34"/>
-      <c r="B375" s="44"/>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="34"/>
-      <c r="B376" s="44"/>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" s="34"/>
-      <c r="B377" s="44"/>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="34"/>
-      <c r="B378" s="44"/>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="34"/>
-      <c r="B379" s="44"/>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" s="34"/>
-      <c r="B380" s="44"/>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" s="34"/>
-      <c r="B381" s="44"/>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="34"/>
-      <c r="B382" s="44"/>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" s="34"/>
-      <c r="B383" s="44"/>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" s="34"/>
-      <c r="B384" s="44"/>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" s="34"/>
-      <c r="B385" s="44"/>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="34"/>
-      <c r="B386" s="44"/>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="34"/>
-      <c r="B387" s="44"/>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="34"/>
-      <c r="B388" s="44"/>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="34"/>
-      <c r="B389" s="44"/>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="34"/>
-      <c r="B390" s="44"/>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="34"/>
-      <c r="B391" s="44"/>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="34"/>
-      <c r="B392" s="44"/>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="34"/>
-      <c r="B393" s="44"/>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="34"/>
-      <c r="B394" s="44"/>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" s="34"/>
-      <c r="B395" s="44"/>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" s="34"/>
-      <c r="B396" s="44"/>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" s="34"/>
-      <c r="B397" s="44"/>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="34"/>
-      <c r="B398" s="44"/>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="34"/>
-      <c r="B399" s="44"/>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" s="34"/>
-      <c r="B400" s="44"/>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="34"/>
-      <c r="B401" s="44"/>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="34"/>
-      <c r="B402" s="44"/>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="34"/>
-      <c r="B403" s="44"/>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="34"/>
-      <c r="B404" s="44"/>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="34"/>
-      <c r="B405" s="44"/>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="34"/>
-      <c r="B406" s="44"/>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="34"/>
-      <c r="B407" s="44"/>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="34"/>
-      <c r="B408" s="44"/>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" s="34"/>
-      <c r="B409" s="44"/>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="34"/>
-      <c r="B410" s="44"/>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" s="34"/>
-      <c r="B411" s="44"/>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" s="34"/>
-      <c r="B412" s="44"/>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="34"/>
-      <c r="B413" s="44"/>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="34"/>
-      <c r="B414" s="44"/>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" s="34"/>
-      <c r="B415" s="44"/>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" s="34"/>
-      <c r="B416" s="44"/>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" s="34"/>
-      <c r="B417" s="44"/>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="34"/>
-      <c r="B418" s="44"/>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" s="34"/>
-      <c r="B419" s="44"/>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" s="34"/>
-      <c r="B420" s="44"/>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" s="34"/>
-      <c r="B421" s="44"/>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" s="34"/>
-      <c r="B422" s="44"/>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" s="34"/>
-      <c r="B423" s="44"/>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" s="34"/>
-      <c r="B424" s="44"/>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" s="34"/>
-      <c r="B425" s="44"/>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" s="34"/>
-      <c r="B426" s="44"/>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" s="34"/>
-      <c r="B427" s="44"/>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" s="34"/>
-      <c r="B428" s="44"/>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" s="34"/>
-      <c r="B429" s="44"/>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" s="34"/>
-      <c r="B430" s="44"/>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" s="34"/>
-      <c r="B431" s="44"/>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" s="34"/>
-      <c r="B432" s="44"/>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" s="34"/>
-      <c r="B433" s="44"/>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" s="34"/>
-      <c r="B434" s="44"/>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" s="34"/>
-      <c r="B435" s="44"/>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="34"/>
-      <c r="B436" s="44"/>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="34"/>
-      <c r="B437" s="44"/>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" s="34"/>
-      <c r="B438" s="44"/>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" s="34"/>
-      <c r="B439" s="44"/>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" s="34"/>
-      <c r="B440" s="44"/>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" s="34"/>
-      <c r="B441" s="44"/>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" s="34"/>
-      <c r="B442" s="44"/>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" s="34"/>
-      <c r="B443" s="44"/>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" s="34"/>
-      <c r="B444" s="44"/>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" s="34"/>
-      <c r="B445" s="44"/>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" s="34"/>
-      <c r="B446" s="44"/>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" s="34"/>
-      <c r="B447" s="44"/>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" s="34"/>
-      <c r="B448" s="44"/>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" s="34"/>
-      <c r="B449" s="44"/>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" s="34"/>
-      <c r="B450" s="44"/>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" s="34"/>
-      <c r="B451" s="44"/>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" s="34"/>
-      <c r="B452" s="44"/>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" s="34"/>
-      <c r="B453" s="44"/>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" s="34"/>
-      <c r="B454" s="44"/>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" s="34"/>
-      <c r="B455" s="44"/>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" s="34"/>
-      <c r="B456" s="44"/>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" s="34"/>
-      <c r="B457" s="44"/>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" s="34"/>
-      <c r="B458" s="44"/>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" s="34"/>
-      <c r="B459" s="44"/>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" s="34"/>
-      <c r="B460" s="44"/>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" s="34"/>
-      <c r="B461" s="44"/>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" s="34"/>
-      <c r="B462" s="44"/>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="34"/>
-      <c r="B463" s="44"/>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="34"/>
-      <c r="B464" s="44"/>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" s="34"/>
-      <c r="B465" s="44"/>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" s="34"/>
-      <c r="B466" s="44"/>
-    </row>
-    <row r="467" spans="1:2">
-      <c r="A467" s="34"/>
-      <c r="B467" s="44"/>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" s="34"/>
-      <c r="B468" s="44"/>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" s="34"/>
-      <c r="B469" s="44"/>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="34"/>
-      <c r="B470" s="44"/>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" s="34"/>
-      <c r="B471" s="44"/>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" s="34"/>
-      <c r="B472" s="44"/>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" s="34"/>
-      <c r="B473" s="44"/>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" s="34"/>
-      <c r="B474" s="44"/>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" s="34"/>
-      <c r="B475" s="44"/>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" s="34"/>
-      <c r="B476" s="44"/>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" s="34"/>
-      <c r="B477" s="44"/>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" s="34"/>
-      <c r="B478" s="44"/>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" s="34"/>
-      <c r="B479" s="44"/>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" s="34"/>
-      <c r="B480" s="44"/>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="34"/>
-      <c r="B481" s="44"/>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" s="34"/>
-      <c r="B482" s="44"/>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" s="34"/>
-      <c r="B483" s="44"/>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" s="34"/>
-      <c r="B484" s="44"/>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" s="34"/>
-      <c r="B485" s="44"/>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" s="34"/>
-      <c r="B486" s="44"/>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="34"/>
-      <c r="B487" s="44"/>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" s="34"/>
-      <c r="B488" s="44"/>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" s="34"/>
-      <c r="B489" s="44"/>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" s="34"/>
-      <c r="B490" s="44"/>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" s="34"/>
-      <c r="B491" s="44"/>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" s="34"/>
-      <c r="B492" s="44"/>
-    </row>
-    <row r="493" spans="1:2">
-      <c r="A493" s="34"/>
-      <c r="B493" s="44"/>
-    </row>
-    <row r="494" spans="1:2">
-      <c r="A494" s="34"/>
-      <c r="B494" s="44"/>
-    </row>
-    <row r="495" spans="1:2">
-      <c r="A495" s="34"/>
-      <c r="B495" s="44"/>
-    </row>
-    <row r="496" spans="1:2">
-      <c r="A496" s="34"/>
-      <c r="B496" s="44"/>
-    </row>
-    <row r="497" spans="1:2">
-      <c r="A497" s="34"/>
-      <c r="B497" s="44"/>
-    </row>
-    <row r="498" spans="1:2">
-      <c r="A498" s="34"/>
-      <c r="B498" s="44"/>
-    </row>
-    <row r="499" spans="1:2">
-      <c r="A499" s="34"/>
-      <c r="B499" s="44"/>
-    </row>
-    <row r="500" spans="1:2">
-      <c r="A500" s="34"/>
-      <c r="B500" s="44"/>
-    </row>
-    <row r="501" spans="1:2">
-      <c r="A501" s="34"/>
-      <c r="B501" s="44"/>
-    </row>
-    <row r="502" spans="1:2">
-      <c r="A502" s="34"/>
-      <c r="B502" s="44"/>
-    </row>
-    <row r="503" spans="1:2">
-      <c r="A503" s="34"/>
-      <c r="B503" s="44"/>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" s="34"/>
-      <c r="B504" s="44"/>
-    </row>
-    <row r="505" spans="1:2">
-      <c r="A505" s="34"/>
-      <c r="B505" s="44"/>
-    </row>
-    <row r="506" spans="1:2">
-      <c r="A506" s="34"/>
-      <c r="B506" s="44"/>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" s="34"/>
-      <c r="B507" s="44"/>
-    </row>
-    <row r="508" spans="1:2">
-      <c r="A508" s="34"/>
-      <c r="B508" s="44"/>
-    </row>
-    <row r="509" spans="1:2">
-      <c r="A509" s="34"/>
-      <c r="B509" s="44"/>
-    </row>
-    <row r="510" spans="1:2">
-      <c r="A510" s="34"/>
-      <c r="B510" s="44"/>
-    </row>
-    <row r="511" spans="1:2">
-      <c r="A511" s="34"/>
-      <c r="B511" s="44"/>
-    </row>
-    <row r="512" spans="1:2">
-      <c r="A512" s="34"/>
-      <c r="B512" s="44"/>
-    </row>
-    <row r="513" spans="1:2">
-      <c r="A513" s="34"/>
-      <c r="B513" s="44"/>
-    </row>
-    <row r="514" spans="1:2">
-      <c r="A514" s="34"/>
-      <c r="B514" s="44"/>
-    </row>
-    <row r="515" spans="1:2">
-      <c r="A515" s="34"/>
-      <c r="B515" s="44"/>
-    </row>
-    <row r="516" spans="1:2">
-      <c r="A516" s="34"/>
-      <c r="B516" s="44"/>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" s="34"/>
-      <c r="B517" s="44"/>
-    </row>
-    <row r="518" spans="1:2">
-      <c r="A518" s="34"/>
-      <c r="B518" s="44"/>
-    </row>
-    <row r="519" spans="1:2">
-      <c r="A519" s="34"/>
-      <c r="B519" s="44"/>
-    </row>
-    <row r="520" spans="1:2">
-      <c r="A520" s="34"/>
-      <c r="B520" s="44"/>
-    </row>
-    <row r="521" spans="1:2">
-      <c r="A521" s="34"/>
-      <c r="B521" s="44"/>
-    </row>
-    <row r="522" spans="1:2">
-      <c r="A522" s="34"/>
-      <c r="B522" s="44"/>
-    </row>
-    <row r="523" spans="1:2">
-      <c r="A523" s="34"/>
-      <c r="B523" s="44"/>
-    </row>
-    <row r="524" spans="1:2">
-      <c r="A524" s="34"/>
-      <c r="B524" s="44"/>
-    </row>
-    <row r="525" spans="1:2">
-      <c r="A525" s="34"/>
-      <c r="B525" s="44"/>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" s="34"/>
-      <c r="B526" s="44"/>
-    </row>
-    <row r="527" spans="1:2">
-      <c r="A527" s="34"/>
-      <c r="B527" s="44"/>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" s="34"/>
-      <c r="B528" s="44"/>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" s="34"/>
-      <c r="B529" s="44"/>
-    </row>
-    <row r="530" spans="1:2">
-      <c r="A530" s="34"/>
-      <c r="B530" s="44"/>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" s="34"/>
-      <c r="B531" s="44"/>
-    </row>
-    <row r="532" spans="1:2">
-      <c r="A532" s="34"/>
-      <c r="B532" s="44"/>
-    </row>
-    <row r="533" spans="1:2">
-      <c r="A533" s="34"/>
-      <c r="B533" s="44"/>
-    </row>
-    <row r="534" spans="1:2">
-      <c r="A534" s="34"/>
-      <c r="B534" s="44"/>
-    </row>
-    <row r="535" spans="1:2">
-      <c r="A535" s="34"/>
-      <c r="B535" s="44"/>
-    </row>
-    <row r="536" spans="1:2">
-      <c r="A536" s="34"/>
-      <c r="B536" s="44"/>
-    </row>
-    <row r="537" spans="1:2">
-      <c r="A537" s="34"/>
-      <c r="B537" s="44"/>
-    </row>
-    <row r="538" spans="1:2">
-      <c r="A538" s="34"/>
-      <c r="B538" s="44"/>
-    </row>
-    <row r="539" spans="1:2">
-      <c r="A539" s="34"/>
-      <c r="B539" s="44"/>
-    </row>
-    <row r="540" spans="1:2">
-      <c r="A540" s="34"/>
-      <c r="B540" s="44"/>
-    </row>
-    <row r="541" spans="1:2">
-      <c r="A541" s="34"/>
-      <c r="B541" s="44"/>
-    </row>
-    <row r="542" spans="1:2">
-      <c r="A542" s="34"/>
-      <c r="B542" s="44"/>
-    </row>
-    <row r="543" spans="1:2">
-      <c r="A543" s="34"/>
-      <c r="B543" s="44"/>
-    </row>
-    <row r="544" spans="1:2">
-      <c r="A544" s="34"/>
-      <c r="B544" s="44"/>
-    </row>
-    <row r="545" spans="1:2">
-      <c r="A545" s="34"/>
-      <c r="B545" s="44"/>
-    </row>
-    <row r="546" spans="1:2">
-      <c r="A546" s="34"/>
-      <c r="B546" s="44"/>
-    </row>
-    <row r="547" spans="1:2">
-      <c r="A547" s="34"/>
-      <c r="B547" s="44"/>
-    </row>
-    <row r="548" spans="1:2">
-      <c r="A548" s="34"/>
-      <c r="B548" s="44"/>
-    </row>
-    <row r="549" spans="1:2">
-      <c r="A549" s="34"/>
-      <c r="B549" s="44"/>
-    </row>
-    <row r="550" spans="1:2">
-      <c r="A550" s="34"/>
-      <c r="B550" s="44"/>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" s="34"/>
-      <c r="B551" s="44"/>
-    </row>
-    <row r="552" spans="1:2">
-      <c r="A552" s="34"/>
-      <c r="B552" s="44"/>
-    </row>
-    <row r="553" spans="1:2">
-      <c r="A553" s="34"/>
-      <c r="B553" s="44"/>
-    </row>
-    <row r="554" spans="1:2">
-      <c r="A554" s="34"/>
-      <c r="B554" s="44"/>
-    </row>
-    <row r="555" spans="1:2">
-      <c r="A555" s="34"/>
-      <c r="B555" s="44"/>
-    </row>
-    <row r="556" spans="1:2">
-      <c r="A556" s="34"/>
-      <c r="B556" s="44"/>
-    </row>
-    <row r="557" spans="1:2">
-      <c r="A557" s="34"/>
-      <c r="B557" s="44"/>
-    </row>
-    <row r="558" spans="1:2">
-      <c r="A558" s="34"/>
-      <c r="B558" s="44"/>
-    </row>
-    <row r="559" spans="1:2">
-      <c r="A559" s="34"/>
-      <c r="B559" s="44"/>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="A560" s="34"/>
-      <c r="B560" s="44"/>
-    </row>
-    <row r="561" spans="1:2">
-      <c r="A561" s="34"/>
-      <c r="B561" s="44"/>
-    </row>
-    <row r="562" spans="1:2">
-      <c r="A562" s="34"/>
-      <c r="B562" s="44"/>
-    </row>
-    <row r="563" spans="1:2">
-      <c r="A563" s="34"/>
-      <c r="B563" s="44"/>
-    </row>
-    <row r="564" spans="1:2">
-      <c r="A564" s="34"/>
-      <c r="B564" s="44"/>
-    </row>
-    <row r="565" spans="1:2">
-      <c r="A565" s="34"/>
-      <c r="B565" s="44"/>
-    </row>
-    <row r="566" spans="1:2">
-      <c r="A566" s="34"/>
-      <c r="B566" s="44"/>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" s="34"/>
-      <c r="B567" s="44"/>
-    </row>
-    <row r="568" spans="1:2">
-      <c r="A568" s="34"/>
-      <c r="B568" s="44"/>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" s="34"/>
-      <c r="B569" s="44"/>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" s="34"/>
-      <c r="B570" s="44"/>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" s="34"/>
-      <c r="B571" s="44"/>
-    </row>
-    <row r="572" spans="1:2">
-      <c r="A572" s="34"/>
-      <c r="B572" s="44"/>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" s="34"/>
-      <c r="B573" s="44"/>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" s="34"/>
-      <c r="B574" s="44"/>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" s="34"/>
-      <c r="B575" s="44"/>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" s="34"/>
-      <c r="B576" s="44"/>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" s="34"/>
-      <c r="B577" s="44"/>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" s="34"/>
-      <c r="B578" s="44"/>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" s="34"/>
-      <c r="B579" s="44"/>
-    </row>
-    <row r="580" spans="1:2">
-      <c r="A580" s="34"/>
-      <c r="B580" s="44"/>
-    </row>
-    <row r="581" spans="1:2">
-      <c r="A581" s="34"/>
-      <c r="B581" s="44"/>
-    </row>
-    <row r="582" spans="1:2">
-      <c r="A582" s="34"/>
-      <c r="B582" s="44"/>
-    </row>
-    <row r="583" spans="1:2">
-      <c r="A583" s="34"/>
-      <c r="B583" s="44"/>
-    </row>
-    <row r="584" spans="1:2">
-      <c r="A584" s="34"/>
-      <c r="B584" s="44"/>
-    </row>
-    <row r="585" spans="1:2">
-      <c r="A585" s="34"/>
-      <c r="B585" s="44"/>
-    </row>
-    <row r="586" spans="1:2">
-      <c r="A586" s="34"/>
-      <c r="B586" s="44"/>
-    </row>
-    <row r="587" spans="1:2">
-      <c r="A587" s="34"/>
-      <c r="B587" s="44"/>
-    </row>
-    <row r="588" spans="1:2">
-      <c r="A588" s="34"/>
-      <c r="B588" s="44"/>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" s="34"/>
-      <c r="B589" s="44"/>
-    </row>
-    <row r="590" spans="1:2">
-      <c r="A590" s="34"/>
-      <c r="B590" s="44"/>
-    </row>
-    <row r="591" spans="1:2">
-      <c r="A591" s="34"/>
-      <c r="B591" s="44"/>
-    </row>
-    <row r="592" spans="1:2">
-      <c r="A592" s="34"/>
-      <c r="B592" s="44"/>
-    </row>
-    <row r="593" spans="1:2">
-      <c r="A593" s="34"/>
-      <c r="B593" s="44"/>
-    </row>
-    <row r="594" spans="1:2">
-      <c r="A594" s="34"/>
-      <c r="B594" s="44"/>
-    </row>
-    <row r="595" spans="1:2">
-      <c r="A595" s="34"/>
-      <c r="B595" s="44"/>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" s="34"/>
-      <c r="B596" s="44"/>
-    </row>
-    <row r="597" spans="1:2">
-      <c r="A597" s="34"/>
-      <c r="B597" s="44"/>
-    </row>
-    <row r="598" spans="1:2">
-      <c r="A598" s="34"/>
-      <c r="B598" s="44"/>
-    </row>
-    <row r="599" spans="1:2">
-      <c r="A599" s="34"/>
-      <c r="B599" s="44"/>
-    </row>
-    <row r="600" spans="1:2">
-      <c r="A600" s="34"/>
-      <c r="B600" s="44"/>
-    </row>
-    <row r="601" spans="1:2">
-      <c r="A601" s="34"/>
-      <c r="B601" s="44"/>
-    </row>
-    <row r="602" spans="1:2">
-      <c r="A602" s="34"/>
-      <c r="B602" s="44"/>
-    </row>
-    <row r="603" spans="1:2">
-      <c r="A603" s="34"/>
-      <c r="B603" s="44"/>
-    </row>
-    <row r="604" spans="1:2">
-      <c r="A604" s="34"/>
-      <c r="B604" s="44"/>
-    </row>
-    <row r="605" spans="1:2">
-      <c r="A605" s="34"/>
-      <c r="B605" s="44"/>
-    </row>
-    <row r="606" spans="1:2">
-      <c r="A606" s="34"/>
-      <c r="B606" s="44"/>
-    </row>
-    <row r="607" spans="1:2">
-      <c r="A607" s="34"/>
-      <c r="B607" s="44"/>
-    </row>
-    <row r="608" spans="1:2">
-      <c r="A608" s="34"/>
-      <c r="B608" s="44"/>
-    </row>
-    <row r="609" spans="1:2">
-      <c r="A609" s="34"/>
-      <c r="B609" s="44"/>
-    </row>
-    <row r="610" spans="1:2">
-      <c r="A610" s="34"/>
-      <c r="B610" s="44"/>
-    </row>
-    <row r="611" spans="1:2">
-      <c r="A611" s="34"/>
-      <c r="B611" s="44"/>
-    </row>
-    <row r="612" spans="1:2">
-      <c r="A612" s="34"/>
-      <c r="B612" s="44"/>
-    </row>
-    <row r="613" spans="1:2">
-      <c r="A613" s="34"/>
-      <c r="B613" s="44"/>
-    </row>
-    <row r="614" spans="1:2">
-      <c r="A614" s="34"/>
-      <c r="B614" s="44"/>
-    </row>
-    <row r="615" spans="1:2">
-      <c r="A615" s="34"/>
-      <c r="B615" s="44"/>
-    </row>
-    <row r="616" spans="1:2">
-      <c r="A616" s="34"/>
-      <c r="B616" s="44"/>
-    </row>
-    <row r="617" spans="1:2">
-      <c r="A617" s="34"/>
-      <c r="B617" s="44"/>
-    </row>
-    <row r="618" spans="1:2">
-      <c r="A618" s="34"/>
-      <c r="B618" s="44"/>
-    </row>
-    <row r="619" spans="1:2">
-      <c r="A619" s="34"/>
-      <c r="B619" s="44"/>
-    </row>
-    <row r="620" spans="1:2">
-      <c r="A620" s="34"/>
-      <c r="B620" s="44"/>
-    </row>
-    <row r="621" spans="1:2">
-      <c r="A621" s="34"/>
-      <c r="B621" s="44"/>
-    </row>
-    <row r="622" spans="1:2">
-      <c r="A622" s="34"/>
-      <c r="B622" s="44"/>
-    </row>
-    <row r="623" spans="1:2">
-      <c r="A623" s="34"/>
-      <c r="B623" s="44"/>
-    </row>
-    <row r="624" spans="1:2">
-      <c r="A624" s="34"/>
-      <c r="B624" s="44"/>
-    </row>
-    <row r="625" spans="1:2">
-      <c r="A625" s="34"/>
-      <c r="B625" s="44"/>
-    </row>
-    <row r="626" spans="1:2">
-      <c r="A626" s="34"/>
-      <c r="B626" s="44"/>
-    </row>
-    <row r="627" spans="1:2">
-      <c r="A627" s="34"/>
-      <c r="B627" s="44"/>
-    </row>
-    <row r="628" spans="1:2">
-      <c r="A628" s="34"/>
-      <c r="B628" s="44"/>
-    </row>
-    <row r="629" spans="1:2">
-      <c r="A629" s="34"/>
-      <c r="B629" s="44"/>
-    </row>
-    <row r="630" spans="1:2">
-      <c r="A630" s="34"/>
-      <c r="B630" s="44"/>
-    </row>
-    <row r="631" spans="1:2">
-      <c r="A631" s="34"/>
-      <c r="B631" s="44"/>
-    </row>
-    <row r="632" spans="1:2">
-      <c r="A632" s="34"/>
-      <c r="B632" s="44"/>
-    </row>
-    <row r="633" spans="1:2">
-      <c r="A633" s="34"/>
-      <c r="B633" s="44"/>
-    </row>
-    <row r="634" spans="1:2">
-      <c r="A634" s="34"/>
-      <c r="B634" s="44"/>
-    </row>
-    <row r="635" spans="1:2">
-      <c r="A635" s="34"/>
-      <c r="B635" s="44"/>
-    </row>
-    <row r="636" spans="1:2">
-      <c r="A636" s="34"/>
-      <c r="B636" s="44"/>
-    </row>
-    <row r="637" spans="1:2">
-      <c r="A637" s="34"/>
-      <c r="B637" s="44"/>
-    </row>
-    <row r="638" spans="1:2">
-      <c r="A638" s="34"/>
-      <c r="B638" s="44"/>
-    </row>
-    <row r="639" spans="1:2">
-      <c r="A639" s="34"/>
-      <c r="B639" s="44"/>
-    </row>
-    <row r="640" spans="1:2">
-      <c r="A640" s="34"/>
-      <c r="B640" s="44"/>
-    </row>
-    <row r="641" spans="1:2">
-      <c r="A641" s="34"/>
-      <c r="B641" s="44"/>
-    </row>
-    <row r="642" spans="1:2">
-      <c r="A642" s="34"/>
-      <c r="B642" s="44"/>
-    </row>
-    <row r="643" spans="1:2">
-      <c r="A643" s="34"/>
-      <c r="B643" s="44"/>
-    </row>
-    <row r="644" spans="1:2">
-      <c r="A644" s="34"/>
-      <c r="B644" s="44"/>
-    </row>
-    <row r="645" spans="1:2">
-      <c r="A645" s="34"/>
-      <c r="B645" s="44"/>
-    </row>
-    <row r="646" spans="1:2">
-      <c r="A646" s="34"/>
-      <c r="B646" s="44"/>
-    </row>
-    <row r="647" spans="1:2">
-      <c r="A647" s="34"/>
-      <c r="B647" s="44"/>
-    </row>
-    <row r="648" spans="1:2">
-      <c r="A648" s="34"/>
-      <c r="B648" s="44"/>
-    </row>
-    <row r="649" spans="1:2">
-      <c r="A649" s="34"/>
-      <c r="B649" s="44"/>
-    </row>
-    <row r="650" spans="1:2">
-      <c r="A650" s="34"/>
-      <c r="B650" s="44"/>
-    </row>
-    <row r="651" spans="1:2">
-      <c r="A651" s="34"/>
-      <c r="B651" s="44"/>
-    </row>
-    <row r="652" spans="1:2">
-      <c r="A652" s="34"/>
-      <c r="B652" s="44"/>
-    </row>
-    <row r="653" spans="1:2">
-      <c r="A653" s="34"/>
-      <c r="B653" s="44"/>
-    </row>
-    <row r="654" spans="1:2">
-      <c r="A654" s="34"/>
-      <c r="B654" s="44"/>
-    </row>
-    <row r="655" spans="1:2">
-      <c r="A655" s="34"/>
-      <c r="B655" s="44"/>
-    </row>
-    <row r="656" spans="1:2">
-      <c r="A656" s="34"/>
-      <c r="B656" s="44"/>
-    </row>
-    <row r="657" spans="1:2">
-      <c r="A657" s="34"/>
-      <c r="B657" s="44"/>
-    </row>
-    <row r="658" spans="1:2">
-      <c r="A658" s="34"/>
-      <c r="B658" s="44"/>
-    </row>
-    <row r="659" spans="1:2">
-      <c r="A659" s="34"/>
-      <c r="B659" s="44"/>
-    </row>
-    <row r="660" spans="1:2">
-      <c r="A660" s="34"/>
-      <c r="B660" s="44"/>
-    </row>
-    <row r="661" spans="1:2">
-      <c r="A661" s="34"/>
-      <c r="B661" s="44"/>
-    </row>
-    <row r="662" spans="1:2">
-      <c r="A662" s="34"/>
-      <c r="B662" s="44"/>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" s="34"/>
-      <c r="B663" s="44"/>
-    </row>
-    <row r="664" spans="1:2">
-      <c r="A664" s="34"/>
-      <c r="B664" s="44"/>
-    </row>
-    <row r="665" spans="1:2">
-      <c r="A665" s="34"/>
-      <c r="B665" s="44"/>
-    </row>
-    <row r="666" spans="1:2">
-      <c r="A666" s="34"/>
-      <c r="B666" s="44"/>
-    </row>
-    <row r="667" spans="1:2">
-      <c r="A667" s="34"/>
-      <c r="B667" s="44"/>
-    </row>
-    <row r="668" spans="1:2">
-      <c r="A668" s="34"/>
-      <c r="B668" s="44"/>
-    </row>
-    <row r="669" spans="1:2">
-      <c r="A669" s="34"/>
-      <c r="B669" s="44"/>
-    </row>
-    <row r="670" spans="1:2">
-      <c r="A670" s="34"/>
-      <c r="B670" s="44"/>
-    </row>
-    <row r="671" spans="1:2">
-      <c r="A671" s="34"/>
-      <c r="B671" s="44"/>
-    </row>
-    <row r="672" spans="1:2">
-      <c r="A672" s="34"/>
-      <c r="B672" s="44"/>
-    </row>
-    <row r="673" spans="1:2">
-      <c r="A673" s="34"/>
-      <c r="B673" s="44"/>
-    </row>
-    <row r="674" spans="1:2">
-      <c r="A674" s="34"/>
-      <c r="B674" s="44"/>
-    </row>
-    <row r="675" spans="1:2">
-      <c r="A675" s="34"/>
-      <c r="B675" s="44"/>
-    </row>
-    <row r="676" spans="1:2">
-      <c r="A676" s="34"/>
-      <c r="B676" s="44"/>
-    </row>
-    <row r="677" spans="1:2">
-      <c r="A677" s="34"/>
-      <c r="B677" s="44"/>
-    </row>
-    <row r="678" spans="1:2">
-      <c r="A678" s="34"/>
-      <c r="B678" s="44"/>
-    </row>
-    <row r="679" spans="1:2">
-      <c r="A679" s="34"/>
-      <c r="B679" s="44"/>
-    </row>
-    <row r="680" spans="1:2">
-      <c r="A680" s="34"/>
-      <c r="B680" s="44"/>
-    </row>
-    <row r="681" spans="1:2">
-      <c r="A681" s="34"/>
-      <c r="B681" s="44"/>
-    </row>
-    <row r="682" spans="1:2">
-      <c r="A682" s="34"/>
-      <c r="B682" s="44"/>
-    </row>
-    <row r="683" spans="1:2">
-      <c r="A683" s="34"/>
-      <c r="B683" s="44"/>
-    </row>
-    <row r="684" spans="1:2">
-      <c r="A684" s="34"/>
-      <c r="B684" s="44"/>
-    </row>
-    <row r="685" spans="1:2">
-      <c r="A685" s="34"/>
-      <c r="B685" s="44"/>
-    </row>
-    <row r="686" spans="1:2">
-      <c r="A686" s="34"/>
-      <c r="B686" s="44"/>
-    </row>
-    <row r="687" spans="1:2">
-      <c r="A687" s="34"/>
-      <c r="B687" s="44"/>
-    </row>
-    <row r="688" spans="1:2">
-      <c r="A688" s="34"/>
-      <c r="B688" s="44"/>
-    </row>
-    <row r="689" spans="1:2">
-      <c r="A689" s="34"/>
-      <c r="B689" s="44"/>
-    </row>
-    <row r="690" spans="1:2">
-      <c r="A690" s="34"/>
-      <c r="B690" s="44"/>
-    </row>
-    <row r="691" spans="1:2">
-      <c r="A691" s="34"/>
-      <c r="B691" s="44"/>
-    </row>
-    <row r="692" spans="1:2">
-      <c r="A692" s="34"/>
-      <c r="B692" s="44"/>
-    </row>
-    <row r="693" spans="1:2">
-      <c r="A693" s="34"/>
-      <c r="B693" s="44"/>
-    </row>
-    <row r="694" spans="1:2">
-      <c r="A694" s="34"/>
-      <c r="B694" s="44"/>
-    </row>
-    <row r="695" spans="1:2">
-      <c r="A695" s="34"/>
-      <c r="B695" s="44"/>
-    </row>
-    <row r="696" spans="1:2">
-      <c r="A696" s="34"/>
-      <c r="B696" s="44"/>
-    </row>
-    <row r="697" spans="1:2">
-      <c r="A697" s="34"/>
-      <c r="B697" s="44"/>
-    </row>
-    <row r="698" spans="1:2">
-      <c r="A698" s="34"/>
-      <c r="B698" s="44"/>
-    </row>
-    <row r="699" spans="1:2">
-      <c r="A699" s="34"/>
-      <c r="B699" s="44"/>
-    </row>
-    <row r="700" spans="1:2">
-      <c r="A700" s="34"/>
-      <c r="B700" s="44"/>
-    </row>
-    <row r="701" spans="1:2">
-      <c r="A701" s="34"/>
-      <c r="B701" s="44"/>
-    </row>
-    <row r="702" spans="1:2">
-      <c r="A702" s="34"/>
-      <c r="B702" s="44"/>
-    </row>
-    <row r="703" spans="1:2">
-      <c r="A703" s="34"/>
-      <c r="B703" s="44"/>
-    </row>
-    <row r="704" spans="1:2">
-      <c r="A704" s="34"/>
-      <c r="B704" s="44"/>
-    </row>
-    <row r="705" spans="1:2">
-      <c r="A705" s="34"/>
-      <c r="B705" s="44"/>
-    </row>
-    <row r="706" spans="1:2">
-      <c r="A706" s="34"/>
-      <c r="B706" s="44"/>
-    </row>
-    <row r="707" spans="1:2">
-      <c r="A707" s="34"/>
-      <c r="B707" s="44"/>
-    </row>
-    <row r="708" spans="1:2">
-      <c r="A708" s="34"/>
-      <c r="B708" s="44"/>
-    </row>
-    <row r="709" spans="1:2">
-      <c r="A709" s="34"/>
-      <c r="B709" s="44"/>
-    </row>
-    <row r="710" spans="1:2">
-      <c r="A710" s="34"/>
-      <c r="B710" s="44"/>
-    </row>
-    <row r="711" spans="1:2">
-      <c r="A711" s="34"/>
-      <c r="B711" s="44"/>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="34"/>
-      <c r="B712" s="44"/>
-    </row>
-    <row r="713" spans="1:2">
-      <c r="A713" s="34"/>
-      <c r="B713" s="44"/>
-    </row>
-    <row r="714" spans="1:2">
-      <c r="A714" s="34"/>
-      <c r="B714" s="44"/>
-    </row>
-    <row r="715" spans="1:2">
-      <c r="A715" s="34"/>
-      <c r="B715" s="44"/>
-    </row>
-    <row r="716" spans="1:2">
-      <c r="A716" s="34"/>
-      <c r="B716" s="44"/>
-    </row>
-    <row r="717" spans="1:2">
-      <c r="A717" s="34"/>
-      <c r="B717" s="44"/>
-    </row>
-    <row r="718" spans="1:2">
-      <c r="A718" s="34"/>
-      <c r="B718" s="44"/>
-    </row>
-    <row r="719" spans="1:2">
-      <c r="A719" s="34"/>
-      <c r="B719" s="44"/>
-    </row>
-    <row r="720" spans="1:2">
-      <c r="A720" s="34"/>
-      <c r="B720" s="44"/>
-    </row>
-    <row r="721" spans="1:2">
-      <c r="A721" s="34"/>
-      <c r="B721" s="44"/>
-    </row>
-    <row r="722" spans="1:2">
-      <c r="A722" s="34"/>
-      <c r="B722" s="44"/>
-    </row>
-    <row r="723" spans="1:2">
-      <c r="A723" s="34"/>
-      <c r="B723" s="44"/>
-    </row>
-    <row r="724" spans="1:2">
-      <c r="A724" s="34"/>
-      <c r="B724" s="44"/>
-    </row>
-    <row r="725" spans="1:2">
-      <c r="A725" s="34"/>
-      <c r="B725" s="44"/>
-    </row>
-    <row r="726" spans="1:2">
-      <c r="A726" s="34"/>
-      <c r="B726" s="44"/>
-    </row>
-    <row r="727" spans="1:2">
-      <c r="A727" s="34"/>
-      <c r="B727" s="44"/>
-    </row>
-    <row r="728" spans="1:2">
-      <c r="A728" s="34"/>
-      <c r="B728" s="44"/>
-    </row>
-    <row r="729" spans="1:2">
-      <c r="A729" s="34"/>
-      <c r="B729" s="44"/>
-    </row>
-    <row r="730" spans="1:2">
-      <c r="A730" s="34"/>
-      <c r="B730" s="44"/>
-    </row>
-    <row r="731" spans="1:2">
-      <c r="A731" s="34"/>
-      <c r="B731" s="44"/>
-    </row>
-    <row r="732" spans="1:2">
-      <c r="A732" s="34"/>
-      <c r="B732" s="44"/>
-    </row>
-    <row r="733" spans="1:2">
-      <c r="A733" s="34"/>
-      <c r="B733" s="44"/>
-    </row>
-    <row r="734" spans="1:2">
-      <c r="A734" s="34"/>
-      <c r="B734" s="44"/>
-    </row>
-    <row r="735" spans="1:2">
-      <c r="A735" s="34"/>
-      <c r="B735" s="44"/>
-    </row>
-    <row r="736" spans="1:2">
-      <c r="A736" s="34"/>
-      <c r="B736" s="44"/>
-    </row>
-    <row r="737" spans="1:2">
-      <c r="A737" s="34"/>
-      <c r="B737" s="44"/>
-    </row>
-    <row r="738" spans="1:2">
-      <c r="A738" s="34"/>
-      <c r="B738" s="44"/>
-    </row>
-    <row r="739" spans="1:2">
-      <c r="A739" s="34"/>
-      <c r="B739" s="44"/>
-    </row>
-    <row r="740" spans="1:2">
-      <c r="A740" s="34"/>
-      <c r="B740" s="44"/>
-    </row>
-    <row r="741" spans="1:2">
-      <c r="A741" s="34"/>
-      <c r="B741" s="44"/>
-    </row>
-    <row r="742" spans="1:2">
-      <c r="A742" s="34"/>
-      <c r="B742" s="44"/>
-    </row>
-    <row r="743" spans="1:2">
-      <c r="A743" s="34"/>
-      <c r="B743" s="44"/>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="34"/>
-      <c r="B744" s="44"/>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="34"/>
-      <c r="B745" s="44"/>
-    </row>
-    <row r="746" spans="1:2">
-      <c r="A746" s="34"/>
-      <c r="B746" s="44"/>
-    </row>
-    <row r="747" spans="1:2">
-      <c r="A747" s="34"/>
-      <c r="B747" s="44"/>
-    </row>
-    <row r="748" spans="1:2">
-      <c r="A748" s="34"/>
-      <c r="B748" s="44"/>
-    </row>
-    <row r="749" spans="1:2">
-      <c r="A749" s="34"/>
-      <c r="B749" s="44"/>
-    </row>
-    <row r="750" spans="1:2">
-      <c r="A750" s="34"/>
-      <c r="B750" s="44"/>
-    </row>
-    <row r="751" spans="1:2">
-      <c r="A751" s="34"/>
-      <c r="B751" s="44"/>
-    </row>
-    <row r="752" spans="1:2">
-      <c r="A752" s="34"/>
-      <c r="B752" s="44"/>
-    </row>
-    <row r="753" spans="1:2">
-      <c r="A753" s="34"/>
-      <c r="B753" s="44"/>
-    </row>
-    <row r="754" spans="1:2">
-      <c r="A754" s="34"/>
-      <c r="B754" s="44"/>
-    </row>
-    <row r="755" spans="1:2">
-      <c r="A755" s="34"/>
-      <c r="B755" s="44"/>
-    </row>
-    <row r="756" spans="1:2">
-      <c r="A756" s="34"/>
-      <c r="B756" s="44"/>
-    </row>
-    <row r="757" spans="1:2">
-      <c r="A757" s="34"/>
-      <c r="B757" s="44"/>
-    </row>
-    <row r="758" spans="1:2">
-      <c r="A758" s="34"/>
-      <c r="B758" s="44"/>
-    </row>
-    <row r="759" spans="1:2">
-      <c r="A759" s="34"/>
-      <c r="B759" s="44"/>
-    </row>
-    <row r="760" spans="1:2">
-      <c r="A760" s="34"/>
-      <c r="B760" s="44"/>
-    </row>
-    <row r="761" spans="1:2">
-      <c r="A761" s="34"/>
-      <c r="B761" s="44"/>
-    </row>
-    <row r="762" spans="1:2">
-      <c r="A762" s="34"/>
-      <c r="B762" s="44"/>
-    </row>
-    <row r="763" spans="1:2">
-      <c r="A763" s="34"/>
-      <c r="B763" s="44"/>
-    </row>
-    <row r="764" spans="1:2">
-      <c r="A764" s="34"/>
-      <c r="B764" s="44"/>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="34"/>
-      <c r="B765" s="44"/>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="34"/>
-      <c r="B766" s="44"/>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="34"/>
-      <c r="B767" s="44"/>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="34"/>
-      <c r="B768" s="44"/>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="34"/>
-      <c r="B769" s="44"/>
-    </row>
-    <row r="770" spans="1:2">
-      <c r="A770" s="34"/>
-      <c r="B770" s="44"/>
-    </row>
-    <row r="771" spans="1:2">
-      <c r="A771" s="34"/>
-      <c r="B771" s="44"/>
-    </row>
-    <row r="772" spans="1:2">
-      <c r="A772" s="34"/>
-      <c r="B772" s="44"/>
-    </row>
-    <row r="773" spans="1:2">
-      <c r="A773" s="34"/>
-      <c r="B773" s="44"/>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="34"/>
-      <c r="B774" s="44"/>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="34"/>
-      <c r="B775" s="44"/>
-    </row>
-    <row r="776" spans="1:2">
-      <c r="A776" s="34"/>
-      <c r="B776" s="44"/>
-    </row>
-    <row r="777" spans="1:2">
-      <c r="A777" s="34"/>
-      <c r="B777" s="44"/>
-    </row>
-    <row r="778" spans="1:2">
-      <c r="A778" s="34"/>
-      <c r="B778" s="44"/>
-    </row>
-    <row r="779" spans="1:2">
-      <c r="A779" s="34"/>
-      <c r="B779" s="44"/>
-    </row>
-    <row r="780" spans="1:2">
-      <c r="A780" s="34"/>
-      <c r="B780" s="44"/>
-    </row>
-    <row r="781" spans="1:2">
-      <c r="A781" s="34"/>
-      <c r="B781" s="44"/>
-    </row>
-    <row r="782" spans="1:2">
-      <c r="A782" s="34"/>
-      <c r="B782" s="44"/>
-    </row>
-    <row r="783" spans="1:2">
-      <c r="A783" s="34"/>
-      <c r="B783" s="44"/>
-    </row>
-    <row r="784" spans="1:2">
-      <c r="A784" s="34"/>
-      <c r="B784" s="44"/>
-    </row>
-    <row r="785" spans="1:2">
-      <c r="A785" s="34"/>
-      <c r="B785" s="44"/>
-    </row>
-    <row r="786" spans="1:2">
-      <c r="A786" s="34"/>
-      <c r="B786" s="44"/>
-    </row>
-    <row r="787" spans="1:2">
-      <c r="A787" s="34"/>
-      <c r="B787" s="44"/>
-    </row>
-    <row r="788" spans="1:2">
-      <c r="A788" s="34"/>
-      <c r="B788" s="44"/>
-    </row>
-    <row r="789" spans="1:2">
-      <c r="A789" s="34"/>
-      <c r="B789" s="44"/>
-    </row>
-    <row r="790" spans="1:2">
-      <c r="A790" s="34"/>
-      <c r="B790" s="44"/>
-    </row>
-    <row r="791" spans="1:2">
-      <c r="A791" s="34"/>
-      <c r="B791" s="44"/>
-    </row>
-    <row r="792" spans="1:2">
-      <c r="A792" s="34"/>
-      <c r="B792" s="44"/>
-    </row>
-    <row r="793" spans="1:2">
-      <c r="A793" s="34"/>
-      <c r="B793" s="44"/>
-    </row>
-    <row r="794" spans="1:2">
-      <c r="A794" s="34"/>
-      <c r="B794" s="44"/>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="A795" s="34"/>
-      <c r="B795" s="44"/>
-    </row>
-    <row r="796" spans="1:2">
-      <c r="A796" s="34"/>
-      <c r="B796" s="44"/>
-    </row>
-    <row r="797" spans="1:2">
-      <c r="A797" s="34"/>
-      <c r="B797" s="44"/>
-    </row>
-    <row r="798" spans="1:2">
-      <c r="A798" s="34"/>
-      <c r="B798" s="44"/>
-    </row>
-    <row r="799" spans="1:2">
-      <c r="A799" s="34"/>
-      <c r="B799" s="44"/>
-    </row>
-    <row r="800" spans="1:2">
-      <c r="A800" s="34"/>
-      <c r="B800" s="44"/>
-    </row>
-    <row r="801" spans="1:2">
-      <c r="A801" s="34"/>
-      <c r="B801" s="44"/>
-    </row>
-    <row r="802" spans="1:2">
-      <c r="A802" s="34"/>
-      <c r="B802" s="44"/>
-    </row>
-    <row r="803" spans="1:2">
-      <c r="A803" s="34"/>
-      <c r="B803" s="44"/>
-    </row>
-    <row r="804" spans="1:2">
-      <c r="A804" s="34"/>
-      <c r="B804" s="44"/>
-    </row>
-    <row r="805" spans="1:2">
-      <c r="A805" s="34"/>
-      <c r="B805" s="44"/>
-    </row>
-    <row r="806" spans="1:2">
-      <c r="A806" s="34"/>
-      <c r="B806" s="44"/>
-    </row>
-    <row r="807" spans="1:2">
-      <c r="A807" s="34"/>
-      <c r="B807" s="44"/>
-    </row>
-    <row r="808" spans="1:2">
-      <c r="A808" s="34"/>
-      <c r="B808" s="44"/>
-    </row>
-    <row r="809" spans="1:2">
-      <c r="A809" s="34"/>
-      <c r="B809" s="44"/>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="A810" s="34"/>
-      <c r="B810" s="44"/>
-    </row>
-    <row r="811" spans="1:2">
-      <c r="A811" s="34"/>
-      <c r="B811" s="44"/>
-    </row>
-    <row r="812" spans="1:2">
-      <c r="A812" s="34"/>
-      <c r="B812" s="44"/>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="A813" s="34"/>
-      <c r="B813" s="44"/>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="A814" s="34"/>
-      <c r="B814" s="44"/>
-    </row>
-    <row r="815" spans="1:2">
-      <c r="A815" s="34"/>
-      <c r="B815" s="44"/>
-    </row>
-    <row r="816" spans="1:2">
-      <c r="A816" s="34"/>
-      <c r="B816" s="44"/>
-    </row>
-    <row r="817" spans="1:2">
-      <c r="A817" s="34"/>
-      <c r="B817" s="44"/>
-    </row>
-    <row r="818" spans="1:2">
-      <c r="A818" s="34"/>
-      <c r="B818" s="44"/>
-    </row>
-    <row r="819" spans="1:2">
-      <c r="A819" s="34"/>
-      <c r="B819" s="44"/>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="34"/>
-      <c r="B820" s="44"/>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="A821" s="34"/>
-      <c r="B821" s="44"/>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="A822" s="34"/>
-      <c r="B822" s="44"/>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="34"/>
-      <c r="B823" s="44"/>
-    </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="34"/>
-      <c r="B824" s="44"/>
-    </row>
-    <row r="825" spans="1:2">
-      <c r="A825" s="34"/>
-      <c r="B825" s="44"/>
-    </row>
-    <row r="826" spans="1:2">
-      <c r="A826" s="34"/>
-      <c r="B826" s="44"/>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="34"/>
-      <c r="B827" s="44"/>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="A828" s="34"/>
-      <c r="B828" s="44"/>
-    </row>
-    <row r="829" spans="1:2">
-      <c r="A829" s="34"/>
-      <c r="B829" s="44"/>
-    </row>
-    <row r="830" spans="1:2">
-      <c r="A830" s="34"/>
-      <c r="B830" s="44"/>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="34"/>
-      <c r="B831" s="44"/>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" s="34"/>
-      <c r="B832" s="44"/>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="34"/>
-      <c r="B833" s="44"/>
-    </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="34"/>
-      <c r="B834" s="44"/>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="34"/>
-      <c r="B835" s="44"/>
-    </row>
-    <row r="836" spans="1:2">
-      <c r="A836" s="34"/>
-      <c r="B836" s="44"/>
-    </row>
-    <row r="837" spans="1:2">
-      <c r="A837" s="34"/>
-      <c r="B837" s="44"/>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="34"/>
-      <c r="B838" s="44"/>
-    </row>
-    <row r="839" spans="1:2">
-      <c r="A839" s="34"/>
-      <c r="B839" s="44"/>
-    </row>
-    <row r="840" spans="1:2">
-      <c r="A840" s="34"/>
-      <c r="B840" s="44"/>
-    </row>
-    <row r="841" spans="1:2">
-      <c r="A841" s="34"/>
-      <c r="B841" s="44"/>
-    </row>
-    <row r="842" spans="1:2">
-      <c r="A842" s="34"/>
-      <c r="B842" s="44"/>
-    </row>
-    <row r="843" spans="1:2">
-      <c r="A843" s="34"/>
-      <c r="B843" s="44"/>
-    </row>
-    <row r="844" spans="1:2">
-      <c r="A844" s="34"/>
-      <c r="B844" s="44"/>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="34"/>
-      <c r="B845" s="44"/>
-    </row>
-    <row r="846" spans="1:2">
-      <c r="A846" s="34"/>
-      <c r="B846" s="44"/>
-    </row>
-    <row r="847" spans="1:2">
-      <c r="A847" s="34"/>
-      <c r="B847" s="44"/>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="34"/>
-      <c r="B848" s="44"/>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="34"/>
-      <c r="B849" s="44"/>
-    </row>
-    <row r="850" spans="1:2">
-      <c r="A850" s="34"/>
-      <c r="B850" s="44"/>
-    </row>
-    <row r="851" spans="1:2">
-      <c r="A851" s="34"/>
-      <c r="B851" s="44"/>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="A852" s="34"/>
-      <c r="B852" s="44"/>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="34"/>
-      <c r="B853" s="44"/>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="A854" s="34"/>
-      <c r="B854" s="44"/>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="A855" s="34"/>
-      <c r="B855" s="44"/>
-    </row>
-    <row r="856" spans="1:2">
-      <c r="A856" s="34"/>
-      <c r="B856" s="44"/>
-    </row>
-    <row r="857" spans="1:2">
-      <c r="A857" s="34"/>
-      <c r="B857" s="44"/>
-    </row>
-    <row r="858" spans="1:2">
-      <c r="A858" s="34"/>
-      <c r="B858" s="44"/>
-    </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="34"/>
-      <c r="B859" s="44"/>
-    </row>
-    <row r="860" spans="1:2">
-      <c r="A860" s="34"/>
-      <c r="B860" s="44"/>
-    </row>
-    <row r="861" spans="1:2">
-      <c r="A861" s="34"/>
-      <c r="B861" s="44"/>
-    </row>
-    <row r="862" spans="1:2">
-      <c r="A862" s="34"/>
-      <c r="B862" s="44"/>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="34"/>
-      <c r="B863" s="44"/>
-    </row>
-    <row r="864" spans="1:2">
-      <c r="A864" s="34"/>
-      <c r="B864" s="44"/>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="A865" s="34"/>
-      <c r="B865" s="44"/>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="A866" s="34"/>
-      <c r="B866" s="44"/>
-    </row>
-    <row r="867" spans="1:2">
-      <c r="A867" s="34"/>
-      <c r="B867" s="44"/>
-    </row>
-    <row r="868" spans="1:2">
-      <c r="A868" s="34"/>
-      <c r="B868" s="44"/>
-    </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="34"/>
-      <c r="B869" s="44"/>
-    </row>
-    <row r="870" spans="1:2">
-      <c r="A870" s="34"/>
-      <c r="B870" s="44"/>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="A871" s="34"/>
-      <c r="B871" s="44"/>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="34"/>
-      <c r="B872" s="44"/>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="34"/>
-      <c r="B873" s="44"/>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="34"/>
-      <c r="B874" s="44"/>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="A875" s="34"/>
-      <c r="B875" s="44"/>
-    </row>
-    <row r="876" spans="1:2">
-      <c r="A876" s="34"/>
-      <c r="B876" s="44"/>
-    </row>
-    <row r="877" spans="1:2">
-      <c r="A877" s="34"/>
-      <c r="B877" s="44"/>
-    </row>
-    <row r="878" spans="1:2">
-      <c r="A878" s="34"/>
-      <c r="B878" s="44"/>
-    </row>
-    <row r="879" spans="1:2">
-      <c r="A879" s="34"/>
-      <c r="B879" s="44"/>
-    </row>
-    <row r="880" spans="1:2">
-      <c r="A880" s="34"/>
-      <c r="B880" s="44"/>
-    </row>
-    <row r="881" spans="1:2">
-      <c r="A881" s="34"/>
-      <c r="B881" s="44"/>
-    </row>
-    <row r="882" spans="1:2">
-      <c r="A882" s="34"/>
-      <c r="B882" s="44"/>
-    </row>
-    <row r="883" spans="1:2">
-      <c r="A883" s="34"/>
-      <c r="B883" s="44"/>
-    </row>
-    <row r="884" spans="1:2">
-      <c r="A884" s="34"/>
-      <c r="B884" s="44"/>
-    </row>
-    <row r="885" spans="1:2">
-      <c r="A885" s="34"/>
-      <c r="B885" s="44"/>
-    </row>
-    <row r="886" spans="1:2">
-      <c r="A886" s="34"/>
-      <c r="B886" s="44"/>
-    </row>
-    <row r="887" spans="1:2">
-      <c r="A887" s="34"/>
-      <c r="B887" s="44"/>
-    </row>
-    <row r="888" spans="1:2">
-      <c r="A888" s="34"/>
-      <c r="B888" s="44"/>
-    </row>
-    <row r="889" spans="1:2">
-      <c r="A889" s="34"/>
-      <c r="B889" s="44"/>
-    </row>
-    <row r="890" spans="1:2">
-      <c r="A890" s="34"/>
-      <c r="B890" s="44"/>
-    </row>
-    <row r="891" spans="1:2">
-      <c r="A891" s="34"/>
-      <c r="B891" s="44"/>
-    </row>
-    <row r="892" spans="1:2">
-      <c r="A892" s="34"/>
-      <c r="B892" s="44"/>
-    </row>
-    <row r="893" spans="1:2">
-      <c r="A893" s="34"/>
-      <c r="B893" s="44"/>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="A894" s="34"/>
-      <c r="B894" s="44"/>
-    </row>
-    <row r="895" spans="1:2">
-      <c r="A895" s="34"/>
-      <c r="B895" s="44"/>
-    </row>
-    <row r="896" spans="1:2">
-      <c r="A896" s="34"/>
-      <c r="B896" s="44"/>
-    </row>
-    <row r="897" spans="1:2">
-      <c r="A897" s="34"/>
-      <c r="B897" s="44"/>
-    </row>
-    <row r="898" spans="1:2">
-      <c r="A898" s="34"/>
-      <c r="B898" s="44"/>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="A899" s="34"/>
-      <c r="B899" s="44"/>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="A900" s="34"/>
-      <c r="B900" s="44"/>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="34"/>
-      <c r="B901" s="44"/>
-    </row>
-    <row r="902" spans="1:2">
-      <c r="A902" s="34"/>
-      <c r="B902" s="44"/>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="34"/>
-      <c r="B903" s="44"/>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="34"/>
-      <c r="B904" s="44"/>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="34"/>
-      <c r="B905" s="44"/>
-    </row>
-    <row r="906" spans="1:2">
-      <c r="A906" s="34"/>
-      <c r="B906" s="44"/>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="A907" s="34"/>
-      <c r="B907" s="44"/>
-    </row>
-    <row r="908" spans="1:2">
-      <c r="A908" s="34"/>
-      <c r="B908" s="44"/>
-    </row>
-    <row r="909" spans="1:2">
-      <c r="A909" s="34"/>
-      <c r="B909" s="44"/>
-    </row>
-    <row r="910" spans="1:2">
-      <c r="A910" s="34"/>
-      <c r="B910" s="44"/>
-    </row>
-    <row r="911" spans="1:2">
-      <c r="A911" s="34"/>
-      <c r="B911" s="44"/>
-    </row>
-    <row r="912" spans="1:2">
-      <c r="A912" s="34"/>
-      <c r="B912" s="44"/>
-    </row>
-    <row r="913" spans="1:2">
-      <c r="A913" s="34"/>
-      <c r="B913" s="44"/>
-    </row>
-    <row r="914" spans="1:2">
-      <c r="A914" s="34"/>
-      <c r="B914" s="44"/>
-    </row>
-    <row r="915" spans="1:2">
-      <c r="A915" s="34"/>
-      <c r="B915" s="44"/>
-    </row>
-    <row r="916" spans="1:2">
-      <c r="A916" s="34"/>
-      <c r="B916" s="44"/>
-    </row>
-    <row r="917" spans="1:2">
-      <c r="A917" s="34"/>
-      <c r="B917" s="44"/>
-    </row>
-    <row r="918" spans="1:2">
-      <c r="A918" s="34"/>
-      <c r="B918" s="44"/>
-    </row>
-    <row r="919" spans="1:2">
-      <c r="A919" s="34"/>
-      <c r="B919" s="44"/>
-    </row>
-    <row r="920" spans="1:2">
-      <c r="A920" s="34"/>
-      <c r="B920" s="44"/>
-    </row>
-    <row r="921" spans="1:2">
-      <c r="A921" s="34"/>
-      <c r="B921" s="44"/>
-    </row>
-    <row r="922" spans="1:2">
-      <c r="A922" s="34"/>
-      <c r="B922" s="44"/>
-    </row>
-    <row r="923" spans="1:2">
-      <c r="A923" s="34"/>
-      <c r="B923" s="44"/>
-    </row>
-    <row r="924" spans="1:2">
-      <c r="A924" s="34"/>
-      <c r="B924" s="44"/>
-    </row>
-    <row r="925" spans="1:2">
-      <c r="A925" s="34"/>
-      <c r="B925" s="44"/>
-    </row>
-    <row r="926" spans="1:2">
-      <c r="A926" s="34"/>
-      <c r="B926" s="44"/>
-    </row>
-    <row r="927" spans="1:2">
-      <c r="A927" s="34"/>
-      <c r="B927" s="44"/>
-    </row>
-    <row r="928" spans="1:2">
-      <c r="A928" s="34"/>
-      <c r="B928" s="44"/>
-    </row>
-    <row r="929" spans="1:2">
-      <c r="A929" s="34"/>
-      <c r="B929" s="44"/>
-    </row>
-    <row r="930" spans="1:2">
-      <c r="A930" s="34"/>
-      <c r="B930" s="44"/>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="A931" s="34"/>
-      <c r="B931" s="44"/>
-    </row>
-    <row r="932" spans="1:2">
-      <c r="A932" s="34"/>
-      <c r="B932" s="44"/>
-    </row>
-    <row r="933" spans="1:2">
-      <c r="A933" s="34"/>
-      <c r="B933" s="44"/>
-    </row>
-    <row r="934" spans="1:2">
-      <c r="A934" s="34"/>
-      <c r="B934" s="44"/>
-    </row>
-    <row r="935" spans="1:2">
-      <c r="A935" s="34"/>
-      <c r="B935" s="44"/>
-    </row>
-    <row r="936" spans="1:2">
-      <c r="A936" s="34"/>
-      <c r="B936" s="44"/>
-    </row>
-    <row r="937" spans="1:2">
-      <c r="A937" s="34"/>
-      <c r="B937" s="44"/>
-    </row>
-    <row r="938" spans="1:2">
-      <c r="A938" s="34"/>
-      <c r="B938" s="44"/>
-    </row>
-    <row r="939" spans="1:2">
-      <c r="A939" s="34"/>
-      <c r="B939" s="44"/>
-    </row>
-    <row r="940" spans="1:2">
-      <c r="A940" s="34"/>
-      <c r="B940" s="44"/>
-    </row>
-    <row r="941" spans="1:2">
-      <c r="A941" s="34"/>
-      <c r="B941" s="44"/>
-    </row>
-    <row r="942" spans="1:2">
-      <c r="A942" s="34"/>
-      <c r="B942" s="44"/>
-    </row>
-    <row r="943" spans="1:2">
-      <c r="A943" s="34"/>
-      <c r="B943" s="44"/>
-    </row>
-    <row r="944" spans="1:2">
-      <c r="A944" s="34"/>
-      <c r="B944" s="44"/>
-    </row>
-    <row r="945" spans="1:2">
-      <c r="A945" s="34"/>
-      <c r="B945" s="44"/>
-    </row>
-    <row r="946" spans="1:2">
-      <c r="A946" s="34"/>
-      <c r="B946" s="44"/>
-    </row>
-    <row r="947" spans="1:2">
-      <c r="A947" s="34"/>
-      <c r="B947" s="44"/>
-    </row>
-    <row r="948" spans="1:2">
-      <c r="A948" s="34"/>
-      <c r="B948" s="44"/>
-    </row>
-    <row r="949" spans="1:2">
-      <c r="A949" s="34"/>
-      <c r="B949" s="44"/>
-    </row>
-    <row r="950" spans="1:2">
-      <c r="A950" s="34"/>
-      <c r="B950" s="44"/>
-    </row>
-    <row r="951" spans="1:2">
-      <c r="A951" s="34"/>
-      <c r="B951" s="44"/>
-    </row>
-    <row r="952" spans="1:2">
-      <c r="A952" s="34"/>
-      <c r="B952" s="44"/>
-    </row>
-    <row r="953" spans="1:2">
-      <c r="A953" s="34"/>
-      <c r="B953" s="44"/>
-    </row>
-    <row r="954" spans="1:2">
-      <c r="A954" s="34"/>
-      <c r="B954" s="44"/>
-    </row>
-    <row r="955" spans="1:2">
-      <c r="A955" s="34"/>
-      <c r="B955" s="44"/>
-    </row>
-    <row r="956" spans="1:2">
-      <c r="A956" s="34"/>
-      <c r="B956" s="44"/>
-    </row>
-    <row r="957" spans="1:2">
-      <c r="A957" s="34"/>
-      <c r="B957" s="44"/>
-    </row>
-    <row r="958" spans="1:2">
-      <c r="A958" s="34"/>
-      <c r="B958" s="44"/>
-    </row>
-    <row r="959" spans="1:2">
-      <c r="A959" s="34"/>
-      <c r="B959" s="44"/>
-    </row>
-    <row r="960" spans="1:2">
-      <c r="A960" s="34"/>
-      <c r="B960" s="44"/>
-    </row>
-    <row r="961" spans="1:2">
-      <c r="A961" s="34"/>
-      <c r="B961" s="44"/>
-    </row>
-    <row r="962" spans="1:2">
-      <c r="A962" s="34"/>
-      <c r="B962" s="44"/>
-    </row>
-    <row r="963" spans="1:2">
-      <c r="A963" s="34"/>
-      <c r="B963" s="44"/>
-    </row>
-    <row r="964" spans="1:2">
-      <c r="A964" s="34"/>
-      <c r="B964" s="44"/>
-    </row>
-    <row r="965" spans="1:2">
-      <c r="A965" s="34"/>
-      <c r="B965" s="44"/>
-    </row>
-    <row r="966" spans="1:2">
-      <c r="A966" s="34"/>
-      <c r="B966" s="44"/>
-    </row>
-    <row r="967" spans="1:2">
-      <c r="A967" s="34"/>
-      <c r="B967" s="44"/>
-    </row>
-    <row r="968" spans="1:2">
-      <c r="A968" s="34"/>
-      <c r="B968" s="44"/>
-    </row>
-    <row r="969" spans="1:2">
-      <c r="A969" s="34"/>
-      <c r="B969" s="44"/>
-    </row>
-    <row r="970" spans="1:2">
-      <c r="A970" s="34"/>
-      <c r="B970" s="44"/>
-    </row>
-    <row r="971" spans="1:2">
-      <c r="A971" s="34"/>
-      <c r="B971" s="44"/>
-    </row>
-    <row r="972" spans="1:2">
-      <c r="A972" s="34"/>
-      <c r="B972" s="44"/>
-    </row>
-    <row r="973" spans="1:2">
-      <c r="A973" s="34"/>
-      <c r="B973" s="44"/>
-    </row>
-    <row r="974" spans="1:2">
-      <c r="A974" s="34"/>
-      <c r="B974" s="44"/>
-    </row>
-    <row r="975" spans="1:2">
-      <c r="A975" s="34"/>
-      <c r="B975" s="44"/>
-    </row>
-    <row r="976" spans="1:2">
-      <c r="A976" s="34"/>
-      <c r="B976" s="44"/>
-    </row>
-    <row r="977" spans="1:2">
-      <c r="A977" s="34"/>
-      <c r="B977" s="44"/>
-    </row>
-    <row r="978" spans="1:2">
-      <c r="A978" s="34"/>
-      <c r="B978" s="44"/>
-    </row>
-    <row r="979" spans="1:2">
-      <c r="A979" s="34"/>
-      <c r="B979" s="44"/>
-    </row>
-    <row r="980" spans="1:2">
-      <c r="A980" s="34"/>
-      <c r="B980" s="44"/>
-    </row>
-    <row r="981" spans="1:2">
-      <c r="A981" s="34"/>
-      <c r="B981" s="44"/>
-    </row>
-    <row r="982" spans="1:2">
-      <c r="A982" s="34"/>
-      <c r="B982" s="44"/>
-    </row>
-    <row r="983" spans="1:2">
-      <c r="A983" s="34"/>
-      <c r="B983" s="44"/>
-    </row>
-    <row r="984" spans="1:2">
-      <c r="A984" s="34"/>
-      <c r="B984" s="44"/>
-    </row>
-    <row r="985" spans="1:2">
-      <c r="A985" s="34"/>
-      <c r="B985" s="44"/>
-    </row>
-    <row r="986" spans="1:2">
-      <c r="A986" s="34"/>
-      <c r="B986" s="44"/>
-    </row>
-    <row r="987" spans="1:2">
-      <c r="A987" s="34"/>
-      <c r="B987" s="44"/>
-    </row>
-    <row r="988" spans="1:2">
-      <c r="A988" s="34"/>
-      <c r="B988" s="44"/>
-    </row>
-    <row r="989" spans="1:2">
-      <c r="A989" s="34"/>
-      <c r="B989" s="44"/>
-    </row>
-    <row r="990" spans="1:2">
-      <c r="A990" s="34"/>
-      <c r="B990" s="44"/>
-    </row>
-    <row r="991" spans="1:2">
-      <c r="A991" s="34"/>
-      <c r="B991" s="44"/>
-    </row>
-    <row r="992" spans="1:2">
-      <c r="A992" s="34"/>
-      <c r="B992" s="44"/>
-    </row>
-    <row r="993" spans="1:2">
-      <c r="A993" s="34"/>
-      <c r="B993" s="44"/>
-    </row>
-    <row r="994" spans="1:2">
-      <c r="A994" s="34"/>
-      <c r="B994" s="44"/>
-    </row>
-    <row r="995" spans="1:2">
-      <c r="A995" s="34"/>
-      <c r="B995" s="44"/>
-    </row>
-    <row r="996" spans="1:2">
-      <c r="A996" s="34"/>
-      <c r="B996" s="44"/>
-    </row>
-    <row r="997" spans="1:2">
-      <c r="A997" s="34"/>
-      <c r="B997" s="44"/>
-    </row>
-    <row r="998" spans="1:2">
-      <c r="A998" s="34"/>
-      <c r="B998" s="44"/>
-    </row>
-    <row r="999" spans="1:2">
-      <c r="A999" s="34"/>
-      <c r="B999" s="44"/>
-    </row>
-    <row r="1000" spans="1:2">
-      <c r="A1000" s="34"/>
-      <c r="B1000" s="44"/>
-    </row>
-    <row r="1001" spans="1:2">
-      <c r="A1001" s="34"/>
-      <c r="B1001" s="44"/>
-    </row>
-    <row r="1002" spans="1:2">
-      <c r="A1002" s="34"/>
-      <c r="B1002" s="44"/>
-    </row>
-    <row r="1003" spans="1:2">
-      <c r="A1003" s="34"/>
-      <c r="B1003" s="44"/>
-    </row>
-    <row r="1004" spans="1:2">
-      <c r="A1004" s="34"/>
-      <c r="B1004" s="44"/>
-    </row>
-    <row r="1005" spans="1:2">
-      <c r="A1005" s="34"/>
-      <c r="B1005" s="44"/>
-    </row>
-    <row r="1006" spans="1:2">
-      <c r="A1006" s="34"/>
-      <c r="B1006" s="44"/>
-    </row>
-    <row r="1007" spans="1:2">
-      <c r="A1007" s="34"/>
-      <c r="B1007" s="44"/>
-    </row>
-    <row r="1008" spans="1:2">
-      <c r="A1008" s="34"/>
-      <c r="B1008" s="44"/>
-    </row>
-    <row r="1009" spans="1:2">
-      <c r="A1009" s="34"/>
-      <c r="B1009" s="44"/>
-    </row>
-    <row r="1010" spans="1:2">
-      <c r="A1010" s="34"/>
-      <c r="B1010" s="44"/>
-    </row>
-    <row r="1011" spans="1:2">
-      <c r="A1011" s="34"/>
-      <c r="B1011" s="44"/>
-    </row>
-    <row r="1012" spans="1:2">
-      <c r="A1012" s="34"/>
-      <c r="B1012" s="44"/>
-    </row>
-    <row r="1013" spans="1:2">
-      <c r="A1013" s="34"/>
-      <c r="B1013" s="44"/>
-    </row>
-    <row r="1014" spans="1:2">
-      <c r="A1014" s="34"/>
-      <c r="B1014" s="44"/>
-    </row>
-    <row r="1015" spans="1:2">
-      <c r="A1015" s="34"/>
-      <c r="B1015" s="44"/>
-    </row>
-    <row r="1016" spans="1:2">
-      <c r="A1016" s="34"/>
-      <c r="B1016" s="44"/>
-    </row>
-    <row r="1017" spans="1:2">
-      <c r="A1017" s="34"/>
-      <c r="B1017" s="44"/>
-    </row>
-    <row r="1018" spans="1:2">
-      <c r="A1018" s="34"/>
-      <c r="B1018" s="44"/>
-    </row>
-    <row r="1019" spans="1:2">
-      <c r="A1019" s="34"/>
-      <c r="B1019" s="44"/>
-    </row>
-    <row r="1020" spans="1:2">
-      <c r="A1020" s="34"/>
-      <c r="B1020" s="44"/>
-    </row>
-    <row r="1021" spans="1:2">
-      <c r="A1021" s="34"/>
-      <c r="B1021" s="44"/>
-    </row>
-    <row r="1022" spans="1:2">
-      <c r="A1022" s="34"/>
-      <c r="B1022" s="44"/>
-    </row>
-    <row r="1023" spans="1:2">
-      <c r="A1023" s="34"/>
-      <c r="B1023" s="44"/>
-    </row>
-    <row r="1024" spans="1:2">
-      <c r="A1024" s="34"/>
-      <c r="B1024" s="44"/>
-    </row>
-    <row r="1025" spans="1:2">
-      <c r="A1025" s="34"/>
-      <c r="B1025" s="44"/>
-    </row>
-    <row r="1026" spans="1:2">
-      <c r="A1026" s="34"/>
-      <c r="B1026" s="44"/>
-    </row>
-    <row r="1027" spans="1:2">
-      <c r="A1027" s="34"/>
-      <c r="B1027" s="44"/>
-    </row>
-    <row r="1028" spans="1:2">
-      <c r="A1028" s="34"/>
-      <c r="B1028" s="44"/>
-    </row>
-    <row r="1029" spans="1:2">
-      <c r="A1029" s="34"/>
-      <c r="B1029" s="44"/>
-    </row>
-    <row r="1030" spans="1:2">
-      <c r="A1030" s="34"/>
-      <c r="B1030" s="44"/>
-    </row>
-    <row r="1031" spans="1:2">
-      <c r="A1031" s="34"/>
-      <c r="B1031" s="44"/>
-    </row>
-    <row r="1032" spans="1:2">
-      <c r="A1032" s="34"/>
-      <c r="B1032" s="44"/>
-    </row>
-    <row r="1033" spans="1:2">
-      <c r="A1033" s="34"/>
-      <c r="B1033" s="44"/>
-    </row>
-    <row r="1034" spans="1:2">
-      <c r="A1034" s="34"/>
-      <c r="B1034" s="44"/>
-    </row>
-    <row r="1035" spans="1:2">
-      <c r="A1035" s="34"/>
-      <c r="B1035" s="44"/>
-    </row>
-    <row r="1036" spans="1:2">
-      <c r="A1036" s="34"/>
-      <c r="B1036" s="44"/>
-    </row>
-    <row r="1037" spans="1:2">
-      <c r="A1037" s="34"/>
-      <c r="B1037" s="44"/>
-    </row>
-    <row r="1038" spans="1:2">
-      <c r="A1038" s="34"/>
-      <c r="B1038" s="44"/>
-    </row>
-    <row r="1039" spans="1:2">
-      <c r="A1039" s="34"/>
-      <c r="B1039" s="44"/>
-    </row>
-    <row r="1040" spans="1:2">
-      <c r="A1040" s="34"/>
-      <c r="B1040" s="44"/>
-    </row>
-    <row r="1041" spans="1:2">
-      <c r="A1041" s="34"/>
-      <c r="B1041" s="44"/>
-    </row>
-    <row r="1042" spans="1:2">
-      <c r="A1042" s="34"/>
-      <c r="B1042" s="44"/>
-    </row>
-    <row r="1043" spans="1:2">
-      <c r="A1043" s="34"/>
-      <c r="B1043" s="44"/>
-    </row>
-    <row r="1044" spans="1:2">
-      <c r="A1044" s="34"/>
-      <c r="B1044" s="44"/>
-    </row>
-    <row r="1045" spans="1:2">
-      <c r="A1045" s="34"/>
-      <c r="B1045" s="44"/>
-    </row>
-    <row r="1046" spans="1:2">
-      <c r="A1046" s="34"/>
-      <c r="B1046" s="44"/>
-    </row>
-    <row r="1047" spans="1:2">
-      <c r="A1047" s="34"/>
-      <c r="B1047" s="44"/>
-    </row>
-    <row r="1048" spans="1:2">
-      <c r="A1048" s="34"/>
-      <c r="B1048" s="44"/>
-    </row>
-    <row r="1049" spans="1:2">
-      <c r="A1049" s="34"/>
-      <c r="B1049" s="44"/>
-    </row>
-    <row r="1050" spans="1:2">
-      <c r="A1050" s="34"/>
-      <c r="B1050" s="44"/>
-    </row>
-    <row r="1051" spans="1:2">
-      <c r="A1051" s="34"/>
-      <c r="B1051" s="44"/>
-    </row>
-    <row r="1052" spans="1:2">
-      <c r="A1052" s="34"/>
-      <c r="B1052" s="44"/>
-    </row>
-    <row r="1053" spans="1:2">
-      <c r="A1053" s="34"/>
-      <c r="B1053" s="44"/>
-    </row>
-    <row r="1054" spans="1:2">
-      <c r="A1054" s="34"/>
-      <c r="B1054" s="44"/>
-    </row>
-    <row r="1055" spans="1:2">
-      <c r="A1055" s="34"/>
-      <c r="B1055" s="44"/>
-    </row>
-    <row r="1056" spans="1:2">
-      <c r="A1056" s="34"/>
-      <c r="B1056" s="44"/>
-    </row>
-    <row r="1057" spans="1:2">
-      <c r="A1057" s="34"/>
-      <c r="B1057" s="44"/>
-    </row>
-    <row r="1058" spans="1:2">
-      <c r="A1058" s="34"/>
-      <c r="B1058" s="44"/>
-    </row>
-    <row r="1059" spans="1:2">
-      <c r="A1059" s="34"/>
-      <c r="B1059" s="44"/>
-    </row>
-    <row r="1060" spans="1:2">
-      <c r="A1060" s="34"/>
-      <c r="B1060" s="44"/>
-    </row>
-    <row r="1061" spans="1:2">
-      <c r="A1061" s="34"/>
-      <c r="B1061" s="44"/>
-    </row>
-    <row r="1062" spans="1:2">
-      <c r="A1062" s="34"/>
-      <c r="B1062" s="44"/>
-    </row>
-    <row r="1063" spans="1:2">
-      <c r="A1063" s="34"/>
-      <c r="B1063" s="44"/>
-    </row>
-    <row r="1064" spans="1:2">
-      <c r="A1064" s="34"/>
-      <c r="B1064" s="44"/>
-    </row>
-    <row r="1065" spans="1:2">
-      <c r="A1065" s="34"/>
-      <c r="B1065" s="44"/>
-    </row>
-    <row r="1066" spans="1:2">
-      <c r="A1066" s="34"/>
-      <c r="B1066" s="44"/>
-    </row>
-    <row r="1067" spans="1:2">
-      <c r="A1067" s="34"/>
-      <c r="B1067" s="44"/>
-    </row>
-    <row r="1068" spans="1:2">
-      <c r="A1068" s="34"/>
-      <c r="B1068" s="44"/>
-    </row>
-    <row r="1069" spans="1:2">
-      <c r="A1069" s="34"/>
-      <c r="B1069" s="44"/>
-    </row>
-    <row r="1070" spans="1:2">
-      <c r="A1070" s="34"/>
-      <c r="B1070" s="44"/>
-    </row>
-    <row r="1071" spans="1:2">
-      <c r="A1071" s="34"/>
-      <c r="B1071" s="44"/>
-    </row>
-    <row r="1072" spans="1:2">
-      <c r="A1072" s="34"/>
-      <c r="B1072" s="44"/>
-    </row>
-    <row r="1073" spans="1:2">
-      <c r="A1073" s="34"/>
-      <c r="B1073" s="44"/>
-    </row>
-    <row r="1074" spans="1:2">
-      <c r="A1074" s="34"/>
-      <c r="B1074" s="44"/>
-    </row>
-    <row r="1075" spans="1:2">
-      <c r="A1075" s="34"/>
-      <c r="B1075" s="44"/>
-    </row>
-    <row r="1076" spans="1:2">
-      <c r="A1076" s="34"/>
-      <c r="B1076" s="44"/>
-    </row>
-    <row r="1077" spans="1:2">
-      <c r="A1077" s="34"/>
-      <c r="B1077" s="44"/>
-    </row>
-    <row r="1078" spans="1:2">
-      <c r="A1078" s="34"/>
-      <c r="B1078" s="44"/>
-    </row>
-    <row r="1079" spans="1:2">
-      <c r="A1079" s="34"/>
-      <c r="B1079" s="44"/>
-    </row>
-    <row r="1080" spans="1:2">
-      <c r="A1080" s="34"/>
-      <c r="B1080" s="44"/>
-    </row>
-    <row r="1081" spans="1:2">
-      <c r="A1081" s="34"/>
-      <c r="B1081" s="44"/>
-    </row>
-    <row r="1082" spans="1:2">
-      <c r="A1082" s="34"/>
-      <c r="B1082" s="44"/>
-    </row>
-    <row r="1083" spans="1:2">
-      <c r="A1083" s="34"/>
-      <c r="B1083" s="44"/>
-    </row>
-    <row r="1084" spans="1:2">
-      <c r="A1084" s="34"/>
-      <c r="B1084" s="44"/>
-    </row>
-    <row r="1085" spans="1:2">
-      <c r="A1085" s="34"/>
-      <c r="B1085" s="44"/>
-    </row>
-    <row r="1086" spans="1:2">
-      <c r="A1086" s="34"/>
-      <c r="B1086" s="44"/>
-    </row>
-    <row r="1087" spans="1:2">
-      <c r="A1087" s="34"/>
-      <c r="B1087" s="44"/>
-    </row>
-    <row r="1088" spans="1:2">
-      <c r="A1088" s="34"/>
-      <c r="B1088" s="44"/>
-    </row>
-    <row r="1089" spans="1:2">
-      <c r="A1089" s="34"/>
-      <c r="B1089" s="44"/>
-    </row>
-    <row r="1090" spans="1:2">
-      <c r="A1090" s="34"/>
-      <c r="B1090" s="44"/>
-    </row>
-    <row r="1091" spans="1:2">
-      <c r="A1091" s="34"/>
-      <c r="B1091" s="44"/>
-    </row>
-    <row r="1092" spans="1:2">
-      <c r="A1092" s="34"/>
-      <c r="B1092" s="44"/>
-    </row>
-    <row r="1093" spans="1:2">
-      <c r="A1093" s="34"/>
-      <c r="B1093" s="44"/>
-    </row>
-    <row r="1094" spans="1:2">
-      <c r="A1094" s="34"/>
-      <c r="B1094" s="44"/>
-    </row>
-    <row r="1095" spans="1:2">
-      <c r="A1095" s="34"/>
-      <c r="B1095" s="44"/>
-    </row>
-    <row r="1096" spans="1:2">
-      <c r="A1096" s="34"/>
-      <c r="B1096" s="44"/>
-    </row>
-    <row r="1097" spans="1:2">
-      <c r="A1097" s="34"/>
-      <c r="B1097" s="44"/>
-    </row>
-    <row r="1098" spans="1:2">
-      <c r="A1098" s="34"/>
-      <c r="B1098" s="44"/>
-    </row>
-    <row r="1099" spans="1:2">
-      <c r="A1099" s="34"/>
-      <c r="B1099" s="44"/>
-    </row>
-    <row r="1100" spans="1:2">
-      <c r="A1100" s="34"/>
-      <c r="B1100" s="44"/>
-    </row>
-    <row r="1101" spans="1:2">
-      <c r="A1101" s="34"/>
-      <c r="B1101" s="44"/>
-    </row>
-    <row r="1102" spans="1:2">
-      <c r="A1102" s="34"/>
-      <c r="B1102" s="44"/>
-    </row>
-    <row r="1103" spans="1:2">
-      <c r="A1103" s="34"/>
-      <c r="B1103" s="44"/>
-    </row>
-    <row r="1104" spans="1:2">
-      <c r="A1104" s="34"/>
-      <c r="B1104" s="44"/>
-    </row>
-    <row r="1105" spans="1:2">
-      <c r="A1105" s="34"/>
-      <c r="B1105" s="44"/>
-    </row>
-    <row r="1106" spans="1:2">
-      <c r="A1106" s="34"/>
-      <c r="B1106" s="44"/>
-    </row>
-    <row r="1107" spans="1:2">
-      <c r="A1107" s="34"/>
-      <c r="B1107" s="44"/>
-    </row>
-    <row r="1108" spans="1:2">
-      <c r="A1108" s="34"/>
-      <c r="B1108" s="44"/>
-    </row>
-    <row r="1109" spans="1:2">
-      <c r="A1109" s="34"/>
-      <c r="B1109" s="44"/>
-    </row>
-    <row r="1110" spans="1:2">
-      <c r="A1110" s="34"/>
-      <c r="B1110" s="44"/>
-    </row>
-    <row r="1111" spans="1:2">
-      <c r="A1111" s="34"/>
-      <c r="B1111" s="44"/>
-    </row>
-    <row r="1112" spans="1:2">
-      <c r="A1112" s="34"/>
-      <c r="B1112" s="44"/>
-    </row>
-    <row r="1113" spans="1:2">
-      <c r="A1113" s="34"/>
-      <c r="B1113" s="44"/>
-    </row>
-    <row r="1114" spans="1:2">
-      <c r="A1114" s="34"/>
-      <c r="B1114" s="44"/>
-    </row>
-    <row r="1115" spans="1:2">
-      <c r="A1115" s="34"/>
-      <c r="B1115" s="44"/>
-    </row>
-    <row r="1116" spans="1:2">
-      <c r="A1116" s="34"/>
-      <c r="B1116" s="44"/>
-    </row>
-    <row r="1117" spans="1:2">
-      <c r="A1117" s="34"/>
-      <c r="B1117" s="44"/>
-    </row>
-    <row r="1118" spans="1:2">
-      <c r="A1118" s="34"/>
-      <c r="B1118" s="44"/>
-    </row>
-    <row r="1119" spans="1:2">
-      <c r="A1119" s="34"/>
-      <c r="B1119" s="44"/>
-    </row>
-    <row r="1120" spans="1:2">
-      <c r="A1120" s="34"/>
-      <c r="B1120" s="44"/>
-    </row>
-    <row r="1121" spans="1:2">
-      <c r="A1121" s="34"/>
-      <c r="B1121" s="44"/>
-    </row>
-    <row r="1122" spans="1:2">
-      <c r="A1122" s="34"/>
-      <c r="B1122" s="44"/>
-    </row>
-    <row r="1123" spans="1:2">
-      <c r="A1123" s="34"/>
-      <c r="B1123" s="44"/>
-    </row>
-    <row r="1124" spans="1:2">
-      <c r="A1124" s="34"/>
-      <c r="B1124" s="44"/>
-    </row>
-    <row r="1125" spans="1:2">
-      <c r="A1125" s="34"/>
-      <c r="B1125" s="44"/>
-    </row>
-    <row r="1126" spans="1:2">
-      <c r="A1126" s="34"/>
-      <c r="B1126" s="44"/>
-    </row>
-    <row r="1127" spans="1:2">
-      <c r="A1127" s="34"/>
-      <c r="B1127" s="44"/>
-    </row>
-    <row r="1128" spans="1:2">
-      <c r="A1128" s="34"/>
-      <c r="B1128" s="44"/>
-    </row>
-    <row r="1129" spans="1:2">
-      <c r="A1129" s="34"/>
-      <c r="B1129" s="44"/>
-    </row>
-    <row r="1130" spans="1:2">
-      <c r="A1130" s="34"/>
-      <c r="B1130" s="44"/>
-    </row>
-    <row r="1131" spans="1:2">
-      <c r="A1131" s="34"/>
-      <c r="B1131" s="44"/>
-    </row>
-    <row r="1132" spans="1:2">
-      <c r="A1132" s="34"/>
-      <c r="B1132" s="44"/>
-    </row>
-    <row r="1133" spans="1:2">
-      <c r="A1133" s="34"/>
-      <c r="B1133" s="44"/>
-    </row>
-    <row r="1134" spans="1:2">
-      <c r="A1134" s="34"/>
-      <c r="B1134" s="44"/>
-    </row>
-    <row r="1135" spans="1:2">
-      <c r="A1135" s="34"/>
-      <c r="B1135" s="44"/>
-    </row>
-    <row r="1136" spans="1:2">
-      <c r="A1136" s="34"/>
-      <c r="B1136" s="44"/>
-    </row>
-    <row r="1137" spans="1:2">
-      <c r="A1137" s="34"/>
-      <c r="B1137" s="44"/>
-    </row>
-    <row r="1138" spans="1:2">
-      <c r="A1138" s="34"/>
-      <c r="B1138" s="44"/>
-    </row>
-    <row r="1139" spans="1:2">
-      <c r="A1139" s="34"/>
-      <c r="B1139" s="44"/>
-    </row>
-    <row r="1140" spans="1:2">
-      <c r="A1140" s="34"/>
-      <c r="B1140" s="44"/>
-    </row>
-    <row r="1141" spans="1:2">
-      <c r="A1141" s="34"/>
-      <c r="B1141" s="44"/>
-    </row>
-    <row r="1142" spans="1:2">
-      <c r="A1142" s="34"/>
-      <c r="B1142" s="44"/>
-    </row>
-    <row r="1143" spans="1:2">
-      <c r="A1143" s="34"/>
-      <c r="B1143" s="44"/>
-    </row>
-    <row r="1144" spans="1:2">
-      <c r="A1144" s="34"/>
-      <c r="B1144" s="44"/>
-    </row>
-    <row r="1145" spans="1:2">
-      <c r="A1145" s="34"/>
-      <c r="B1145" s="44"/>
-    </row>
-    <row r="1146" spans="1:2">
-      <c r="A1146" s="34"/>
-      <c r="B1146" s="44"/>
-    </row>
-    <row r="1147" spans="1:2">
-      <c r="A1147" s="34"/>
-      <c r="B1147" s="44"/>
-    </row>
-    <row r="1148" spans="1:2">
-      <c r="A1148" s="34"/>
-      <c r="B1148" s="44"/>
-    </row>
-    <row r="1149" spans="1:2">
-      <c r="A1149" s="34"/>
-      <c r="B1149" s="44"/>
-    </row>
-    <row r="1150" spans="1:2">
-      <c r="A1150" s="34"/>
-      <c r="B1150" s="44"/>
-    </row>
-    <row r="1151" spans="1:2">
-      <c r="A1151" s="34"/>
-      <c r="B1151" s="44"/>
-    </row>
-    <row r="1152" spans="1:2">
-      <c r="A1152" s="34"/>
-      <c r="B1152" s="44"/>
-    </row>
-    <row r="1153" spans="1:2">
-      <c r="A1153" s="34"/>
-      <c r="B1153" s="44"/>
-    </row>
-    <row r="1154" spans="1:2">
-      <c r="A1154" s="34"/>
-      <c r="B1154" s="44"/>
-    </row>
-    <row r="1155" spans="1:2">
-      <c r="A1155" s="34"/>
-      <c r="B1155" s="44"/>
-    </row>
-    <row r="1156" spans="1:2">
-      <c r="A1156" s="34"/>
-      <c r="B1156" s="44"/>
-    </row>
-    <row r="1157" spans="1:2">
-      <c r="A1157" s="34"/>
-      <c r="B1157" s="44"/>
-    </row>
-    <row r="1158" spans="1:2">
-      <c r="A1158" s="34"/>
-      <c r="B1158" s="44"/>
-    </row>
-    <row r="1159" spans="1:2">
-      <c r="A1159" s="34"/>
-      <c r="B1159" s="44"/>
-    </row>
-    <row r="1160" spans="1:2">
-      <c r="A1160" s="34"/>
-      <c r="B1160" s="44"/>
-    </row>
-    <row r="1161" spans="1:2">
-      <c r="A1161" s="34"/>
-      <c r="B1161" s="44"/>
-    </row>
-    <row r="1162" spans="1:2">
-      <c r="A1162" s="34"/>
-      <c r="B1162" s="44"/>
-    </row>
-    <row r="1163" spans="1:2">
-      <c r="A1163" s="34"/>
-      <c r="B1163" s="44"/>
-    </row>
-    <row r="1164" spans="1:2">
-      <c r="A1164" s="34"/>
-      <c r="B1164" s="44"/>
-    </row>
-    <row r="1165" spans="1:2">
-      <c r="A1165" s="34"/>
-      <c r="B1165" s="44"/>
-    </row>
-    <row r="1166" spans="1:2">
-      <c r="A1166" s="34"/>
-      <c r="B1166" s="44"/>
-    </row>
-    <row r="1167" spans="1:2">
-      <c r="A1167" s="34"/>
-      <c r="B1167" s="44"/>
-    </row>
-    <row r="1168" spans="1:2">
-      <c r="A1168" s="34"/>
-      <c r="B1168" s="44"/>
-    </row>
-    <row r="1169" spans="1:2">
-      <c r="A1169" s="34"/>
-      <c r="B1169" s="44"/>
-    </row>
-    <row r="1170" spans="1:2">
-      <c r="A1170" s="34"/>
-      <c r="B1170" s="44"/>
-    </row>
-    <row r="1171" spans="1:2">
-      <c r="A1171" s="34"/>
-      <c r="B1171" s="44"/>
-    </row>
-    <row r="1172" spans="1:2">
-      <c r="A1172" s="34"/>
-      <c r="B1172" s="44"/>
-    </row>
-    <row r="1173" spans="1:2">
-      <c r="A1173" s="34"/>
-      <c r="B1173" s="44"/>
-    </row>
-    <row r="1174" spans="1:2">
-      <c r="A1174" s="34"/>
-      <c r="B1174" s="44"/>
-    </row>
-    <row r="1175" spans="1:2">
-      <c r="A1175" s="34"/>
-      <c r="B1175" s="44"/>
-    </row>
-    <row r="1176" spans="1:2">
-      <c r="A1176" s="34"/>
-      <c r="B1176" s="44"/>
-    </row>
-    <row r="1177" spans="1:2">
-      <c r="A1177" s="34"/>
-      <c r="B1177" s="44"/>
-    </row>
-    <row r="1178" spans="1:2">
-      <c r="A1178" s="34"/>
-      <c r="B1178" s="44"/>
-    </row>
-    <row r="1179" spans="1:2">
-      <c r="A1179" s="34"/>
-      <c r="B1179" s="44"/>
-    </row>
-    <row r="1180" spans="1:2">
-      <c r="A1180" s="34"/>
-      <c r="B1180" s="44"/>
-    </row>
-    <row r="1181" spans="1:2">
-      <c r="A1181" s="34"/>
-      <c r="B1181" s="44"/>
-    </row>
-    <row r="1182" spans="1:2">
-      <c r="A1182" s="34"/>
-      <c r="B1182" s="44"/>
-    </row>
-    <row r="1183" spans="1:2">
-      <c r="A1183" s="34"/>
-      <c r="B1183" s="44"/>
-    </row>
-    <row r="1184" spans="1:2">
-      <c r="A1184" s="34"/>
-      <c r="B1184" s="44"/>
-    </row>
-    <row r="1185" spans="1:2">
-      <c r="A1185" s="34"/>
-      <c r="B1185" s="44"/>
-    </row>
-    <row r="1186" spans="1:2">
-      <c r="A1186" s="34"/>
-      <c r="B1186" s="44"/>
-    </row>
-    <row r="1187" spans="1:2">
-      <c r="A1187" s="34"/>
-      <c r="B1187" s="44"/>
-    </row>
-    <row r="1188" spans="1:2">
-      <c r="A1188" s="34"/>
-      <c r="B1188" s="44"/>
-    </row>
-    <row r="1189" spans="1:2">
-      <c r="A1189" s="34"/>
-      <c r="B1189" s="44"/>
-    </row>
-    <row r="1190" spans="1:2">
-      <c r="A1190" s="34"/>
-      <c r="B1190" s="44"/>
-    </row>
-    <row r="1191" spans="1:2">
-      <c r="A1191" s="34"/>
-      <c r="B1191" s="44"/>
-    </row>
-    <row r="1192" spans="1:2">
-      <c r="A1192" s="34"/>
-      <c r="B1192" s="44"/>
-    </row>
-    <row r="1193" spans="1:2">
-      <c r="A1193" s="34"/>
-      <c r="B1193" s="44"/>
-    </row>
-    <row r="1194" spans="1:2">
-      <c r="A1194" s="34"/>
-      <c r="B1194" s="44"/>
-    </row>
-    <row r="1195" spans="1:2">
-      <c r="A1195" s="34"/>
-      <c r="B1195" s="44"/>
-    </row>
-    <row r="1196" spans="1:2">
-      <c r="A1196" s="34"/>
-      <c r="B1196" s="44"/>
-    </row>
-    <row r="1197" spans="1:2">
-      <c r="A1197" s="34"/>
-      <c r="B1197" s="44"/>
-    </row>
-    <row r="1198" spans="1:2">
-      <c r="A1198" s="34"/>
-      <c r="B1198" s="44"/>
-    </row>
-    <row r="1199" spans="1:2">
-      <c r="A1199" s="34"/>
-      <c r="B1199" s="44"/>
-    </row>
-    <row r="1200" spans="1:2">
-      <c r="A1200" s="34"/>
-      <c r="B1200" s="44"/>
-    </row>
-    <row r="1201" spans="1:2">
-      <c r="A1201" s="34"/>
-      <c r="B1201" s="44"/>
-    </row>
-    <row r="1202" spans="1:2">
-      <c r="A1202" s="34"/>
-      <c r="B1202" s="44"/>
-    </row>
-    <row r="1203" spans="1:2">
-      <c r="A1203" s="34"/>
-      <c r="B1203" s="44"/>
-    </row>
-    <row r="1204" spans="1:2">
-      <c r="A1204" s="34"/>
-      <c r="B1204" s="44"/>
-    </row>
-    <row r="1205" spans="1:2">
-      <c r="A1205" s="34"/>
-      <c r="B1205" s="44"/>
-    </row>
-    <row r="1206" spans="1:2">
-      <c r="A1206" s="34"/>
-      <c r="B1206" s="44"/>
-    </row>
-    <row r="1207" spans="1:2">
-      <c r="A1207" s="34"/>
-      <c r="B1207" s="44"/>
-    </row>
-    <row r="1208" spans="1:2">
-      <c r="A1208" s="34"/>
-      <c r="B1208" s="44"/>
-    </row>
-    <row r="1209" spans="1:2">
-      <c r="A1209" s="34"/>
-      <c r="B1209" s="44"/>
-    </row>
-    <row r="1210" spans="1:2">
-      <c r="A1210" s="34"/>
-      <c r="B1210" s="44"/>
-    </row>
-    <row r="1211" spans="1:2">
-      <c r="A1211" s="34"/>
-      <c r="B1211" s="44"/>
-    </row>
-    <row r="1212" spans="1:2">
-      <c r="A1212" s="34"/>
-      <c r="B1212" s="44"/>
-    </row>
-    <row r="1213" spans="1:2">
-      <c r="A1213" s="34"/>
-      <c r="B1213" s="44"/>
-    </row>
-    <row r="1214" spans="1:2">
-      <c r="A1214" s="34"/>
-      <c r="B1214" s="44"/>
-    </row>
-    <row r="1215" spans="1:2">
-      <c r="A1215" s="34"/>
-      <c r="B1215" s="44"/>
-    </row>
-    <row r="1216" spans="1:2">
-      <c r="A1216" s="34"/>
-      <c r="B1216" s="44"/>
-    </row>
-    <row r="1217" spans="1:2">
-      <c r="A1217" s="34"/>
-      <c r="B1217" s="44"/>
-    </row>
-    <row r="1218" spans="1:2">
-      <c r="A1218" s="34"/>
-      <c r="B1218" s="44"/>
-    </row>
-    <row r="1219" spans="1:2">
-      <c r="A1219" s="34"/>
-      <c r="B1219" s="44"/>
-    </row>
-    <row r="1220" spans="1:2">
-      <c r="A1220" s="34"/>
-      <c r="B1220" s="44"/>
-    </row>
-    <row r="1221" spans="1:2">
-      <c r="A1221" s="34"/>
-      <c r="B1221" s="44"/>
-    </row>
-    <row r="1222" spans="1:2">
-      <c r="A1222" s="34"/>
-      <c r="B1222" s="44"/>
-    </row>
-    <row r="1223" spans="1:2">
-      <c r="A1223" s="34"/>
-      <c r="B1223" s="44"/>
-    </row>
-    <row r="1224" spans="1:2">
-      <c r="A1224" s="34"/>
-      <c r="B1224" s="44"/>
-    </row>
-    <row r="1225" spans="1:2">
-      <c r="A1225" s="34"/>
-      <c r="B1225" s="44"/>
-    </row>
-    <row r="1226" spans="1:2">
-      <c r="A1226" s="34"/>
-      <c r="B1226" s="44"/>
-    </row>
-    <row r="1227" spans="1:2">
-      <c r="A1227" s="34"/>
-      <c r="B1227" s="44"/>
-    </row>
-    <row r="1228" spans="1:2">
-      <c r="A1228" s="34"/>
-      <c r="B1228" s="44"/>
-    </row>
-    <row r="1229" spans="1:2">
-      <c r="A1229" s="34"/>
-      <c r="B1229" s="44"/>
-    </row>
-    <row r="1230" spans="1:2">
-      <c r="A1230" s="34"/>
-      <c r="B1230" s="44"/>
-    </row>
-    <row r="1231" spans="1:2">
-      <c r="A1231" s="34"/>
-      <c r="B1231" s="44"/>
-    </row>
-    <row r="1232" spans="1:2">
-      <c r="A1232" s="34"/>
-      <c r="B1232" s="44"/>
-    </row>
-    <row r="1233" spans="1:2">
-      <c r="A1233" s="34"/>
-      <c r="B1233" s="44"/>
-    </row>
-    <row r="1234" spans="1:2">
-      <c r="A1234" s="34"/>
-      <c r="B1234" s="44"/>
-    </row>
-    <row r="1235" spans="1:2">
-      <c r="A1235" s="34"/>
-      <c r="B1235" s="44"/>
-    </row>
-    <row r="1236" spans="1:2">
-      <c r="A1236" s="34"/>
-      <c r="B1236" s="44"/>
-    </row>
-    <row r="1237" spans="1:2">
-      <c r="A1237" s="34"/>
-      <c r="B1237" s="44"/>
-    </row>
-    <row r="1238" spans="1:2">
-      <c r="A1238" s="34"/>
-      <c r="B1238" s="44"/>
-    </row>
-    <row r="1239" spans="1:2">
-      <c r="A1239" s="34"/>
-      <c r="B1239" s="44"/>
-    </row>
-    <row r="1240" spans="1:2">
-      <c r="A1240" s="34"/>
-      <c r="B1240" s="44"/>
-    </row>
-    <row r="1241" spans="1:2">
-      <c r="A1241" s="34"/>
-      <c r="B1241" s="44"/>
-    </row>
-    <row r="1242" spans="1:2">
-      <c r="A1242" s="34"/>
-      <c r="B1242" s="44"/>
-    </row>
-    <row r="1243" spans="1:2">
-      <c r="A1243" s="34"/>
-      <c r="B1243" s="44"/>
-    </row>
-    <row r="1244" spans="1:2">
-      <c r="A1244" s="34"/>
-      <c r="B1244" s="44"/>
-    </row>
-    <row r="1245" spans="1:2">
-      <c r="A1245" s="34"/>
-      <c r="B1245" s="44"/>
-    </row>
-    <row r="1246" spans="1:2">
-      <c r="A1246" s="34"/>
-      <c r="B1246" s="44"/>
-    </row>
-    <row r="1247" spans="1:2">
-      <c r="A1247" s="34"/>
-      <c r="B1247" s="44"/>
-    </row>
-    <row r="1248" spans="1:2">
-      <c r="A1248" s="34"/>
-      <c r="B1248" s="44"/>
-    </row>
-    <row r="1249" spans="1:2">
-      <c r="A1249" s="34"/>
-      <c r="B1249" s="44"/>
-    </row>
-    <row r="1250" spans="1:2">
-      <c r="A1250" s="34"/>
-      <c r="B1250" s="44"/>
-    </row>
-    <row r="1251" spans="1:2">
-      <c r="A1251" s="34"/>
-      <c r="B1251" s="44"/>
-    </row>
-    <row r="1252" spans="1:2">
-      <c r="A1252" s="34"/>
-      <c r="B1252" s="44"/>
-    </row>
-    <row r="1253" spans="1:2">
-      <c r="A1253" s="34"/>
-      <c r="B1253" s="44"/>
-    </row>
-    <row r="1254" spans="1:2">
-      <c r="A1254" s="34"/>
-      <c r="B1254" s="44"/>
-    </row>
-    <row r="1255" spans="1:2">
-      <c r="A1255" s="34"/>
-      <c r="B1255" s="44"/>
-    </row>
-    <row r="1256" spans="1:2">
-      <c r="A1256" s="34"/>
-      <c r="B1256" s="44"/>
-    </row>
-    <row r="1257" spans="1:2">
-      <c r="A1257" s="34"/>
-      <c r="B1257" s="44"/>
-    </row>
-    <row r="1258" spans="1:2">
-      <c r="A1258" s="34"/>
-      <c r="B1258" s="44"/>
-    </row>
-    <row r="1259" spans="1:2">
-      <c r="A1259" s="34"/>
-      <c r="B1259" s="44"/>
-    </row>
-    <row r="1260" spans="1:2">
-      <c r="A1260" s="34"/>
-      <c r="B1260" s="44"/>
-    </row>
-    <row r="1261" spans="1:2">
-      <c r="A1261" s="34"/>
-      <c r="B1261" s="44"/>
-    </row>
-    <row r="1262" spans="1:2">
-      <c r="A1262" s="34"/>
-      <c r="B1262" s="44"/>
-    </row>
-    <row r="1263" spans="1:2">
-      <c r="A1263" s="34"/>
-      <c r="B1263" s="44"/>
-    </row>
-    <row r="1264" spans="1:2">
-      <c r="A1264" s="34"/>
-      <c r="B1264" s="44"/>
-    </row>
-    <row r="1265" spans="1:2">
-      <c r="A1265" s="34"/>
-      <c r="B1265" s="44"/>
-    </row>
-    <row r="1266" spans="1:2">
-      <c r="A1266" s="34"/>
-      <c r="B1266" s="44"/>
-    </row>
-    <row r="1267" spans="1:2">
-      <c r="A1267" s="34"/>
-      <c r="B1267" s="44"/>
-    </row>
-    <row r="1268" spans="1:2">
-      <c r="A1268" s="34"/>
-      <c r="B1268" s="44"/>
-    </row>
-    <row r="1269" spans="1:2">
-      <c r="A1269" s="34"/>
-      <c r="B1269" s="44"/>
-    </row>
-    <row r="1270" spans="1:2">
-      <c r="A1270" s="34"/>
-      <c r="B1270" s="44"/>
-    </row>
-    <row r="1271" spans="1:2">
-      <c r="A1271" s="34"/>
-      <c r="B1271" s="44"/>
-    </row>
-    <row r="1272" spans="1:2">
-      <c r="A1272" s="34"/>
-      <c r="B1272" s="44"/>
-    </row>
-    <row r="1273" spans="1:2">
-      <c r="A1273" s="34"/>
-      <c r="B1273" s="44"/>
-    </row>
-    <row r="1274" spans="1:2">
-      <c r="A1274" s="34"/>
-      <c r="B1274" s="44"/>
-    </row>
-    <row r="1275" spans="1:2">
-      <c r="A1275" s="34"/>
-      <c r="B1275" s="44"/>
-    </row>
-    <row r="1276" spans="1:2">
-      <c r="A1276" s="34"/>
-      <c r="B1276" s="44"/>
-    </row>
-    <row r="1277" spans="1:2">
-      <c r="A1277" s="34"/>
-      <c r="B1277" s="44"/>
-    </row>
-    <row r="1278" spans="1:2">
-      <c r="A1278" s="34"/>
-      <c r="B1278" s="44"/>
-    </row>
-    <row r="1279" spans="1:2">
-      <c r="A1279" s="34"/>
-      <c r="B1279" s="44"/>
-    </row>
-    <row r="1280" spans="1:2">
-      <c r="A1280" s="34"/>
-      <c r="B1280" s="44"/>
-    </row>
-    <row r="1281" spans="1:2">
-      <c r="A1281" s="34"/>
-      <c r="B1281" s="44"/>
-    </row>
-    <row r="1282" spans="1:2">
-      <c r="A1282" s="34"/>
-      <c r="B1282" s="44"/>
-    </row>
-    <row r="1283" spans="1:2">
-      <c r="A1283" s="34"/>
-      <c r="B1283" s="44"/>
-    </row>
-    <row r="1284" spans="1:2">
-      <c r="A1284" s="34"/>
-      <c r="B1284" s="44"/>
-    </row>
-    <row r="1285" spans="1:2">
-      <c r="A1285" s="34"/>
-      <c r="B1285" s="44"/>
-    </row>
-    <row r="1286" spans="1:2">
-      <c r="A1286" s="34"/>
-      <c r="B1286" s="44"/>
-    </row>
-    <row r="1287" spans="1:2">
-      <c r="A1287" s="34"/>
-      <c r="B1287" s="44"/>
-    </row>
-    <row r="1288" spans="1:2">
-      <c r="A1288" s="34"/>
-      <c r="B1288" s="44"/>
-    </row>
-    <row r="1289" spans="1:2">
-      <c r="A1289" s="34"/>
-      <c r="B1289" s="44"/>
-    </row>
-    <row r="1290" spans="1:2">
-      <c r="A1290" s="34"/>
-      <c r="B1290" s="44"/>
-    </row>
-    <row r="1291" spans="1:2">
-      <c r="A1291" s="34"/>
-      <c r="B1291" s="44"/>
-    </row>
-    <row r="1292" spans="1:2">
-      <c r="A1292" s="34"/>
-      <c r="B1292" s="44"/>
-    </row>
-    <row r="1293" spans="1:2">
-      <c r="A1293" s="34"/>
-      <c r="B1293" s="44"/>
-    </row>
-    <row r="1294" spans="1:2">
-      <c r="A1294" s="34"/>
-      <c r="B1294" s="44"/>
-    </row>
-    <row r="1295" spans="1:2">
-      <c r="A1295" s="34"/>
-      <c r="B1295" s="44"/>
-    </row>
-    <row r="1296" spans="1:2">
-      <c r="A1296" s="34"/>
-      <c r="B1296" s="44"/>
-    </row>
-    <row r="1297" spans="1:2">
-      <c r="A1297" s="34"/>
-      <c r="B1297" s="44"/>
-    </row>
-    <row r="1298" spans="1:2">
-      <c r="A1298" s="34"/>
-      <c r="B1298" s="44"/>
-    </row>
-    <row r="1299" spans="1:2">
-      <c r="A1299" s="34"/>
-      <c r="B1299" s="44"/>
-    </row>
-    <row r="1300" spans="1:2">
-      <c r="A1300" s="34"/>
-      <c r="B1300" s="44"/>
-    </row>
-    <row r="1301" spans="1:2">
-      <c r="A1301" s="34"/>
-      <c r="B1301" s="44"/>
-    </row>
-    <row r="1302" spans="1:2">
-      <c r="A1302" s="34"/>
-      <c r="B1302" s="44"/>
-    </row>
-    <row r="1303" spans="1:2">
-      <c r="A1303" s="34"/>
-      <c r="B1303" s="44"/>
-    </row>
-    <row r="1304" spans="1:2">
-      <c r="A1304" s="34"/>
-      <c r="B1304" s="44"/>
-    </row>
-    <row r="1305" spans="1:2">
-      <c r="A1305" s="34"/>
-      <c r="B1305" s="44"/>
-    </row>
-    <row r="1306" spans="1:2">
-      <c r="A1306" s="34"/>
-      <c r="B1306" s="44"/>
-    </row>
-    <row r="1307" spans="1:2">
-      <c r="A1307" s="34"/>
-      <c r="B1307" s="44"/>
-    </row>
-    <row r="1308" spans="1:2">
-      <c r="A1308" s="34"/>
-      <c r="B1308" s="44"/>
-    </row>
-    <row r="1309" spans="1:2">
-      <c r="A1309" s="34"/>
-      <c r="B1309" s="44"/>
-    </row>
-    <row r="1310" spans="1:2">
-      <c r="A1310" s="34"/>
-      <c r="B1310" s="44"/>
-    </row>
-    <row r="1311" spans="1:2">
-      <c r="A1311" s="34"/>
-      <c r="B1311" s="44"/>
-    </row>
-    <row r="1312" spans="1:2">
-      <c r="A1312" s="34"/>
-      <c r="B1312" s="44"/>
-    </row>
-    <row r="1313" spans="1:2">
-      <c r="A1313" s="34"/>
-      <c r="B1313" s="44"/>
-    </row>
-    <row r="1314" spans="1:2">
-      <c r="A1314" s="34"/>
-      <c r="B1314" s="44"/>
-    </row>
-    <row r="1315" spans="1:2">
-      <c r="A1315" s="34"/>
-      <c r="B1315" s="44"/>
-    </row>
-    <row r="1316" spans="1:2">
-      <c r="A1316" s="34"/>
-      <c r="B1316" s="44"/>
-    </row>
-    <row r="1317" spans="1:2">
-      <c r="A1317" s="34"/>
-      <c r="B1317" s="44"/>
-    </row>
-    <row r="1318" spans="1:2">
-      <c r="A1318" s="34"/>
-      <c r="B1318" s="44"/>
-    </row>
-    <row r="1319" spans="1:2">
-      <c r="A1319" s="34"/>
-      <c r="B1319" s="44"/>
-    </row>
-    <row r="1320" spans="1:2">
-      <c r="A1320" s="34"/>
-      <c r="B1320" s="44"/>
-    </row>
-    <row r="1321" spans="1:2">
-      <c r="A1321" s="34"/>
-      <c r="B1321" s="44"/>
-    </row>
-    <row r="1322" spans="1:2">
-      <c r="A1322" s="34"/>
-      <c r="B1322" s="44"/>
-    </row>
-    <row r="1323" spans="1:2">
-      <c r="A1323" s="34"/>
-      <c r="B1323" s="44"/>
-    </row>
-    <row r="1324" spans="1:2">
-      <c r="A1324" s="34"/>
-      <c r="B1324" s="44"/>
-    </row>
-    <row r="1325" spans="1:2">
-      <c r="A1325" s="34"/>
-      <c r="B1325" s="44"/>
-    </row>
-    <row r="1326" spans="1:2">
-      <c r="A1326" s="34"/>
-      <c r="B1326" s="44"/>
-    </row>
-    <row r="1327" spans="1:2">
-      <c r="A1327" s="34"/>
-      <c r="B1327" s="44"/>
-    </row>
-    <row r="1328" spans="1:2">
-      <c r="A1328" s="34"/>
-      <c r="B1328" s="44"/>
-    </row>
-    <row r="1329" spans="1:2">
-      <c r="A1329" s="34"/>
-      <c r="B1329" s="44"/>
-    </row>
-    <row r="1330" spans="1:2">
-      <c r="A1330" s="34"/>
-      <c r="B1330" s="44"/>
-    </row>
-    <row r="1331" spans="1:2">
-      <c r="A1331" s="34"/>
-      <c r="B1331" s="44"/>
-    </row>
-    <row r="1332" spans="1:2">
-      <c r="A1332" s="34"/>
-      <c r="B1332" s="44"/>
-    </row>
-    <row r="1333" spans="1:2">
-      <c r="A1333" s="34"/>
-      <c r="B1333" s="44"/>
-    </row>
-    <row r="1334" spans="1:2">
-      <c r="A1334" s="34"/>
-      <c r="B1334" s="44"/>
-    </row>
-    <row r="1335" spans="1:2">
-      <c r="A1335" s="34"/>
-      <c r="B1335" s="44"/>
-    </row>
-    <row r="1336" spans="1:2">
-      <c r="A1336" s="34"/>
-      <c r="B1336" s="44"/>
-    </row>
-    <row r="1337" spans="1:2">
-      <c r="A1337" s="34"/>
-      <c r="B1337" s="44"/>
-    </row>
-    <row r="1338" spans="1:2">
-      <c r="A1338" s="34"/>
-      <c r="B1338" s="44"/>
-    </row>
-    <row r="1339" spans="1:2">
-      <c r="A1339" s="34"/>
-      <c r="B1339" s="44"/>
-    </row>
-    <row r="1340" spans="1:2">
-      <c r="A1340" s="34"/>
-      <c r="B1340" s="44"/>
-    </row>
-    <row r="1341" spans="1:2">
-      <c r="A1341" s="34"/>
-      <c r="B1341" s="44"/>
-    </row>
-    <row r="1342" spans="1:2">
-      <c r="A1342" s="34"/>
-      <c r="B1342" s="44"/>
-    </row>
-    <row r="1343" spans="1:2">
-      <c r="A1343" s="34"/>
-      <c r="B1343" s="44"/>
-    </row>
-    <row r="1344" spans="1:2">
-      <c r="A1344" s="34"/>
-      <c r="B1344" s="44"/>
-    </row>
-    <row r="1345" spans="1:2">
-      <c r="A1345" s="34"/>
-      <c r="B1345" s="44"/>
-    </row>
-    <row r="1346" spans="1:2">
-      <c r="A1346" s="34"/>
-      <c r="B1346" s="44"/>
-    </row>
-    <row r="1347" spans="1:2">
-      <c r="A1347" s="34"/>
-      <c r="B1347" s="44"/>
-    </row>
-    <row r="1348" spans="1:2">
-      <c r="A1348" s="34"/>
-      <c r="B1348" s="44"/>
-    </row>
-    <row r="1349" spans="1:2">
-      <c r="A1349" s="34"/>
-      <c r="B1349" s="44"/>
-    </row>
-    <row r="1350" spans="1:2">
-      <c r="A1350" s="34"/>
-      <c r="B1350" s="44"/>
-    </row>
-    <row r="1351" spans="1:2">
-      <c r="A1351" s="34"/>
-      <c r="B1351" s="44"/>
-    </row>
-    <row r="1352" spans="1:2">
-      <c r="A1352" s="34"/>
-      <c r="B1352" s="44"/>
-    </row>
-    <row r="1353" spans="1:2">
-      <c r="A1353" s="34"/>
-      <c r="B1353" s="44"/>
-    </row>
-    <row r="1354" spans="1:2">
-      <c r="A1354" s="34"/>
-      <c r="B1354" s="44"/>
-    </row>
-    <row r="1355" spans="1:2">
-      <c r="A1355" s="34"/>
-      <c r="B1355" s="44"/>
-    </row>
-    <row r="1356" spans="1:2">
-      <c r="A1356" s="34"/>
-      <c r="B1356" s="44"/>
-    </row>
-    <row r="1357" spans="1:2">
-      <c r="A1357" s="34"/>
-      <c r="B1357" s="44"/>
-    </row>
-    <row r="1358" spans="1:2">
-      <c r="A1358" s="34"/>
-      <c r="B1358" s="44"/>
-    </row>
-    <row r="1359" spans="1:2">
-      <c r="A1359" s="34"/>
-      <c r="B1359" s="44"/>
-    </row>
-    <row r="1360" spans="1:2">
-      <c r="A1360" s="34"/>
-      <c r="B1360" s="44"/>
-    </row>
-    <row r="1361" spans="1:2">
-      <c r="A1361" s="34"/>
-      <c r="B1361" s="44"/>
-    </row>
-    <row r="1362" spans="1:2">
-      <c r="A1362" s="34"/>
-      <c r="B1362" s="44"/>
-    </row>
-    <row r="1363" spans="1:2">
-      <c r="A1363" s="34"/>
-      <c r="B1363" s="44"/>
-    </row>
-    <row r="1364" spans="1:2">
-      <c r="A1364" s="34"/>
-      <c r="B1364" s="44"/>
-    </row>
-    <row r="1365" spans="1:2">
-      <c r="A1365" s="34"/>
-      <c r="B1365" s="44"/>
-    </row>
-    <row r="1366" spans="1:2">
-      <c r="A1366" s="34"/>
-      <c r="B1366" s="44"/>
-    </row>
-    <row r="1367" spans="1:2">
-      <c r="A1367" s="34"/>
-      <c r="B1367" s="44"/>
-    </row>
-    <row r="1368" spans="1:2">
-      <c r="A1368" s="34"/>
-      <c r="B1368" s="44"/>
-    </row>
-    <row r="1369" spans="1:2">
-      <c r="A1369" s="34"/>
-      <c r="B1369" s="44"/>
-    </row>
-    <row r="1370" spans="1:2">
-      <c r="A1370" s="34"/>
-      <c r="B1370" s="44"/>
-    </row>
-    <row r="1371" spans="1:2">
-      <c r="A1371" s="34"/>
-      <c r="B1371" s="44"/>
-    </row>
-    <row r="1372" spans="1:2">
-      <c r="A1372" s="34"/>
-      <c r="B1372" s="44"/>
-    </row>
-    <row r="1373" spans="1:2">
-      <c r="A1373" s="34"/>
-      <c r="B1373" s="44"/>
-    </row>
-    <row r="1374" spans="1:2">
-      <c r="A1374" s="34"/>
-      <c r="B1374" s="44"/>
-    </row>
-    <row r="1375" spans="1:2">
-      <c r="A1375" s="34"/>
-      <c r="B1375" s="44"/>
-    </row>
-    <row r="1376" spans="1:2">
-      <c r="A1376" s="34"/>
-      <c r="B1376" s="44"/>
-    </row>
-    <row r="1377" spans="1:2">
-      <c r="A1377" s="34"/>
-      <c r="B1377" s="44"/>
-    </row>
-    <row r="1378" spans="1:2">
-      <c r="A1378" s="34"/>
-      <c r="B1378" s="44"/>
-    </row>
-    <row r="1379" spans="1:2">
-      <c r="A1379" s="34"/>
-      <c r="B1379" s="44"/>
-    </row>
-    <row r="1380" spans="1:2">
-      <c r="A1380" s="34"/>
-      <c r="B1380" s="44"/>
-    </row>
-    <row r="1381" spans="1:2">
-      <c r="A1381" s="34"/>
-      <c r="B1381" s="44"/>
-    </row>
-    <row r="1382" spans="1:2">
-      <c r="A1382" s="34"/>
-      <c r="B1382" s="44"/>
-    </row>
-    <row r="1383" spans="1:2">
-      <c r="A1383" s="34"/>
-      <c r="B1383" s="44"/>
-    </row>
-    <row r="1384" spans="1:2">
-      <c r="A1384" s="34"/>
-      <c r="B1384" s="44"/>
-    </row>
-    <row r="1385" spans="1:2">
-      <c r="A1385" s="34"/>
-      <c r="B1385" s="44"/>
-    </row>
-    <row r="1386" spans="1:2">
-      <c r="A1386" s="34"/>
-      <c r="B1386" s="44"/>
-    </row>
-    <row r="1387" spans="1:2">
-      <c r="A1387" s="34"/>
-      <c r="B1387" s="44"/>
-    </row>
-    <row r="1388" spans="1:2">
-      <c r="A1388" s="34"/>
-      <c r="B1388" s="44"/>
-    </row>
-    <row r="1389" spans="1:2">
-      <c r="A1389" s="34"/>
-      <c r="B1389" s="44"/>
-    </row>
-    <row r="1390" spans="1:2">
-      <c r="A1390" s="34"/>
-      <c r="B1390" s="44"/>
-    </row>
-    <row r="1391" spans="1:2">
-      <c r="A1391" s="34"/>
-      <c r="B1391" s="44"/>
-    </row>
-    <row r="1392" spans="1:2">
-      <c r="A1392" s="34"/>
-      <c r="B1392" s="44"/>
-    </row>
-    <row r="1393" spans="1:2">
-      <c r="A1393" s="34"/>
-      <c r="B1393" s="44"/>
-    </row>
-    <row r="1394" spans="1:2">
-      <c r="A1394" s="34"/>
-      <c r="B1394" s="44"/>
-    </row>
-    <row r="1395" spans="1:2">
-      <c r="A1395" s="34"/>
-      <c r="B1395" s="44"/>
-    </row>
-    <row r="1396" spans="1:2">
-      <c r="A1396" s="34"/>
-      <c r="B1396" s="44"/>
-    </row>
-    <row r="1397" spans="1:2">
-      <c r="A1397" s="34"/>
-      <c r="B1397" s="44"/>
-    </row>
-    <row r="1398" spans="1:2">
-      <c r="A1398" s="34"/>
-      <c r="B1398" s="44"/>
-    </row>
-    <row r="1399" spans="1:2">
-      <c r="A1399" s="34"/>
-      <c r="B1399" s="44"/>
-    </row>
-    <row r="1400" spans="1:2">
-      <c r="A1400" s="34"/>
-      <c r="B1400" s="44"/>
-    </row>
-    <row r="1401" spans="1:2">
-      <c r="A1401" s="34"/>
-      <c r="B1401" s="44"/>
-    </row>
-    <row r="1402" spans="1:2">
-      <c r="A1402" s="34"/>
-      <c r="B1402" s="44"/>
-    </row>
-    <row r="1403" spans="1:2">
-      <c r="A1403" s="34"/>
-      <c r="B1403" s="44"/>
-    </row>
-    <row r="1404" spans="1:2">
-      <c r="A1404" s="34"/>
-      <c r="B1404" s="44"/>
-    </row>
-    <row r="1405" spans="1:2">
-      <c r="A1405" s="34"/>
-      <c r="B1405" s="44"/>
-    </row>
-    <row r="1406" spans="1:2">
-      <c r="A1406" s="34"/>
-      <c r="B1406" s="44"/>
-    </row>
-    <row r="1407" spans="1:2">
-      <c r="A1407" s="34"/>
-      <c r="B1407" s="44"/>
-    </row>
-    <row r="1408" spans="1:2">
-      <c r="A1408" s="34"/>
-      <c r="B1408" s="44"/>
-    </row>
-    <row r="1409" spans="1:2">
-      <c r="A1409" s="34"/>
-      <c r="B1409" s="44"/>
-    </row>
-    <row r="1410" spans="1:2">
-      <c r="A1410" s="34"/>
-      <c r="B1410" s="44"/>
-    </row>
-    <row r="1411" spans="1:2">
-      <c r="A1411" s="34"/>
-      <c r="B1411" s="44"/>
-    </row>
-    <row r="1412" spans="1:2">
-      <c r="A1412" s="34"/>
-      <c r="B1412" s="44"/>
-    </row>
-    <row r="1413" spans="1:2">
-      <c r="A1413" s="34"/>
-      <c r="B1413" s="44"/>
-    </row>
-    <row r="1414" spans="1:2">
-      <c r="A1414" s="34"/>
-      <c r="B1414" s="44"/>
-    </row>
-    <row r="1415" spans="1:2">
-      <c r="A1415" s="34"/>
-      <c r="B1415" s="44"/>
-    </row>
-    <row r="1416" spans="1:2">
-      <c r="A1416" s="34"/>
-      <c r="B1416" s="44"/>
-    </row>
-    <row r="1417" spans="1:2">
-      <c r="A1417" s="34"/>
-      <c r="B1417" s="44"/>
-    </row>
-    <row r="1418" spans="1:2">
-      <c r="A1418" s="34"/>
-      <c r="B1418" s="44"/>
-    </row>
-    <row r="1419" spans="1:2">
-      <c r="A1419" s="34"/>
-      <c r="B1419" s="44"/>
-    </row>
-    <row r="1420" spans="1:2">
-      <c r="A1420" s="34"/>
-      <c r="B1420" s="44"/>
-    </row>
-    <row r="1421" spans="1:2">
-      <c r="A1421" s="34"/>
-      <c r="B1421" s="44"/>
-    </row>
-    <row r="1422" spans="1:2">
-      <c r="A1422" s="34"/>
-      <c r="B1422" s="44"/>
-    </row>
-    <row r="1423" spans="1:2">
-      <c r="A1423" s="34"/>
-      <c r="B1423" s="44"/>
-    </row>
-    <row r="1424" spans="1:2">
-      <c r="A1424" s="34"/>
-      <c r="B1424" s="44"/>
-    </row>
-    <row r="1425" spans="1:2">
-      <c r="A1425" s="34"/>
-      <c r="B1425" s="44"/>
-    </row>
-    <row r="1426" spans="1:2">
-      <c r="A1426" s="34"/>
-      <c r="B1426" s="44"/>
-    </row>
-    <row r="1427" spans="1:2">
-      <c r="A1427" s="34"/>
-      <c r="B1427" s="44"/>
-    </row>
-    <row r="1428" spans="1:2">
-      <c r="A1428" s="34"/>
-      <c r="B1428" s="44"/>
-    </row>
-    <row r="1429" spans="1:2">
-      <c r="A1429" s="34"/>
-      <c r="B1429" s="44"/>
-    </row>
-    <row r="1430" spans="1:2">
-      <c r="A1430" s="34"/>
-      <c r="B1430" s="44"/>
-    </row>
-    <row r="1431" spans="1:2">
-      <c r="A1431" s="34"/>
-      <c r="B1431" s="44"/>
-    </row>
-    <row r="1432" spans="1:2">
-      <c r="A1432" s="34"/>
-      <c r="B1432" s="44"/>
-    </row>
-    <row r="1433" spans="1:2">
-      <c r="A1433" s="34"/>
-      <c r="B1433" s="44"/>
-    </row>
-    <row r="1434" spans="1:2">
-      <c r="A1434" s="34"/>
-      <c r="B1434" s="44"/>
-    </row>
-    <row r="1435" spans="1:2">
-      <c r="A1435" s="34"/>
-      <c r="B1435" s="44"/>
-    </row>
-    <row r="1436" spans="1:2">
-      <c r="A1436" s="34"/>
-      <c r="B1436" s="44"/>
-    </row>
-    <row r="1437" spans="1:2">
-      <c r="A1437" s="34"/>
-      <c r="B1437" s="44"/>
-    </row>
-    <row r="1438" spans="1:2">
-      <c r="A1438" s="34"/>
-      <c r="B1438" s="44"/>
-    </row>
-    <row r="1439" spans="1:2">
-      <c r="A1439" s="34"/>
-      <c r="B1439" s="44"/>
-    </row>
-    <row r="1440" spans="1:2">
-      <c r="A1440" s="34"/>
-      <c r="B1440" s="44"/>
-    </row>
-    <row r="1441" spans="1:2">
-      <c r="A1441" s="34"/>
-      <c r="B1441" s="44"/>
-    </row>
-    <row r="1442" spans="1:2">
-      <c r="A1442" s="34"/>
-      <c r="B1442" s="44"/>
-    </row>
-    <row r="1443" spans="1:2">
-      <c r="A1443" s="34"/>
-      <c r="B1443" s="44"/>
-    </row>
-    <row r="1444" spans="1:2">
-      <c r="A1444" s="34"/>
-      <c r="B1444" s="44"/>
-    </row>
-    <row r="1445" spans="1:2">
-      <c r="A1445" s="34"/>
-      <c r="B1445" s="44"/>
-    </row>
-    <row r="1446" spans="1:2">
-      <c r="A1446" s="34"/>
-      <c r="B1446" s="44"/>
-    </row>
-    <row r="1447" spans="1:2">
-      <c r="A1447" s="34"/>
-      <c r="B1447" s="44"/>
-    </row>
-    <row r="1448" spans="1:2">
-      <c r="A1448" s="34"/>
-      <c r="B1448" s="44"/>
-    </row>
-    <row r="1449" spans="1:2">
-      <c r="A1449" s="34"/>
-      <c r="B1449" s="44"/>
-    </row>
-    <row r="1450" spans="1:2">
-      <c r="A1450" s="34"/>
-      <c r="B1450" s="44"/>
-    </row>
-    <row r="1451" spans="1:2">
-      <c r="A1451" s="34"/>
-      <c r="B1451" s="44"/>
-    </row>
-    <row r="1452" spans="1:2">
-      <c r="A1452" s="34"/>
-      <c r="B1452" s="44"/>
-    </row>
-    <row r="1453" spans="1:2">
-      <c r="A1453" s="34"/>
-      <c r="B1453" s="44"/>
-    </row>
-    <row r="1454" spans="1:2">
-      <c r="A1454" s="34"/>
-      <c r="B1454" s="44"/>
-    </row>
-    <row r="1455" spans="1:2">
-      <c r="A1455" s="34"/>
-      <c r="B1455" s="44"/>
-    </row>
-    <row r="1456" spans="1:2">
-      <c r="A1456" s="34"/>
-      <c r="B1456" s="44"/>
-    </row>
-    <row r="1457" spans="1:2">
-      <c r="A1457" s="34"/>
-      <c r="B1457" s="44"/>
-    </row>
-    <row r="1458" spans="1:2">
-      <c r="A1458" s="34"/>
-      <c r="B1458" s="44"/>
-    </row>
-    <row r="1459" spans="1:2">
-      <c r="A1459" s="34"/>
-      <c r="B1459" s="44"/>
-    </row>
-    <row r="1460" spans="1:2">
-      <c r="A1460" s="34"/>
-      <c r="B1460" s="44"/>
-    </row>
-    <row r="1461" spans="1:2">
-      <c r="A1461" s="34"/>
-      <c r="B1461" s="44"/>
-    </row>
-    <row r="1462" spans="1:2">
-      <c r="A1462" s="34"/>
-      <c r="B1462" s="44"/>
-    </row>
-    <row r="1463" spans="1:2">
-      <c r="A1463" s="34"/>
-      <c r="B1463" s="44"/>
-    </row>
-    <row r="1464" spans="1:2">
-      <c r="A1464" s="34"/>
-      <c r="B1464" s="44"/>
-    </row>
-    <row r="1465" spans="1:2">
-      <c r="A1465" s="34"/>
-      <c r="B1465" s="44"/>
-    </row>
-    <row r="1466" spans="1:2">
-      <c r="A1466" s="34"/>
-      <c r="B1466" s="44"/>
-    </row>
-    <row r="1467" spans="1:2">
-      <c r="A1467" s="34"/>
-      <c r="B1467" s="44"/>
-    </row>
-    <row r="1468" spans="1:2">
-      <c r="A1468" s="34"/>
-      <c r="B1468" s="44"/>
-    </row>
-    <row r="1469" spans="1:2">
-      <c r="A1469" s="34"/>
-      <c r="B1469" s="44"/>
-    </row>
-    <row r="1470" spans="1:2">
-      <c r="A1470" s="34"/>
-      <c r="B1470" s="44"/>
-    </row>
-    <row r="1471" spans="1:2">
-      <c r="A1471" s="34"/>
-      <c r="B1471" s="44"/>
-    </row>
-    <row r="1472" spans="1:2">
-      <c r="A1472" s="34"/>
-      <c r="B1472" s="44"/>
-    </row>
-    <row r="1473" spans="1:2">
-      <c r="A1473" s="34"/>
-      <c r="B1473" s="44"/>
-    </row>
-    <row r="1474" spans="1:2">
-      <c r="A1474" s="34"/>
-      <c r="B1474" s="44"/>
-    </row>
-    <row r="1475" spans="1:2">
-      <c r="A1475" s="34"/>
-      <c r="B1475" s="44"/>
-    </row>
-    <row r="1476" spans="1:2">
-      <c r="A1476" s="34"/>
-      <c r="B1476" s="44"/>
-    </row>
-    <row r="1477" spans="1:2">
-      <c r="A1477" s="34"/>
-      <c r="B1477" s="44"/>
-    </row>
-    <row r="1478" spans="1:2">
-      <c r="A1478" s="34"/>
-      <c r="B1478" s="44"/>
-    </row>
-    <row r="1479" spans="1:2">
-      <c r="A1479" s="34"/>
-      <c r="B1479" s="44"/>
-    </row>
-    <row r="1480" spans="1:2">
-      <c r="A1480" s="34"/>
-      <c r="B1480" s="44"/>
-    </row>
-    <row r="1481" spans="1:2">
-      <c r="A1481" s="34"/>
-      <c r="B1481" s="44"/>
-    </row>
-    <row r="1482" spans="1:2">
-      <c r="A1482" s="34"/>
-      <c r="B1482" s="44"/>
-    </row>
-    <row r="1483" spans="1:2">
-      <c r="A1483" s="34"/>
-      <c r="B1483" s="44"/>
-    </row>
-    <row r="1484" spans="1:2">
-      <c r="A1484" s="34"/>
-      <c r="B1484" s="44"/>
-    </row>
-    <row r="1485" spans="1:2">
-      <c r="A1485" s="34"/>
-      <c r="B1485" s="44"/>
-    </row>
-    <row r="1486" spans="1:2">
-      <c r="A1486" s="34"/>
-      <c r="B1486" s="44"/>
-    </row>
-    <row r="1487" spans="1:2">
-      <c r="A1487" s="34"/>
-      <c r="B1487" s="44"/>
-    </row>
-    <row r="1488" spans="1:2">
-      <c r="A1488" s="34"/>
-      <c r="B1488" s="44"/>
-    </row>
-    <row r="1489" spans="1:2">
-      <c r="A1489" s="34"/>
-      <c r="B1489" s="44"/>
-    </row>
-    <row r="1490" spans="1:2">
-      <c r="A1490" s="34"/>
-      <c r="B1490" s="44"/>
-    </row>
-    <row r="1491" spans="1:2">
-      <c r="A1491" s="34"/>
-      <c r="B1491" s="44"/>
-    </row>
-    <row r="1492" spans="1:2">
-      <c r="A1492" s="34"/>
-      <c r="B1492" s="44"/>
-    </row>
-    <row r="1493" spans="1:2">
-      <c r="A1493" s="34"/>
-      <c r="B1493" s="44"/>
-    </row>
-    <row r="1494" spans="1:2">
-      <c r="A1494" s="34"/>
-      <c r="B1494" s="44"/>
-    </row>
-    <row r="1495" spans="1:2">
-      <c r="A1495" s="34"/>
-      <c r="B1495" s="44"/>
-    </row>
-    <row r="1496" spans="1:2">
-      <c r="A1496" s="34"/>
-      <c r="B1496" s="44"/>
-    </row>
-    <row r="1497" spans="1:2">
-      <c r="A1497" s="34"/>
-      <c r="B1497" s="44"/>
-    </row>
-    <row r="1498" spans="1:2">
-      <c r="A1498" s="34"/>
-      <c r="B1498" s="44"/>
-    </row>
-    <row r="1499" spans="1:2">
-      <c r="A1499" s="34"/>
-      <c r="B1499" s="44"/>
-    </row>
-    <row r="1500" spans="1:2">
-      <c r="A1500" s="34"/>
-      <c r="B1500" s="44"/>
-    </row>
-    <row r="1501" spans="1:2">
-      <c r="A1501" s="34"/>
-      <c r="B1501" s="44"/>
-    </row>
-    <row r="1502" spans="1:2">
-      <c r="A1502" s="34"/>
-      <c r="B1502" s="44"/>
-    </row>
-    <row r="1503" spans="1:2">
-      <c r="A1503" s="34"/>
-      <c r="B1503" s="44"/>
-    </row>
-    <row r="1504" spans="1:2">
-      <c r="A1504" s="34"/>
-      <c r="B1504" s="44"/>
-    </row>
-    <row r="1505" spans="1:2">
-      <c r="A1505" s="34"/>
-      <c r="B1505" s="44"/>
-    </row>
-    <row r="1506" spans="1:2">
-      <c r="A1506" s="34"/>
-      <c r="B1506" s="44"/>
-    </row>
-    <row r="1507" spans="1:2">
-      <c r="A1507" s="34"/>
-      <c r="B1507" s="44"/>
-    </row>
-    <row r="1508" spans="1:2">
-      <c r="A1508" s="34"/>
-      <c r="B1508" s="44"/>
-    </row>
-    <row r="1509" spans="1:2">
-      <c r="A1509" s="34"/>
-      <c r="B1509" s="44"/>
-    </row>
-    <row r="1510" spans="1:2">
-      <c r="A1510" s="34"/>
-      <c r="B1510" s="44"/>
-    </row>
-    <row r="1511" spans="1:2">
-      <c r="A1511" s="34"/>
-      <c r="B1511" s="44"/>
-    </row>
-    <row r="1512" spans="1:2">
-      <c r="A1512" s="34"/>
-      <c r="B1512" s="44"/>
-    </row>
-    <row r="1513" spans="1:2">
-      <c r="A1513" s="34"/>
-      <c r="B1513" s="44"/>
-    </row>
-    <row r="1514" spans="1:2">
-      <c r="A1514" s="34"/>
-      <c r="B1514" s="44"/>
-    </row>
-    <row r="1515" spans="1:2">
-      <c r="A1515" s="34"/>
-      <c r="B1515" s="44"/>
-    </row>
-    <row r="1516" spans="1:2">
-      <c r="A1516" s="34"/>
-      <c r="B1516" s="44"/>
-    </row>
-    <row r="1517" spans="1:2">
-      <c r="A1517" s="34"/>
-      <c r="B1517" s="44"/>
-    </row>
-    <row r="1518" spans="1:2">
-      <c r="A1518" s="34"/>
-      <c r="B1518" s="44"/>
-    </row>
-    <row r="1519" spans="1:2">
-      <c r="A1519" s="34"/>
-      <c r="B1519" s="44"/>
-    </row>
-    <row r="1520" spans="1:2">
-      <c r="A1520" s="34"/>
-      <c r="B1520" s="44"/>
-    </row>
-    <row r="1521" spans="1:2">
-      <c r="A1521" s="34"/>
-      <c r="B1521" s="44"/>
-    </row>
-    <row r="1522" spans="1:2">
-      <c r="A1522" s="34"/>
-      <c r="B1522" s="44"/>
-    </row>
-    <row r="1523" spans="1:2">
-      <c r="A1523" s="34"/>
-      <c r="B1523" s="44"/>
-    </row>
-    <row r="1524" spans="1:2">
-      <c r="A1524" s="34"/>
-      <c r="B1524" s="44"/>
-    </row>
-    <row r="1525" spans="1:2">
-      <c r="A1525" s="34"/>
-      <c r="B1525" s="44"/>
-    </row>
-    <row r="1526" spans="1:2">
-      <c r="A1526" s="34"/>
-      <c r="B1526" s="44"/>
-    </row>
-    <row r="1527" spans="1:2">
-      <c r="A1527" s="34"/>
-      <c r="B1527" s="44"/>
-    </row>
-    <row r="1528" spans="1:2">
-      <c r="A1528" s="34"/>
-      <c r="B1528" s="44"/>
-    </row>
-    <row r="1529" spans="1:2">
-      <c r="A1529" s="34"/>
-      <c r="B1529" s="44"/>
-    </row>
-    <row r="1530" spans="1:2">
-      <c r="A1530" s="34"/>
-      <c r="B1530" s="44"/>
-    </row>
-    <row r="1531" spans="1:2">
-      <c r="A1531" s="34"/>
-      <c r="B1531" s="44"/>
-    </row>
-    <row r="1532" spans="1:2">
-      <c r="A1532" s="34"/>
-      <c r="B1532" s="44"/>
-    </row>
-    <row r="1533" spans="1:2">
-      <c r="A1533" s="34"/>
-      <c r="B1533" s="44"/>
-    </row>
-    <row r="1534" spans="1:2">
-      <c r="A1534" s="34"/>
-      <c r="B1534" s="44"/>
-    </row>
-    <row r="1535" spans="1:2">
-      <c r="A1535" s="34"/>
-      <c r="B1535" s="44"/>
-    </row>
-    <row r="1536" spans="1:2">
-      <c r="A1536" s="34"/>
-      <c r="B1536" s="44"/>
-    </row>
-    <row r="1537" spans="1:2">
-      <c r="A1537" s="34"/>
-      <c r="B1537" s="44"/>
-    </row>
-    <row r="1538" spans="1:2">
-      <c r="A1538" s="34"/>
-      <c r="B1538" s="44"/>
-    </row>
-    <row r="1539" spans="1:2">
-      <c r="A1539" s="34"/>
-      <c r="B1539" s="44"/>
-    </row>
-    <row r="1540" spans="1:2">
-      <c r="A1540" s="34"/>
-      <c r="B1540" s="44"/>
-    </row>
-    <row r="1541" spans="1:2">
-      <c r="A1541" s="34"/>
-      <c r="B1541" s="44"/>
-    </row>
-    <row r="1542" spans="1:2">
-      <c r="A1542" s="34"/>
-      <c r="B1542" s="44"/>
-    </row>
-    <row r="1543" spans="1:2">
-      <c r="A1543" s="34"/>
-      <c r="B1543" s="44"/>
-    </row>
-    <row r="1544" spans="1:2">
-      <c r="A1544" s="34"/>
-      <c r="B1544" s="44"/>
-    </row>
-    <row r="1545" spans="1:2">
-      <c r="A1545" s="34"/>
-      <c r="B1545" s="44"/>
-    </row>
-    <row r="1546" spans="1:2">
-      <c r="A1546" s="34"/>
-      <c r="B1546" s="44"/>
-    </row>
-    <row r="1547" spans="1:2">
-      <c r="A1547" s="34"/>
-      <c r="B1547" s="44"/>
-    </row>
-    <row r="1548" spans="1:2">
-      <c r="A1548" s="34"/>
-      <c r="B1548" s="44"/>
-    </row>
-    <row r="1549" spans="1:2">
-      <c r="A1549" s="34"/>
-      <c r="B1549" s="44"/>
-    </row>
-    <row r="1550" spans="1:2">
-      <c r="A1550" s="34"/>
-      <c r="B1550" s="44"/>
-    </row>
-    <row r="1551" spans="1:2">
-      <c r="A1551" s="34"/>
-      <c r="B1551" s="44"/>
-    </row>
-    <row r="1552" spans="1:2">
-      <c r="A1552" s="34"/>
-      <c r="B1552" s="44"/>
-    </row>
-    <row r="1553" spans="1:2">
-      <c r="A1553" s="34"/>
-      <c r="B1553" s="44"/>
-    </row>
-    <row r="1554" spans="1:2">
-      <c r="A1554" s="34"/>
-      <c r="B1554" s="44"/>
-    </row>
-    <row r="1555" spans="1:2">
-      <c r="A1555" s="34"/>
-      <c r="B1555" s="44"/>
-    </row>
-    <row r="1556" spans="1:2">
-      <c r="A1556" s="34"/>
-      <c r="B1556" s="44"/>
-    </row>
-    <row r="1557" spans="1:2">
-      <c r="A1557" s="34"/>
-      <c r="B1557" s="44"/>
-    </row>
-    <row r="1558" spans="1:2">
-      <c r="A1558" s="34"/>
-      <c r="B1558" s="44"/>
-    </row>
-    <row r="1559" spans="1:2">
-      <c r="A1559" s="34"/>
-      <c r="B1559" s="44"/>
-    </row>
-    <row r="1560" spans="1:2">
-      <c r="A1560" s="34"/>
-      <c r="B1560" s="44"/>
-    </row>
-    <row r="1561" spans="1:2">
-      <c r="A1561" s="34"/>
-      <c r="B1561" s="44"/>
-    </row>
-    <row r="1562" spans="1:2">
-      <c r="A1562" s="34"/>
-      <c r="B1562" s="44"/>
-    </row>
-    <row r="1563" spans="1:2">
-      <c r="A1563" s="34"/>
-      <c r="B1563" s="44"/>
-    </row>
-    <row r="1564" spans="1:2">
-      <c r="A1564" s="34"/>
-      <c r="B1564" s="44"/>
-    </row>
-    <row r="1565" spans="1:2">
-      <c r="A1565" s="34"/>
-      <c r="B1565" s="44"/>
-    </row>
-    <row r="1566" spans="1:2">
-      <c r="A1566" s="34"/>
-      <c r="B1566" s="44"/>
-    </row>
-    <row r="1567" spans="1:2">
-      <c r="A1567" s="34"/>
-      <c r="B1567" s="44"/>
-    </row>
-    <row r="1568" spans="1:2">
-      <c r="A1568" s="34"/>
-      <c r="B1568" s="44"/>
-    </row>
-    <row r="1569" spans="1:2">
-      <c r="A1569" s="34"/>
-      <c r="B1569" s="44"/>
-    </row>
-    <row r="1570" spans="1:2">
-      <c r="A1570" s="34"/>
-      <c r="B1570" s="44"/>
-    </row>
-    <row r="1571" spans="1:2">
-      <c r="A1571" s="34"/>
-      <c r="B1571" s="44"/>
-    </row>
-    <row r="1572" spans="1:2">
-      <c r="A1572" s="34"/>
-      <c r="B1572" s="44"/>
-    </row>
-    <row r="1573" spans="1:2">
-      <c r="A1573" s="34"/>
-      <c r="B1573" s="44"/>
-    </row>
-    <row r="1574" spans="1:2">
-      <c r="A1574" s="34"/>
-      <c r="B1574" s="44"/>
-    </row>
-    <row r="1575" spans="1:2">
-      <c r="A1575" s="34"/>
-      <c r="B1575" s="44"/>
-    </row>
-    <row r="1576" spans="1:2">
-      <c r="A1576" s="34"/>
-      <c r="B1576" s="44"/>
-    </row>
-    <row r="1577" spans="1:2">
-      <c r="A1577" s="34"/>
-      <c r="B1577" s="44"/>
-    </row>
-    <row r="1578" spans="1:2">
-      <c r="A1578" s="34"/>
-      <c r="B1578" s="44"/>
-    </row>
-    <row r="1579" spans="1:2">
-      <c r="A1579" s="34"/>
-      <c r="B1579" s="44"/>
-    </row>
-    <row r="1580" spans="1:2">
-      <c r="A1580" s="34"/>
-      <c r="B1580" s="44"/>
-    </row>
-    <row r="1581" spans="1:2">
-      <c r="A1581" s="34"/>
-      <c r="B1581" s="44"/>
-    </row>
-    <row r="1582" spans="1:2">
-      <c r="A1582" s="34"/>
-      <c r="B1582" s="44"/>
-    </row>
-    <row r="1583" spans="1:2">
-      <c r="A1583" s="34"/>
-      <c r="B1583" s="44"/>
-    </row>
-    <row r="1584" spans="1:2">
-      <c r="A1584" s="34"/>
-      <c r="B1584" s="44"/>
-    </row>
-    <row r="1585" spans="1:2">
-      <c r="A1585" s="34"/>
-      <c r="B1585" s="44"/>
-    </row>
-    <row r="1586" spans="1:2">
-      <c r="A1586" s="34"/>
-      <c r="B1586" s="44"/>
-    </row>
-    <row r="1587" spans="1:2">
-      <c r="A1587" s="34"/>
-      <c r="B1587" s="44"/>
-    </row>
-    <row r="1588" spans="1:2">
-      <c r="A1588" s="34"/>
-      <c r="B1588" s="44"/>
-    </row>
-    <row r="1589" spans="1:2">
-      <c r="A1589" s="34"/>
-      <c r="B1589" s="44"/>
-    </row>
-    <row r="1590" spans="1:2">
-      <c r="A1590" s="34"/>
-      <c r="B1590" s="44"/>
-    </row>
-    <row r="1591" spans="1:2">
-      <c r="A1591" s="34"/>
-      <c r="B1591" s="44"/>
-    </row>
-    <row r="1592" spans="1:2">
-      <c r="A1592" s="34"/>
-      <c r="B1592" s="44"/>
-    </row>
-    <row r="1593" spans="1:2">
-      <c r="A1593" s="34"/>
-      <c r="B1593" s="44"/>
-    </row>
-    <row r="1594" spans="1:2">
-      <c r="A1594" s="34"/>
-      <c r="B1594" s="44"/>
-    </row>
-    <row r="1595" spans="1:2">
-      <c r="A1595" s="34"/>
-      <c r="B1595" s="44"/>
-    </row>
-    <row r="1596" spans="1:2">
-      <c r="A1596" s="34"/>
-      <c r="B1596" s="44"/>
-    </row>
-    <row r="1597" spans="1:2">
-      <c r="A1597" s="34"/>
-      <c r="B1597" s="44"/>
-    </row>
-    <row r="1598" spans="1:2">
-      <c r="A1598" s="34"/>
-      <c r="B1598" s="44"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27953,7 +21143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -28028,7 +21218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L12"/>
   <sheetViews>
@@ -28123,4 +21313,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -2969,7 +2969,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="772">
   <si>
     <t>Execution</t>
   </si>
@@ -2325,6 +2325,21 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_DATA</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VOICE</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_SMS</t>
+  </si>
+  <si>
+    <t>P2P_TRANSFER</t>
+  </si>
+  <si>
+    <t>BALANCE_ENQUIRES</t>
   </si>
 </sst>
 </file>
@@ -2968,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3117,7 +3132,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>300</v>
+        <v>767</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>329</v>
@@ -3131,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>300</v>
+        <v>767</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>330</v>
@@ -3145,7 +3160,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>300</v>
+        <v>767</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>384</v>
@@ -3159,7 +3174,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>301</v>
+        <v>768</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>329</v>
@@ -3173,7 +3188,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>301</v>
+        <v>768</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>384</v>
@@ -3187,7 +3202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>302</v>
+        <v>769</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>329</v>
@@ -3201,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>302</v>
+        <v>769</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>384</v>
@@ -3215,7 +3230,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>303</v>
+        <v>770</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>329</v>
@@ -3229,7 +3244,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>303</v>
+        <v>770</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>330</v>
@@ -3243,7 +3258,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>303</v>
+        <v>770</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>396</v>
@@ -3257,7 +3272,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>304</v>
+        <v>771</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>329</v>
@@ -3271,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>304</v>
+        <v>771</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>396</v>
@@ -3334,7 +3349,7 @@
         <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>770</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -21319,8 +21334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21355,7 +21370,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>304</v>
+        <v>771</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="820">
   <si>
     <t>Execution</t>
   </si>
@@ -2473,6 +2473,18 @@
   </si>
   <si>
     <t>*135*70#</t>
+  </si>
+  <si>
+    <t>*135*777#</t>
+  </si>
+  <si>
+    <t>Nonstop Daily Data Bundle 3AED</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>TC_159</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2779,23 +2791,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2905,10 +2906,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4242,10 +4242,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8258,7 +8258,7 @@
       <c r="B157" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="5" t="s">
         <v>808</v>
       </c>
       <c r="D157" s="8" t="s">
@@ -8270,7 +8270,8 @@
       <c r="F157" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="H157" s="53">
+      <c r="G157" s="5"/>
+      <c r="H157" s="5">
         <v>996</v>
       </c>
     </row>
@@ -8281,7 +8282,7 @@
       <c r="B158" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="5" t="s">
         <v>811</v>
       </c>
       <c r="D158" s="8" t="s">
@@ -8293,21 +8294,21 @@
       <c r="F158" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G158" s="57" t="s">
+      <c r="G158" s="54" t="s">
         <v>812</v>
       </c>
-      <c r="H158" s="53">
+      <c r="H158" s="5">
         <v>996</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15" thickBot="1">
+    <row r="159" spans="1:8">
       <c r="A159" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C159" s="8" t="s">
         <v>254</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -8316,15 +8317,71 @@
       <c r="E159" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F159" s="58" t="s">
+      <c r="F159" s="25" t="s">
         <v>815</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="5">
         <v>3</v>
       </c>
       <c r="H159" s="5">
         <v>1269</v>
       </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="G160" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="H160" s="57">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H161" s="57">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="53"/>
+      <c r="H162" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="823">
   <si>
     <t>Execution</t>
   </si>
@@ -2485,6 +2485,15 @@
   </si>
   <si>
     <t>TC_159</t>
+  </si>
+  <si>
+    <t>UpdateServiceClass</t>
+  </si>
+  <si>
+    <t>serviceClassNew</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
 </sst>
 </file>
@@ -3214,10 +3223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3438,7 +3447,7 @@
         <v>791</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -3452,7 +3461,7 @@
         <v>791</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -3463,7 +3472,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>329</v>
@@ -3477,10 +3486,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -3494,7 +3503,7 @@
         <v>792</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
@@ -3505,10 +3514,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
@@ -3519,12 +3528,40 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>396</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4244,8 +4281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8392,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO957"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -9499,20 +9536,41 @@
       <c r="AF3" s="28"/>
       <c r="AH3" s="28"/>
     </row>
-    <row r="4" spans="1:249">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="F4" s="35"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="44"/>
-      <c r="V4" s="36"/>
-      <c r="X4" s="40"/>
-      <c r="Z4" s="36"/>
+    <row r="4" spans="1:249" ht="15" thickBot="1">
+      <c r="A4" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4" s="42">
+        <v>200</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>822</v>
+      </c>
       <c r="AB4" s="37"/>
-      <c r="AD4" s="39"/>
-      <c r="AF4" s="36"/>
-      <c r="AH4" s="36"/>
+      <c r="AD4" s="38"/>
+      <c r="AF4" s="28"/>
+      <c r="AH4" s="28"/>
     </row>
     <row r="5" spans="1:249">
       <c r="B5" s="43"/>
@@ -20965,9 +21023,10 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -3225,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3262,7 +3262,7 @@
         <v>409</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>460</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -8429,7 +8429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="827">
   <si>
     <t>Execution</t>
   </si>
@@ -1401,9 +1401,6 @@
   </si>
   <si>
     <t>5,3,1,2,1</t>
-  </si>
-  <si>
-    <t>5,3,1,3,1</t>
   </si>
   <si>
     <t>No</t>
@@ -2494,6 +2491,21 @@
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VIDEO_CALL</t>
+  </si>
+  <si>
+    <t>DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>InstallSubscriber</t>
+  </si>
+  <si>
+    <t>NEW_ACTIVATION</t>
+  </si>
+  <si>
+    <t>UpdateBalanceAndDate</t>
   </si>
 </sst>
 </file>
@@ -3223,16 +3235,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -3310,7 +3322,7 @@
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3374,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>329</v>
@@ -3388,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>330</v>
@@ -3402,7 +3414,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>384</v>
@@ -3416,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>329</v>
@@ -3430,7 +3442,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>384</v>
@@ -3444,10 +3456,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -3458,10 +3470,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -3472,10 +3484,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
@@ -3486,10 +3498,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -3500,7 +3512,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>329</v>
@@ -3514,10 +3526,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
@@ -3528,10 +3540,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -3542,10 +3554,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -3556,12 +3568,82 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>396</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4281,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4843,7 +4925,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>459</v>
+        <v>811</v>
       </c>
       <c r="H22" s="8">
         <v>1001</v>
@@ -6972,7 +7054,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C105" s="22" t="s">
         <v>294</v>
@@ -6998,10 +7080,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>461</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>462</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>11</v>
@@ -7010,7 +7092,7 @@
         <v>12</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G106" s="22" t="s">
         <v>270</v>
@@ -7024,10 +7106,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C107" s="22" t="s">
         <v>464</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>465</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>11</v>
@@ -7050,10 +7132,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C108" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>467</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>11</v>
@@ -7062,7 +7144,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G108" s="32">
         <v>1</v>
@@ -7073,10 +7155,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C109" s="22" t="s">
         <v>469</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>470</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>11</v>
@@ -7099,10 +7181,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C110" s="22" t="s">
         <v>471</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>472</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>11</v>
@@ -7111,7 +7193,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G110" s="32"/>
       <c r="H110" s="22">
@@ -7123,10 +7205,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C111" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>475</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -7135,7 +7217,7 @@
         <v>12</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G111" s="32"/>
       <c r="H111" s="22">
@@ -7147,10 +7229,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>477</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>478</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>11</v>
@@ -7159,7 +7241,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G112" s="32"/>
       <c r="H112" s="22">
@@ -7171,10 +7253,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C113" s="22" t="s">
         <v>479</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>480</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>11</v>
@@ -7183,7 +7265,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>80</v>
@@ -7197,10 +7279,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C114" s="22" t="s">
         <v>482</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>483</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>11</v>
@@ -7209,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>83</v>
@@ -7223,10 +7305,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C115" s="22" t="s">
         <v>484</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>485</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>11</v>
@@ -7235,7 +7317,7 @@
         <v>12</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>86</v>
@@ -7249,10 +7331,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C116" s="22" t="s">
         <v>486</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>487</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>11</v>
@@ -7261,7 +7343,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>89</v>
@@ -7275,10 +7357,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C117" s="22" t="s">
         <v>488</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>489</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>11</v>
@@ -7287,7 +7369,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G117" s="22" t="s">
         <v>80</v>
@@ -7301,10 +7383,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C118" s="22" t="s">
         <v>490</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>491</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>11</v>
@@ -7313,7 +7395,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G118" s="22" t="s">
         <v>83</v>
@@ -7327,10 +7409,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C119" s="22" t="s">
         <v>492</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>493</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -7339,7 +7421,7 @@
         <v>12</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G119" s="22" t="s">
         <v>86</v>
@@ -7353,10 +7435,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C120" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>495</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>11</v>
@@ -7365,7 +7447,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G120" s="22"/>
       <c r="H120" s="22">
@@ -7377,10 +7459,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C121" s="22" t="s">
         <v>496</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>497</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>11</v>
@@ -7389,7 +7471,7 @@
         <v>12</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G121" s="22"/>
       <c r="H121" s="22">
@@ -7401,10 +7483,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>498</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>499</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>11</v>
@@ -7413,7 +7495,7 @@
         <v>12</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G122" s="22"/>
       <c r="H122" s="22">
@@ -7425,10 +7507,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C123" s="22" t="s">
         <v>500</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>501</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>11</v>
@@ -7437,7 +7519,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G123" s="22"/>
       <c r="H123" s="22">
@@ -7449,10 +7531,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C124" s="22" t="s">
         <v>502</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>503</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>11</v>
@@ -7461,7 +7543,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G124" s="22"/>
       <c r="H124" s="22">
@@ -7473,10 +7555,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C125" s="22" t="s">
         <v>504</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>505</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>11</v>
@@ -7485,7 +7567,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G125" s="22"/>
       <c r="H125" s="22">
@@ -7497,10 +7579,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C126" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>507</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>11</v>
@@ -7509,7 +7591,7 @@
         <v>12</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G126" s="22"/>
       <c r="H126" s="22">
@@ -7521,10 +7603,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C127" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>509</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>11</v>
@@ -7533,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G127" s="22"/>
       <c r="H127" s="22">
@@ -7545,10 +7627,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C128" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>512</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>11</v>
@@ -7557,7 +7639,7 @@
         <v>12</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G128" s="22"/>
       <c r="H128" s="22">
@@ -7569,10 +7651,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>11</v>
@@ -7593,10 +7675,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>11</v>
@@ -7605,7 +7687,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G130" s="22">
         <v>1</v>
@@ -7619,10 +7701,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C131" s="22" t="s">
         <v>519</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>520</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
@@ -7631,7 +7713,7 @@
         <v>12</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G131" s="22">
         <v>2</v>
@@ -7645,10 +7727,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>11</v>
@@ -7660,7 +7742,7 @@
         <v>13</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H132" s="22">
         <v>832</v>
@@ -7671,10 +7753,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C133" s="22" t="s">
         <v>523</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>524</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>11</v>
@@ -7683,7 +7765,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G133" s="22">
         <v>1</v>
@@ -7697,10 +7779,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C134" s="22" t="s">
         <v>526</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>527</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>11</v>
@@ -7709,7 +7791,7 @@
         <v>12</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G134" s="22">
         <v>3</v>
@@ -7723,10 +7805,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>11</v>
@@ -7738,7 +7820,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H135" s="22">
         <v>1800</v>
@@ -7749,10 +7831,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C136" s="22" t="s">
         <v>531</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>532</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>11</v>
@@ -7761,7 +7843,7 @@
         <v>12</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G136" s="22"/>
       <c r="H136" s="22">
@@ -7773,10 +7855,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C137" s="22" t="s">
         <v>533</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>534</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>11</v>
@@ -7785,10 +7867,10 @@
         <v>12</v>
       </c>
       <c r="F137" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="G137" s="22" t="s">
         <v>535</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>536</v>
       </c>
       <c r="H137" s="22">
         <v>1146</v>
@@ -7799,10 +7881,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>537</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>538</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>11</v>
@@ -7814,7 +7896,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H138" s="22">
         <v>1148</v>
@@ -7825,10 +7907,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" s="22" t="s">
         <v>540</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>541</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>11</v>
@@ -7837,7 +7919,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G139" s="22">
         <v>1</v>
@@ -7851,10 +7933,10 @@
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C140" s="22" t="s">
         <v>543</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>544</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>11</v>
@@ -7863,7 +7945,7 @@
         <v>12</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>80</v>
@@ -7877,10 +7959,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>545</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>546</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>11</v>
@@ -7889,7 +7971,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G141" s="22" t="s">
         <v>270</v>
@@ -7903,10 +7985,10 @@
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C142" s="22" t="s">
         <v>548</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>549</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>11</v>
@@ -7915,7 +7997,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G142" s="22" t="s">
         <v>99</v>
@@ -7929,10 +8011,10 @@
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>11</v>
@@ -7944,7 +8026,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H143" s="22">
         <v>957</v>
@@ -7955,10 +8037,10 @@
         <v>8</v>
       </c>
       <c r="B144" s="48" t="s">
+        <v>550</v>
+      </c>
+      <c r="C144" s="49" t="s">
         <v>551</v>
-      </c>
-      <c r="C144" s="49" t="s">
-        <v>552</v>
       </c>
       <c r="D144" s="50" t="s">
         <v>11</v>
@@ -7967,7 +8049,7 @@
         <v>12</v>
       </c>
       <c r="F144" s="52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G144" s="49" t="s">
         <v>270</v>
@@ -7981,10 +8063,10 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>783</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>11</v>
@@ -7993,7 +8075,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G145" s="54" t="s">
         <v>270</v>
@@ -8007,10 +8089,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>16</v>
@@ -8019,7 +8101,7 @@
         <v>12</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G146" s="55" t="s">
         <v>189</v>
@@ -8033,10 +8115,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>786</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>787</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>11</v>
@@ -8045,7 +8127,7 @@
         <v>12</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G147" s="54" t="s">
         <v>189</v>
@@ -8059,10 +8141,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>16</v>
@@ -8071,7 +8153,7 @@
         <v>12</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G148" s="56" t="s">
         <v>189</v>
@@ -8085,10 +8167,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>11</v>
@@ -8100,7 +8182,7 @@
         <v>286</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H149" s="5">
         <v>1616</v>
@@ -8111,10 +8193,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>16</v>
@@ -8137,10 +8219,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>11</v>
@@ -8152,7 +8234,7 @@
         <v>286</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H151" s="5">
         <v>1591</v>
@@ -8163,10 +8245,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>16</v>
@@ -8189,10 +8271,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>11</v>
@@ -8215,10 +8297,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>16</v>
@@ -8241,10 +8323,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>11</v>
@@ -8267,10 +8349,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>16</v>
@@ -8293,10 +8375,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>11</v>
@@ -8305,7 +8387,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5">
@@ -8317,10 +8399,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>11</v>
@@ -8332,7 +8414,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H158" s="5">
         <v>996</v>
@@ -8343,7 +8425,7 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>254</v>
@@ -8355,7 +8437,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G159" s="5">
         <v>3</v>
@@ -8369,10 +8451,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>11</v>
@@ -8381,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G160" s="54" t="s">
         <v>270</v>
@@ -8395,10 +8477,10 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>16</v>
@@ -8407,7 +8489,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>96</v>
@@ -8429,8 +8511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO957"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -8684,748 +8766,748 @@
         <v>401</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
+        <v>764</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>765</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>559</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>560</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>332</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M1" s="33" t="s">
         <v>333</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O1" s="33" t="s">
         <v>334</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q1" s="33" t="s">
         <v>335</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>336</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U1" s="33" t="s">
         <v>337</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W1" s="33" t="s">
         <v>338</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Y1" s="33" t="s">
         <v>339</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA1" s="33" t="s">
         <v>340</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AC1" s="33" t="s">
         <v>341</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE1" s="33" t="s">
         <v>342</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG1" s="33" t="s">
         <v>343</v>
       </c>
       <c r="AH1" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AI1" s="33" t="s">
         <v>344</v>
       </c>
       <c r="AJ1" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AK1" s="33" t="s">
         <v>345</v>
       </c>
       <c r="AL1" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AM1" s="33" t="s">
         <v>346</v>
       </c>
       <c r="AN1" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO1" s="33" t="s">
         <v>347</v>
       </c>
       <c r="AP1" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AQ1" s="33" t="s">
         <v>348</v>
       </c>
       <c r="AR1" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AS1" s="33" t="s">
         <v>349</v>
       </c>
       <c r="AT1" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU1" s="33" t="s">
         <v>350</v>
       </c>
       <c r="AV1" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AW1" s="33" t="s">
         <v>351</v>
       </c>
       <c r="AX1" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AY1" s="33" t="s">
         <v>352</v>
       </c>
       <c r="AZ1" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BA1" s="33" t="s">
         <v>353</v>
       </c>
       <c r="BB1" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BC1" s="33" t="s">
         <v>354</v>
       </c>
       <c r="BD1" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="BE1" s="33" t="s">
         <v>583</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>584</v>
       </c>
       <c r="BF1" s="33" t="s">
         <v>361</v>
       </c>
       <c r="BG1" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BH1" s="33" t="s">
         <v>362</v>
       </c>
       <c r="BI1" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BJ1" s="33" t="s">
         <v>363</v>
       </c>
       <c r="BK1" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BL1" s="33" t="s">
         <v>364</v>
       </c>
       <c r="BM1" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BN1" s="33" t="s">
         <v>365</v>
       </c>
       <c r="BO1" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BP1" s="33" t="s">
         <v>366</v>
       </c>
       <c r="BQ1" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BR1" s="33" t="s">
         <v>367</v>
       </c>
       <c r="BS1" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BT1" s="33" t="s">
         <v>368</v>
       </c>
       <c r="BU1" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BV1" s="33" t="s">
         <v>369</v>
       </c>
       <c r="BW1" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BX1" s="33" t="s">
         <v>370</v>
       </c>
       <c r="BY1" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BZ1" s="33" t="s">
         <v>371</v>
       </c>
       <c r="CA1" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="CB1" s="33" t="s">
         <v>372</v>
       </c>
       <c r="CC1" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="CD1" s="33" t="s">
         <v>373</v>
       </c>
       <c r="CE1" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="CF1" s="33" t="s">
         <v>374</v>
       </c>
       <c r="CG1" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="CH1" s="33" t="s">
         <v>375</v>
       </c>
       <c r="CI1" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CJ1" s="33" t="s">
         <v>376</v>
       </c>
       <c r="CK1" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CL1" s="33" t="s">
         <v>377</v>
       </c>
       <c r="CM1" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="CN1" s="33" t="s">
         <v>378</v>
       </c>
       <c r="CO1" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CP1" s="33" t="s">
         <v>379</v>
       </c>
       <c r="CQ1" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CR1" s="33" t="s">
         <v>380</v>
       </c>
       <c r="CS1" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CT1" s="33" t="s">
         <v>381</v>
       </c>
       <c r="CU1" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CV1" s="33" t="s">
         <v>382</v>
       </c>
       <c r="CW1" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="CX1" s="33" t="s">
         <v>383</v>
       </c>
       <c r="CY1" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="CZ1" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="CZ1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="DA1" s="33" t="s">
+      <c r="DB1" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DC1" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="DC1" s="33" t="s">
+      <c r="DD1" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="DD1" s="33" t="s">
+      <c r="DE1" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="DE1" s="33" t="s">
+      <c r="DF1" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="DF1" s="33" t="s">
+      <c r="DG1" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="DG1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="DH1" s="33" t="s">
+      <c r="DI1" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="DJ1" s="33" t="s">
+      <c r="DK1" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="DK1" s="33" t="s">
+      <c r="DL1" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="DL1" s="33" t="s">
+      <c r="DM1" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="DM1" s="33" t="s">
+      <c r="DN1" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="DN1" s="33" t="s">
+      <c r="DO1" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="DO1" s="33" t="s">
+      <c r="DP1" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DR1" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="DT1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="DU1" s="33" t="s">
+      <c r="DV1" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DW1" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="DX1" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="DY1" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="DY1" s="33" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="DZ1" s="33" t="s">
+      <c r="EA1" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="EA1" s="33" t="s">
+      <c r="EB1" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="EB1" s="33" t="s">
+      <c r="EC1" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="EC1" s="33" t="s">
+      <c r="ED1" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="ED1" s="33" t="s">
+      <c r="EE1" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="EE1" s="33" t="s">
+      <c r="EF1" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="EF1" s="33" t="s">
+      <c r="EG1" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="EG1" s="33" t="s">
+      <c r="EH1" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="EH1" s="33" t="s">
+      <c r="EI1" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="EI1" s="33" t="s">
+      <c r="EJ1" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="EJ1" s="33" t="s">
+      <c r="EK1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="EK1" s="33" t="s">
+      <c r="EL1" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="EL1" s="33" t="s">
+      <c r="EM1" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="EM1" s="33" t="s">
+      <c r="EN1" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="EN1" s="33" t="s">
+      <c r="EO1" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="EO1" s="33" t="s">
+      <c r="EP1" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="EP1" s="33" t="s">
+      <c r="EQ1" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="EQ1" s="33" t="s">
+      <c r="ER1" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="ER1" s="33" t="s">
+      <c r="ES1" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="ES1" s="33" t="s">
+      <c r="ET1" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="ET1" s="33" t="s">
+      <c r="EU1" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="EU1" s="33" t="s">
+      <c r="EV1" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="EV1" s="33" t="s">
+      <c r="EW1" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="EW1" s="33" t="s">
+      <c r="EX1" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="EX1" s="33" t="s">
+      <c r="EY1" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="EY1" s="33" t="s">
+      <c r="EZ1" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="EZ1" s="33" t="s">
+      <c r="FA1" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="FA1" s="33" t="s">
+      <c r="FB1" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="FB1" s="33" t="s">
+      <c r="FC1" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="FC1" s="33" t="s">
+      <c r="FD1" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="FD1" s="33" t="s">
+      <c r="FE1" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="FE1" s="33" t="s">
+      <c r="FF1" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="FF1" s="33" t="s">
+      <c r="FG1" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="FG1" s="33" t="s">
+      <c r="FH1" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="FH1" s="33" t="s">
+      <c r="FI1" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="FI1" s="33" t="s">
+      <c r="FJ1" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="FJ1" s="33" t="s">
+      <c r="FK1" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="FK1" s="33" t="s">
+      <c r="FL1" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="FL1" s="33" t="s">
+      <c r="FM1" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="FM1" s="33" t="s">
+      <c r="FN1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="FN1" s="33" t="s">
+      <c r="FO1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="FO1" s="33" t="s">
+      <c r="FP1" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="FP1" s="33" t="s">
+      <c r="FQ1" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="FQ1" s="33" t="s">
+      <c r="FR1" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="FR1" s="33" t="s">
+      <c r="FS1" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="FS1" s="33" t="s">
+      <c r="FT1" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="FT1" s="33" t="s">
+      <c r="FU1" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="FU1" s="33" t="s">
+      <c r="FV1" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="FV1" s="33" t="s">
+      <c r="FW1" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="FW1" s="33" t="s">
+      <c r="FX1" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="FX1" s="33" t="s">
+      <c r="FY1" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="FY1" s="33" t="s">
+      <c r="FZ1" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="FZ1" s="33" t="s">
+      <c r="GA1" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="GA1" s="33" t="s">
+      <c r="GB1" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="GB1" s="33" t="s">
+      <c r="GC1" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="GC1" s="33" t="s">
+      <c r="GD1" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="GD1" s="33" t="s">
+      <c r="GE1" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="GE1" s="33" t="s">
+      <c r="GF1" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="GF1" s="33" t="s">
+      <c r="GG1" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="GG1" s="33" t="s">
+      <c r="GH1" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="GH1" s="33" t="s">
+      <c r="GI1" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="GI1" s="33" t="s">
+      <c r="GJ1" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="GJ1" s="33" t="s">
+      <c r="GK1" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="GK1" s="33" t="s">
+      <c r="GL1" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="GL1" s="33" t="s">
+      <c r="GM1" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="GM1" s="33" t="s">
+      <c r="GN1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="GN1" s="33" t="s">
+      <c r="GO1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="GO1" s="33" t="s">
+      <c r="GP1" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="GP1" s="33" t="s">
+      <c r="GQ1" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="GQ1" s="33" t="s">
+      <c r="GR1" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="GR1" s="33" t="s">
+      <c r="GS1" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="GS1" s="33" t="s">
+      <c r="GT1" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="GT1" s="33" t="s">
+      <c r="GU1" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="GU1" s="33" t="s">
+      <c r="GV1" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="GV1" s="33" t="s">
+      <c r="GW1" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="GW1" s="33" t="s">
+      <c r="GX1" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="GX1" s="33" t="s">
+      <c r="GY1" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="GY1" s="33" t="s">
+      <c r="GZ1" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="GZ1" s="33" t="s">
+      <c r="HA1" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="HA1" s="33" t="s">
+      <c r="HB1" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="HB1" s="33" t="s">
+      <c r="HC1" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="HC1" s="33" t="s">
+      <c r="HD1" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="HD1" s="33" t="s">
+      <c r="HE1" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="HE1" s="33" t="s">
+      <c r="HF1" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="HF1" s="33" t="s">
+      <c r="HG1" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="HG1" s="33" t="s">
+      <c r="HH1" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="HH1" s="33" t="s">
+      <c r="HI1" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="HI1" s="33" t="s">
+      <c r="HJ1" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="HJ1" s="33" t="s">
+      <c r="HK1" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="HK1" s="33" t="s">
+      <c r="HL1" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="HL1" s="33" t="s">
+      <c r="HM1" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="HM1" s="33" t="s">
+      <c r="HN1" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="HN1" s="33" t="s">
+      <c r="HO1" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="HO1" s="33" t="s">
+      <c r="HP1" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="HP1" s="33" t="s">
+      <c r="HQ1" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="HQ1" s="33" t="s">
+      <c r="HR1" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="HR1" s="33" t="s">
+      <c r="HS1" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="HS1" s="33" t="s">
+      <c r="HT1" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="HT1" s="33" t="s">
+      <c r="HU1" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="HU1" s="33" t="s">
+      <c r="HV1" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="HV1" s="33" t="s">
+      <c r="HW1" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="HW1" s="33" t="s">
+      <c r="HX1" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="HX1" s="33" t="s">
+      <c r="HY1" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="HY1" s="33" t="s">
+      <c r="HZ1" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="HZ1" s="33" t="s">
+      <c r="IA1" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="IA1" s="33" t="s">
+      <c r="IB1" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="IB1" s="33" t="s">
+      <c r="IC1" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="IC1" s="33" t="s">
+      <c r="ID1" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="ID1" s="33" t="s">
+      <c r="IE1" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="IE1" s="33" t="s">
+      <c r="IF1" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="IF1" s="33" t="s">
+      <c r="IG1" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="IG1" s="33" t="s">
+      <c r="IH1" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="IH1" s="33" t="s">
+      <c r="II1" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="II1" s="33" t="s">
+      <c r="IJ1" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="IJ1" s="33" t="s">
+      <c r="IK1" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="IK1" s="33" t="s">
+      <c r="IL1" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="IL1" s="33" t="s">
+      <c r="IM1" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="IM1" s="33" t="s">
+      <c r="IN1" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="IN1" s="33" t="s">
+      <c r="IO1" s="33" t="s">
         <v>752</v>
-      </c>
-      <c r="IO1" s="33" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:249" ht="15" thickBot="1">
@@ -9436,43 +9518,43 @@
         <v>9</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D2" s="42">
         <v>200</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q2" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="R2" s="34">
         <v>268763332</v>
@@ -9484,52 +9566,52 @@
     </row>
     <row r="3" spans="1:249" ht="15" thickBot="1">
       <c r="A3" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D3" s="42">
         <v>200</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>756</v>
-      </c>
       <c r="H3" s="34" t="s">
+        <v>778</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q3" s="34" t="s">
         <v>779</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>780</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>781</v>
       </c>
       <c r="AB3" s="37"/>
       <c r="AD3" s="38"/>
@@ -9538,85 +9620,147 @@
     </row>
     <row r="4" spans="1:249" ht="15" thickBot="1">
       <c r="A4" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D4" s="42">
         <v>200</v>
       </c>
       <c r="F4" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>756</v>
-      </c>
       <c r="H4" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>820</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>821</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>822</v>
       </c>
       <c r="AB4" s="37"/>
       <c r="AD4" s="38"/>
       <c r="AF4" s="28"/>
       <c r="AH4" s="28"/>
     </row>
-    <row r="5" spans="1:249">
-      <c r="B5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="F5" s="35"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="44"/>
-      <c r="V5" s="36"/>
-      <c r="X5" s="40"/>
-      <c r="Z5" s="36"/>
+    <row r="5" spans="1:249" ht="15" thickBot="1">
+      <c r="A5" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5" s="42">
+        <v>200</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>759</v>
+      </c>
       <c r="AB5" s="37"/>
-      <c r="AD5" s="39"/>
-      <c r="AF5" s="36"/>
-      <c r="AH5" s="36"/>
-    </row>
-    <row r="6" spans="1:249">
-      <c r="B6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="F6" s="35"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="44"/>
+      <c r="AD5" s="38"/>
+      <c r="AF5" s="28"/>
+      <c r="AH5" s="28"/>
+    </row>
+    <row r="6" spans="1:249" ht="15" thickBot="1">
+      <c r="A6" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" s="42">
+        <v>200</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>759</v>
+      </c>
       <c r="AB6" s="37"/>
-      <c r="AD6" s="39"/>
-      <c r="AF6" s="36"/>
-      <c r="AH6" s="36"/>
-    </row>
-    <row r="7" spans="1:249">
-      <c r="B7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="F7" s="35"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="T7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="X7" s="40"/>
-      <c r="Z7" s="36"/>
+      <c r="AD6" s="38"/>
+      <c r="AF6" s="28"/>
+      <c r="AH6" s="28"/>
+    </row>
+    <row r="7" spans="1:249" ht="15" thickBot="1">
+      <c r="A7" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="D7" s="42">
+        <v>200</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>759</v>
+      </c>
       <c r="AB7" s="37"/>
-      <c r="AD7" s="39"/>
-      <c r="AF7" s="36"/>
-      <c r="AH7" s="36"/>
+      <c r="AD7" s="38"/>
+      <c r="AF7" s="28"/>
+      <c r="AH7" s="28"/>
     </row>
     <row r="8" spans="1:249">
       <c r="B8" s="43"/>
@@ -21024,9 +21168,12 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -21059,750 +21206,750 @@
   <sheetData>
     <row r="1" spans="1:240">
       <c r="A1" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>332</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>333</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>334</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>335</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>336</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>337</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N1" s="33" t="s">
         <v>338</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>339</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R1" s="33" t="s">
         <v>340</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="T1" s="33" t="s">
         <v>341</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V1" s="33" t="s">
         <v>342</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="X1" s="33" t="s">
         <v>343</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Z1" s="33" t="s">
         <v>344</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AB1" s="33" t="s">
         <v>345</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AD1" s="33" t="s">
         <v>346</v>
       </c>
       <c r="AE1" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF1" s="33" t="s">
         <v>347</v>
       </c>
       <c r="AG1" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AH1" s="33" t="s">
         <v>348</v>
       </c>
       <c r="AI1" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AJ1" s="33" t="s">
         <v>349</v>
       </c>
       <c r="AK1" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AL1" s="33" t="s">
         <v>350</v>
       </c>
       <c r="AM1" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AN1" s="33" t="s">
         <v>351</v>
       </c>
       <c r="AO1" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AP1" s="33" t="s">
         <v>352</v>
       </c>
       <c r="AQ1" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AR1" s="33" t="s">
         <v>353</v>
       </c>
       <c r="AS1" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AT1" s="33" t="s">
         <v>354</v>
       </c>
       <c r="AU1" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV1" s="33" t="s">
         <v>583</v>
-      </c>
-      <c r="AV1" s="33" t="s">
-        <v>584</v>
       </c>
       <c r="AW1" s="33" t="s">
         <v>361</v>
       </c>
       <c r="AX1" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AY1" s="33" t="s">
         <v>362</v>
       </c>
       <c r="AZ1" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BA1" s="33" t="s">
         <v>363</v>
       </c>
       <c r="BB1" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BC1" s="33" t="s">
         <v>364</v>
       </c>
       <c r="BD1" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BE1" s="33" t="s">
         <v>365</v>
       </c>
       <c r="BF1" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BG1" s="33" t="s">
         <v>366</v>
       </c>
       <c r="BH1" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BI1" s="33" t="s">
         <v>367</v>
       </c>
       <c r="BJ1" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BK1" s="33" t="s">
         <v>368</v>
       </c>
       <c r="BL1" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BM1" s="33" t="s">
         <v>369</v>
       </c>
       <c r="BN1" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BO1" s="33" t="s">
         <v>370</v>
       </c>
       <c r="BP1" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BQ1" s="33" t="s">
         <v>371</v>
       </c>
       <c r="BR1" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BS1" s="33" t="s">
         <v>372</v>
       </c>
       <c r="BT1" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BU1" s="33" t="s">
         <v>373</v>
       </c>
       <c r="BV1" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BW1" s="33" t="s">
         <v>374</v>
       </c>
       <c r="BX1" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BY1" s="33" t="s">
         <v>375</v>
       </c>
       <c r="BZ1" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CA1" s="33" t="s">
         <v>376</v>
       </c>
       <c r="CB1" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CC1" s="33" t="s">
         <v>377</v>
       </c>
       <c r="CD1" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="CE1" s="33" t="s">
         <v>378</v>
       </c>
       <c r="CF1" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CG1" s="33" t="s">
         <v>379</v>
       </c>
       <c r="CH1" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CI1" s="33" t="s">
         <v>380</v>
       </c>
       <c r="CJ1" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CK1" s="33" t="s">
         <v>381</v>
       </c>
       <c r="CL1" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CM1" s="33" t="s">
         <v>382</v>
       </c>
       <c r="CN1" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="CO1" s="33" t="s">
         <v>383</v>
       </c>
       <c r="CP1" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="CQ1" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="CQ1" s="33" t="s">
+      <c r="CR1" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="CR1" s="33" t="s">
+      <c r="CS1" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="CS1" s="33" t="s">
+      <c r="CT1" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="CT1" s="33" t="s">
+      <c r="CU1" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="CU1" s="33" t="s">
+      <c r="CV1" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="CV1" s="33" t="s">
+      <c r="CW1" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="CW1" s="33" t="s">
+      <c r="CX1" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="CX1" s="33" t="s">
+      <c r="CY1" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="CY1" s="33" t="s">
+      <c r="CZ1" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="CZ1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="DA1" s="33" t="s">
+      <c r="DB1" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DC1" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="DC1" s="33" t="s">
+      <c r="DD1" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="DD1" s="33" t="s">
+      <c r="DE1" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="DE1" s="33" t="s">
+      <c r="DF1" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="DF1" s="33" t="s">
+      <c r="DG1" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="DG1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="DH1" s="33" t="s">
+      <c r="DI1" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="DJ1" s="33" t="s">
+      <c r="DK1" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="DK1" s="33" t="s">
+      <c r="DL1" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="DL1" s="33" t="s">
+      <c r="DM1" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="DM1" s="33" t="s">
+      <c r="DN1" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="DN1" s="33" t="s">
+      <c r="DO1" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="DO1" s="33" t="s">
+      <c r="DP1" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DR1" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="DT1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="DU1" s="33" t="s">
+      <c r="DV1" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DW1" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="DX1" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="DY1" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="DY1" s="33" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="DZ1" s="33" t="s">
+      <c r="EA1" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="EA1" s="33" t="s">
+      <c r="EB1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="EB1" s="33" t="s">
+      <c r="EC1" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="EC1" s="33" t="s">
+      <c r="ED1" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="ED1" s="33" t="s">
+      <c r="EE1" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="EE1" s="33" t="s">
+      <c r="EF1" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="EF1" s="33" t="s">
+      <c r="EG1" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="EG1" s="33" t="s">
+      <c r="EH1" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="EH1" s="33" t="s">
+      <c r="EI1" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="EI1" s="33" t="s">
+      <c r="EJ1" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="EJ1" s="33" t="s">
+      <c r="EK1" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="EK1" s="33" t="s">
+      <c r="EL1" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="EL1" s="33" t="s">
+      <c r="EM1" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="EM1" s="33" t="s">
+      <c r="EN1" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="EN1" s="33" t="s">
+      <c r="EO1" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="EO1" s="33" t="s">
+      <c r="EP1" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="EP1" s="33" t="s">
+      <c r="EQ1" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="EQ1" s="33" t="s">
+      <c r="ER1" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="ER1" s="33" t="s">
+      <c r="ES1" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="ES1" s="33" t="s">
+      <c r="ET1" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="ET1" s="33" t="s">
+      <c r="EU1" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="EU1" s="33" t="s">
+      <c r="EV1" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="EV1" s="33" t="s">
+      <c r="EW1" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="EW1" s="33" t="s">
+      <c r="EX1" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="EX1" s="33" t="s">
+      <c r="EY1" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="EY1" s="33" t="s">
+      <c r="EZ1" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="EZ1" s="33" t="s">
+      <c r="FA1" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="FA1" s="33" t="s">
+      <c r="FB1" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="FB1" s="33" t="s">
+      <c r="FC1" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="FC1" s="33" t="s">
+      <c r="FD1" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="FD1" s="33" t="s">
+      <c r="FE1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="FE1" s="33" t="s">
+      <c r="FF1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="FF1" s="33" t="s">
+      <c r="FG1" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="FG1" s="33" t="s">
+      <c r="FH1" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="FH1" s="33" t="s">
+      <c r="FI1" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="FI1" s="33" t="s">
+      <c r="FJ1" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="FJ1" s="33" t="s">
+      <c r="FK1" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="FK1" s="33" t="s">
+      <c r="FL1" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="FL1" s="33" t="s">
+      <c r="FM1" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="FM1" s="33" t="s">
+      <c r="FN1" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="FN1" s="33" t="s">
+      <c r="FO1" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="FO1" s="33" t="s">
+      <c r="FP1" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="FP1" s="33" t="s">
+      <c r="FQ1" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="FQ1" s="33" t="s">
+      <c r="FR1" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="FR1" s="33" t="s">
+      <c r="FS1" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="FS1" s="33" t="s">
+      <c r="FT1" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="FT1" s="33" t="s">
+      <c r="FU1" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="FU1" s="33" t="s">
+      <c r="FV1" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="FV1" s="33" t="s">
+      <c r="FW1" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="FW1" s="33" t="s">
+      <c r="FX1" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="FX1" s="33" t="s">
+      <c r="FY1" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="FY1" s="33" t="s">
+      <c r="FZ1" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="FZ1" s="33" t="s">
+      <c r="GA1" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="GA1" s="33" t="s">
+      <c r="GB1" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="GB1" s="33" t="s">
+      <c r="GC1" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="GC1" s="33" t="s">
+      <c r="GD1" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="GD1" s="33" t="s">
+      <c r="GE1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="GE1" s="33" t="s">
+      <c r="GF1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="GF1" s="33" t="s">
+      <c r="GG1" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="GG1" s="33" t="s">
+      <c r="GH1" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="GH1" s="33" t="s">
+      <c r="GI1" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="GI1" s="33" t="s">
+      <c r="GJ1" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="GJ1" s="33" t="s">
+      <c r="GK1" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="GK1" s="33" t="s">
+      <c r="GL1" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="GL1" s="33" t="s">
+      <c r="GM1" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="GM1" s="33" t="s">
+      <c r="GN1" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="GN1" s="33" t="s">
+      <c r="GO1" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="GO1" s="33" t="s">
+      <c r="GP1" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="GP1" s="33" t="s">
+      <c r="GQ1" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="GQ1" s="33" t="s">
+      <c r="GR1" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="GR1" s="33" t="s">
+      <c r="GS1" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="GS1" s="33" t="s">
+      <c r="GT1" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="GT1" s="33" t="s">
+      <c r="GU1" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="GU1" s="33" t="s">
+      <c r="GV1" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="GV1" s="33" t="s">
+      <c r="GW1" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="GW1" s="33" t="s">
+      <c r="GX1" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="GX1" s="33" t="s">
+      <c r="GY1" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="GY1" s="33" t="s">
+      <c r="GZ1" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="GZ1" s="33" t="s">
+      <c r="HA1" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="HA1" s="33" t="s">
+      <c r="HB1" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="HB1" s="33" t="s">
+      <c r="HC1" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="HC1" s="33" t="s">
+      <c r="HD1" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="HD1" s="33" t="s">
+      <c r="HE1" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="HE1" s="33" t="s">
+      <c r="HF1" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="HF1" s="33" t="s">
+      <c r="HG1" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="HG1" s="33" t="s">
+      <c r="HH1" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="HH1" s="33" t="s">
+      <c r="HI1" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="HI1" s="33" t="s">
+      <c r="HJ1" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="HJ1" s="33" t="s">
+      <c r="HK1" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="HK1" s="33" t="s">
+      <c r="HL1" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="HL1" s="33" t="s">
+      <c r="HM1" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="HM1" s="33" t="s">
+      <c r="HN1" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="HN1" s="33" t="s">
+      <c r="HO1" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="HO1" s="33" t="s">
+      <c r="HP1" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="HP1" s="33" t="s">
+      <c r="HQ1" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="HQ1" s="33" t="s">
+      <c r="HR1" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="HR1" s="33" t="s">
+      <c r="HS1" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="HS1" s="33" t="s">
+      <c r="HT1" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="HT1" s="33" t="s">
+      <c r="HU1" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="HU1" s="33" t="s">
+      <c r="HV1" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="HV1" s="33" t="s">
+      <c r="HW1" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="HW1" s="33" t="s">
+      <c r="HX1" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="HX1" s="33" t="s">
+      <c r="HY1" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="HY1" s="33" t="s">
+      <c r="HZ1" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="HZ1" s="33" t="s">
+      <c r="IA1" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="IA1" s="33" t="s">
+      <c r="IB1" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="IB1" s="33" t="s">
+      <c r="IC1" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="IC1" s="33" t="s">
+      <c r="ID1" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="ID1" s="33" t="s">
+      <c r="IE1" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="IE1" s="33" t="s">
+      <c r="IF1" s="33" t="s">
         <v>752</v>
-      </c>
-      <c r="IF1" s="33" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:240" ht="15" thickBot="1">
       <c r="A2" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I2" s="34">
         <v>268763332</v>
@@ -22041,40 +22188,40 @@
     </row>
     <row r="3" spans="1:240">
       <c r="A3" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I3" s="34">
         <v>268763332</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K3" s="36">
         <v>1</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M3" s="36">
         <v>11111000</v>
@@ -22309,28 +22456,28 @@
     </row>
     <row r="4" spans="1:240">
       <c r="A4" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I4" s="34">
         <v>268763332</v>
@@ -22569,28 +22716,28 @@
     </row>
     <row r="5" spans="1:240">
       <c r="A5" s="34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I5" s="34">
         <v>268763332</v>
@@ -22829,28 +22976,28 @@
     </row>
     <row r="6" spans="1:240">
       <c r="A6" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="G6" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I6" s="34">
         <v>268763332</v>
@@ -23089,25 +23236,25 @@
     </row>
     <row r="7" spans="1:240">
       <c r="A7" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>763</v>
-      </c>
       <c r="G7" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -23345,31 +23492,31 @@
     </row>
     <row r="8" spans="1:240">
       <c r="A8" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>772</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>764</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>773</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="36"/>
@@ -23605,25 +23752,25 @@
     </row>
     <row r="9" spans="1:240">
       <c r="A9" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>763</v>
-      </c>
       <c r="G9" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -23861,28 +24008,28 @@
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="E10" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="F10" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="G10" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I10" s="34">
         <v>268763332</v>
@@ -24121,28 +24268,28 @@
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="E11" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="F11" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>763</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I11" s="34">
         <v>268763332</v>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="826">
   <si>
     <t>Execution</t>
   </si>
@@ -1395,9 +1395,6 @@
   </si>
   <si>
     <t>CISOLD</t>
-  </si>
-  <si>
-    <t>5,3,1,1,1</t>
   </si>
   <si>
     <t>5,3,1,2,1</t>
@@ -3322,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3386,7 +3383,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>329</v>
@@ -3400,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>330</v>
@@ -3414,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>384</v>
@@ -3428,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>329</v>
@@ -3442,7 +3439,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>384</v>
@@ -3456,7 +3453,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>329</v>
@@ -3470,7 +3467,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>384</v>
@@ -3484,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>409</v>
@@ -3498,7 +3495,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>330</v>
@@ -3512,7 +3509,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>329</v>
@@ -3526,7 +3523,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>384</v>
@@ -3540,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>329</v>
@@ -3554,7 +3551,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>330</v>
@@ -3568,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>396</v>
@@ -3582,7 +3579,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>329</v>
@@ -3596,7 +3593,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>396</v>
@@ -3610,7 +3607,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>409</v>
@@ -3624,7 +3621,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>329</v>
@@ -3638,7 +3635,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>330</v>
@@ -4364,7 +4361,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4873,7 +4870,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>457</v>
+        <v>810</v>
       </c>
       <c r="H20" s="8">
         <v>997</v>
@@ -4899,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H21" s="8">
         <v>1000</v>
@@ -4925,7 +4922,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H22" s="8">
         <v>1001</v>
@@ -7054,7 +7051,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C105" s="22" t="s">
         <v>294</v>
@@ -7080,10 +7077,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>460</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>461</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>11</v>
@@ -7092,7 +7089,7 @@
         <v>12</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G106" s="22" t="s">
         <v>270</v>
@@ -7106,10 +7103,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C107" s="22" t="s">
         <v>463</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>464</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>11</v>
@@ -7132,10 +7129,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C108" s="22" t="s">
         <v>465</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>466</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>11</v>
@@ -7144,7 +7141,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G108" s="32">
         <v>1</v>
@@ -7155,10 +7152,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C109" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>469</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>11</v>
@@ -7181,10 +7178,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C110" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>11</v>
@@ -7193,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G110" s="32"/>
       <c r="H110" s="22">
@@ -7205,10 +7202,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C111" s="22" t="s">
         <v>473</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>474</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -7217,7 +7214,7 @@
         <v>12</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G111" s="32"/>
       <c r="H111" s="22">
@@ -7229,10 +7226,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>477</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>11</v>
@@ -7241,7 +7238,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G112" s="32"/>
       <c r="H112" s="22">
@@ -7253,10 +7250,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C113" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>479</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>11</v>
@@ -7265,7 +7262,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>80</v>
@@ -7279,10 +7276,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C114" s="22" t="s">
         <v>481</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>482</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>11</v>
@@ -7291,7 +7288,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>83</v>
@@ -7305,10 +7302,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C115" s="22" t="s">
         <v>483</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>484</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>11</v>
@@ -7317,7 +7314,7 @@
         <v>12</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>86</v>
@@ -7331,10 +7328,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C116" s="22" t="s">
         <v>485</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>486</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>11</v>
@@ -7343,7 +7340,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>89</v>
@@ -7357,10 +7354,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C117" s="22" t="s">
         <v>487</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>488</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>11</v>
@@ -7369,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G117" s="22" t="s">
         <v>80</v>
@@ -7383,10 +7380,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C118" s="22" t="s">
         <v>489</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>490</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>11</v>
@@ -7395,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G118" s="22" t="s">
         <v>83</v>
@@ -7409,10 +7406,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C119" s="22" t="s">
         <v>491</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>492</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -7421,7 +7418,7 @@
         <v>12</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G119" s="22" t="s">
         <v>86</v>
@@ -7435,10 +7432,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C120" s="22" t="s">
         <v>493</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>494</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>11</v>
@@ -7447,7 +7444,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G120" s="22"/>
       <c r="H120" s="22">
@@ -7459,10 +7456,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C121" s="22" t="s">
         <v>495</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>496</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>11</v>
@@ -7471,7 +7468,7 @@
         <v>12</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G121" s="22"/>
       <c r="H121" s="22">
@@ -7483,10 +7480,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>11</v>
@@ -7495,7 +7492,7 @@
         <v>12</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G122" s="22"/>
       <c r="H122" s="22">
@@ -7507,10 +7504,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C123" s="22" t="s">
         <v>499</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>500</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>11</v>
@@ -7519,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G123" s="22"/>
       <c r="H123" s="22">
@@ -7531,10 +7528,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C124" s="22" t="s">
         <v>501</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>502</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>11</v>
@@ -7543,7 +7540,7 @@
         <v>12</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G124" s="22"/>
       <c r="H124" s="22">
@@ -7555,10 +7552,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C125" s="22" t="s">
         <v>503</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>504</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>11</v>
@@ -7567,7 +7564,7 @@
         <v>12</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G125" s="22"/>
       <c r="H125" s="22">
@@ -7579,10 +7576,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C126" s="22" t="s">
         <v>505</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>506</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>11</v>
@@ -7591,7 +7588,7 @@
         <v>12</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G126" s="22"/>
       <c r="H126" s="22">
@@ -7603,10 +7600,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C127" s="22" t="s">
         <v>507</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>508</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>11</v>
@@ -7615,7 +7612,7 @@
         <v>12</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G127" s="22"/>
       <c r="H127" s="22">
@@ -7627,10 +7624,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C128" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>511</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>11</v>
@@ -7639,7 +7636,7 @@
         <v>12</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G128" s="22"/>
       <c r="H128" s="22">
@@ -7651,10 +7648,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>11</v>
@@ -7675,10 +7672,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>515</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>11</v>
@@ -7687,7 +7684,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G130" s="22">
         <v>1</v>
@@ -7701,10 +7698,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C131" s="22" t="s">
         <v>518</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>519</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
@@ -7713,7 +7710,7 @@
         <v>12</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G131" s="22">
         <v>2</v>
@@ -7727,10 +7724,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>11</v>
@@ -7742,7 +7739,7 @@
         <v>13</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H132" s="22">
         <v>832</v>
@@ -7753,10 +7750,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C133" s="22" t="s">
         <v>522</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>523</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>11</v>
@@ -7765,7 +7762,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G133" s="22">
         <v>1</v>
@@ -7779,10 +7776,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C134" s="22" t="s">
         <v>525</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>526</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>11</v>
@@ -7791,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G134" s="22">
         <v>3</v>
@@ -7805,10 +7802,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>11</v>
@@ -7820,7 +7817,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H135" s="22">
         <v>1800</v>
@@ -7831,10 +7828,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C136" s="22" t="s">
         <v>530</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>531</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>11</v>
@@ -7843,7 +7840,7 @@
         <v>12</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G136" s="22"/>
       <c r="H136" s="22">
@@ -7855,10 +7852,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C137" s="22" t="s">
         <v>532</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>533</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>11</v>
@@ -7867,10 +7864,10 @@
         <v>12</v>
       </c>
       <c r="F137" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="G137" s="22" t="s">
         <v>534</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>535</v>
       </c>
       <c r="H137" s="22">
         <v>1146</v>
@@ -7881,10 +7878,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>536</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>537</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>11</v>
@@ -7896,7 +7893,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H138" s="22">
         <v>1148</v>
@@ -7907,10 +7904,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C139" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>540</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>11</v>
@@ -7919,7 +7916,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G139" s="22">
         <v>1</v>
@@ -7933,10 +7930,10 @@
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C140" s="22" t="s">
         <v>542</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>543</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>11</v>
@@ -7945,7 +7942,7 @@
         <v>12</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>80</v>
@@ -7959,10 +7956,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>544</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>11</v>
@@ -7971,7 +7968,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G141" s="22" t="s">
         <v>270</v>
@@ -7985,10 +7982,10 @@
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C142" s="22" t="s">
         <v>547</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>548</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>11</v>
@@ -7997,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G142" s="22" t="s">
         <v>99</v>
@@ -8011,10 +8008,10 @@
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>11</v>
@@ -8026,7 +8023,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H143" s="22">
         <v>957</v>
@@ -8037,10 +8034,10 @@
         <v>8</v>
       </c>
       <c r="B144" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="C144" s="49" t="s">
         <v>550</v>
-      </c>
-      <c r="C144" s="49" t="s">
-        <v>551</v>
       </c>
       <c r="D144" s="50" t="s">
         <v>11</v>
@@ -8049,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="F144" s="52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G144" s="49" t="s">
         <v>270</v>
@@ -8063,10 +8060,10 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>781</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>782</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>11</v>
@@ -8075,7 +8072,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G145" s="54" t="s">
         <v>270</v>
@@ -8089,10 +8086,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>16</v>
@@ -8101,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G146" s="55" t="s">
         <v>189</v>
@@ -8115,10 +8112,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>786</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>11</v>
@@ -8127,7 +8124,7 @@
         <v>12</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G147" s="54" t="s">
         <v>189</v>
@@ -8141,10 +8138,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>16</v>
@@ -8153,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G148" s="56" t="s">
         <v>189</v>
@@ -8167,10 +8164,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>11</v>
@@ -8182,7 +8179,7 @@
         <v>286</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H149" s="5">
         <v>1616</v>
@@ -8193,10 +8190,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>16</v>
@@ -8219,10 +8216,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>11</v>
@@ -8234,7 +8231,7 @@
         <v>286</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H151" s="5">
         <v>1591</v>
@@ -8245,10 +8242,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>16</v>
@@ -8271,10 +8268,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>11</v>
@@ -8297,10 +8294,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>16</v>
@@ -8323,10 +8320,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>11</v>
@@ -8349,10 +8346,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>16</v>
@@ -8375,10 +8372,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>11</v>
@@ -8387,7 +8384,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5">
@@ -8399,10 +8396,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>11</v>
@@ -8414,7 +8411,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H158" s="5">
         <v>996</v>
@@ -8425,7 +8422,7 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>254</v>
@@ -8437,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G159" s="5">
         <v>3</v>
@@ -8451,10 +8448,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>11</v>
@@ -8463,7 +8460,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G160" s="54" t="s">
         <v>270</v>
@@ -8477,10 +8474,10 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>16</v>
@@ -8489,7 +8486,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>96</v>
@@ -8766,748 +8763,748 @@
         <v>401</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
+        <v>763</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>764</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>558</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>559</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>332</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M1" s="33" t="s">
         <v>333</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O1" s="33" t="s">
         <v>334</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q1" s="33" t="s">
         <v>335</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>336</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U1" s="33" t="s">
         <v>337</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W1" s="33" t="s">
         <v>338</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Y1" s="33" t="s">
         <v>339</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA1" s="33" t="s">
         <v>340</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AC1" s="33" t="s">
         <v>341</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AE1" s="33" t="s">
         <v>342</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG1" s="33" t="s">
         <v>343</v>
       </c>
       <c r="AH1" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AI1" s="33" t="s">
         <v>344</v>
       </c>
       <c r="AJ1" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AK1" s="33" t="s">
         <v>345</v>
       </c>
       <c r="AL1" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM1" s="33" t="s">
         <v>346</v>
       </c>
       <c r="AN1" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AO1" s="33" t="s">
         <v>347</v>
       </c>
       <c r="AP1" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AQ1" s="33" t="s">
         <v>348</v>
       </c>
       <c r="AR1" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AS1" s="33" t="s">
         <v>349</v>
       </c>
       <c r="AT1" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AU1" s="33" t="s">
         <v>350</v>
       </c>
       <c r="AV1" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AW1" s="33" t="s">
         <v>351</v>
       </c>
       <c r="AX1" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AY1" s="33" t="s">
         <v>352</v>
       </c>
       <c r="AZ1" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BA1" s="33" t="s">
         <v>353</v>
       </c>
       <c r="BB1" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BC1" s="33" t="s">
         <v>354</v>
       </c>
       <c r="BD1" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="BE1" s="33" t="s">
         <v>582</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>583</v>
       </c>
       <c r="BF1" s="33" t="s">
         <v>361</v>
       </c>
       <c r="BG1" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="BH1" s="33" t="s">
         <v>362</v>
       </c>
       <c r="BI1" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BJ1" s="33" t="s">
         <v>363</v>
       </c>
       <c r="BK1" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BL1" s="33" t="s">
         <v>364</v>
       </c>
       <c r="BM1" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BN1" s="33" t="s">
         <v>365</v>
       </c>
       <c r="BO1" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BP1" s="33" t="s">
         <v>366</v>
       </c>
       <c r="BQ1" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BR1" s="33" t="s">
         <v>367</v>
       </c>
       <c r="BS1" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BT1" s="33" t="s">
         <v>368</v>
       </c>
       <c r="BU1" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BV1" s="33" t="s">
         <v>369</v>
       </c>
       <c r="BW1" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BX1" s="33" t="s">
         <v>370</v>
       </c>
       <c r="BY1" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BZ1" s="33" t="s">
         <v>371</v>
       </c>
       <c r="CA1" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="CB1" s="33" t="s">
         <v>372</v>
       </c>
       <c r="CC1" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="CD1" s="33" t="s">
         <v>373</v>
       </c>
       <c r="CE1" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="CF1" s="33" t="s">
         <v>374</v>
       </c>
       <c r="CG1" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="CH1" s="33" t="s">
         <v>375</v>
       </c>
       <c r="CI1" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="CJ1" s="33" t="s">
         <v>376</v>
       </c>
       <c r="CK1" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CL1" s="33" t="s">
         <v>377</v>
       </c>
       <c r="CM1" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CN1" s="33" t="s">
         <v>378</v>
       </c>
       <c r="CO1" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="CP1" s="33" t="s">
         <v>379</v>
       </c>
       <c r="CQ1" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CR1" s="33" t="s">
         <v>380</v>
       </c>
       <c r="CS1" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CT1" s="33" t="s">
         <v>381</v>
       </c>
       <c r="CU1" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CV1" s="33" t="s">
         <v>382</v>
       </c>
       <c r="CW1" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CX1" s="33" t="s">
         <v>383</v>
       </c>
       <c r="CY1" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="CZ1" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="CZ1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="DA1" s="33" t="s">
+      <c r="DB1" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DC1" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="DC1" s="33" t="s">
+      <c r="DD1" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="DD1" s="33" t="s">
+      <c r="DE1" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="DE1" s="33" t="s">
+      <c r="DF1" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="DF1" s="33" t="s">
+      <c r="DG1" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="DG1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="DH1" s="33" t="s">
+      <c r="DI1" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="DJ1" s="33" t="s">
+      <c r="DK1" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="DK1" s="33" t="s">
+      <c r="DL1" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="DL1" s="33" t="s">
+      <c r="DM1" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="DM1" s="33" t="s">
+      <c r="DN1" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="DN1" s="33" t="s">
+      <c r="DO1" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="DO1" s="33" t="s">
+      <c r="DP1" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DR1" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="DT1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="DU1" s="33" t="s">
+      <c r="DV1" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DW1" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="DX1" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="DY1" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="DY1" s="33" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="DZ1" s="33" t="s">
+      <c r="EA1" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="EA1" s="33" t="s">
+      <c r="EB1" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="EB1" s="33" t="s">
+      <c r="EC1" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="EC1" s="33" t="s">
+      <c r="ED1" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="ED1" s="33" t="s">
+      <c r="EE1" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="EE1" s="33" t="s">
+      <c r="EF1" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="EF1" s="33" t="s">
+      <c r="EG1" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="EG1" s="33" t="s">
+      <c r="EH1" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="EH1" s="33" t="s">
+      <c r="EI1" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="EI1" s="33" t="s">
+      <c r="EJ1" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="EJ1" s="33" t="s">
+      <c r="EK1" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="EK1" s="33" t="s">
+      <c r="EL1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="EL1" s="33" t="s">
+      <c r="EM1" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="EM1" s="33" t="s">
+      <c r="EN1" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="EN1" s="33" t="s">
+      <c r="EO1" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="EO1" s="33" t="s">
+      <c r="EP1" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="EP1" s="33" t="s">
+      <c r="EQ1" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="EQ1" s="33" t="s">
+      <c r="ER1" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="ER1" s="33" t="s">
+      <c r="ES1" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="ES1" s="33" t="s">
+      <c r="ET1" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="ET1" s="33" t="s">
+      <c r="EU1" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="EU1" s="33" t="s">
+      <c r="EV1" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="EV1" s="33" t="s">
+      <c r="EW1" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="EW1" s="33" t="s">
+      <c r="EX1" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="EX1" s="33" t="s">
+      <c r="EY1" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="EY1" s="33" t="s">
+      <c r="EZ1" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="EZ1" s="33" t="s">
+      <c r="FA1" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="FA1" s="33" t="s">
+      <c r="FB1" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="FB1" s="33" t="s">
+      <c r="FC1" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="FC1" s="33" t="s">
+      <c r="FD1" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="FD1" s="33" t="s">
+      <c r="FE1" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="FE1" s="33" t="s">
+      <c r="FF1" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="FF1" s="33" t="s">
+      <c r="FG1" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="FG1" s="33" t="s">
+      <c r="FH1" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="FH1" s="33" t="s">
+      <c r="FI1" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="FI1" s="33" t="s">
+      <c r="FJ1" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="FJ1" s="33" t="s">
+      <c r="FK1" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="FK1" s="33" t="s">
+      <c r="FL1" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="FL1" s="33" t="s">
+      <c r="FM1" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="FM1" s="33" t="s">
+      <c r="FN1" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="FN1" s="33" t="s">
+      <c r="FO1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="FO1" s="33" t="s">
+      <c r="FP1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="FP1" s="33" t="s">
+      <c r="FQ1" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="FQ1" s="33" t="s">
+      <c r="FR1" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="FR1" s="33" t="s">
+      <c r="FS1" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="FS1" s="33" t="s">
+      <c r="FT1" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="FT1" s="33" t="s">
+      <c r="FU1" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="FU1" s="33" t="s">
+      <c r="FV1" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="FV1" s="33" t="s">
+      <c r="FW1" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="FW1" s="33" t="s">
+      <c r="FX1" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="FX1" s="33" t="s">
+      <c r="FY1" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="FY1" s="33" t="s">
+      <c r="FZ1" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="FZ1" s="33" t="s">
+      <c r="GA1" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="GA1" s="33" t="s">
+      <c r="GB1" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="GB1" s="33" t="s">
+      <c r="GC1" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="GC1" s="33" t="s">
+      <c r="GD1" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="GD1" s="33" t="s">
+      <c r="GE1" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="GE1" s="33" t="s">
+      <c r="GF1" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="GF1" s="33" t="s">
+      <c r="GG1" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="GG1" s="33" t="s">
+      <c r="GH1" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="GH1" s="33" t="s">
+      <c r="GI1" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="GI1" s="33" t="s">
+      <c r="GJ1" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="GJ1" s="33" t="s">
+      <c r="GK1" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="GK1" s="33" t="s">
+      <c r="GL1" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="GL1" s="33" t="s">
+      <c r="GM1" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="GM1" s="33" t="s">
+      <c r="GN1" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="GN1" s="33" t="s">
+      <c r="GO1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="GO1" s="33" t="s">
+      <c r="GP1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="GP1" s="33" t="s">
+      <c r="GQ1" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="GQ1" s="33" t="s">
+      <c r="GR1" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="GR1" s="33" t="s">
+      <c r="GS1" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="GS1" s="33" t="s">
+      <c r="GT1" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="GT1" s="33" t="s">
+      <c r="GU1" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="GU1" s="33" t="s">
+      <c r="GV1" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="GV1" s="33" t="s">
+      <c r="GW1" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="GW1" s="33" t="s">
+      <c r="GX1" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="GX1" s="33" t="s">
+      <c r="GY1" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="GY1" s="33" t="s">
+      <c r="GZ1" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="GZ1" s="33" t="s">
+      <c r="HA1" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="HA1" s="33" t="s">
+      <c r="HB1" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="HB1" s="33" t="s">
+      <c r="HC1" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="HC1" s="33" t="s">
+      <c r="HD1" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="HD1" s="33" t="s">
+      <c r="HE1" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="HE1" s="33" t="s">
+      <c r="HF1" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="HF1" s="33" t="s">
+      <c r="HG1" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="HG1" s="33" t="s">
+      <c r="HH1" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="HH1" s="33" t="s">
+      <c r="HI1" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="HI1" s="33" t="s">
+      <c r="HJ1" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="HJ1" s="33" t="s">
+      <c r="HK1" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="HK1" s="33" t="s">
+      <c r="HL1" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="HL1" s="33" t="s">
+      <c r="HM1" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="HM1" s="33" t="s">
+      <c r="HN1" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="HN1" s="33" t="s">
+      <c r="HO1" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="HO1" s="33" t="s">
+      <c r="HP1" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="HP1" s="33" t="s">
+      <c r="HQ1" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="HQ1" s="33" t="s">
+      <c r="HR1" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="HR1" s="33" t="s">
+      <c r="HS1" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="HS1" s="33" t="s">
+      <c r="HT1" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="HT1" s="33" t="s">
+      <c r="HU1" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="HU1" s="33" t="s">
+      <c r="HV1" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="HV1" s="33" t="s">
+      <c r="HW1" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="HW1" s="33" t="s">
+      <c r="HX1" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="HX1" s="33" t="s">
+      <c r="HY1" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="HY1" s="33" t="s">
+      <c r="HZ1" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="HZ1" s="33" t="s">
+      <c r="IA1" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="IA1" s="33" t="s">
+      <c r="IB1" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="IB1" s="33" t="s">
+      <c r="IC1" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="IC1" s="33" t="s">
+      <c r="ID1" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="ID1" s="33" t="s">
+      <c r="IE1" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="IE1" s="33" t="s">
+      <c r="IF1" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="IF1" s="33" t="s">
+      <c r="IG1" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="IG1" s="33" t="s">
+      <c r="IH1" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="IH1" s="33" t="s">
+      <c r="II1" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="II1" s="33" t="s">
+      <c r="IJ1" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="IJ1" s="33" t="s">
+      <c r="IK1" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="IK1" s="33" t="s">
+      <c r="IL1" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="IL1" s="33" t="s">
+      <c r="IM1" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="IM1" s="33" t="s">
+      <c r="IN1" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="IN1" s="33" t="s">
+      <c r="IO1" s="33" t="s">
         <v>751</v>
-      </c>
-      <c r="IO1" s="33" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:249" ht="15" thickBot="1">
@@ -9518,43 +9515,43 @@
         <v>9</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D2" s="42">
         <v>200</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q2" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="R2" s="34">
         <v>268763332</v>
@@ -9566,52 +9563,52 @@
     </row>
     <row r="3" spans="1:249" ht="15" thickBot="1">
       <c r="A3" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D3" s="42">
         <v>200</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>755</v>
-      </c>
       <c r="H3" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q3" s="34" t="s">
         <v>778</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>779</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>780</v>
       </c>
       <c r="AB3" s="37"/>
       <c r="AD3" s="38"/>
@@ -9620,34 +9617,34 @@
     </row>
     <row r="4" spans="1:249" ht="15" thickBot="1">
       <c r="A4" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D4" s="42">
         <v>200</v>
       </c>
       <c r="F4" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>755</v>
-      </c>
       <c r="H4" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>819</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>820</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>821</v>
       </c>
       <c r="AB4" s="37"/>
       <c r="AD4" s="38"/>
@@ -9656,34 +9653,34 @@
     </row>
     <row r="5" spans="1:249" ht="15" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D5" s="42">
         <v>200</v>
       </c>
       <c r="F5" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>755</v>
-      </c>
       <c r="H5" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I5" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="L5" s="34" t="s">
         <v>758</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>759</v>
       </c>
       <c r="AB5" s="37"/>
       <c r="AD5" s="38"/>
@@ -9692,34 +9689,34 @@
     </row>
     <row r="6" spans="1:249" ht="15" thickBot="1">
       <c r="A6" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D6" s="42">
         <v>200</v>
       </c>
       <c r="F6" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>755</v>
-      </c>
       <c r="H6" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I6" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="L6" s="34" t="s">
         <v>758</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>759</v>
       </c>
       <c r="AB6" s="37"/>
       <c r="AD6" s="38"/>
@@ -9728,34 +9725,34 @@
     </row>
     <row r="7" spans="1:249" ht="15" thickBot="1">
       <c r="A7" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D7" s="42">
         <v>200</v>
       </c>
       <c r="F7" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>755</v>
-      </c>
       <c r="H7" s="34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I7" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="L7" s="34" t="s">
         <v>758</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>759</v>
       </c>
       <c r="AB7" s="37"/>
       <c r="AD7" s="38"/>
@@ -21206,750 +21203,750 @@
   <sheetData>
     <row r="1" spans="1:240">
       <c r="A1" s="33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>332</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>333</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>334</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>335</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>336</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>337</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N1" s="33" t="s">
         <v>338</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>339</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R1" s="33" t="s">
         <v>340</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="T1" s="33" t="s">
         <v>341</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="V1" s="33" t="s">
         <v>342</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="X1" s="33" t="s">
         <v>343</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Z1" s="33" t="s">
         <v>344</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AB1" s="33" t="s">
         <v>345</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AD1" s="33" t="s">
         <v>346</v>
       </c>
       <c r="AE1" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF1" s="33" t="s">
         <v>347</v>
       </c>
       <c r="AG1" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AH1" s="33" t="s">
         <v>348</v>
       </c>
       <c r="AI1" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AJ1" s="33" t="s">
         <v>349</v>
       </c>
       <c r="AK1" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AL1" s="33" t="s">
         <v>350</v>
       </c>
       <c r="AM1" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AN1" s="33" t="s">
         <v>351</v>
       </c>
       <c r="AO1" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AP1" s="33" t="s">
         <v>352</v>
       </c>
       <c r="AQ1" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AR1" s="33" t="s">
         <v>353</v>
       </c>
       <c r="AS1" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AT1" s="33" t="s">
         <v>354</v>
       </c>
       <c r="AU1" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="AV1" s="33" t="s">
         <v>582</v>
-      </c>
-      <c r="AV1" s="33" t="s">
-        <v>583</v>
       </c>
       <c r="AW1" s="33" t="s">
         <v>361</v>
       </c>
       <c r="AX1" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AY1" s="33" t="s">
         <v>362</v>
       </c>
       <c r="AZ1" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BA1" s="33" t="s">
         <v>363</v>
       </c>
       <c r="BB1" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BC1" s="33" t="s">
         <v>364</v>
       </c>
       <c r="BD1" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BE1" s="33" t="s">
         <v>365</v>
       </c>
       <c r="BF1" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BG1" s="33" t="s">
         <v>366</v>
       </c>
       <c r="BH1" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BI1" s="33" t="s">
         <v>367</v>
       </c>
       <c r="BJ1" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="BK1" s="33" t="s">
         <v>368</v>
       </c>
       <c r="BL1" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BM1" s="33" t="s">
         <v>369</v>
       </c>
       <c r="BN1" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BO1" s="33" t="s">
         <v>370</v>
       </c>
       <c r="BP1" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BQ1" s="33" t="s">
         <v>371</v>
       </c>
       <c r="BR1" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BS1" s="33" t="s">
         <v>372</v>
       </c>
       <c r="BT1" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BU1" s="33" t="s">
         <v>373</v>
       </c>
       <c r="BV1" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BW1" s="33" t="s">
         <v>374</v>
       </c>
       <c r="BX1" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BY1" s="33" t="s">
         <v>375</v>
       </c>
       <c r="BZ1" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="CA1" s="33" t="s">
         <v>376</v>
       </c>
       <c r="CB1" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="CC1" s="33" t="s">
         <v>377</v>
       </c>
       <c r="CD1" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="CE1" s="33" t="s">
         <v>378</v>
       </c>
       <c r="CF1" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="CG1" s="33" t="s">
         <v>379</v>
       </c>
       <c r="CH1" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="CI1" s="33" t="s">
         <v>380</v>
       </c>
       <c r="CJ1" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="CK1" s="33" t="s">
         <v>381</v>
       </c>
       <c r="CL1" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CM1" s="33" t="s">
         <v>382</v>
       </c>
       <c r="CN1" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="CO1" s="33" t="s">
         <v>383</v>
       </c>
       <c r="CP1" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="CQ1" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="CQ1" s="33" t="s">
+      <c r="CR1" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="CR1" s="33" t="s">
+      <c r="CS1" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="CS1" s="33" t="s">
+      <c r="CT1" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="CT1" s="33" t="s">
+      <c r="CU1" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="CU1" s="33" t="s">
+      <c r="CV1" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="CV1" s="33" t="s">
+      <c r="CW1" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="CW1" s="33" t="s">
+      <c r="CX1" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="CX1" s="33" t="s">
+      <c r="CY1" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="CY1" s="33" t="s">
+      <c r="CZ1" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="CZ1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="DA1" s="33" t="s">
+      <c r="DB1" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DC1" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="DC1" s="33" t="s">
+      <c r="DD1" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="DD1" s="33" t="s">
+      <c r="DE1" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="DE1" s="33" t="s">
+      <c r="DF1" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="DF1" s="33" t="s">
+      <c r="DG1" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="DG1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="DH1" s="33" t="s">
+      <c r="DI1" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="DJ1" s="33" t="s">
+      <c r="DK1" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="DK1" s="33" t="s">
+      <c r="DL1" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="DL1" s="33" t="s">
+      <c r="DM1" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="DM1" s="33" t="s">
+      <c r="DN1" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="DN1" s="33" t="s">
+      <c r="DO1" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="DO1" s="33" t="s">
+      <c r="DP1" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DR1" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="DT1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="DU1" s="33" t="s">
+      <c r="DV1" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DW1" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="DX1" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="DY1" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="DY1" s="33" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="DZ1" s="33" t="s">
+      <c r="EA1" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="EA1" s="33" t="s">
+      <c r="EB1" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="EB1" s="33" t="s">
+      <c r="EC1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="EC1" s="33" t="s">
+      <c r="ED1" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="ED1" s="33" t="s">
+      <c r="EE1" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="EE1" s="33" t="s">
+      <c r="EF1" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="EF1" s="33" t="s">
+      <c r="EG1" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="EG1" s="33" t="s">
+      <c r="EH1" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="EH1" s="33" t="s">
+      <c r="EI1" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="EI1" s="33" t="s">
+      <c r="EJ1" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="EJ1" s="33" t="s">
+      <c r="EK1" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="EK1" s="33" t="s">
+      <c r="EL1" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="EL1" s="33" t="s">
+      <c r="EM1" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="EM1" s="33" t="s">
+      <c r="EN1" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="EN1" s="33" t="s">
+      <c r="EO1" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="EO1" s="33" t="s">
+      <c r="EP1" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="EP1" s="33" t="s">
+      <c r="EQ1" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="EQ1" s="33" t="s">
+      <c r="ER1" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="ER1" s="33" t="s">
+      <c r="ES1" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="ES1" s="33" t="s">
+      <c r="ET1" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="ET1" s="33" t="s">
+      <c r="EU1" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="EU1" s="33" t="s">
+      <c r="EV1" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="EV1" s="33" t="s">
+      <c r="EW1" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="EW1" s="33" t="s">
+      <c r="EX1" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="EX1" s="33" t="s">
+      <c r="EY1" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="EY1" s="33" t="s">
+      <c r="EZ1" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="EZ1" s="33" t="s">
+      <c r="FA1" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="FA1" s="33" t="s">
+      <c r="FB1" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="FB1" s="33" t="s">
+      <c r="FC1" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="FC1" s="33" t="s">
+      <c r="FD1" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="FD1" s="33" t="s">
+      <c r="FE1" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="FE1" s="33" t="s">
+      <c r="FF1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="FF1" s="33" t="s">
+      <c r="FG1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="FG1" s="33" t="s">
+      <c r="FH1" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="FH1" s="33" t="s">
+      <c r="FI1" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="FI1" s="33" t="s">
+      <c r="FJ1" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="FJ1" s="33" t="s">
+      <c r="FK1" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="FK1" s="33" t="s">
+      <c r="FL1" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="FL1" s="33" t="s">
+      <c r="FM1" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="FM1" s="33" t="s">
+      <c r="FN1" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="FN1" s="33" t="s">
+      <c r="FO1" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="FO1" s="33" t="s">
+      <c r="FP1" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="FP1" s="33" t="s">
+      <c r="FQ1" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="FQ1" s="33" t="s">
+      <c r="FR1" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="FR1" s="33" t="s">
+      <c r="FS1" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="FS1" s="33" t="s">
+      <c r="FT1" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="FT1" s="33" t="s">
+      <c r="FU1" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="FU1" s="33" t="s">
+      <c r="FV1" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="FV1" s="33" t="s">
+      <c r="FW1" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="FW1" s="33" t="s">
+      <c r="FX1" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="FX1" s="33" t="s">
+      <c r="FY1" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="FY1" s="33" t="s">
+      <c r="FZ1" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="FZ1" s="33" t="s">
+      <c r="GA1" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="GA1" s="33" t="s">
+      <c r="GB1" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="GB1" s="33" t="s">
+      <c r="GC1" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="GC1" s="33" t="s">
+      <c r="GD1" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="GD1" s="33" t="s">
+      <c r="GE1" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="GE1" s="33" t="s">
+      <c r="GF1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="GF1" s="33" t="s">
+      <c r="GG1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="GG1" s="33" t="s">
+      <c r="GH1" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="GH1" s="33" t="s">
+      <c r="GI1" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="GI1" s="33" t="s">
+      <c r="GJ1" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="GJ1" s="33" t="s">
+      <c r="GK1" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="GK1" s="33" t="s">
+      <c r="GL1" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="GL1" s="33" t="s">
+      <c r="GM1" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="GM1" s="33" t="s">
+      <c r="GN1" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="GN1" s="33" t="s">
+      <c r="GO1" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="GO1" s="33" t="s">
+      <c r="GP1" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="GP1" s="33" t="s">
+      <c r="GQ1" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="GQ1" s="33" t="s">
+      <c r="GR1" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="GR1" s="33" t="s">
+      <c r="GS1" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="GS1" s="33" t="s">
+      <c r="GT1" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="GT1" s="33" t="s">
+      <c r="GU1" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="GU1" s="33" t="s">
+      <c r="GV1" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="GV1" s="33" t="s">
+      <c r="GW1" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="GW1" s="33" t="s">
+      <c r="GX1" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="GX1" s="33" t="s">
+      <c r="GY1" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="GY1" s="33" t="s">
+      <c r="GZ1" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="GZ1" s="33" t="s">
+      <c r="HA1" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="HA1" s="33" t="s">
+      <c r="HB1" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="HB1" s="33" t="s">
+      <c r="HC1" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="HC1" s="33" t="s">
+      <c r="HD1" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="HD1" s="33" t="s">
+      <c r="HE1" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="HE1" s="33" t="s">
+      <c r="HF1" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="HF1" s="33" t="s">
+      <c r="HG1" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="HG1" s="33" t="s">
+      <c r="HH1" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="HH1" s="33" t="s">
+      <c r="HI1" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="HI1" s="33" t="s">
+      <c r="HJ1" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="HJ1" s="33" t="s">
+      <c r="HK1" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="HK1" s="33" t="s">
+      <c r="HL1" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="HL1" s="33" t="s">
+      <c r="HM1" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="HM1" s="33" t="s">
+      <c r="HN1" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="HN1" s="33" t="s">
+      <c r="HO1" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="HO1" s="33" t="s">
+      <c r="HP1" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="HP1" s="33" t="s">
+      <c r="HQ1" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="HQ1" s="33" t="s">
+      <c r="HR1" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="HR1" s="33" t="s">
+      <c r="HS1" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="HS1" s="33" t="s">
+      <c r="HT1" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="HT1" s="33" t="s">
+      <c r="HU1" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="HU1" s="33" t="s">
+      <c r="HV1" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="HV1" s="33" t="s">
+      <c r="HW1" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="HW1" s="33" t="s">
+      <c r="HX1" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="HX1" s="33" t="s">
+      <c r="HY1" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="HY1" s="33" t="s">
+      <c r="HZ1" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="HZ1" s="33" t="s">
+      <c r="IA1" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="IA1" s="33" t="s">
+      <c r="IB1" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="IB1" s="33" t="s">
+      <c r="IC1" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="IC1" s="33" t="s">
+      <c r="ID1" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="ID1" s="33" t="s">
+      <c r="IE1" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="IE1" s="33" t="s">
+      <c r="IF1" s="33" t="s">
         <v>751</v>
-      </c>
-      <c r="IF1" s="33" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:240" ht="15" thickBot="1">
       <c r="A2" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="I2" s="34">
         <v>268763332</v>
@@ -22188,40 +22185,40 @@
     </row>
     <row r="3" spans="1:240">
       <c r="A3" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="I3" s="34">
         <v>268763332</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K3" s="36">
         <v>1</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M3" s="36">
         <v>11111000</v>
@@ -22456,28 +22453,28 @@
     </row>
     <row r="4" spans="1:240">
       <c r="A4" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="I4" s="34">
         <v>268763332</v>
@@ -22716,28 +22713,28 @@
     </row>
     <row r="5" spans="1:240">
       <c r="A5" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="I5" s="34">
         <v>268763332</v>
@@ -22976,28 +22973,28 @@
     </row>
     <row r="6" spans="1:240">
       <c r="A6" s="34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="G6" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="I6" s="34">
         <v>268763332</v>
@@ -23236,25 +23233,25 @@
     </row>
     <row r="7" spans="1:240">
       <c r="A7" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>762</v>
-      </c>
       <c r="G7" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -23492,31 +23489,31 @@
     </row>
     <row r="8" spans="1:240">
       <c r="A8" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>771</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>772</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="36"/>
@@ -23752,25 +23749,25 @@
     </row>
     <row r="9" spans="1:240">
       <c r="A9" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>762</v>
-      </c>
       <c r="G9" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -24008,28 +24005,28 @@
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="E10" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="F10" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="G10" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="I10" s="34">
         <v>268763332</v>
@@ -24268,28 +24265,28 @@
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="E11" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="F11" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>763</v>
       </c>
       <c r="I11" s="34">
         <v>268763332</v>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="832">
   <si>
     <t>Execution</t>
   </si>
@@ -2328,42 +2328,15 @@
     <t>1</t>
   </si>
   <si>
-    <t>GetOffers</t>
-  </si>
-  <si>
     <t>requestInactiveOffersFlag</t>
   </si>
   <si>
     <t>offerRequestedTypeFlag</t>
   </si>
   <si>
-    <t>DeleteOffer</t>
-  </si>
-  <si>
-    <t>UpdateOffer</t>
-  </si>
-  <si>
-    <t>GetBalanceAndDate</t>
-  </si>
-  <si>
     <t>268763332</t>
   </si>
   <si>
-    <t>UpdateDA</t>
-  </si>
-  <si>
-    <t>DeleteDA</t>
-  </si>
-  <si>
-    <t>AddPAM</t>
-  </si>
-  <si>
-    <t>ReduceDA</t>
-  </si>
-  <si>
-    <t>AddDifferentDA</t>
-  </si>
-  <si>
     <t>UpdateUsageThresholdsAndCounters</t>
   </si>
   <si>
@@ -2494,6 +2467,60 @@
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>API_GetAccountDetails</t>
+  </si>
+  <si>
+    <t>API_GetOffers</t>
+  </si>
+  <si>
+    <t>API_DeleteOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateOffer</t>
+  </si>
+  <si>
+    <t>API_UpdateDA</t>
+  </si>
+  <si>
+    <t>API_DeleteDA</t>
+  </si>
+  <si>
+    <t>API_GetBalanceAndDate</t>
+  </si>
+  <si>
+    <t>API_AddPAM</t>
+  </si>
+  <si>
+    <t>API_ReduceDA</t>
+  </si>
+  <si>
+    <t>API_AddDifferentDA</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_1</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_2</t>
+  </si>
+  <si>
+    <t>API_UpdateServiceClass_3</t>
+  </si>
+  <si>
+    <t>API_UpdateUsageThresholdsAndCounters</t>
+  </si>
+  <si>
+    <t>API_DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>originOperatorID</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>API_InstallSubscriber</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3374,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>329</v>
@@ -3388,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>330</v>
@@ -3402,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>384</v>
@@ -3416,7 +3443,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>329</v>
@@ -3430,7 +3457,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>384</v>
@@ -3444,7 +3471,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>409</v>
@@ -3458,7 +3485,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>330</v>
@@ -3472,7 +3499,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>329</v>
@@ -3486,7 +3513,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>384</v>
@@ -3500,7 +3527,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>329</v>
@@ -3514,7 +3541,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>330</v>
@@ -3528,7 +3555,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>396</v>
@@ -3542,7 +3569,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>329</v>
@@ -3556,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>396</v>
@@ -7981,10 +8008,10 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>11</v>
@@ -7993,7 +8020,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G145" s="54" t="s">
         <v>270</v>
@@ -8007,10 +8034,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>16</v>
@@ -8019,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G146" s="55" t="s">
         <v>189</v>
@@ -8033,10 +8060,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>11</v>
@@ -8045,7 +8072,7 @@
         <v>12</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G147" s="54" t="s">
         <v>189</v>
@@ -8059,10 +8086,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>16</v>
@@ -8071,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G148" s="56" t="s">
         <v>189</v>
@@ -8085,10 +8112,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>11</v>
@@ -8100,7 +8127,7 @@
         <v>286</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="H149" s="5">
         <v>1616</v>
@@ -8111,10 +8138,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>16</v>
@@ -8137,10 +8164,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>11</v>
@@ -8152,7 +8179,7 @@
         <v>286</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="H151" s="5">
         <v>1591</v>
@@ -8163,10 +8190,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>16</v>
@@ -8189,10 +8216,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>11</v>
@@ -8215,10 +8242,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>16</v>
@@ -8241,10 +8268,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>11</v>
@@ -8267,10 +8294,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>16</v>
@@ -8293,10 +8320,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>11</v>
@@ -8305,7 +8332,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5">
@@ -8317,10 +8344,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>11</v>
@@ -8332,7 +8359,7 @@
         <v>13</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="H158" s="5">
         <v>996</v>
@@ -8343,7 +8370,7 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>254</v>
@@ -8355,7 +8382,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="G159" s="5">
         <v>3</v>
@@ -8369,10 +8396,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>11</v>
@@ -8381,7 +8408,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G160" s="54" t="s">
         <v>270</v>
@@ -8395,10 +8422,10 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>16</v>
@@ -8407,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>96</v>
@@ -8429,8 +8456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -9502,7 +9529,7 @@
         <v>756</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>758</v>
@@ -9526,10 +9553,10 @@
         <v>766</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="AB3" s="37"/>
       <c r="AD3" s="38"/>
@@ -9556,16 +9583,16 @@
         <v>756</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>758</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="AB4" s="37"/>
       <c r="AD4" s="38"/>
@@ -21032,15 +21059,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF11"/>
+  <dimension ref="A1:IF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
@@ -21048,7 +21075,7 @@
     <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
@@ -21781,7 +21808,7 @@
     </row>
     <row r="2" spans="1:240" ht="15" thickBot="1">
       <c r="A2" s="34" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>759</v>
@@ -22041,7 +22068,7 @@
     </row>
     <row r="3" spans="1:240">
       <c r="A3" s="34" t="s">
-        <v>767</v>
+        <v>815</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>759</v>
@@ -22068,13 +22095,13 @@
         <v>268763332</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K3" s="36">
         <v>1</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M3" s="36">
         <v>11111000</v>
@@ -22309,7 +22336,7 @@
     </row>
     <row r="4" spans="1:240">
       <c r="A4" s="34" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>759</v>
@@ -22569,7 +22596,7 @@
     </row>
     <row r="5" spans="1:240">
       <c r="A5" s="34" t="s">
-        <v>771</v>
+        <v>817</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>759</v>
@@ -22829,7 +22856,7 @@
     </row>
     <row r="6" spans="1:240">
       <c r="A6" s="34" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>759</v>
@@ -23089,7 +23116,7 @@
     </row>
     <row r="7" spans="1:240">
       <c r="A7" s="34" t="s">
-        <v>775</v>
+        <v>819</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>759</v>
@@ -23345,7 +23372,7 @@
     </row>
     <row r="8" spans="1:240">
       <c r="A8" s="34" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>759</v>
@@ -23369,7 +23396,7 @@
         <v>764</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="36"/>
@@ -23605,7 +23632,7 @@
     </row>
     <row r="9" spans="1:240">
       <c r="A9" s="34" t="s">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>759</v>
@@ -23861,7 +23888,7 @@
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="34" t="s">
-        <v>777</v>
+        <v>822</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>759</v>
@@ -24121,7 +24148,7 @@
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="34" t="s">
-        <v>778</v>
+        <v>823</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>759</v>
@@ -24379,6 +24406,138 @@
       <c r="IE11" s="34"/>
       <c r="IF11" s="34"/>
     </row>
+    <row r="12" spans="1:240">
+      <c r="A12" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:240">
+      <c r="A13" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:240">
+      <c r="A14" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:240">
+      <c r="A15" t="s">
+        <v>827</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="I15" s="34">
+        <v>268763332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:240">
+      <c r="A16" t="s">
+        <v>828</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="421">
   <si>
     <t>Execution</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>TC_002</t>
-  </si>
-  <si>
-    <t>USSD_OPT_OUT</t>
   </si>
   <si>
     <t>USSD_Short_Code</t>
@@ -1292,7 +1289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1876,54 +1873,54 @@
       <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1935,20 +1932,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
@@ -1988,10 +1985,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -2014,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="10">
         <v>3</v>
@@ -2034,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
@@ -2060,22 +2057,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5">
         <v>820</v>
@@ -2086,19 +2083,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="10"/>
     </row>
@@ -2107,19 +2104,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -2128,19 +2125,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -2149,19 +2146,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -2170,10 +2167,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>11</v>
@@ -2185,7 +2182,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="8">
         <v>1126</v>
@@ -2196,10 +2193,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
@@ -2211,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8">
         <v>1130</v>
@@ -2222,10 +2219,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>11</v>
@@ -2237,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="8">
         <v>1132</v>
@@ -2248,10 +2245,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
@@ -2263,7 +2260,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="8">
         <v>1133</v>
@@ -2274,10 +2271,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
@@ -2289,7 +2286,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="8">
         <v>1134</v>
@@ -2300,10 +2297,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
@@ -2315,7 +2312,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="8">
         <v>1135</v>
@@ -2326,10 +2323,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>11</v>
@@ -2341,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="8">
         <v>1136</v>
@@ -2352,10 +2349,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
@@ -2367,7 +2364,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="8">
         <v>1450</v>
@@ -2378,10 +2375,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>11</v>
@@ -2393,7 +2390,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="8">
         <v>1451</v>
@@ -2404,10 +2401,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>11</v>
@@ -2419,7 +2416,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="8">
         <v>1452</v>
@@ -2430,10 +2427,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>11</v>
@@ -2445,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20" s="8">
         <v>997</v>
@@ -2456,10 +2453,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>11</v>
@@ -2471,21 +2468,21 @@
         <v>13</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H21" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>11</v>
@@ -2497,360 +2494,360 @@
         <v>13</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H22" s="8">
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="H23" s="8">
         <v>1150</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="H24" s="8">
         <v>1152</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>80</v>
       </c>
       <c r="H25" s="8">
         <v>1153</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="H26" s="8">
         <v>1154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="H27" s="8">
         <v>1155</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="H28" s="8">
         <v>1156</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="H29" s="8">
         <v>1158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="23" t="s">
+      <c r="G30" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="8">
         <v>1619</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="H31" s="8">
         <v>1539</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="H32" s="8">
         <v>1613</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="H33" s="8">
         <v>1580</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="H34" s="8">
         <v>1581</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="H35" s="8">
         <v>1568</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>113</v>
-      </c>
       <c r="D36" s="8" t="s">
         <v>11</v>
       </c>
@@ -2858,25 +2855,25 @@
         <v>12</v>
       </c>
       <c r="F36" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="H36" s="8">
         <v>1569</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="D37" s="8" t="s">
         <v>11</v>
       </c>
@@ -2884,25 +2881,25 @@
         <v>12</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="8">
         <v>1570</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>117</v>
-      </c>
       <c r="D38" s="8" t="s">
         <v>11</v>
       </c>
@@ -2910,25 +2907,25 @@
         <v>12</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H38" s="8">
         <v>1555</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="D39" s="8" t="s">
         <v>11</v>
       </c>
@@ -2936,363 +2933,363 @@
         <v>12</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H39" s="8">
         <v>1565</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="D40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="H40" s="8">
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="D41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="H41" s="8">
         <v>1564</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="H42" s="8">
         <v>1597</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="H43" s="8">
         <v>1598</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="H44" s="8">
         <v>1537</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="D45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="H45" s="8">
         <v>1545</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="H46" s="8">
         <v>1544</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="H47" s="8">
         <v>1543</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="H48" s="8">
         <v>1548</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="H49" s="8">
         <v>1549</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="H50" s="8">
         <v>1567</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="H51" s="8">
         <v>1577</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="H52" s="8">
         <v>1578</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>160</v>
-      </c>
       <c r="D53" s="8" t="s">
         <v>11</v>
       </c>
@@ -3300,25 +3297,25 @@
         <v>12</v>
       </c>
       <c r="F53" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="H53" s="8">
         <v>1660</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>162</v>
-      </c>
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
@@ -3326,25 +3323,25 @@
         <v>12</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H54" s="8">
         <v>1661</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
@@ -3352,77 +3349,77 @@
         <v>12</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H55" s="8">
         <v>1662</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="H56" s="8">
         <v>1663</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="D57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="H57" s="8">
         <v>1664</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
@@ -3430,25 +3427,25 @@
         <v>12</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H58" s="8">
         <v>1665</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>174</v>
-      </c>
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
@@ -3456,49 +3453,49 @@
         <v>12</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H59" s="8">
         <v>1666</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="D60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>177</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="8">
         <v>1694</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>179</v>
-      </c>
       <c r="D61" s="8" t="s">
         <v>11</v>
       </c>
@@ -3506,23 +3503,23 @@
         <v>12</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="8">
         <v>1695</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>181</v>
-      </c>
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
@@ -3530,31 +3527,31 @@
         <v>12</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="8">
         <v>1696</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="D63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>184</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
@@ -3563,16 +3560,16 @@
         <v>999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="D64" s="8" t="s">
         <v>11</v>
       </c>
@@ -3580,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G64" s="17">
         <v>2</v>
@@ -3589,41 +3586,41 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="D65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="H65" s="8">
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>11</v>
@@ -3635,21 +3632,21 @@
         <v>13</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H66" s="8">
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>11</v>
@@ -3661,21 +3658,21 @@
         <v>13</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H67" s="8">
         <v>1147</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>11</v>
@@ -3687,30 +3684,30 @@
         <v>13</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H68" s="8">
         <v>1149</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1">
       <c r="A69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="D69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="23" t="s">
         <v>200</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
@@ -3719,24 +3716,24 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="D70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
@@ -3745,96 +3742,96 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" thickBot="1">
+    <row r="71" spans="1:8" ht="15.75" thickBot="1">
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="D71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="8">
         <v>1654</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="D72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>210</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="8">
         <v>1655</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1">
+    <row r="73" spans="1:8" ht="15.75" thickBot="1">
       <c r="A73" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="D73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="8">
         <v>1656</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="D74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>216</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
@@ -3843,15 +3840,15 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>218</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>11</v>
@@ -3863,21 +3860,21 @@
         <v>13</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H75" s="8">
         <v>1458</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1">
+    <row r="76" spans="1:8" ht="15.75" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>11</v>
@@ -3889,21 +3886,21 @@
         <v>13</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H76" s="8">
         <v>1459</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>11</v>
@@ -3915,21 +3912,21 @@
         <v>13</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H77" s="8">
         <v>1460</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
@@ -3941,21 +3938,21 @@
         <v>13</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H78" s="8">
         <v>1461</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>11</v>
@@ -3967,21 +3964,21 @@
         <v>13</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H79" s="8">
         <v>1462</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>11</v>
@@ -3993,21 +3990,21 @@
         <v>13</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H80" s="8">
         <v>1463</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>11</v>
@@ -4019,21 +4016,21 @@
         <v>13</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H81" s="8">
         <v>1464</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>11</v>
@@ -4045,21 +4042,21 @@
         <v>13</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H82" s="8">
         <v>1465</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>11</v>
@@ -4071,21 +4068,21 @@
         <v>13</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H83" s="8">
         <v>1467</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>243</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
@@ -4097,21 +4094,21 @@
         <v>13</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H84" s="8">
         <v>1468</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>11</v>
@@ -4123,21 +4120,21 @@
         <v>13</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H85" s="8">
         <v>1469</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
@@ -4149,21 +4146,21 @@
         <v>13</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H86" s="8">
         <v>1470</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
@@ -4175,21 +4172,21 @@
         <v>13</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H87" s="8">
         <v>1471</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>252</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>11</v>
@@ -4201,21 +4198,21 @@
         <v>13</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H88" s="8">
         <v>1472</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>11</v>
@@ -4227,210 +4224,210 @@
         <v>13</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H89" s="8">
         <v>1269</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="D90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>258</v>
-      </c>
       <c r="G90" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H90" s="8">
         <v>1805</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="D91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G91" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="H91" s="8">
         <v>1818</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="D92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="H92" s="8">
         <v>1819</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="D93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="H93" s="8">
         <v>1802</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1">
       <c r="A94" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="D94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H94" s="8">
         <v>1803</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C95" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="H95" s="8">
         <v>1803</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="D96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>274</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="8">
         <v>1817</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" thickBot="1">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1">
       <c r="A97" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="D97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="23" t="s">
         <v>276</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="G97" s="17">
         <v>1</v>
@@ -4439,24 +4436,24 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="D98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="23" t="s">
         <v>279</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>280</v>
       </c>
       <c r="G98" s="17">
         <v>1</v>
@@ -4465,24 +4462,24 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1">
       <c r="A99" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="D99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="23" t="s">
         <v>282</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>283</v>
       </c>
       <c r="G99" s="17">
         <v>1</v>
@@ -4491,42 +4488,42 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1">
       <c r="A100" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="D100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>286</v>
-      </c>
       <c r="G100" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H100" s="8">
         <v>1616</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" thickBot="1">
+    <row r="101" spans="1:8" ht="15.75" thickBot="1">
       <c r="A101" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>288</v>
-      </c>
       <c r="D101" s="8" t="s">
         <v>11</v>
       </c>
@@ -4534,25 +4531,25 @@
         <v>12</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H101" s="8">
         <v>1591</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" thickBot="1">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1">
       <c r="A102" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>290</v>
-      </c>
       <c r="D102" s="8" t="s">
         <v>11</v>
       </c>
@@ -4560,25 +4557,25 @@
         <v>12</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H102" s="8">
         <v>1528</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1">
+    <row r="103" spans="1:8" ht="15.75" thickBot="1">
       <c r="A103" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>292</v>
-      </c>
       <c r="D103" s="8" t="s">
         <v>11</v>
       </c>
@@ -4586,76 +4583,76 @@
         <v>12</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H103" s="8">
         <v>1533</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" thickBot="1">
+    <row r="104" spans="1:8" ht="15.75" thickBot="1">
       <c r="A104" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="D104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>295</v>
-      </c>
       <c r="G104" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H104" s="8">
         <v>1523</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" thickBot="1">
+    <row r="105" spans="1:8" ht="15.75" thickBot="1">
       <c r="A105" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C105" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>328</v>
-      </c>
       <c r="G105" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H105" s="22">
         <v>828</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1">
+    <row r="106" spans="1:8" ht="15.75" thickBot="1">
       <c r="A106" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>11</v>
@@ -4664,47 +4661,47 @@
         <v>12</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H106" s="22">
         <v>1157</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" thickBot="1">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1">
       <c r="A107" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C107" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="27" t="s">
         <v>330</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>331</v>
       </c>
       <c r="G107" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" thickBot="1">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1">
       <c r="A108" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>11</v>
@@ -4713,7 +4710,7 @@
         <v>12</v>
       </c>
       <c r="F108" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G108" s="28">
         <v>1</v>
@@ -4722,63 +4719,63 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" thickBot="1">
+    <row r="109" spans="1:8" ht="15.75" thickBot="1">
       <c r="A109" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C109" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="27" t="s">
         <v>333</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>334</v>
       </c>
       <c r="G109" s="28"/>
       <c r="H109" s="22">
         <v>1151</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1">
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
       <c r="A110" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C110" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="27" t="s">
         <v>335</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>336</v>
       </c>
       <c r="G110" s="28"/>
       <c r="H110" s="22">
         <v>1230</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" thickBot="1">
+    <row r="111" spans="1:8" ht="15.75" thickBot="1">
       <c r="A111" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -4787,48 +4784,48 @@
         <v>12</v>
       </c>
       <c r="F111" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G111" s="28"/>
       <c r="H111" s="22">
         <v>1231</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" thickBot="1">
+    <row r="112" spans="1:8" ht="15.75" thickBot="1">
       <c r="A112" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C112" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>339</v>
-      </c>
       <c r="G112" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H112" s="22">
         <v>1232</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" thickBot="1">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1">
       <c r="A113" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>11</v>
@@ -4837,24 +4834,24 @@
         <v>12</v>
       </c>
       <c r="F113" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H113" s="22">
         <v>1233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" thickBot="1">
+    <row r="114" spans="1:8" ht="15.75" thickBot="1">
       <c r="A114" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>11</v>
@@ -4863,24 +4860,24 @@
         <v>12</v>
       </c>
       <c r="F114" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H114" s="22">
         <v>1234</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1">
+    <row r="115" spans="1:8" ht="15.75" thickBot="1">
       <c r="A115" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>11</v>
@@ -4889,24 +4886,24 @@
         <v>12</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H115" s="22">
         <v>1235</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>11</v>
@@ -4915,24 +4912,24 @@
         <v>12</v>
       </c>
       <c r="F116" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H116" s="22">
         <v>1240</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>11</v>
@@ -4941,24 +4938,24 @@
         <v>12</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H117" s="22">
         <v>1242</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" thickBot="1">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1">
       <c r="A118" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>11</v>
@@ -4967,24 +4964,24 @@
         <v>12</v>
       </c>
       <c r="F118" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H118" s="22">
         <v>1243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -4993,22 +4990,22 @@
         <v>12</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G119" s="22"/>
       <c r="H119" s="22">
         <v>1217</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" thickBot="1">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1">
       <c r="A120" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>11</v>
@@ -5017,22 +5014,22 @@
         <v>12</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G120" s="22"/>
       <c r="H120" s="22">
         <v>1237</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>11</v>
@@ -5041,22 +5038,22 @@
         <v>12</v>
       </c>
       <c r="F121" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G121" s="22"/>
       <c r="H121" s="22">
         <v>1223</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>11</v>
@@ -5065,22 +5062,22 @@
         <v>12</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G122" s="22"/>
       <c r="H122" s="22">
         <v>1584</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" thickBot="1">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1">
       <c r="A123" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>11</v>
@@ -5089,22 +5086,22 @@
         <v>12</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G123" s="22"/>
       <c r="H123" s="22">
         <v>1224</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" thickBot="1">
+    <row r="124" spans="1:8" ht="15.75" thickBot="1">
       <c r="A124" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>11</v>
@@ -5113,22 +5110,22 @@
         <v>12</v>
       </c>
       <c r="F124" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G124" s="22"/>
       <c r="H124" s="22">
         <v>1225</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" thickBot="1">
+    <row r="125" spans="1:8" ht="15.75" thickBot="1">
       <c r="A125" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>11</v>
@@ -5137,70 +5134,70 @@
         <v>12</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G125" s="22"/>
       <c r="H125" s="22">
         <v>1226</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C126" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="27" t="s">
         <v>353</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>354</v>
       </c>
       <c r="G126" s="22"/>
       <c r="H126" s="22">
         <v>1227</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C127" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="27" t="s">
         <v>355</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>356</v>
       </c>
       <c r="G127" s="22"/>
       <c r="H127" s="22">
         <v>1531</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>11</v>
@@ -5209,31 +5206,31 @@
         <v>12</v>
       </c>
       <c r="F128" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G128" s="22"/>
       <c r="H128" s="22">
         <v>1360</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" thickBot="1">
+    <row r="129" spans="1:8" ht="15.75" thickBot="1">
       <c r="A129" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C129" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="27" t="s">
         <v>358</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="27" t="s">
-        <v>359</v>
       </c>
       <c r="G129" s="22">
         <v>1</v>
@@ -5242,15 +5239,15 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" thickBot="1">
+    <row r="130" spans="1:8" ht="15.75" thickBot="1">
       <c r="A130" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>11</v>
@@ -5259,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G130" s="22">
         <v>2</v>
@@ -5268,50 +5265,50 @@
         <v>832</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" thickBot="1">
+    <row r="131" spans="1:8" ht="15.75" thickBot="1">
       <c r="A131" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H131" s="22">
         <v>832</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" thickBot="1">
+    <row r="132" spans="1:8" ht="15.75" thickBot="1">
       <c r="A132" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C132" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="27" t="s">
         <v>361</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>362</v>
       </c>
       <c r="G132" s="22">
         <v>1</v>
@@ -5320,15 +5317,15 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="29.5" thickBot="1">
+    <row r="133" spans="1:8" ht="30.75" thickBot="1">
       <c r="A133" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>11</v>
@@ -5337,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G133" s="22">
         <v>3</v>
@@ -5346,41 +5343,41 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" thickBot="1">
+    <row r="134" spans="1:8" ht="15.75" thickBot="1">
       <c r="A134" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F134" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H134" s="22">
         <v>1800</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" thickBot="1">
+    <row r="135" spans="1:8" ht="15.75" thickBot="1">
       <c r="A135" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>11</v>
@@ -5389,48 +5386,48 @@
         <v>12</v>
       </c>
       <c r="F135" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G135" s="22"/>
       <c r="H135" s="22">
         <v>1817</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" thickBot="1">
+    <row r="136" spans="1:8" ht="15.75" thickBot="1">
       <c r="A136" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C136" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="27" t="s">
+      <c r="G136" s="22" t="s">
         <v>366</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>367</v>
       </c>
       <c r="H136" s="22">
         <v>1146</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" thickBot="1">
+    <row r="137" spans="1:8" ht="15.75" thickBot="1">
       <c r="A137" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>11</v>
@@ -5442,30 +5439,30 @@
         <v>13</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H137" s="22">
         <v>1148</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" thickBot="1">
+    <row r="138" spans="1:8" ht="15.75" thickBot="1">
       <c r="A138" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C138" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="27" t="s">
         <v>370</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>371</v>
       </c>
       <c r="G138" s="22">
         <v>1</v>
@@ -5474,15 +5471,15 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" thickBot="1">
+    <row r="139" spans="1:8" ht="15.75" thickBot="1">
       <c r="A139" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>11</v>
@@ -5491,50 +5488,50 @@
         <v>12</v>
       </c>
       <c r="F139" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H139" s="22">
         <v>1940</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" thickBot="1">
+    <row r="140" spans="1:8" ht="15.75" thickBot="1">
       <c r="A140" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C140" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="27" t="s">
-        <v>374</v>
-      </c>
       <c r="G140" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H140" s="22">
         <v>790</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" thickBot="1">
+    <row r="141" spans="1:8" ht="15.75" thickBot="1">
       <c r="A141" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>11</v>
@@ -5543,50 +5540,50 @@
         <v>12</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H141" s="22">
         <v>957</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15" thickBot="1">
+    <row r="142" spans="1:8" ht="15.75" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F142" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H142" s="22">
         <v>957</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1">
+    <row r="143" spans="1:8" ht="15.75" thickBot="1">
       <c r="A143" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>11</v>
@@ -5595,10 +5592,10 @@
         <v>12</v>
       </c>
       <c r="F143" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H143" s="22">
         <v>944</v>
@@ -5618,34 +5615,34 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="6:6">
       <c r="F6" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5661,11 +5658,11 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5681,46 +5678,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5736,87 +5733,87 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="6:12">
       <c r="F4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="L4" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="6:12">
       <c r="F5" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="6:12">
       <c r="F6" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="6:12">
       <c r="F7" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="6:12">
       <c r="F8" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5833,11 +5830,11 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -5862,10 +5859,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -5887,11 +5884,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -5916,16 +5913,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="835">
   <si>
     <t>Execution</t>
   </si>
@@ -2521,6 +2521,15 @@
   </si>
   <si>
     <t>API_InstallSubscriber</t>
+  </si>
+  <si>
+    <t>API_Update_IMSI</t>
+  </si>
+  <si>
+    <t>NEW_ACTIVATION</t>
+  </si>
+  <si>
+    <t>LIVE_USAGE_VIDEO_CALL</t>
   </si>
 </sst>
 </file>
@@ -3250,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3289,7 +3298,7 @@
         <v>409</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>460</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3471,10 +3480,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -3485,10 +3494,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>782</v>
+        <v>834</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -3502,7 +3511,7 @@
         <v>782</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
@@ -3516,7 +3525,7 @@
         <v>782</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -3527,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>329</v>
@@ -3541,10 +3550,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
@@ -3558,7 +3567,7 @@
         <v>783</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -3569,10 +3578,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -3583,12 +3592,82 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>396</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>833</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>833</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>833</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -21059,10 +21138,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF17"/>
+  <dimension ref="A1:IF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24515,7 +24594,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>831</v>
       </c>
@@ -24536,6 +24615,35 @@
       </c>
       <c r="G17" s="34" t="s">
         <v>766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>832</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="I18" s="34">
+        <v>268763332</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="842">
   <si>
     <t>Execution</t>
   </si>
@@ -248,18 +248,12 @@
     <t>*135*3#</t>
   </si>
   <si>
-    <t>1,1,5,1</t>
-  </si>
-  <si>
     <t>TC_023</t>
   </si>
   <si>
     <t>25min&amp;250MB AED25 Week</t>
   </si>
   <si>
-    <t>1,1,6,1</t>
-  </si>
-  <si>
     <t>TC_024</t>
   </si>
   <si>
@@ -267,12 +261,6 @@
   </si>
   <si>
     <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>TC_025</t>
-  </si>
-  <si>
-    <t>30min&amp;1.5GB AED50 Mon</t>
   </si>
   <si>
     <t>1,1,2,1</t>
@@ -2530,6 +2518,39 @@
   </si>
   <si>
     <t>LIVE_USAGE_VIDEO_CALL</t>
+  </si>
+  <si>
+    <t>Call Home for Less More Info</t>
+  </si>
+  <si>
+    <t>India Rate Cutter</t>
+  </si>
+  <si>
+    <t>*135*005#</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>100min&amp;3GB AED100 Mon_Overide</t>
+  </si>
+  <si>
+    <t>25min&amp;250MB AED25 Week_Overide</t>
+  </si>
+  <si>
+    <t>1,1,5,1</t>
+  </si>
+  <si>
+    <t>Special Social 25GB Data Bundle Recurrent_Overide</t>
+  </si>
+  <si>
+    <t>DeleteSubscriber</t>
+  </si>
+  <si>
+    <t>InstallSubscriber</t>
+  </si>
+  <si>
+    <t>UpdateBalanceAndDate</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2823,25 +2844,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2941,7 +2949,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2950,9 +2957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3261,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3275,13 +3279,13 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>0</v>
@@ -3295,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3309,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
@@ -3323,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -3340,13 +3344,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3357,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -3371,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -3385,7 +3389,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -3399,7 +3403,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -3410,10 +3414,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -3424,10 +3428,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
@@ -3438,10 +3442,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>8</v>
@@ -3452,10 +3456,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
@@ -3466,10 +3470,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
@@ -3480,10 +3484,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -3494,10 +3498,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -3508,10 +3512,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
@@ -3522,10 +3526,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -3536,10 +3540,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
@@ -3550,10 +3554,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
@@ -3564,10 +3568,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -3578,10 +3582,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -3592,10 +3596,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
@@ -3606,10 +3610,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>8</v>
@@ -3620,10 +3624,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>8</v>
@@ -3634,13 +3638,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>8</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3648,13 +3652,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>8</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3662,13 +3666,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3722,10 +3726,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -3776,16 +3780,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3826,169 +3830,169 @@
   <sheetData>
     <row r="1" spans="1:55">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" t="s">
         <v>331</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>332</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>333</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>334</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>336</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>338</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>339</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>340</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>341</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>342</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>343</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>345</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>346</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>347</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>348</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>349</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>350</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>351</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>355</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>357</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>358</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>359</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>360</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>361</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>364</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>365</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>366</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>367</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>368</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>369</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>370</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>371</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>372</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>373</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>374</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>375</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>376</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>377</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>378</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>379</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>381</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -3999,70 +4003,70 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="P2" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q2" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="T2" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="W2" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>421</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -4073,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -4084,121 +4088,121 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="J4" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="L4" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="O4" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="P4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>419</v>
+      </c>
+      <c r="R4" t="s">
+        <v>399</v>
+      </c>
+      <c r="S4" t="s">
+        <v>424</v>
+      </c>
+      <c r="T4" t="s">
+        <v>425</v>
+      </c>
+      <c r="U4" t="s">
         <v>426</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="O4" s="28" t="s">
+      <c r="V4" t="s">
+        <v>420</v>
+      </c>
+      <c r="W4" t="s">
+        <v>400</v>
+      </c>
+      <c r="X4" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z4" t="s">
         <v>418</v>
       </c>
-      <c r="P4" t="s">
+      <c r="AA4" t="s">
         <v>427</v>
       </c>
-      <c r="Q4" t="s">
-        <v>423</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="AB4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD4" t="s">
         <v>403</v>
       </c>
-      <c r="S4" t="s">
-        <v>428</v>
-      </c>
-      <c r="T4" t="s">
-        <v>429</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="AE4" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG4" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI4" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK4" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL4" t="s">
         <v>430</v>
       </c>
-      <c r="V4" t="s">
-        <v>424</v>
-      </c>
-      <c r="W4" t="s">
-        <v>404</v>
-      </c>
-      <c r="X4" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AM4" t="s">
         <v>431</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AN4" t="s">
         <v>432</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AO4" t="s">
         <v>433</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF4" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG4" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>408</v>
-      </c>
-      <c r="AI4" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="AJ4" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>435</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>436</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -4209,79 +4213,79 @@
         <v>20</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="S5" t="s">
+        <v>444</v>
+      </c>
+      <c r="T5" t="s">
+        <v>445</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA5" t="s">
         <v>396</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="E5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="S5" t="s">
-        <v>448</v>
-      </c>
-      <c r="T5" t="s">
-        <v>449</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -4292,7 +4296,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -4303,7 +4307,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4335,47 +4339,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4385,10 +4389,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4486,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>831</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
@@ -4501,7 +4505,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
         <v>820</v>
@@ -4512,22 +4516,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <v>820</v>
@@ -4538,31 +4542,36 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5">
+        <v>820</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
@@ -4571,7 +4580,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -4580,10 +4589,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
@@ -4592,7 +4601,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -4601,10 +4610,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
@@ -4613,7 +4622,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -4622,36 +4631,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1126</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
@@ -4663,10 +4667,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="8">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4674,10 +4678,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>11</v>
@@ -4689,10 +4693,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12" s="8">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4700,10 +4704,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
@@ -4715,10 +4719,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H13" s="8">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4726,10 +4730,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
@@ -4741,10 +4745,10 @@
         <v>13</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H14" s="8">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4752,10 +4756,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
@@ -4767,10 +4771,10 @@
         <v>13</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H15" s="8">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4778,10 +4782,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>11</v>
@@ -4793,10 +4797,10 @@
         <v>13</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="8">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4804,10 +4808,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
@@ -4819,10 +4823,10 @@
         <v>13</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H17" s="8">
-        <v>1450</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4830,10 +4834,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>11</v>
@@ -4845,10 +4849,10 @@
         <v>13</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H18" s="8">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4856,10 +4860,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>11</v>
@@ -4871,10 +4875,10 @@
         <v>13</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H19" s="8">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4882,10 +4886,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>11</v>
@@ -4896,11 +4900,11 @@
       <c r="F20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>457</v>
+      <c r="G20" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="H20" s="8">
-        <v>997</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4908,10 +4912,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>11</v>
@@ -4923,21 +4927,21 @@
         <v>13</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H21" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>11</v>
@@ -4948,11 +4952,11 @@
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>459</v>
+      <c r="G22" s="28" t="s">
+        <v>454</v>
       </c>
       <c r="H22" s="8">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1">
@@ -4960,10 +4964,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>11</v>
@@ -4971,14 +4975,14 @@
       <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>74</v>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>455</v>
       </c>
       <c r="H23" s="8">
-        <v>1150</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1">
@@ -4986,10 +4990,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>11</v>
@@ -5000,11 +5004,11 @@
       <c r="F24" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>77</v>
+      <c r="G24" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="H24" s="8">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
@@ -5012,13 +5016,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>12</v>
@@ -5026,11 +5030,11 @@
       <c r="F25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>80</v>
+      <c r="G25" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H25" s="8">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1">
@@ -5038,10 +5042,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>11</v>
@@ -5053,10 +5057,10 @@
         <v>73</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H26" s="8">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1">
@@ -5064,13 +5068,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>12</v>
@@ -5078,11 +5082,11 @@
       <c r="F27" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>86</v>
+      <c r="G27" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="H27" s="8">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1">
@@ -5090,10 +5094,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>11</v>
@@ -5105,10 +5109,10 @@
         <v>73</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H28" s="8">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1">
@@ -5116,13 +5120,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>12</v>
@@ -5130,11 +5134,11 @@
       <c r="F29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>92</v>
+      <c r="G29" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="H29" s="8">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1">
@@ -5142,10 +5146,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>11</v>
@@ -5153,14 +5157,14 @@
       <c r="E30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>96</v>
+      <c r="F30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="H30" s="8">
-        <v>1619</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
@@ -5168,25 +5172,25 @@
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>99</v>
+      <c r="F31" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H31" s="8">
-        <v>1539</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1">
@@ -5194,10 +5198,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
@@ -5205,14 +5209,14 @@
       <c r="E32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>102</v>
+      <c r="F32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="H32" s="8">
-        <v>1613</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1">
@@ -5220,25 +5224,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>105</v>
+      <c r="F33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H33" s="8">
-        <v>1580</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1">
@@ -5246,10 +5250,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>107</v>
+        <v>80</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>835</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
@@ -5257,14 +5261,14 @@
       <c r="E34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>108</v>
+      <c r="F34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="H34" s="8">
-        <v>1581</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1">
@@ -5272,10 +5276,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>110</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>836</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>11</v>
@@ -5283,14 +5287,14 @@
       <c r="E35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>111</v>
+      <c r="F35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>837</v>
       </c>
       <c r="H35" s="8">
-        <v>1568</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1">
@@ -5298,10 +5302,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>113</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>11</v>
@@ -5309,14 +5313,14 @@
       <c r="E36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>96</v>
+      <c r="F36" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="H36" s="8">
-        <v>1569</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1">
@@ -5324,10 +5328,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>115</v>
+        <v>86</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>838</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>11</v>
@@ -5335,14 +5339,14 @@
       <c r="E37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>99</v>
+      <c r="F37" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="H37" s="8">
-        <v>1570</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1">
@@ -5350,10 +5354,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>11</v>
@@ -5362,13 +5366,13 @@
         <v>12</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H38" s="8">
-        <v>1555</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1">
@@ -5376,10 +5380,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>11</v>
@@ -5388,13 +5392,13 @@
         <v>12</v>
       </c>
       <c r="F39" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="H39" s="8">
-        <v>1565</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1">
@@ -5402,10 +5406,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>11</v>
@@ -5414,13 +5418,13 @@
         <v>12</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="H40" s="8">
-        <v>1563</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
@@ -5428,10 +5432,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>11</v>
@@ -5440,13 +5444,13 @@
         <v>12</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H41" s="8">
-        <v>1564</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1">
@@ -5454,10 +5458,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>11</v>
@@ -5466,13 +5470,13 @@
         <v>12</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H42" s="8">
-        <v>1597</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1">
@@ -5480,10 +5484,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>11</v>
@@ -5492,13 +5496,13 @@
         <v>12</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H43" s="8">
-        <v>1598</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1">
@@ -5506,10 +5510,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>11</v>
@@ -5518,13 +5522,13 @@
         <v>12</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="H44" s="8">
-        <v>1537</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1">
@@ -5532,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>11</v>
@@ -5544,13 +5548,13 @@
         <v>12</v>
       </c>
       <c r="F45" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="H45" s="8">
-        <v>1545</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1">
@@ -5558,10 +5562,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>11</v>
@@ -5570,13 +5574,13 @@
         <v>12</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="H46" s="8">
-        <v>1544</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1">
@@ -5584,10 +5588,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>11</v>
@@ -5596,13 +5600,13 @@
         <v>12</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="H47" s="8">
-        <v>1543</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1">
@@ -5610,10 +5614,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>11</v>
@@ -5622,13 +5626,13 @@
         <v>12</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H48" s="8">
-        <v>1548</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1">
@@ -5636,10 +5640,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>11</v>
@@ -5648,13 +5652,13 @@
         <v>12</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="H49" s="8">
-        <v>1549</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1">
@@ -5662,10 +5666,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>11</v>
@@ -5674,13 +5678,13 @@
         <v>12</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="H50" s="8">
-        <v>1567</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1">
@@ -5688,10 +5692,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>11</v>
@@ -5700,13 +5704,13 @@
         <v>12</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H51" s="8">
-        <v>1577</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1">
@@ -5714,10 +5718,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>11</v>
@@ -5726,13 +5730,13 @@
         <v>12</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="H52" s="8">
-        <v>1578</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1">
@@ -5740,10 +5744,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>11</v>
@@ -5752,13 +5756,13 @@
         <v>12</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="H53" s="8">
-        <v>1660</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1">
@@ -5766,10 +5770,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>11</v>
@@ -5778,13 +5782,13 @@
         <v>12</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="H54" s="8">
-        <v>1661</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1">
@@ -5792,10 +5796,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>11</v>
@@ -5804,13 +5808,13 @@
         <v>12</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="H55" s="8">
-        <v>1662</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1">
@@ -5818,10 +5822,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>11</v>
@@ -5830,13 +5834,13 @@
         <v>12</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="H56" s="8">
-        <v>1663</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1">
@@ -5844,10 +5848,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>11</v>
@@ -5856,13 +5860,13 @@
         <v>12</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H57" s="8">
-        <v>1664</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1">
@@ -5870,10 +5874,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>11</v>
@@ -5882,13 +5886,13 @@
         <v>12</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H58" s="8">
-        <v>1665</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1">
@@ -5896,10 +5900,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>11</v>
@@ -5908,13 +5912,13 @@
         <v>12</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H59" s="8">
-        <v>1666</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1">
@@ -5922,10 +5926,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>11</v>
@@ -5934,11 +5938,13 @@
         <v>12</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G60" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="H60" s="8">
-        <v>1694</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
@@ -5946,10 +5952,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>11</v>
@@ -5958,11 +5964,13 @@
         <v>12</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="H61" s="8">
-        <v>1695</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1">
@@ -5970,10 +5978,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>11</v>
@@ -5982,11 +5990,13 @@
         <v>12</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="H62" s="8">
-        <v>1696</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1">
@@ -5994,10 +6004,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>11</v>
@@ -6006,13 +6016,13 @@
         <v>12</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G63" s="17">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H63" s="8">
-        <v>999</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1">
@@ -6020,10 +6030,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>11</v>
@@ -6032,13 +6042,13 @@
         <v>12</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G64" s="17">
-        <v>2</v>
+        <v>91</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="H64" s="8">
-        <v>1003</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1">
@@ -6046,10 +6056,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>11</v>
@@ -6058,13 +6068,13 @@
         <v>12</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="H65" s="8">
-        <v>966</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1">
@@ -6072,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>11</v>
@@ -6084,13 +6094,13 @@
         <v>12</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="H66" s="8">
-        <v>1145</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1">
@@ -6098,10 +6108,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>11</v>
@@ -6110,13 +6120,13 @@
         <v>12</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="H67" s="8">
-        <v>1147</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1">
@@ -6124,10 +6134,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>11</v>
@@ -6136,13 +6146,11 @@
         <v>12</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>198</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G68" s="17"/>
       <c r="H68" s="8">
-        <v>1149</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1">
@@ -6150,10 +6158,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>11</v>
@@ -6162,13 +6170,11 @@
         <v>12</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="G69" s="17">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G69" s="17"/>
       <c r="H69" s="8">
-        <v>1650</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1">
@@ -6176,10 +6182,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>11</v>
@@ -6188,13 +6194,11 @@
         <v>12</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="G70" s="17">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G70" s="17"/>
       <c r="H70" s="8">
-        <v>1652</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1">
@@ -6202,10 +6206,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>11</v>
@@ -6214,11 +6218,13 @@
         <v>12</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G71" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="G71" s="17">
+        <v>1</v>
+      </c>
       <c r="H71" s="8">
-        <v>1654</v>
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1">
@@ -6226,10 +6232,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>11</v>
@@ -6238,11 +6244,13 @@
         <v>12</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="G72" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="G72" s="17">
+        <v>2</v>
+      </c>
       <c r="H72" s="8">
-        <v>1655</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1">
@@ -6250,10 +6258,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>11</v>
@@ -6262,11 +6270,13 @@
         <v>12</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="G73" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="H73" s="8">
-        <v>1656</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1">
@@ -6274,10 +6284,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>11</v>
@@ -6286,13 +6296,13 @@
         <v>12</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G74" s="17">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="H74" s="8">
-        <v>1699</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1">
@@ -6300,10 +6310,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>11</v>
@@ -6315,10 +6325,10 @@
         <v>13</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H75" s="8">
-        <v>1458</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1">
@@ -6326,10 +6336,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>11</v>
@@ -6341,10 +6351,10 @@
         <v>13</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="H76" s="8">
-        <v>1459</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1">
@@ -6352,10 +6362,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>11</v>
@@ -6364,13 +6374,13 @@
         <v>12</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>225</v>
+        <v>197</v>
+      </c>
+      <c r="G77" s="17">
+        <v>1</v>
       </c>
       <c r="H77" s="8">
-        <v>1460</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1">
@@ -6378,10 +6388,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
@@ -6390,13 +6400,13 @@
         <v>12</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>228</v>
+        <v>200</v>
+      </c>
+      <c r="G78" s="17">
+        <v>1</v>
       </c>
       <c r="H78" s="8">
-        <v>1461</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
@@ -6404,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>11</v>
@@ -6416,13 +6426,11 @@
         <v>12</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>231</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G79" s="17"/>
       <c r="H79" s="8">
-        <v>1462</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
@@ -6430,10 +6438,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>11</v>
@@ -6442,13 +6450,11 @@
         <v>12</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>234</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G80" s="17"/>
       <c r="H80" s="8">
-        <v>1463</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1">
@@ -6456,10 +6462,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>11</v>
@@ -6468,13 +6474,11 @@
         <v>12</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>231</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G81" s="17"/>
       <c r="H81" s="8">
-        <v>1464</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1">
@@ -6482,10 +6486,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>11</v>
@@ -6494,13 +6498,13 @@
         <v>12</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>234</v>
+        <v>212</v>
+      </c>
+      <c r="G82" s="17">
+        <v>1</v>
       </c>
       <c r="H82" s="8">
-        <v>1465</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1">
@@ -6508,10 +6512,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>11</v>
@@ -6523,10 +6527,10 @@
         <v>13</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="H83" s="8">
-        <v>1467</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1">
@@ -6534,10 +6538,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
@@ -6549,10 +6553,10 @@
         <v>13</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="H84" s="8">
-        <v>1468</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1">
@@ -6560,10 +6564,10 @@
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>11</v>
@@ -6575,10 +6579,10 @@
         <v>13</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="H85" s="8">
-        <v>1469</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1">
@@ -6586,10 +6590,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
@@ -6601,10 +6605,10 @@
         <v>13</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="H86" s="8">
-        <v>1470</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1">
@@ -6612,10 +6616,10 @@
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
@@ -6627,10 +6631,10 @@
         <v>13</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="H87" s="8">
-        <v>1471</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1">
@@ -6638,10 +6642,10 @@
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>11</v>
@@ -6653,10 +6657,10 @@
         <v>13</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="H88" s="8">
-        <v>1472</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1">
@@ -6664,10 +6668,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>11</v>
@@ -6679,10 +6683,10 @@
         <v>13</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="H89" s="8">
-        <v>1269</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1">
@@ -6690,10 +6694,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>11</v>
@@ -6702,13 +6706,13 @@
         <v>12</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="H90" s="8">
-        <v>1805</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1">
@@ -6716,10 +6720,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>11</v>
@@ -6728,13 +6732,13 @@
         <v>12</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="H91" s="8">
-        <v>1818</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1">
@@ -6742,10 +6746,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>11</v>
@@ -6754,13 +6758,13 @@
         <v>12</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="H92" s="8">
-        <v>1819</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1">
@@ -6768,10 +6772,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>11</v>
@@ -6780,13 +6784,13 @@
         <v>12</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="H93" s="8">
-        <v>1802</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1">
@@ -6794,10 +6798,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>11</v>
@@ -6806,13 +6810,13 @@
         <v>12</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="H94" s="8">
-        <v>1803</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1">
@@ -6820,10 +6824,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>11</v>
@@ -6832,13 +6836,13 @@
         <v>12</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>258</v>
+        <v>13</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="H95" s="8">
-        <v>1803</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1">
@@ -6846,10 +6850,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>11</v>
@@ -6858,11 +6862,13 @@
         <v>12</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="G96" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="H96" s="8">
-        <v>1817</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1">
@@ -6870,10 +6876,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>11</v>
@@ -6882,13 +6888,13 @@
         <v>12</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G97" s="17">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="H97" s="8">
-        <v>1681</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1">
@@ -6896,10 +6902,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>11</v>
@@ -6908,13 +6914,13 @@
         <v>12</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="G98" s="17">
-        <v>1</v>
+        <v>254</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="H98" s="8">
-        <v>1682</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1">
@@ -6922,10 +6928,10 @@
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>11</v>
@@ -6934,13 +6940,13 @@
         <v>12</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="G99" s="17">
-        <v>1</v>
+        <v>254</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="H99" s="8">
-        <v>1199</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1">
@@ -6948,10 +6954,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>11</v>
@@ -6960,13 +6966,13 @@
         <v>12</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="H100" s="8">
-        <v>1616</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1">
@@ -6974,10 +6980,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>11</v>
@@ -6986,13 +6992,13 @@
         <v>12</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="H101" s="8">
-        <v>1591</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1">
@@ -7000,10 +7006,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>11</v>
@@ -7012,13 +7018,13 @@
         <v>12</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="H102" s="8">
-        <v>1528</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1">
@@ -7026,10 +7032,10 @@
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>11</v>
@@ -7038,13 +7044,13 @@
         <v>12</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="H103" s="8">
-        <v>1533</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1">
@@ -7052,10 +7058,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>11</v>
@@ -7064,13 +7070,11 @@
         <v>12</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>189</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G104" s="17"/>
       <c r="H104" s="8">
-        <v>1523</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15" thickBot="1">
@@ -7078,25 +7082,25 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>461</v>
+        <v>271</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" t="s">
-        <v>16</v>
+        <v>272</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G105" s="17">
         <v>1</v>
       </c>
       <c r="H105" s="8">
-        <v>1523</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1">
@@ -7104,10 +7108,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>461</v>
+        <v>274</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>462</v>
+        <v>275</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>11</v>
@@ -7115,14 +7119,14 @@
       <c r="E106" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="H106" s="22">
-        <v>828</v>
+      <c r="F106" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="G106" s="17">
+        <v>1</v>
+      </c>
+      <c r="H106" s="8">
+        <v>1682</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1">
@@ -7130,10 +7134,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>464</v>
+        <v>277</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>465</v>
+        <v>278</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>11</v>
@@ -7141,14 +7145,14 @@
       <c r="E107" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H107" s="22">
-        <v>1157</v>
+      <c r="F107" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G107" s="17">
+        <v>1</v>
+      </c>
+      <c r="H107" s="8">
+        <v>1199</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1">
@@ -7156,10 +7160,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>466</v>
+        <v>280</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>467</v>
+        <v>281</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>11</v>
@@ -7167,11 +7171,14 @@
       <c r="E108" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="G108" s="32">
-        <v>1</v>
+      <c r="F108" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H108" s="8">
+        <v>1616</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1">
@@ -7179,10 +7186,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>469</v>
+        <v>283</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>470</v>
+        <v>284</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>11</v>
@@ -7190,14 +7197,14 @@
       <c r="E109" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="G109" s="32">
-        <v>1</v>
-      </c>
-      <c r="H109" s="22">
-        <v>1236</v>
+      <c r="F109" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H109" s="8">
+        <v>1591</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15" thickBot="1">
@@ -7205,10 +7212,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>471</v>
+        <v>285</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>472</v>
+        <v>286</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>11</v>
@@ -7216,12 +7223,14 @@
       <c r="E110" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="G110" s="32"/>
-      <c r="H110" s="22">
-        <v>1151</v>
+      <c r="F110" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H110" s="8">
+        <v>1528</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1">
@@ -7229,10 +7238,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>474</v>
+        <v>287</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>475</v>
+        <v>288</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -7240,12 +7249,14 @@
       <c r="E111" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="G111" s="32"/>
-      <c r="H111" s="22">
-        <v>1230</v>
+      <c r="F111" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H111" s="8">
+        <v>1533</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1">
@@ -7253,10 +7264,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>477</v>
+        <v>289</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>478</v>
+        <v>290</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>11</v>
@@ -7264,12 +7275,14 @@
       <c r="E112" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="G112" s="32"/>
-      <c r="H112" s="22">
-        <v>1231</v>
+      <c r="F112" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="8">
+        <v>1523</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1">
@@ -7277,25 +7290,25 @@
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>11</v>
+        <v>290</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G113" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H113" s="22">
-        <v>1232</v>
+      <c r="F113" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G113" s="17">
+        <v>1</v>
+      </c>
+      <c r="H113" s="8">
+        <v>1523</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1">
@@ -7303,10 +7316,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>11</v>
@@ -7315,13 +7328,13 @@
         <v>12</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G114" s="32" t="s">
-        <v>83</v>
+        <v>459</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="H114" s="22">
-        <v>1233</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1">
@@ -7329,10 +7342,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>11</v>
@@ -7341,13 +7354,13 @@
         <v>12</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G115" s="32" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="H115" s="22">
-        <v>1234</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1">
@@ -7355,10 +7368,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>11</v>
@@ -7367,13 +7380,10 @@
         <v>12</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H116" s="22">
-        <v>1235</v>
+        <v>464</v>
+      </c>
+      <c r="G116" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1">
@@ -7381,10 +7391,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>11</v>
@@ -7393,13 +7403,13 @@
         <v>12</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>80</v>
+        <v>279</v>
+      </c>
+      <c r="G117" s="32">
+        <v>1</v>
       </c>
       <c r="H117" s="22">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1">
@@ -7407,10 +7417,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>11</v>
@@ -7419,13 +7429,11 @@
         <v>12</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>83</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="G118" s="32"/>
       <c r="H118" s="22">
-        <v>1242</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1">
@@ -7433,10 +7441,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -7445,13 +7453,11 @@
         <v>12</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>86</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="G119" s="32"/>
       <c r="H119" s="22">
-        <v>1243</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1">
@@ -7459,10 +7465,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>11</v>
@@ -7471,11 +7477,11 @@
         <v>12</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G120" s="22"/>
+        <v>472</v>
+      </c>
+      <c r="G120" s="32"/>
       <c r="H120" s="22">
-        <v>1217</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1">
@@ -7483,10 +7489,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>11</v>
@@ -7495,11 +7501,13 @@
         <v>12</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G121" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="H121" s="22">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1">
@@ -7507,10 +7515,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>11</v>
@@ -7519,11 +7527,13 @@
         <v>12</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G122" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>79</v>
+      </c>
       <c r="H122" s="22">
-        <v>1223</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1">
@@ -7531,10 +7541,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>11</v>
@@ -7543,11 +7553,13 @@
         <v>12</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G123" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="G123" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="H123" s="22">
-        <v>1584</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1">
@@ -7555,10 +7567,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>11</v>
@@ -7567,11 +7579,13 @@
         <v>12</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G124" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="H124" s="22">
-        <v>1224</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1">
@@ -7579,10 +7593,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>11</v>
@@ -7591,11 +7605,13 @@
         <v>12</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G125" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="H125" s="22">
-        <v>1225</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1">
@@ -7603,10 +7619,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>11</v>
@@ -7615,11 +7631,13 @@
         <v>12</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G126" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="H126" s="22">
-        <v>1226</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1">
@@ -7627,10 +7645,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>11</v>
@@ -7639,11 +7657,13 @@
         <v>12</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="G127" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="H127" s="22">
-        <v>1227</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1">
@@ -7651,10 +7671,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>11</v>
@@ -7663,11 +7683,11 @@
         <v>12</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="G128" s="22"/>
       <c r="H128" s="22">
-        <v>1531</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1">
@@ -7675,10 +7695,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>11</v>
@@ -7687,11 +7707,11 @@
         <v>12</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>295</v>
+        <v>477</v>
       </c>
       <c r="G129" s="22"/>
       <c r="H129" s="22">
-        <v>1360</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1">
@@ -7699,10 +7719,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>11</v>
@@ -7711,13 +7731,11 @@
         <v>12</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="G130" s="22">
-        <v>1</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G130" s="22"/>
       <c r="H130" s="22">
-        <v>1648</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1">
@@ -7725,10 +7743,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
@@ -7737,13 +7755,11 @@
         <v>12</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="G131" s="22">
-        <v>2</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G131" s="22"/>
       <c r="H131" s="22">
-        <v>832</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1">
@@ -7751,25 +7767,23 @@
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>522</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G132" s="22"/>
       <c r="H132" s="22">
-        <v>832</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1">
@@ -7777,10 +7791,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>11</v>
@@ -7789,24 +7803,22 @@
         <v>12</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="G133" s="22">
-        <v>1</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G133" s="22"/>
       <c r="H133" s="22">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="29.5" thickBot="1">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" thickBot="1">
       <c r="A134" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>11</v>
@@ -7815,13 +7827,11 @@
         <v>12</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="G134" s="22">
-        <v>3</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G134" s="22"/>
       <c r="H134" s="22">
-        <v>1800</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1">
@@ -7829,25 +7839,23 @@
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>530</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="G135" s="22"/>
       <c r="H135" s="22">
-        <v>1800</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1">
@@ -7855,10 +7863,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>11</v>
@@ -7867,11 +7875,11 @@
         <v>12</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="G136" s="22"/>
       <c r="H136" s="22">
-        <v>1817</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1">
@@ -7879,10 +7887,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>11</v>
@@ -7891,13 +7899,11 @@
         <v>12</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>536</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G137" s="22"/>
       <c r="H137" s="22">
-        <v>1146</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1">
@@ -7905,10 +7911,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>11</v>
@@ -7917,13 +7923,13 @@
         <v>12</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>539</v>
+        <v>514</v>
+      </c>
+      <c r="G138" s="22">
+        <v>1</v>
       </c>
       <c r="H138" s="22">
-        <v>1148</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1">
@@ -7931,10 +7937,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>11</v>
@@ -7943,13 +7949,13 @@
         <v>12</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="G139" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" s="22">
-        <v>1519</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1">
@@ -7957,25 +7963,25 @@
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>481</v>
+        <v>13</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="H140" s="22">
-        <v>1940</v>
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" thickBot="1">
@@ -7983,10 +7989,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>11</v>
@@ -7995,24 +8001,24 @@
         <v>12</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>270</v>
+        <v>521</v>
+      </c>
+      <c r="G141" s="22">
+        <v>1</v>
       </c>
       <c r="H141" s="22">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15" thickBot="1">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="29.5" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>11</v>
@@ -8021,13 +8027,13 @@
         <v>12</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>99</v>
+        <v>524</v>
+      </c>
+      <c r="G142" s="22">
+        <v>3</v>
       </c>
       <c r="H142" s="22">
-        <v>957</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1">
@@ -8035,10 +8041,10 @@
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>11</v>
@@ -8050,47 +8056,45 @@
         <v>13</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H143" s="22">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="47" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" thickBot="1">
+      <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B144" s="48" t="s">
-        <v>551</v>
-      </c>
-      <c r="C144" s="49" t="s">
-        <v>552</v>
-      </c>
-      <c r="D144" s="50" t="s">
+      <c r="B144" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E144" s="51" t="s">
+      <c r="E144" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F144" s="52" t="s">
-        <v>547</v>
-      </c>
-      <c r="G144" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="H144" s="49">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="F144" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" thickBot="1">
       <c r="A145" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>774</v>
+      <c r="B145" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>530</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>11</v>
@@ -8098,51 +8102,51 @@
       <c r="E145" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="G145" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="H145" s="5">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="F145" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="H145" s="22">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" thickBot="1">
       <c r="A146" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>16</v>
+      <c r="B146" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="G146" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="H146" s="5">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="F146" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H146" s="22">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" thickBot="1">
       <c r="A147" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>778</v>
+      <c r="B147" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>537</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>11</v>
@@ -8150,51 +8154,51 @@
       <c r="E147" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="G147" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="H147" s="5">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="F147" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="G147" s="22">
+        <v>1</v>
+      </c>
+      <c r="H147" s="22">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" thickBot="1">
       <c r="A148" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>16</v>
+      <c r="B148" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="G148" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="H148" s="5">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="F148" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H148" s="22">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" thickBot="1">
       <c r="A149" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>785</v>
+      <c r="B149" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>542</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>11</v>
@@ -8202,92 +8206,92 @@
       <c r="E149" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G149" s="54" t="s">
-        <v>788</v>
-      </c>
-      <c r="H149" s="5">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="F149" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="H149" s="22">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" thickBot="1">
       <c r="A150" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>16</v>
+      <c r="B150" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G150" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="H150" s="5">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="F150" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="G150" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H150" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" thickBot="1">
       <c r="A151" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>789</v>
+      <c r="B151" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>545</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="H151" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="C152" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="D152" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G151" s="54" t="s">
-        <v>791</v>
-      </c>
-      <c r="H151" s="5">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G152" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H152" s="5">
-        <v>1591</v>
+      <c r="F152" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="G152" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="H152" s="49">
+        <v>944</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8295,10 +8299,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>11</v>
@@ -8307,13 +8311,13 @@
         <v>12</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G153" s="54" t="s">
-        <v>96</v>
+        <v>771</v>
+      </c>
+      <c r="G153" s="53" t="s">
+        <v>266</v>
       </c>
       <c r="H153" s="5">
-        <v>1528</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8321,10 +8325,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>16</v>
@@ -8333,13 +8337,13 @@
         <v>12</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>286</v>
+        <v>771</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="H154" s="5">
-        <v>1528</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8347,10 +8351,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>11</v>
@@ -8359,13 +8363,13 @@
         <v>12</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G155" s="54" t="s">
-        <v>122</v>
+        <v>771</v>
+      </c>
+      <c r="G155" s="53" t="s">
+        <v>185</v>
       </c>
       <c r="H155" s="5">
-        <v>1533</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8373,10 +8377,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>16</v>
@@ -8385,13 +8389,13 @@
         <v>12</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G156" s="54" t="s">
-        <v>125</v>
+        <v>771</v>
+      </c>
+      <c r="G156" s="55" t="s">
+        <v>185</v>
       </c>
       <c r="H156" s="5">
-        <v>1533</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8399,10 +8403,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>11</v>
@@ -8411,11 +8415,13 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="G157" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="G157" s="53" t="s">
+        <v>784</v>
+      </c>
       <c r="H157" s="5">
-        <v>996</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8423,25 +8429,25 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>11</v>
+        <v>781</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="54" t="s">
-        <v>803</v>
+        <v>282</v>
+      </c>
+      <c r="G158" s="53" t="s">
+        <v>95</v>
       </c>
       <c r="H158" s="5">
-        <v>996</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8449,25 +8455,25 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>16</v>
+        <v>786</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F159" s="25" t="s">
-        <v>806</v>
-      </c>
-      <c r="G159" s="5">
-        <v>3</v>
+      <c r="F159" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G159" s="53" t="s">
+        <v>787</v>
       </c>
       <c r="H159" s="5">
-        <v>1269</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8475,25 +8481,25 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>11</v>
+        <v>785</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F160" s="25" t="s">
-        <v>807</v>
-      </c>
-      <c r="G160" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="H160" s="57">
-        <v>1146</v>
+      <c r="F160" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G160" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H160" s="5">
+        <v>1591</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8501,30 +8507,258 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>16</v>
+        <v>788</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="25" t="s">
-        <v>807</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H161" s="57">
+      <c r="F161" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G161" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H161" s="5">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G162" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H162" s="5">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G163" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H163" s="5">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G164" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H164" s="5">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="53" t="s">
+        <v>799</v>
+      </c>
+      <c r="H166" s="5">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="G167" s="5">
+        <v>3</v>
+      </c>
+      <c r="H167" s="5">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="G168" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="H168" s="53">
         <v>1146</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="53"/>
-      <c r="H162" s="53"/>
+    <row r="169" spans="1:8">
+      <c r="A169" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H169" s="53">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G170" s="53">
+        <v>1</v>
+      </c>
+      <c r="H170" s="53">
+        <v>2001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8535,8 +8769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO957"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -8787,751 +9021,751 @@
   <sheetData>
     <row r="1" spans="1:249" s="33" customFormat="1">
       <c r="A1" s="33" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>761</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>765</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="K1" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="M1" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="O1" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="P1" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AS1" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AT1" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AU1" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AV1" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AW1" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AX1" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AY1" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AZ1" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="AS1" s="33" t="s">
+      <c r="BA1" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="BB1" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="AU1" s="33" t="s">
+      <c r="BC1" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="AV1" s="33" t="s">
+      <c r="BD1" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="AW1" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="AX1" s="33" t="s">
+      <c r="BE1" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AY1" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="AZ1" s="33" t="s">
+      <c r="BF1" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="BG1" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="BA1" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BH1" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="BI1" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="BC1" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BJ1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="BK1" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BL1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="BM1" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="BF1" s="33" t="s">
+      <c r="BN1" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BO1" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="BH1" s="33" t="s">
+      <c r="BP1" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="BI1" s="33" t="s">
+      <c r="BQ1" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="BJ1" s="33" t="s">
+      <c r="BR1" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BS1" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="BL1" s="33" t="s">
+      <c r="BT1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="BM1" s="33" t="s">
+      <c r="BU1" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="BN1" s="33" t="s">
+      <c r="BV1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="BO1" s="33" t="s">
+      <c r="BW1" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="BP1" s="33" t="s">
+      <c r="BX1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="BQ1" s="33" t="s">
+      <c r="BY1" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="BR1" s="33" t="s">
+      <c r="BZ1" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="BS1" s="33" t="s">
+      <c r="CA1" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="BT1" s="33" t="s">
+      <c r="CB1" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="BU1" s="33" t="s">
+      <c r="CC1" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="BV1" s="33" t="s">
+      <c r="CD1" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="BW1" s="33" t="s">
+      <c r="CE1" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="BX1" s="33" t="s">
+      <c r="CF1" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="BY1" s="33" t="s">
+      <c r="CG1" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="BZ1" s="33" t="s">
+      <c r="CH1" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="CA1" s="33" t="s">
+      <c r="CI1" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="CB1" s="33" t="s">
+      <c r="CJ1" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="CC1" s="33" t="s">
+      <c r="CK1" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="CD1" s="33" t="s">
+      <c r="CL1" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="CE1" s="33" t="s">
+      <c r="CM1" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="CF1" s="33" t="s">
+      <c r="CN1" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="CG1" s="33" t="s">
+      <c r="CO1" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="CH1" s="33" t="s">
+      <c r="CP1" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="CI1" s="33" t="s">
+      <c r="CQ1" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="CJ1" s="33" t="s">
+      <c r="CR1" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="CK1" s="33" t="s">
+      <c r="CS1" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="CL1" s="33" t="s">
+      <c r="CT1" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="CM1" s="33" t="s">
+      <c r="CU1" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="CN1" s="33" t="s">
+      <c r="CV1" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="CO1" s="33" t="s">
+      <c r="CW1" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="CP1" s="33" t="s">
+      <c r="CX1" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="CQ1" s="33" t="s">
+      <c r="CY1" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="CR1" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="CS1" s="33" t="s">
+      <c r="CZ1" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="CT1" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="CU1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="CV1" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="CW1" s="33" t="s">
+      <c r="DB1" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="CX1" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="CY1" s="33" t="s">
+      <c r="DC1" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="CZ1" s="33" t="s">
+      <c r="DD1" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="DA1" s="33" t="s">
+      <c r="DE1" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DF1" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="DC1" s="33" t="s">
+      <c r="DG1" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="DD1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="DE1" s="33" t="s">
+      <c r="DI1" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="DF1" s="33" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="DG1" s="33" t="s">
+      <c r="DK1" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="DH1" s="33" t="s">
+      <c r="DL1" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DM1" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="DJ1" s="33" t="s">
+      <c r="DN1" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="DK1" s="33" t="s">
+      <c r="DO1" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="DL1" s="33" t="s">
+      <c r="DP1" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="DM1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="DN1" s="33" t="s">
+      <c r="DR1" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="DO1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DV1" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DW1" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="DT1" s="33" t="s">
+      <c r="DX1" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="DU1" s="33" t="s">
+      <c r="DY1" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="EA1" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="EB1" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="DY1" s="33" t="s">
+      <c r="EC1" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="DZ1" s="33" t="s">
+      <c r="ED1" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="EA1" s="33" t="s">
+      <c r="EE1" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="EB1" s="33" t="s">
+      <c r="EF1" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="EC1" s="33" t="s">
+      <c r="EG1" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="ED1" s="33" t="s">
+      <c r="EH1" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="EE1" s="33" t="s">
+      <c r="EI1" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="EF1" s="33" t="s">
+      <c r="EJ1" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="EG1" s="33" t="s">
+      <c r="EK1" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="EH1" s="33" t="s">
+      <c r="EL1" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="EI1" s="33" t="s">
+      <c r="EM1" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="EJ1" s="33" t="s">
+      <c r="EN1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="EK1" s="33" t="s">
+      <c r="EO1" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="EL1" s="33" t="s">
+      <c r="EP1" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="EM1" s="33" t="s">
+      <c r="EQ1" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="EN1" s="33" t="s">
+      <c r="ER1" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="EO1" s="33" t="s">
+      <c r="ES1" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="EP1" s="33" t="s">
+      <c r="ET1" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="EQ1" s="33" t="s">
+      <c r="EU1" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="ER1" s="33" t="s">
+      <c r="EV1" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="ES1" s="33" t="s">
+      <c r="EW1" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="ET1" s="33" t="s">
+      <c r="EX1" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="EU1" s="33" t="s">
+      <c r="EY1" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="EV1" s="33" t="s">
+      <c r="EZ1" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="EW1" s="33" t="s">
+      <c r="FA1" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="EX1" s="33" t="s">
+      <c r="FB1" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="EY1" s="33" t="s">
+      <c r="FC1" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="EZ1" s="33" t="s">
+      <c r="FD1" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="FA1" s="33" t="s">
+      <c r="FE1" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="FB1" s="33" t="s">
+      <c r="FF1" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="FC1" s="33" t="s">
+      <c r="FG1" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="FD1" s="33" t="s">
+      <c r="FH1" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="FE1" s="33" t="s">
+      <c r="FI1" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="FF1" s="33" t="s">
+      <c r="FJ1" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="FG1" s="33" t="s">
+      <c r="FK1" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="FH1" s="33" t="s">
+      <c r="FL1" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="FI1" s="33" t="s">
+      <c r="FM1" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="FJ1" s="33" t="s">
+      <c r="FN1" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="FK1" s="33" t="s">
+      <c r="FO1" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="FL1" s="33" t="s">
+      <c r="FP1" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="FM1" s="33" t="s">
+      <c r="FQ1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="FN1" s="33" t="s">
+      <c r="FR1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="FO1" s="33" t="s">
+      <c r="FS1" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="FP1" s="33" t="s">
+      <c r="FT1" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="FQ1" s="33" t="s">
+      <c r="FU1" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="FR1" s="33" t="s">
+      <c r="FV1" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="FS1" s="33" t="s">
+      <c r="FW1" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="FT1" s="33" t="s">
+      <c r="FX1" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="FU1" s="33" t="s">
+      <c r="FY1" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="FV1" s="33" t="s">
+      <c r="FZ1" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="FW1" s="33" t="s">
+      <c r="GA1" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="FX1" s="33" t="s">
+      <c r="GB1" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="FY1" s="33" t="s">
+      <c r="GC1" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="FZ1" s="33" t="s">
+      <c r="GD1" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="GA1" s="33" t="s">
+      <c r="GE1" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="GB1" s="33" t="s">
+      <c r="GF1" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="GC1" s="33" t="s">
+      <c r="GG1" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="GD1" s="33" t="s">
+      <c r="GH1" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="GE1" s="33" t="s">
+      <c r="GI1" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="GF1" s="33" t="s">
+      <c r="GJ1" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="GG1" s="33" t="s">
+      <c r="GK1" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="GH1" s="33" t="s">
+      <c r="GL1" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="GI1" s="33" t="s">
+      <c r="GM1" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="GJ1" s="33" t="s">
+      <c r="GN1" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="GK1" s="33" t="s">
+      <c r="GO1" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="GL1" s="33" t="s">
+      <c r="GP1" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="GM1" s="33" t="s">
+      <c r="GQ1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="GN1" s="33" t="s">
+      <c r="GR1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="GO1" s="33" t="s">
+      <c r="GS1" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="GP1" s="33" t="s">
+      <c r="GT1" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="GQ1" s="33" t="s">
+      <c r="GU1" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="GR1" s="33" t="s">
+      <c r="GV1" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="GS1" s="33" t="s">
+      <c r="GW1" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="GT1" s="33" t="s">
+      <c r="GX1" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="GU1" s="33" t="s">
+      <c r="GY1" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="GV1" s="33" t="s">
+      <c r="GZ1" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="GW1" s="33" t="s">
+      <c r="HA1" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="GX1" s="33" t="s">
+      <c r="HB1" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="GY1" s="33" t="s">
+      <c r="HC1" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="GZ1" s="33" t="s">
+      <c r="HD1" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="HA1" s="33" t="s">
+      <c r="HE1" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="HB1" s="33" t="s">
+      <c r="HF1" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="HC1" s="33" t="s">
+      <c r="HG1" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="HD1" s="33" t="s">
+      <c r="HH1" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="HE1" s="33" t="s">
+      <c r="HI1" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="HF1" s="33" t="s">
+      <c r="HJ1" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="HG1" s="33" t="s">
+      <c r="HK1" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="HH1" s="33" t="s">
+      <c r="HL1" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="HI1" s="33" t="s">
+      <c r="HM1" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="HJ1" s="33" t="s">
+      <c r="HN1" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="HK1" s="33" t="s">
+      <c r="HO1" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="HL1" s="33" t="s">
+      <c r="HP1" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="HM1" s="33" t="s">
+      <c r="HQ1" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="HN1" s="33" t="s">
+      <c r="HR1" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="HO1" s="33" t="s">
+      <c r="HS1" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="HP1" s="33" t="s">
+      <c r="HT1" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="HQ1" s="33" t="s">
+      <c r="HU1" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="HR1" s="33" t="s">
+      <c r="HV1" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="HS1" s="33" t="s">
+      <c r="HW1" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="HT1" s="33" t="s">
+      <c r="HX1" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="HU1" s="33" t="s">
+      <c r="HY1" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="HV1" s="33" t="s">
+      <c r="HZ1" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="HW1" s="33" t="s">
+      <c r="IA1" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="HX1" s="33" t="s">
+      <c r="IB1" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="HY1" s="33" t="s">
+      <c r="IC1" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="HZ1" s="33" t="s">
+      <c r="ID1" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="IA1" s="33" t="s">
+      <c r="IE1" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="IB1" s="33" t="s">
+      <c r="IF1" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="IC1" s="33" t="s">
+      <c r="IG1" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="ID1" s="33" t="s">
+      <c r="IH1" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="IE1" s="33" t="s">
+      <c r="II1" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="IF1" s="33" t="s">
+      <c r="IJ1" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="IG1" s="33" t="s">
+      <c r="IK1" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="IH1" s="33" t="s">
+      <c r="IL1" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="II1" s="33" t="s">
+      <c r="IM1" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="IJ1" s="33" t="s">
+      <c r="IN1" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="IK1" s="33" t="s">
+      <c r="IO1" s="33" t="s">
         <v>749</v>
-      </c>
-      <c r="IL1" s="33" t="s">
-        <v>750</v>
-      </c>
-      <c r="IM1" s="33" t="s">
-        <v>751</v>
-      </c>
-      <c r="IN1" s="33" t="s">
-        <v>752</v>
-      </c>
-      <c r="IO1" s="33" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:249" ht="15" thickBot="1">
@@ -9542,43 +9776,43 @@
         <v>9</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D2" s="42">
         <v>200</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>757</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="P2" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q2" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="R2" s="34">
         <v>268763332</v>
@@ -9590,52 +9824,52 @@
     </row>
     <row r="3" spans="1:249" ht="15" thickBot="1">
       <c r="A3" s="43" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D3" s="42">
         <v>200</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>770</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="M3" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="N3" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="O3" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="N3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="O3" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>766</v>
-      </c>
       <c r="Q3" s="34" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AB3" s="37"/>
       <c r="AD3" s="38"/>
@@ -9644,85 +9878,201 @@
     </row>
     <row r="4" spans="1:249" ht="15" thickBot="1">
       <c r="A4" s="43" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D4" s="42">
         <v>200</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="AB4" s="37"/>
       <c r="AD4" s="38"/>
       <c r="AF4" s="28"/>
       <c r="AH4" s="28"/>
     </row>
-    <row r="5" spans="1:249">
-      <c r="B5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="F5" s="35"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="44"/>
-      <c r="V5" s="36"/>
-      <c r="X5" s="40"/>
-      <c r="Z5" s="36"/>
+    <row r="5" spans="1:249" ht="15" thickBot="1">
+      <c r="A5" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="D5" s="42">
+        <v>200</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="R5" s="34">
+        <v>268763332</v>
+      </c>
       <c r="AB5" s="37"/>
-      <c r="AD5" s="39"/>
-      <c r="AF5" s="36"/>
-      <c r="AH5" s="36"/>
-    </row>
-    <row r="6" spans="1:249">
-      <c r="B6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="F6" s="35"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="44"/>
+      <c r="AD5" s="38"/>
+      <c r="AF5" s="28"/>
+      <c r="AH5" s="28"/>
+    </row>
+    <row r="6" spans="1:249" ht="15" thickBot="1">
+      <c r="A6" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="D6" s="42">
+        <v>200</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="R6" s="34">
+        <v>268763332</v>
+      </c>
       <c r="AB6" s="37"/>
-      <c r="AD6" s="39"/>
-      <c r="AF6" s="36"/>
-      <c r="AH6" s="36"/>
-    </row>
-    <row r="7" spans="1:249">
-      <c r="B7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="F7" s="35"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="T7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="X7" s="40"/>
-      <c r="Z7" s="36"/>
+      <c r="AD6" s="38"/>
+      <c r="AF6" s="28"/>
+      <c r="AH6" s="28"/>
+    </row>
+    <row r="7" spans="1:249" ht="15" thickBot="1">
+      <c r="A7" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" s="42">
+        <v>200</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="R7" s="34">
+        <v>268763332</v>
+      </c>
       <c r="AB7" s="37"/>
-      <c r="AD7" s="39"/>
-      <c r="AF7" s="36"/>
-      <c r="AH7" s="36"/>
+      <c r="AD7" s="38"/>
+      <c r="AF7" s="28"/>
+      <c r="AH7" s="28"/>
     </row>
     <row r="8" spans="1:249">
       <c r="B8" s="43"/>
@@ -21130,9 +21480,12 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -21140,8 +21493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IF18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I18"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21165,750 +21518,750 @@
   <sheetData>
     <row r="1" spans="1:240">
       <c r="A1" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="F1" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AS1" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AT1" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AU1" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="AN1" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AV1" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AP1" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AW1" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AX1" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="AR1" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="AS1" s="33" t="s">
+      <c r="AY1" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="AT1" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="AU1" s="33" t="s">
+      <c r="BA1" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="BB1" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="AV1" s="33" t="s">
+      <c r="BC1" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD1" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AW1" s="33" t="s">
+      <c r="BE1" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="AX1" s="33" t="s">
+      <c r="BF1" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="AY1" s="33" t="s">
+      <c r="BG1" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="AZ1" s="33" t="s">
+      <c r="BH1" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="BA1" s="33" t="s">
+      <c r="BI1" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BJ1" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BK1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BL1" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BM1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="BF1" s="33" t="s">
+      <c r="BN1" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BO1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="BH1" s="33" t="s">
+      <c r="BP1" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="BI1" s="33" t="s">
+      <c r="BQ1" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="BJ1" s="33" t="s">
+      <c r="BR1" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BS1" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="BL1" s="33" t="s">
+      <c r="BT1" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="BM1" s="33" t="s">
+      <c r="BU1" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="BN1" s="33" t="s">
+      <c r="BV1" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="BO1" s="33" t="s">
+      <c r="BW1" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="BP1" s="33" t="s">
+      <c r="BX1" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="BQ1" s="33" t="s">
+      <c r="BY1" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="BR1" s="33" t="s">
+      <c r="BZ1" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="BS1" s="33" t="s">
+      <c r="CA1" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="BT1" s="33" t="s">
+      <c r="CB1" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="BU1" s="33" t="s">
+      <c r="CC1" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="BV1" s="33" t="s">
+      <c r="CD1" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="BW1" s="33" t="s">
+      <c r="CE1" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="BX1" s="33" t="s">
+      <c r="CF1" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="BY1" s="33" t="s">
+      <c r="CG1" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="BZ1" s="33" t="s">
+      <c r="CH1" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="CA1" s="33" t="s">
+      <c r="CI1" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="CB1" s="33" t="s">
+      <c r="CJ1" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="CC1" s="33" t="s">
+      <c r="CK1" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="CD1" s="33" t="s">
+      <c r="CL1" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="CE1" s="33" t="s">
+      <c r="CM1" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="CF1" s="33" t="s">
+      <c r="CN1" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="CG1" s="33" t="s">
+      <c r="CO1" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="CH1" s="33" t="s">
+      <c r="CP1" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="CI1" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="CJ1" s="33" t="s">
+      <c r="CQ1" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="CK1" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="CL1" s="33" t="s">
+      <c r="CR1" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="CM1" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="CN1" s="33" t="s">
+      <c r="CS1" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="CO1" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="CP1" s="33" t="s">
+      <c r="CT1" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="CQ1" s="33" t="s">
+      <c r="CU1" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="CR1" s="33" t="s">
+      <c r="CV1" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="CS1" s="33" t="s">
+      <c r="CW1" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="CT1" s="33" t="s">
+      <c r="CX1" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="CU1" s="33" t="s">
+      <c r="CY1" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="CV1" s="33" t="s">
+      <c r="CZ1" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="CW1" s="33" t="s">
+      <c r="DA1" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="CX1" s="33" t="s">
+      <c r="DB1" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="CY1" s="33" t="s">
+      <c r="DC1" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="CZ1" s="33" t="s">
+      <c r="DD1" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="DA1" s="33" t="s">
+      <c r="DE1" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="DB1" s="33" t="s">
+      <c r="DF1" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="DC1" s="33" t="s">
+      <c r="DG1" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="DD1" s="33" t="s">
+      <c r="DH1" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="DE1" s="33" t="s">
+      <c r="DI1" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="DF1" s="33" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="DG1" s="33" t="s">
+      <c r="DK1" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="DH1" s="33" t="s">
+      <c r="DL1" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="DI1" s="33" t="s">
+      <c r="DM1" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="DJ1" s="33" t="s">
+      <c r="DN1" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="DK1" s="33" t="s">
+      <c r="DO1" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="DL1" s="33" t="s">
+      <c r="DP1" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="DM1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="DN1" s="33" t="s">
+      <c r="DR1" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="DO1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DV1" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DW1" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="DT1" s="33" t="s">
+      <c r="DX1" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="DU1" s="33" t="s">
+      <c r="DY1" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="EA1" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="EB1" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="DY1" s="33" t="s">
+      <c r="EC1" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="DZ1" s="33" t="s">
+      <c r="ED1" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="EA1" s="33" t="s">
+      <c r="EE1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="EB1" s="33" t="s">
+      <c r="EF1" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="EC1" s="33" t="s">
+      <c r="EG1" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="ED1" s="33" t="s">
+      <c r="EH1" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="EE1" s="33" t="s">
+      <c r="EI1" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="EF1" s="33" t="s">
+      <c r="EJ1" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="EG1" s="33" t="s">
+      <c r="EK1" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="EH1" s="33" t="s">
+      <c r="EL1" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="EI1" s="33" t="s">
+      <c r="EM1" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="EJ1" s="33" t="s">
+      <c r="EN1" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="EK1" s="33" t="s">
+      <c r="EO1" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="EL1" s="33" t="s">
+      <c r="EP1" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="EM1" s="33" t="s">
+      <c r="EQ1" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="EN1" s="33" t="s">
+      <c r="ER1" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="EO1" s="33" t="s">
+      <c r="ES1" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="EP1" s="33" t="s">
+      <c r="ET1" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="EQ1" s="33" t="s">
+      <c r="EU1" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="ER1" s="33" t="s">
+      <c r="EV1" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="ES1" s="33" t="s">
+      <c r="EW1" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="ET1" s="33" t="s">
+      <c r="EX1" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="EU1" s="33" t="s">
+      <c r="EY1" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="EV1" s="33" t="s">
+      <c r="EZ1" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="EW1" s="33" t="s">
+      <c r="FA1" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="EX1" s="33" t="s">
+      <c r="FB1" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="EY1" s="33" t="s">
+      <c r="FC1" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="EZ1" s="33" t="s">
+      <c r="FD1" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="FA1" s="33" t="s">
+      <c r="FE1" s="33" t="s">
         <v>670</v>
       </c>
-      <c r="FB1" s="33" t="s">
+      <c r="FF1" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="FC1" s="33" t="s">
+      <c r="FG1" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="FD1" s="33" t="s">
+      <c r="FH1" s="33" t="s">
         <v>673</v>
       </c>
-      <c r="FE1" s="33" t="s">
+      <c r="FI1" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="FF1" s="33" t="s">
+      <c r="FJ1" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="FG1" s="33" t="s">
+      <c r="FK1" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="FH1" s="33" t="s">
+      <c r="FL1" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="FI1" s="33" t="s">
+      <c r="FM1" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="FJ1" s="33" t="s">
+      <c r="FN1" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="FK1" s="33" t="s">
+      <c r="FO1" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="FL1" s="33" t="s">
+      <c r="FP1" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="FM1" s="33" t="s">
+      <c r="FQ1" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="FN1" s="33" t="s">
+      <c r="FR1" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="FO1" s="33" t="s">
+      <c r="FS1" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="FP1" s="33" t="s">
+      <c r="FT1" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="FQ1" s="33" t="s">
+      <c r="FU1" s="33" t="s">
         <v>686</v>
       </c>
-      <c r="FR1" s="33" t="s">
+      <c r="FV1" s="33" t="s">
         <v>687</v>
       </c>
-      <c r="FS1" s="33" t="s">
+      <c r="FW1" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="FT1" s="33" t="s">
+      <c r="FX1" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="FU1" s="33" t="s">
+      <c r="FY1" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="FV1" s="33" t="s">
+      <c r="FZ1" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="FW1" s="33" t="s">
+      <c r="GA1" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="FX1" s="33" t="s">
+      <c r="GB1" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="FY1" s="33" t="s">
+      <c r="GC1" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="FZ1" s="33" t="s">
+      <c r="GD1" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="GA1" s="33" t="s">
+      <c r="GE1" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="GB1" s="33" t="s">
+      <c r="GF1" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="GC1" s="33" t="s">
+      <c r="GG1" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="GD1" s="33" t="s">
+      <c r="GH1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="GE1" s="33" t="s">
+      <c r="GI1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="GF1" s="33" t="s">
+      <c r="GJ1" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="GG1" s="33" t="s">
+      <c r="GK1" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="GH1" s="33" t="s">
+      <c r="GL1" s="33" t="s">
         <v>703</v>
       </c>
-      <c r="GI1" s="33" t="s">
+      <c r="GM1" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="GJ1" s="33" t="s">
+      <c r="GN1" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="GK1" s="33" t="s">
+      <c r="GO1" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="GL1" s="33" t="s">
+      <c r="GP1" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="GM1" s="33" t="s">
+      <c r="GQ1" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="GN1" s="33" t="s">
+      <c r="GR1" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="GO1" s="33" t="s">
+      <c r="GS1" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="GP1" s="33" t="s">
+      <c r="GT1" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="GQ1" s="33" t="s">
+      <c r="GU1" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="GR1" s="33" t="s">
+      <c r="GV1" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="GS1" s="33" t="s">
+      <c r="GW1" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="GT1" s="33" t="s">
+      <c r="GX1" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="GU1" s="33" t="s">
+      <c r="GY1" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="GV1" s="33" t="s">
+      <c r="GZ1" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="GW1" s="33" t="s">
+      <c r="HA1" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="GX1" s="33" t="s">
+      <c r="HB1" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="GY1" s="33" t="s">
+      <c r="HC1" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="GZ1" s="33" t="s">
+      <c r="HD1" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="HA1" s="33" t="s">
+      <c r="HE1" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="HB1" s="33" t="s">
+      <c r="HF1" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="HC1" s="33" t="s">
+      <c r="HG1" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="HD1" s="33" t="s">
+      <c r="HH1" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="HE1" s="33" t="s">
+      <c r="HI1" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="HF1" s="33" t="s">
+      <c r="HJ1" s="33" t="s">
         <v>727</v>
       </c>
-      <c r="HG1" s="33" t="s">
+      <c r="HK1" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="HH1" s="33" t="s">
+      <c r="HL1" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="HI1" s="33" t="s">
+      <c r="HM1" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="HJ1" s="33" t="s">
+      <c r="HN1" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="HK1" s="33" t="s">
+      <c r="HO1" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="HL1" s="33" t="s">
+      <c r="HP1" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="HM1" s="33" t="s">
+      <c r="HQ1" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="HN1" s="33" t="s">
+      <c r="HR1" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="HO1" s="33" t="s">
+      <c r="HS1" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="HP1" s="33" t="s">
+      <c r="HT1" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="HQ1" s="33" t="s">
+      <c r="HU1" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="HR1" s="33" t="s">
+      <c r="HV1" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="HS1" s="33" t="s">
+      <c r="HW1" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="HT1" s="33" t="s">
+      <c r="HX1" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="HU1" s="33" t="s">
+      <c r="HY1" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="HV1" s="33" t="s">
+      <c r="HZ1" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="HW1" s="33" t="s">
+      <c r="IA1" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="HX1" s="33" t="s">
+      <c r="IB1" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="HY1" s="33" t="s">
+      <c r="IC1" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="HZ1" s="33" t="s">
+      <c r="ID1" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="IA1" s="33" t="s">
+      <c r="IE1" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="IB1" s="33" t="s">
+      <c r="IF1" s="33" t="s">
         <v>749</v>
-      </c>
-      <c r="IC1" s="33" t="s">
-        <v>750</v>
-      </c>
-      <c r="ID1" s="33" t="s">
-        <v>751</v>
-      </c>
-      <c r="IE1" s="33" t="s">
-        <v>752</v>
-      </c>
-      <c r="IF1" s="33" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:240" ht="15" thickBot="1">
       <c r="A2" s="34" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="G2" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I2" s="34">
         <v>268763332</v>
@@ -22147,40 +22500,40 @@
     </row>
     <row r="3" spans="1:240">
       <c r="A3" s="34" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="G3" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I3" s="34">
         <v>268763332</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K3" s="36">
         <v>1</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M3" s="36">
         <v>11111000</v>
@@ -22415,28 +22768,28 @@
     </row>
     <row r="4" spans="1:240">
       <c r="A4" s="34" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="G4" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I4" s="34">
         <v>268763332</v>
@@ -22675,28 +23028,28 @@
     </row>
     <row r="5" spans="1:240">
       <c r="A5" s="34" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="G5" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I5" s="34">
         <v>268763332</v>
@@ -22935,28 +23288,28 @@
     </row>
     <row r="6" spans="1:240">
       <c r="A6" s="34" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="G6" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H6" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I6" s="34">
         <v>268763332</v>
@@ -23195,25 +23548,25 @@
     </row>
     <row r="7" spans="1:240">
       <c r="A7" s="34" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="G7" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>766</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -23451,31 +23804,31 @@
     </row>
     <row r="8" spans="1:240">
       <c r="A8" s="34" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="G8" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>764</v>
-      </c>
       <c r="I8" s="34" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="36"/>
@@ -23711,25 +24064,25 @@
     </row>
     <row r="9" spans="1:240">
       <c r="A9" s="34" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>766</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -23967,28 +24320,28 @@
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="34" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="G10" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I10" s="34">
         <v>268763332</v>
@@ -24227,28 +24580,28 @@
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="34" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="G11" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I11" s="34">
         <v>268763332</v>
@@ -24487,79 +24840,79 @@
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="34" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="34" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="34" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="G15" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I15" s="34">
         <v>268763332</v>
@@ -24567,80 +24920,80 @@
     </row>
     <row r="16" spans="1:240">
       <c r="A16" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="G16" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>766</v>
-      </c>
       <c r="H16" s="34" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="G17" s="34" t="s">
         <v>762</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="G18" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>760</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>761</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>764</v>
       </c>
       <c r="I18" s="34">
         <v>268763332</v>
@@ -24666,27 +25019,27 @@
   <sheetData>
     <row r="6" spans="6:6">
       <c r="F6" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -24787,77 +25140,77 @@
   <sheetData>
     <row r="4" spans="6:12">
       <c r="F4" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="6:12">
       <c r="F5" s="26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="6:12">
       <c r="F6" s="26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="6:12">
       <c r="F7" s="26" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="6:12">
       <c r="F8" s="26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" s="26" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" s="26" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" s="26" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="845">
   <si>
     <t>Execution</t>
   </si>
@@ -2551,6 +2551,15 @@
   </si>
   <si>
     <t>UpdateBalanceAndDate</t>
+  </si>
+  <si>
+    <t>2min&amp;30MB AED3 Day_Overide</t>
+  </si>
+  <si>
+    <t>1,1,6,1</t>
+  </si>
+  <si>
+    <t>1,2,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -3265,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3316,7 +3325,7 @@
         <v>325</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3330,7 +3339,7 @@
         <v>326</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>456</v>
       </c>
       <c r="Q4" t="s">
         <v>8</v>
@@ -4389,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5250,10 +5259,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>835</v>
+        <v>71</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>842</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
@@ -5264,11 +5273,11 @@
       <c r="F34" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>82</v>
+      <c r="G34" s="18" t="s">
+        <v>843</v>
       </c>
       <c r="H34" s="8">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1">
@@ -5276,10 +5285,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>11</v>
@@ -5291,10 +5300,10 @@
         <v>73</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>837</v>
+        <v>82</v>
       </c>
       <c r="H35" s="8">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1">
@@ -5302,10 +5311,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>87</v>
+        <v>836</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>11</v>
@@ -5316,11 +5325,11 @@
       <c r="F36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="21" t="s">
-        <v>118</v>
+      <c r="G36" s="20" t="s">
+        <v>837</v>
       </c>
       <c r="H36" s="8">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1">
@@ -5331,7 +5340,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>838</v>
+        <v>87</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>11</v>
@@ -5343,7 +5352,7 @@
         <v>73</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H37" s="8">
         <v>1158</v>
@@ -5354,10 +5363,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>838</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>11</v>
@@ -5365,14 +5374,14 @@
       <c r="E38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>92</v>
+      <c r="F38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>844</v>
       </c>
       <c r="H38" s="8">
-        <v>1619</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1">
@@ -5380,10 +5389,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>11</v>
@@ -5395,10 +5404,10 @@
         <v>91</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H39" s="8">
-        <v>1539</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1">
@@ -5406,10 +5415,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>11</v>
@@ -5421,10 +5430,10 @@
         <v>91</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H40" s="8">
-        <v>1613</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
@@ -5432,10 +5441,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>11</v>
@@ -5447,10 +5456,10 @@
         <v>91</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H41" s="8">
-        <v>1580</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1">
@@ -5458,10 +5467,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>11</v>
@@ -5473,10 +5482,10 @@
         <v>91</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H42" s="8">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1">
@@ -5484,10 +5493,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>11</v>
@@ -5499,10 +5508,10 @@
         <v>91</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H43" s="8">
-        <v>1568</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1">
@@ -5510,10 +5519,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>11</v>
@@ -5525,10 +5534,10 @@
         <v>91</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H44" s="8">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1">
@@ -5536,10 +5545,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>11</v>
@@ -5551,10 +5560,10 @@
         <v>91</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H45" s="8">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1">
@@ -5562,10 +5571,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>11</v>
@@ -5577,10 +5586,10 @@
         <v>91</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H46" s="8">
-        <v>1555</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1">
@@ -5588,10 +5597,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>11</v>
@@ -5603,10 +5612,10 @@
         <v>91</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H47" s="8">
-        <v>1565</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1">
@@ -5614,10 +5623,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>11</v>
@@ -5629,10 +5638,10 @@
         <v>91</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H48" s="8">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1">
@@ -5640,10 +5649,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>11</v>
@@ -5655,10 +5664,10 @@
         <v>91</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H49" s="8">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1">
@@ -5666,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>11</v>
@@ -5681,10 +5690,10 @@
         <v>91</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H50" s="8">
-        <v>1597</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1">
@@ -5692,10 +5701,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>11</v>
@@ -5707,10 +5716,10 @@
         <v>91</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H51" s="8">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1">
@@ -5718,10 +5727,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>11</v>
@@ -5733,10 +5742,10 @@
         <v>91</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H52" s="8">
-        <v>1537</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1">
@@ -5744,10 +5753,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>11</v>
@@ -5759,10 +5768,10 @@
         <v>91</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H53" s="8">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1">
@@ -5770,10 +5779,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>11</v>
@@ -5785,10 +5794,10 @@
         <v>91</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H54" s="8">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1">
@@ -5796,10 +5805,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>11</v>
@@ -5811,10 +5820,10 @@
         <v>91</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H55" s="8">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1">
@@ -5822,10 +5831,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>11</v>
@@ -5837,10 +5846,10 @@
         <v>91</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H56" s="8">
-        <v>1548</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1">
@@ -5848,10 +5857,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>11</v>
@@ -5863,10 +5872,10 @@
         <v>91</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H57" s="8">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1">
@@ -5874,10 +5883,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>11</v>
@@ -5889,10 +5898,10 @@
         <v>91</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H58" s="8">
-        <v>1567</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1">
@@ -5900,10 +5909,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>11</v>
@@ -5915,10 +5924,10 @@
         <v>91</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H59" s="8">
-        <v>1577</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1">
@@ -5926,10 +5935,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>11</v>
@@ -5941,10 +5950,10 @@
         <v>91</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H60" s="8">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
@@ -5952,10 +5961,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>11</v>
@@ -5967,10 +5976,10 @@
         <v>91</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="H61" s="8">
-        <v>1660</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1">
@@ -5978,10 +5987,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>11</v>
@@ -5993,10 +6002,10 @@
         <v>91</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H62" s="8">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1">
@@ -6004,10 +6013,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>11</v>
@@ -6019,10 +6028,10 @@
         <v>91</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H63" s="8">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1">
@@ -6030,10 +6039,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>11</v>
@@ -6045,10 +6054,10 @@
         <v>91</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="H64" s="8">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1">
@@ -6056,10 +6065,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>11</v>
@@ -6071,10 +6080,10 @@
         <v>91</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H65" s="8">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1">
@@ -6082,10 +6091,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>11</v>
@@ -6097,10 +6106,10 @@
         <v>91</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H66" s="8">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1">
@@ -6108,10 +6117,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>11</v>
@@ -6123,10 +6132,10 @@
         <v>91</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H67" s="8">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1">
@@ -6134,10 +6143,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>11</v>
@@ -6146,11 +6155,13 @@
         <v>12</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="H68" s="8">
-        <v>1694</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1">
@@ -6158,10 +6169,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>11</v>
@@ -6174,7 +6185,7 @@
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="8">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1">
@@ -6182,10 +6193,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>11</v>
@@ -6198,7 +6209,7 @@
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="8">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1">
@@ -6206,10 +6217,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>11</v>
@@ -6218,13 +6229,11 @@
         <v>12</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G71" s="17">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G71" s="17"/>
       <c r="H71" s="8">
-        <v>999</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1">
@@ -6232,10 +6241,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>11</v>
@@ -6247,10 +6256,10 @@
         <v>180</v>
       </c>
       <c r="G72" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="8">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1">
@@ -6258,10 +6267,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>11</v>
@@ -6270,13 +6279,13 @@
         <v>12</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="G73" s="17">
+        <v>2</v>
       </c>
       <c r="H73" s="8">
-        <v>966</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1">
@@ -6284,10 +6293,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>11</v>
@@ -6296,13 +6305,13 @@
         <v>12</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H74" s="8">
-        <v>1145</v>
+        <v>966</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1">
@@ -6310,10 +6319,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>11</v>
@@ -6325,10 +6334,10 @@
         <v>13</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H75" s="8">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1">
@@ -6336,10 +6345,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>11</v>
@@ -6351,10 +6360,10 @@
         <v>13</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H76" s="8">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1">
@@ -6362,10 +6371,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>11</v>
@@ -6374,13 +6383,13 @@
         <v>12</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="G77" s="17">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="H77" s="8">
-        <v>1650</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1">
@@ -6388,10 +6397,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
@@ -6400,13 +6409,13 @@
         <v>12</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G78" s="17">
         <v>1</v>
       </c>
       <c r="H78" s="8">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
@@ -6414,10 +6423,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>11</v>
@@ -6426,11 +6435,13 @@
         <v>12</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G79" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
       <c r="H79" s="8">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
@@ -6438,10 +6449,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>11</v>
@@ -6450,11 +6461,11 @@
         <v>12</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="8">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1">
@@ -6462,10 +6473,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>11</v>
@@ -6474,11 +6485,11 @@
         <v>12</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="8">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1">
@@ -6486,10 +6497,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>11</v>
@@ -6498,13 +6509,11 @@
         <v>12</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G82" s="17">
-        <v>1</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G82" s="17"/>
       <c r="H82" s="8">
-        <v>1699</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1">
@@ -6512,10 +6521,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>11</v>
@@ -6524,13 +6533,13 @@
         <v>12</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="G83" s="17">
+        <v>1</v>
       </c>
       <c r="H83" s="8">
-        <v>1458</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1">
@@ -6538,10 +6547,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
@@ -6553,10 +6562,10 @@
         <v>13</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H84" s="8">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1">
@@ -6564,10 +6573,10 @@
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>11</v>
@@ -6579,10 +6588,10 @@
         <v>13</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H85" s="8">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1">
@@ -6590,10 +6599,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
@@ -6605,10 +6614,10 @@
         <v>13</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H86" s="8">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1">
@@ -6616,10 +6625,10 @@
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
@@ -6631,10 +6640,10 @@
         <v>13</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H87" s="8">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1">
@@ -6642,10 +6651,10 @@
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>11</v>
@@ -6657,10 +6666,10 @@
         <v>13</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H88" s="8">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1">
@@ -6668,10 +6677,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>11</v>
@@ -6683,10 +6692,10 @@
         <v>13</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H89" s="8">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1">
@@ -6694,10 +6703,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>11</v>
@@ -6709,10 +6718,10 @@
         <v>13</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H90" s="8">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1">
@@ -6720,10 +6729,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>11</v>
@@ -6735,10 +6744,10 @@
         <v>13</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H91" s="8">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1">
@@ -6746,10 +6755,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>11</v>
@@ -6761,10 +6770,10 @@
         <v>13</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H92" s="8">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1">
@@ -6772,10 +6781,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>11</v>
@@ -6787,10 +6796,10 @@
         <v>13</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="H93" s="8">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1">
@@ -6798,10 +6807,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>11</v>
@@ -6813,10 +6822,10 @@
         <v>13</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H94" s="8">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1">
@@ -6824,10 +6833,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>11</v>
@@ -6839,10 +6848,10 @@
         <v>13</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H95" s="8">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1">
@@ -6850,10 +6859,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>11</v>
@@ -6865,10 +6874,10 @@
         <v>13</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H96" s="8">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1">
@@ -6876,10 +6885,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>11</v>
@@ -6891,10 +6900,10 @@
         <v>13</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="H97" s="8">
-        <v>1269</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1">
@@ -6902,10 +6911,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>11</v>
@@ -6914,13 +6923,13 @@
         <v>12</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="H98" s="8">
-        <v>1805</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1">
@@ -6928,10 +6937,10 @@
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>11</v>
@@ -6943,10 +6952,10 @@
         <v>254</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="H99" s="8">
-        <v>1818</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1">
@@ -6954,10 +6963,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>11</v>
@@ -6969,10 +6978,10 @@
         <v>254</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H100" s="8">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1">
@@ -6980,10 +6989,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>11</v>
@@ -6995,10 +7004,10 @@
         <v>254</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H101" s="8">
-        <v>1802</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1">
@@ -7006,10 +7015,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>11</v>
@@ -7021,10 +7030,10 @@
         <v>254</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H102" s="8">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1">
@@ -7032,7 +7041,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>265</v>
@@ -7058,10 +7067,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>11</v>
@@ -7070,11 +7079,13 @@
         <v>12</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G104" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="H104" s="8">
-        <v>1817</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15" thickBot="1">
@@ -7082,10 +7093,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>11</v>
@@ -7094,13 +7105,11 @@
         <v>12</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G105" s="17">
-        <v>1</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G105" s="17"/>
       <c r="H105" s="8">
-        <v>1681</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1">
@@ -7108,10 +7117,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>11</v>
@@ -7120,13 +7129,13 @@
         <v>12</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G106" s="17">
         <v>1</v>
       </c>
       <c r="H106" s="8">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1">
@@ -7134,10 +7143,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>11</v>
@@ -7146,13 +7155,13 @@
         <v>12</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G107" s="17">
         <v>1</v>
       </c>
       <c r="H107" s="8">
-        <v>1199</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1">
@@ -7160,10 +7169,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>11</v>
@@ -7172,13 +7181,13 @@
         <v>12</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>92</v>
+        <v>279</v>
+      </c>
+      <c r="G108" s="17">
+        <v>1</v>
       </c>
       <c r="H108" s="8">
-        <v>1616</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1">
@@ -7186,10 +7195,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>11</v>
@@ -7201,10 +7210,10 @@
         <v>282</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H109" s="8">
-        <v>1591</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15" thickBot="1">
@@ -7212,10 +7221,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>11</v>
@@ -7227,10 +7236,10 @@
         <v>282</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H110" s="8">
-        <v>1528</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1">
@@ -7238,10 +7247,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -7253,10 +7262,10 @@
         <v>282</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H111" s="8">
-        <v>1533</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1">
@@ -7264,10 +7273,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>11</v>
@@ -7276,13 +7285,13 @@
         <v>12</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="H112" s="8">
-        <v>1523</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1">
@@ -7290,13 +7299,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>457</v>
+        <v>289</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="D113" t="s">
-        <v>16</v>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>12</v>
@@ -7304,8 +7313,8 @@
       <c r="F113" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="G113" s="17">
-        <v>1</v>
+      <c r="G113" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="H113" s="8">
         <v>1523</v>
@@ -7319,22 +7328,22 @@
         <v>457</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>11</v>
+        <v>290</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H114" s="22">
-        <v>828</v>
+      <c r="F114" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G114" s="17">
+        <v>1</v>
+      </c>
+      <c r="H114" s="8">
+        <v>1523</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1">
@@ -7342,10 +7351,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>11</v>
@@ -7354,13 +7363,13 @@
         <v>12</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="H115" s="22">
-        <v>1157</v>
+        <v>828</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1">
@@ -7368,10 +7377,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>11</v>
@@ -7380,10 +7389,13 @@
         <v>12</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="G116" s="32">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116" s="22">
+        <v>1157</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1">
@@ -7391,10 +7403,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>11</v>
@@ -7403,13 +7415,10 @@
         <v>12</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>279</v>
+        <v>464</v>
       </c>
       <c r="G117" s="32">
         <v>1</v>
-      </c>
-      <c r="H117" s="22">
-        <v>1236</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1">
@@ -7417,10 +7426,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>11</v>
@@ -7429,11 +7438,13 @@
         <v>12</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="G118" s="32"/>
+        <v>279</v>
+      </c>
+      <c r="G118" s="32">
+        <v>1</v>
+      </c>
       <c r="H118" s="22">
-        <v>1151</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1">
@@ -7441,10 +7452,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -7453,11 +7464,11 @@
         <v>12</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G119" s="32"/>
       <c r="H119" s="22">
-        <v>1230</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1">
@@ -7465,10 +7476,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>11</v>
@@ -7481,7 +7492,7 @@
       </c>
       <c r="G120" s="32"/>
       <c r="H120" s="22">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1">
@@ -7489,10 +7500,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>11</v>
@@ -7501,13 +7512,11 @@
         <v>12</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="G121" s="32" t="s">
-        <v>78</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="G121" s="32"/>
       <c r="H121" s="22">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1">
@@ -7515,10 +7524,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>11</v>
@@ -7530,10 +7539,10 @@
         <v>477</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H122" s="22">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1">
@@ -7541,10 +7550,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>11</v>
@@ -7556,10 +7565,10 @@
         <v>477</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H123" s="22">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1">
@@ -7567,10 +7576,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>11</v>
@@ -7581,11 +7590,11 @@
       <c r="F124" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="G124" s="22" t="s">
-        <v>85</v>
+      <c r="G124" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="H124" s="22">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1">
@@ -7593,10 +7602,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>11</v>
@@ -7608,10 +7617,10 @@
         <v>477</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H125" s="22">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1">
@@ -7619,10 +7628,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>11</v>
@@ -7634,10 +7643,10 @@
         <v>477</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H126" s="22">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1">
@@ -7645,10 +7654,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>11</v>
@@ -7660,10 +7669,10 @@
         <v>477</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H127" s="22">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1">
@@ -7671,10 +7680,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>11</v>
@@ -7685,9 +7694,11 @@
       <c r="F128" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="G128" s="22"/>
+      <c r="G128" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="H128" s="22">
-        <v>1217</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1">
@@ -7695,10 +7706,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>11</v>
@@ -7711,7 +7722,7 @@
       </c>
       <c r="G129" s="22"/>
       <c r="H129" s="22">
-        <v>1237</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1">
@@ -7719,10 +7730,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>11</v>
@@ -7735,7 +7746,7 @@
       </c>
       <c r="G130" s="22"/>
       <c r="H130" s="22">
-        <v>1223</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1">
@@ -7743,10 +7754,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
@@ -7759,7 +7770,7 @@
       </c>
       <c r="G131" s="22"/>
       <c r="H131" s="22">
-        <v>1584</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1">
@@ -7767,10 +7778,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>11</v>
@@ -7783,7 +7794,7 @@
       </c>
       <c r="G132" s="22"/>
       <c r="H132" s="22">
-        <v>1224</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1">
@@ -7791,10 +7802,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>11</v>
@@ -7807,7 +7818,7 @@
       </c>
       <c r="G133" s="22"/>
       <c r="H133" s="22">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1">
@@ -7815,10 +7826,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>11</v>
@@ -7831,7 +7842,7 @@
       </c>
       <c r="G134" s="22"/>
       <c r="H134" s="22">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1">
@@ -7839,10 +7850,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>11</v>
@@ -7851,11 +7862,11 @@
         <v>12</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="G135" s="22"/>
       <c r="H135" s="22">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1">
@@ -7863,10 +7874,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>11</v>
@@ -7875,11 +7886,11 @@
         <v>12</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G136" s="22"/>
       <c r="H136" s="22">
-        <v>1531</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1">
@@ -7887,10 +7898,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>11</v>
@@ -7899,11 +7910,11 @@
         <v>12</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>291</v>
+        <v>509</v>
       </c>
       <c r="G137" s="22"/>
       <c r="H137" s="22">
-        <v>1360</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1">
@@ -7911,10 +7922,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>11</v>
@@ -7923,13 +7934,11 @@
         <v>12</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="G138" s="22">
-        <v>1</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G138" s="22"/>
       <c r="H138" s="22">
-        <v>1648</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1">
@@ -7937,10 +7946,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>11</v>
@@ -7949,13 +7958,13 @@
         <v>12</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G139" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="22">
-        <v>832</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1">
@@ -7963,7 +7972,7 @@
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C140" s="22" t="s">
         <v>516</v>
@@ -7972,13 +7981,13 @@
         <v>11</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>518</v>
+        <v>509</v>
+      </c>
+      <c r="G140" s="22">
+        <v>2</v>
       </c>
       <c r="H140" s="22">
         <v>832</v>
@@ -7989,36 +7998,36 @@
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="G141" s="22">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="H141" s="22">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="29.5" thickBot="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>11</v>
@@ -8027,21 +8036,21 @@
         <v>12</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G142" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H142" s="22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="29.5" thickBot="1">
       <c r="A143" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C143" s="22" t="s">
         <v>523</v>
@@ -8050,13 +8059,13 @@
         <v>11</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
+      </c>
+      <c r="G143" s="22">
+        <v>3</v>
       </c>
       <c r="H143" s="22">
         <v>1800</v>
@@ -8067,23 +8076,25 @@
         <v>8</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="G144" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>526</v>
+      </c>
       <c r="H144" s="22">
-        <v>1817</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15" thickBot="1">
@@ -8091,10 +8102,10 @@
         <v>8</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>11</v>
@@ -8103,13 +8114,11 @@
         <v>12</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>532</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G145" s="22"/>
       <c r="H145" s="22">
-        <v>1146</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15" thickBot="1">
@@ -8117,10 +8126,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>11</v>
@@ -8129,13 +8138,13 @@
         <v>12</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H146" s="22">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" thickBot="1">
@@ -8143,10 +8152,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>11</v>
@@ -8155,13 +8164,13 @@
         <v>12</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="G147" s="22">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>535</v>
       </c>
       <c r="H147" s="22">
-        <v>1519</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15" thickBot="1">
@@ -8169,10 +8178,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>11</v>
@@ -8181,13 +8190,13 @@
         <v>12</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>78</v>
+        <v>538</v>
+      </c>
+      <c r="G148" s="22">
+        <v>1</v>
       </c>
       <c r="H148" s="22">
-        <v>1940</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15" thickBot="1">
@@ -8195,10 +8204,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>11</v>
@@ -8207,13 +8216,13 @@
         <v>12</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="H149" s="22">
-        <v>790</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15" thickBot="1">
@@ -8221,10 +8230,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>11</v>
@@ -8233,13 +8242,13 @@
         <v>12</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="H150" s="22">
-        <v>957</v>
+        <v>790</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15" thickBot="1">
@@ -8247,7 +8256,7 @@
         <v>8</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C151" s="22" t="s">
         <v>545</v>
@@ -8256,68 +8265,68 @@
         <v>11</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>13</v>
+        <v>477</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>518</v>
+        <v>95</v>
       </c>
       <c r="H151" s="22">
         <v>957</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="47" t="s">
+    <row r="152" spans="1:8" ht="15" thickBot="1">
+      <c r="A152" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="H152" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="C152" s="49" t="s">
+      <c r="C153" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="D152" s="50" t="s">
+      <c r="D153" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E152" s="51" t="s">
+      <c r="E153" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="52" t="s">
+      <c r="F153" s="52" t="s">
         <v>543</v>
       </c>
-      <c r="G152" s="49" t="s">
+      <c r="G153" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="H152" s="49">
+      <c r="H153" s="49">
         <v>944</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="G153" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="H153" s="5">
-        <v>1447</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8325,13 +8334,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>16</v>
+      <c r="D154" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>12</v>
@@ -8339,8 +8348,8 @@
       <c r="F154" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="G154" s="54" t="s">
-        <v>185</v>
+      <c r="G154" s="53" t="s">
+        <v>266</v>
       </c>
       <c r="H154" s="5">
         <v>1447</v>
@@ -8351,13 +8360,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>11</v>
+        <v>770</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>12</v>
@@ -8365,11 +8374,11 @@
       <c r="F155" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="G155" s="53" t="s">
+      <c r="G155" s="54" t="s">
         <v>185</v>
       </c>
       <c r="H155" s="5">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8377,13 +8386,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>16</v>
+      <c r="D156" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>12</v>
@@ -8391,7 +8400,7 @@
       <c r="F156" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="G156" s="55" t="s">
+      <c r="G156" s="53" t="s">
         <v>185</v>
       </c>
       <c r="H156" s="5">
@@ -8403,25 +8412,25 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>11</v>
+        <v>774</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G157" s="53" t="s">
-        <v>784</v>
+        <v>771</v>
+      </c>
+      <c r="G157" s="55" t="s">
+        <v>185</v>
       </c>
       <c r="H157" s="5">
-        <v>1616</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8429,13 +8438,13 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>16</v>
+      <c r="D158" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>12</v>
@@ -8444,7 +8453,7 @@
         <v>282</v>
       </c>
       <c r="G158" s="53" t="s">
-        <v>95</v>
+        <v>784</v>
       </c>
       <c r="H158" s="5">
         <v>1616</v>
@@ -8455,13 +8464,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>11</v>
+        <v>781</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>12</v>
@@ -8470,10 +8479,10 @@
         <v>282</v>
       </c>
       <c r="G159" s="53" t="s">
-        <v>787</v>
+        <v>95</v>
       </c>
       <c r="H159" s="5">
-        <v>1591</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8481,13 +8490,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>16</v>
+      <c r="D160" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>12</v>
@@ -8496,7 +8505,7 @@
         <v>282</v>
       </c>
       <c r="G160" s="53" t="s">
-        <v>121</v>
+        <v>787</v>
       </c>
       <c r="H160" s="5">
         <v>1591</v>
@@ -8507,13 +8516,13 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>11</v>
+        <v>785</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>12</v>
@@ -8522,10 +8531,10 @@
         <v>282</v>
       </c>
       <c r="G161" s="53" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H161" s="5">
-        <v>1528</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8533,13 +8542,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>16</v>
+      <c r="D162" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>12</v>
@@ -8548,7 +8557,7 @@
         <v>282</v>
       </c>
       <c r="G162" s="53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H162" s="5">
         <v>1528</v>
@@ -8559,13 +8568,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>11</v>
+        <v>788</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>12</v>
@@ -8574,10 +8583,10 @@
         <v>282</v>
       </c>
       <c r="G163" s="53" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H163" s="5">
-        <v>1533</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8585,13 +8594,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>16</v>
+      <c r="D164" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>12</v>
@@ -8600,7 +8609,7 @@
         <v>282</v>
       </c>
       <c r="G164" s="53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H164" s="5">
         <v>1533</v>
@@ -8611,23 +8620,25 @@
         <v>8</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>11</v>
+        <v>791</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="G165" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="G165" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="H165" s="5">
-        <v>996</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8635,10 +8646,10 @@
         <v>8</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>11</v>
@@ -8647,11 +8658,9 @@
         <v>12</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" s="53" t="s">
-        <v>799</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="G166" s="5"/>
       <c r="H166" s="5">
         <v>996</v>
       </c>
@@ -8661,25 +8670,25 @@
         <v>8</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>16</v>
+        <v>800</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F167" s="25" t="s">
-        <v>802</v>
-      </c>
-      <c r="G167" s="5">
-        <v>3</v>
+      <c r="F167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="53" t="s">
+        <v>799</v>
       </c>
       <c r="H167" s="5">
-        <v>1269</v>
+        <v>996</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8687,25 +8696,25 @@
         <v>8</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>11</v>
+        <v>801</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>803</v>
-      </c>
-      <c r="G168" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="H168" s="53">
-        <v>1146</v>
+        <v>802</v>
+      </c>
+      <c r="G168" s="5">
+        <v>3</v>
+      </c>
+      <c r="H168" s="5">
+        <v>1269</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8713,13 +8722,13 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>16</v>
+      <c r="D169" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>12</v>
@@ -8727,8 +8736,8 @@
       <c r="F169" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="G169" s="5" t="s">
-        <v>92</v>
+      <c r="G169" s="53" t="s">
+        <v>266</v>
       </c>
       <c r="H169" s="53">
         <v>1146</v>
@@ -8739,24 +8748,50 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>11</v>
+        <v>804</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H170" s="53">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="G170" s="53">
+      <c r="G171" s="53">
         <v>1</v>
       </c>
-      <c r="H170" s="53">
+      <c r="H171" s="53">
         <v>2001</v>
       </c>
     </row>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -3275,13 +3275,13 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -3325,7 +3325,7 @@
         <v>325</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>456</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3339,7 +3339,7 @@
         <v>326</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>456</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="s">
         <v>8</v>
@@ -3646,35 +3646,35 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>829</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>405</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>456</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>829</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>456</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>829</v>
       </c>
       <c r="C28" s="5" t="s">

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="846">
   <si>
     <t>Execution</t>
   </si>
@@ -2560,6 +2560,9 @@
   </si>
   <si>
     <t>1,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>CIS-DB</t>
   </si>
 </sst>
 </file>
@@ -3272,10 +3275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3311,7 +3314,7 @@
         <v>405</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3325,7 +3328,7 @@
         <v>325</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3336,12 +3339,9 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>326</v>
+        <v>845</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3350,16 +3350,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q5" t="s">
         <v>8</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3370,10 +3370,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3384,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -3395,10 +3398,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -3412,7 +3415,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -3423,10 +3426,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>776</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -3440,7 +3443,7 @@
         <v>776</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
@@ -3454,7 +3457,7 @@
         <v>776</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>8</v>
@@ -3465,10 +3468,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
@@ -3482,7 +3485,7 @@
         <v>777</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
@@ -3493,10 +3496,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>830</v>
+        <v>777</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -3510,7 +3513,7 @@
         <v>830</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -3521,10 +3524,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
@@ -3538,7 +3541,7 @@
         <v>778</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -3552,7 +3555,7 @@
         <v>778</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
@@ -3566,7 +3569,7 @@
         <v>778</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
@@ -3577,10 +3580,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -3594,7 +3597,7 @@
         <v>779</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -3608,7 +3611,7 @@
         <v>779</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
@@ -3619,10 +3622,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>8</v>
@@ -3636,7 +3639,7 @@
         <v>780</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>8</v>
@@ -3647,10 +3650,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>829</v>
+        <v>780</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3664,7 +3667,7 @@
         <v>829</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>8</v>
@@ -3678,19 +3681,36 @@
         <v>829</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>456</v>
       </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>$U$6:$U$12</formula1>
+      <formula1>$U$7:$U$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$Q$4:$Q$5</formula1>
+      <formula1>$Q$5:$Q$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC7"/>
+  <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4317,6 +4337,17 @@
       </c>
       <c r="C7" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="846">
   <si>
     <t>Execution</t>
   </si>
@@ -3277,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -4429,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4978,13 +4978,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>12</v>
@@ -4996,18 +4996,18 @@
         <v>454</v>
       </c>
       <c r="H22" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>11</v>
@@ -5018,11 +5018,11 @@
       <c r="F23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>455</v>
+      <c r="G23" s="28" t="s">
+        <v>454</v>
       </c>
       <c r="H23" s="8">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1">
@@ -5030,10 +5030,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>11</v>
@@ -5041,14 +5041,14 @@
       <c r="E24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>107</v>
+      <c r="F24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>455</v>
       </c>
       <c r="H24" s="8">
-        <v>1150</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
@@ -5061,8 +5061,8 @@
       <c r="C25" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>12</v>
@@ -5071,7 +5071,7 @@
         <v>73</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="H25" s="8">
         <v>1150</v>
@@ -5082,13 +5082,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>12</v>
@@ -5096,11 +5096,11 @@
       <c r="F26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>104</v>
+      <c r="G26" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H26" s="8">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1">
@@ -5108,13 +5108,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>16</v>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>12</v>
@@ -5122,11 +5122,11 @@
       <c r="F27" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>191</v>
+      <c r="G27" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="H27" s="8">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1">
@@ -5134,13 +5134,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>12</v>
@@ -5148,11 +5148,11 @@
       <c r="F28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>92</v>
+      <c r="G28" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="H28" s="8">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1">
@@ -5160,13 +5160,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>12</v>
@@ -5174,11 +5174,11 @@
       <c r="F29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>194</v>
+      <c r="G29" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="H29" s="8">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1">
@@ -5186,13 +5186,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>12</v>
@@ -5200,11 +5200,11 @@
       <c r="F30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>98</v>
+      <c r="G30" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="H30" s="8">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
@@ -5212,13 +5212,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>16</v>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>12</v>
@@ -5226,11 +5226,11 @@
       <c r="F31" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>188</v>
+      <c r="G31" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="H31" s="8">
-        <v>1150</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1">
@@ -5238,13 +5238,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>12</v>
@@ -5252,11 +5252,11 @@
       <c r="F32" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>101</v>
+      <c r="G32" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="H32" s="8">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1">
@@ -5264,13 +5264,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>16</v>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>12</v>
@@ -5278,11 +5278,11 @@
       <c r="F33" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>188</v>
+      <c r="G33" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="H33" s="8">
-        <v>1150</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1">
@@ -5292,11 +5292,11 @@
       <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>842</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>11</v>
+      <c r="C34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>12</v>
@@ -5305,7 +5305,7 @@
         <v>73</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>843</v>
+        <v>188</v>
       </c>
       <c r="H34" s="8">
         <v>1150</v>
@@ -5316,10 +5316,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>835</v>
+        <v>71</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>842</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>11</v>
@@ -5330,11 +5330,11 @@
       <c r="F35" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>82</v>
+      <c r="G35" s="18" t="s">
+        <v>843</v>
       </c>
       <c r="H35" s="8">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1">
@@ -5342,10 +5342,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>11</v>
@@ -5357,10 +5357,10 @@
         <v>73</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>837</v>
+        <v>82</v>
       </c>
       <c r="H36" s="8">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1">
@@ -5368,10 +5368,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>87</v>
+        <v>836</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>11</v>
@@ -5382,11 +5382,11 @@
       <c r="F37" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>118</v>
+      <c r="G37" s="20" t="s">
+        <v>837</v>
       </c>
       <c r="H37" s="8">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1">
@@ -5397,7 +5397,7 @@
         <v>86</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>838</v>
+        <v>87</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>11</v>
@@ -5409,7 +5409,7 @@
         <v>73</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>844</v>
+        <v>118</v>
       </c>
       <c r="H38" s="8">
         <v>1158</v>
@@ -5420,10 +5420,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>838</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>11</v>
@@ -5431,14 +5431,14 @@
       <c r="E39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>92</v>
+      <c r="F39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>844</v>
       </c>
       <c r="H39" s="8">
-        <v>1619</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1">
@@ -5446,10 +5446,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>11</v>
@@ -5461,10 +5461,10 @@
         <v>91</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H40" s="8">
-        <v>1539</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
@@ -5472,10 +5472,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>11</v>
@@ -5487,10 +5487,10 @@
         <v>91</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H41" s="8">
-        <v>1613</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1">
@@ -5498,10 +5498,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>11</v>
@@ -5513,10 +5513,10 @@
         <v>91</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H42" s="8">
-        <v>1580</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1">
@@ -5524,10 +5524,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>11</v>
@@ -5539,10 +5539,10 @@
         <v>91</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H43" s="8">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1">
@@ -5550,10 +5550,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>11</v>
@@ -5565,10 +5565,10 @@
         <v>91</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H44" s="8">
-        <v>1568</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1">
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>11</v>
@@ -5591,10 +5591,10 @@
         <v>91</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H45" s="8">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1">
@@ -5602,10 +5602,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>11</v>
@@ -5617,10 +5617,10 @@
         <v>91</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H46" s="8">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1">
@@ -5628,10 +5628,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>11</v>
@@ -5643,10 +5643,10 @@
         <v>91</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H47" s="8">
-        <v>1555</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1">
@@ -5654,10 +5654,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>11</v>
@@ -5669,10 +5669,10 @@
         <v>91</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H48" s="8">
-        <v>1565</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1">
@@ -5680,10 +5680,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>11</v>
@@ -5695,10 +5695,10 @@
         <v>91</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H49" s="8">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1">
@@ -5706,10 +5706,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>11</v>
@@ -5721,10 +5721,10 @@
         <v>91</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H50" s="8">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1">
@@ -5732,10 +5732,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>11</v>
@@ -5747,10 +5747,10 @@
         <v>91</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H51" s="8">
-        <v>1597</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1">
@@ -5758,10 +5758,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>11</v>
@@ -5773,10 +5773,10 @@
         <v>91</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H52" s="8">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1">
@@ -5784,10 +5784,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>11</v>
@@ -5799,10 +5799,10 @@
         <v>91</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H53" s="8">
-        <v>1537</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1">
@@ -5810,10 +5810,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>11</v>
@@ -5825,10 +5825,10 @@
         <v>91</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H54" s="8">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1">
@@ -5836,10 +5836,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>11</v>
@@ -5851,10 +5851,10 @@
         <v>91</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H55" s="8">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1">
@@ -5862,10 +5862,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>11</v>
@@ -5877,10 +5877,10 @@
         <v>91</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H56" s="8">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1">
@@ -5888,10 +5888,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>11</v>
@@ -5903,10 +5903,10 @@
         <v>91</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H57" s="8">
-        <v>1548</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1">
@@ -5914,10 +5914,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>11</v>
@@ -5929,10 +5929,10 @@
         <v>91</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H58" s="8">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1">
@@ -5940,10 +5940,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>11</v>
@@ -5955,10 +5955,10 @@
         <v>91</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H59" s="8">
-        <v>1567</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1">
@@ -5966,10 +5966,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>11</v>
@@ -5981,10 +5981,10 @@
         <v>91</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H60" s="8">
-        <v>1577</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
@@ -5992,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>11</v>
@@ -6007,10 +6007,10 @@
         <v>91</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H61" s="8">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1">
@@ -6018,10 +6018,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>11</v>
@@ -6033,10 +6033,10 @@
         <v>91</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="H62" s="8">
-        <v>1660</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1">
@@ -6044,10 +6044,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>11</v>
@@ -6059,10 +6059,10 @@
         <v>91</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H63" s="8">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1">
@@ -6070,10 +6070,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>11</v>
@@ -6085,10 +6085,10 @@
         <v>91</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H64" s="8">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1">
@@ -6096,10 +6096,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>11</v>
@@ -6111,10 +6111,10 @@
         <v>91</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="H65" s="8">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1">
@@ -6122,10 +6122,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>11</v>
@@ -6137,10 +6137,10 @@
         <v>91</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H66" s="8">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1">
@@ -6148,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>11</v>
@@ -6163,10 +6163,10 @@
         <v>91</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H67" s="8">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1">
@@ -6174,10 +6174,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>11</v>
@@ -6189,10 +6189,10 @@
         <v>91</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H68" s="8">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1">
@@ -6200,10 +6200,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>11</v>
@@ -6212,11 +6212,13 @@
         <v>12</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="G69" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="H69" s="8">
-        <v>1694</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1">
@@ -6224,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>11</v>
@@ -6240,7 +6242,7 @@
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="8">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1">
@@ -6248,10 +6250,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>11</v>
@@ -6264,7 +6266,7 @@
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="8">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1">
@@ -6272,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>11</v>
@@ -6284,13 +6286,11 @@
         <v>12</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G72" s="17">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G72" s="17"/>
       <c r="H72" s="8">
-        <v>999</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1">
@@ -6298,10 +6298,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>11</v>
@@ -6313,10 +6313,10 @@
         <v>180</v>
       </c>
       <c r="G73" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="8">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1">
@@ -6324,10 +6324,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>11</v>
@@ -6336,13 +6336,13 @@
         <v>12</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="G74" s="17">
+        <v>2</v>
       </c>
       <c r="H74" s="8">
-        <v>966</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1">
@@ -6350,10 +6350,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>11</v>
@@ -6362,13 +6362,13 @@
         <v>12</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H75" s="8">
-        <v>1145</v>
+        <v>966</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1">
@@ -6376,10 +6376,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>11</v>
@@ -6391,10 +6391,10 @@
         <v>13</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H76" s="8">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1">
@@ -6402,10 +6402,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>11</v>
@@ -6417,10 +6417,10 @@
         <v>13</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H77" s="8">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1">
@@ -6428,10 +6428,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
@@ -6440,13 +6440,13 @@
         <v>12</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="G78" s="17">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="H78" s="8">
-        <v>1650</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
@@ -6454,10 +6454,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>11</v>
@@ -6466,13 +6466,13 @@
         <v>12</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G79" s="17">
         <v>1</v>
       </c>
       <c r="H79" s="8">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
@@ -6480,10 +6480,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>11</v>
@@ -6492,11 +6492,13 @@
         <v>12</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G80" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
       <c r="H80" s="8">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1">
@@ -6504,10 +6506,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>11</v>
@@ -6516,11 +6518,11 @@
         <v>12</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="8">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1">
@@ -6528,10 +6530,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>11</v>
@@ -6540,11 +6542,11 @@
         <v>12</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="8">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1">
@@ -6552,10 +6554,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>11</v>
@@ -6564,13 +6566,11 @@
         <v>12</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G83" s="17">
-        <v>1</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G83" s="17"/>
       <c r="H83" s="8">
-        <v>1699</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1">
@@ -6578,10 +6578,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>11</v>
@@ -6590,13 +6590,13 @@
         <v>12</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="G84" s="17">
+        <v>1</v>
       </c>
       <c r="H84" s="8">
-        <v>1458</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1">
@@ -6604,10 +6604,10 @@
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>11</v>
@@ -6619,10 +6619,10 @@
         <v>13</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H85" s="8">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1">
@@ -6630,10 +6630,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>11</v>
@@ -6645,10 +6645,10 @@
         <v>13</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H86" s="8">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1">
@@ -6656,10 +6656,10 @@
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>11</v>
@@ -6671,10 +6671,10 @@
         <v>13</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H87" s="8">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1">
@@ -6682,10 +6682,10 @@
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>11</v>
@@ -6697,10 +6697,10 @@
         <v>13</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H88" s="8">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1">
@@ -6708,10 +6708,10 @@
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>11</v>
@@ -6723,10 +6723,10 @@
         <v>13</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H89" s="8">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1">
@@ -6734,10 +6734,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>11</v>
@@ -6749,10 +6749,10 @@
         <v>13</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H90" s="8">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1">
@@ -6760,10 +6760,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>11</v>
@@ -6775,10 +6775,10 @@
         <v>13</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H91" s="8">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1">
@@ -6786,10 +6786,10 @@
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>11</v>
@@ -6801,10 +6801,10 @@
         <v>13</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H92" s="8">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1">
@@ -6812,10 +6812,10 @@
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>11</v>
@@ -6827,10 +6827,10 @@
         <v>13</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H93" s="8">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1">
@@ -6838,10 +6838,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>11</v>
@@ -6853,10 +6853,10 @@
         <v>13</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="H94" s="8">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1">
@@ -6864,10 +6864,10 @@
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>11</v>
@@ -6879,10 +6879,10 @@
         <v>13</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H95" s="8">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1">
@@ -6890,10 +6890,10 @@
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>11</v>
@@ -6905,10 +6905,10 @@
         <v>13</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H96" s="8">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>11</v>
@@ -6931,10 +6931,10 @@
         <v>13</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H97" s="8">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1">
@@ -6942,10 +6942,10 @@
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>11</v>
@@ -6957,10 +6957,10 @@
         <v>13</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="H98" s="8">
-        <v>1269</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1">
@@ -6968,10 +6968,10 @@
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>11</v>
@@ -6980,13 +6980,13 @@
         <v>12</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="H99" s="8">
-        <v>1805</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1">
@@ -6994,10 +6994,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>11</v>
@@ -7009,10 +7009,10 @@
         <v>254</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="H100" s="8">
-        <v>1818</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1">
@@ -7020,10 +7020,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>11</v>
@@ -7035,10 +7035,10 @@
         <v>254</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H101" s="8">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1">
@@ -7046,10 +7046,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>11</v>
@@ -7061,10 +7061,10 @@
         <v>254</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H102" s="8">
-        <v>1802</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1">
@@ -7072,10 +7072,10 @@
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>11</v>
@@ -7087,10 +7087,10 @@
         <v>254</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H103" s="8">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1">
@@ -7098,7 +7098,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C104" s="22" t="s">
         <v>265</v>
@@ -7124,10 +7124,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>11</v>
@@ -7136,11 +7136,13 @@
         <v>12</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G105" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="H105" s="8">
-        <v>1817</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1">
@@ -7148,10 +7150,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>11</v>
@@ -7160,13 +7162,11 @@
         <v>12</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G106" s="17">
-        <v>1</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G106" s="17"/>
       <c r="H106" s="8">
-        <v>1681</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1">
@@ -7174,10 +7174,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>11</v>
@@ -7186,13 +7186,13 @@
         <v>12</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G107" s="17">
         <v>1</v>
       </c>
       <c r="H107" s="8">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1">
@@ -7200,10 +7200,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>11</v>
@@ -7212,13 +7212,13 @@
         <v>12</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G108" s="17">
         <v>1</v>
       </c>
       <c r="H108" s="8">
-        <v>1199</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1">
@@ -7226,10 +7226,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>11</v>
@@ -7238,13 +7238,13 @@
         <v>12</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>92</v>
+        <v>279</v>
+      </c>
+      <c r="G109" s="17">
+        <v>1</v>
       </c>
       <c r="H109" s="8">
-        <v>1616</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15" thickBot="1">
@@ -7252,10 +7252,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>11</v>
@@ -7267,10 +7267,10 @@
         <v>282</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H110" s="8">
-        <v>1591</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1">
@@ -7278,10 +7278,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -7293,10 +7293,10 @@
         <v>282</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H111" s="8">
-        <v>1528</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1">
@@ -7304,10 +7304,10 @@
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>11</v>
@@ -7319,10 +7319,10 @@
         <v>282</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H112" s="8">
-        <v>1533</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1">
@@ -7330,10 +7330,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>11</v>
@@ -7342,13 +7342,13 @@
         <v>12</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="H113" s="8">
-        <v>1523</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1">
@@ -7356,13 +7356,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>457</v>
+        <v>289</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="D114" t="s">
-        <v>16</v>
+      <c r="D114" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>12</v>
@@ -7370,8 +7370,8 @@
       <c r="F114" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="G114" s="17">
-        <v>1</v>
+      <c r="G114" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="H114" s="8">
         <v>1523</v>
@@ -7385,22 +7385,22 @@
         <v>457</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>11</v>
+        <v>290</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H115" s="22">
-        <v>828</v>
+      <c r="F115" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G115" s="17">
+        <v>1</v>
+      </c>
+      <c r="H115" s="8">
+        <v>1523</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1">
@@ -7408,10 +7408,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>11</v>
@@ -7420,13 +7420,13 @@
         <v>12</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="H116" s="22">
-        <v>1157</v>
+        <v>828</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1">
@@ -7434,10 +7434,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>11</v>
@@ -7446,10 +7446,13 @@
         <v>12</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="G117" s="32">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H117" s="22">
+        <v>1157</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1">
@@ -7457,10 +7460,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>11</v>
@@ -7469,13 +7472,10 @@
         <v>12</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>279</v>
+        <v>464</v>
       </c>
       <c r="G118" s="32">
         <v>1</v>
-      </c>
-      <c r="H118" s="22">
-        <v>1236</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1">
@@ -7483,10 +7483,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -7495,11 +7495,13 @@
         <v>12</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="G119" s="32"/>
+        <v>279</v>
+      </c>
+      <c r="G119" s="32">
+        <v>1</v>
+      </c>
       <c r="H119" s="22">
-        <v>1151</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1">
@@ -7507,10 +7509,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>11</v>
@@ -7519,11 +7521,11 @@
         <v>12</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G120" s="32"/>
       <c r="H120" s="22">
-        <v>1230</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1">
@@ -7531,10 +7533,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>11</v>
@@ -7547,7 +7549,7 @@
       </c>
       <c r="G121" s="32"/>
       <c r="H121" s="22">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1">
@@ -7555,10 +7557,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>11</v>
@@ -7567,13 +7569,11 @@
         <v>12</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="G122" s="32" t="s">
-        <v>78</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="G122" s="32"/>
       <c r="H122" s="22">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1">
@@ -7581,10 +7581,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>11</v>
@@ -7596,10 +7596,10 @@
         <v>477</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H123" s="22">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1">
@@ -7607,10 +7607,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>11</v>
@@ -7622,10 +7622,10 @@
         <v>477</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H124" s="22">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1">
@@ -7633,10 +7633,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>11</v>
@@ -7647,11 +7647,11 @@
       <c r="F125" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="G125" s="22" t="s">
-        <v>85</v>
+      <c r="G125" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="H125" s="22">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1">
@@ -7659,10 +7659,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>11</v>
@@ -7674,10 +7674,10 @@
         <v>477</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H126" s="22">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1">
@@ -7685,10 +7685,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>11</v>
@@ -7700,10 +7700,10 @@
         <v>477</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H127" s="22">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1">
@@ -7711,10 +7711,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>11</v>
@@ -7726,10 +7726,10 @@
         <v>477</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H128" s="22">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1">
@@ -7737,10 +7737,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>11</v>
@@ -7751,9 +7751,11 @@
       <c r="F129" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="G129" s="22"/>
+      <c r="G129" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="H129" s="22">
-        <v>1217</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1">
@@ -7761,10 +7763,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>11</v>
@@ -7777,7 +7779,7 @@
       </c>
       <c r="G130" s="22"/>
       <c r="H130" s="22">
-        <v>1237</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1">
@@ -7785,10 +7787,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>11</v>
@@ -7801,7 +7803,7 @@
       </c>
       <c r="G131" s="22"/>
       <c r="H131" s="22">
-        <v>1223</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1">
@@ -7809,10 +7811,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>11</v>
@@ -7825,7 +7827,7 @@
       </c>
       <c r="G132" s="22"/>
       <c r="H132" s="22">
-        <v>1584</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1">
@@ -7833,10 +7835,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>11</v>
@@ -7849,7 +7851,7 @@
       </c>
       <c r="G133" s="22"/>
       <c r="H133" s="22">
-        <v>1224</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1">
@@ -7857,10 +7859,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>11</v>
@@ -7873,7 +7875,7 @@
       </c>
       <c r="G134" s="22"/>
       <c r="H134" s="22">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1">
@@ -7881,10 +7883,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>11</v>
@@ -7897,7 +7899,7 @@
       </c>
       <c r="G135" s="22"/>
       <c r="H135" s="22">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1">
@@ -7905,10 +7907,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>11</v>
@@ -7917,11 +7919,11 @@
         <v>12</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="G136" s="22"/>
       <c r="H136" s="22">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1">
@@ -7929,10 +7931,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>11</v>
@@ -7941,11 +7943,11 @@
         <v>12</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G137" s="22"/>
       <c r="H137" s="22">
-        <v>1531</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1">
@@ -7953,10 +7955,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>11</v>
@@ -7965,11 +7967,11 @@
         <v>12</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>291</v>
+        <v>509</v>
       </c>
       <c r="G138" s="22"/>
       <c r="H138" s="22">
-        <v>1360</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1">
@@ -7977,10 +7979,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>11</v>
@@ -7989,13 +7991,11 @@
         <v>12</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="G139" s="22">
-        <v>1</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G139" s="22"/>
       <c r="H139" s="22">
-        <v>1648</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1">
@@ -8003,10 +8003,10 @@
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>11</v>
@@ -8015,13 +8015,13 @@
         <v>12</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G140" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" s="22">
-        <v>832</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" thickBot="1">
@@ -8029,7 +8029,7 @@
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C141" s="22" t="s">
         <v>516</v>
@@ -8038,13 +8038,13 @@
         <v>11</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>518</v>
+        <v>509</v>
+      </c>
+      <c r="G141" s="22">
+        <v>2</v>
       </c>
       <c r="H141" s="22">
         <v>832</v>
@@ -8055,36 +8055,36 @@
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="G142" s="22">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="H142" s="22">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="29.5" thickBot="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1">
       <c r="A143" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>11</v>
@@ -8093,21 +8093,21 @@
         <v>12</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G143" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143" s="22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15" thickBot="1">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29.5" thickBot="1">
       <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C144" s="22" t="s">
         <v>523</v>
@@ -8116,13 +8116,13 @@
         <v>11</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
+      </c>
+      <c r="G144" s="22">
+        <v>3</v>
       </c>
       <c r="H144" s="22">
         <v>1800</v>
@@ -8133,23 +8133,25 @@
         <v>8</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="G145" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>526</v>
+      </c>
       <c r="H145" s="22">
-        <v>1817</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15" thickBot="1">
@@ -8157,10 +8159,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>11</v>
@@ -8169,13 +8171,11 @@
         <v>12</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="G146" s="22" t="s">
-        <v>532</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G146" s="22"/>
       <c r="H146" s="22">
-        <v>1146</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" thickBot="1">
@@ -8183,10 +8183,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>11</v>
@@ -8195,13 +8195,13 @@
         <v>12</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H147" s="22">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15" thickBot="1">
@@ -8209,10 +8209,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>11</v>
@@ -8221,13 +8221,13 @@
         <v>12</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="G148" s="22">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>535</v>
       </c>
       <c r="H148" s="22">
-        <v>1519</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15" thickBot="1">
@@ -8235,10 +8235,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>11</v>
@@ -8247,13 +8247,13 @@
         <v>12</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="G149" s="22" t="s">
-        <v>78</v>
+        <v>538</v>
+      </c>
+      <c r="G149" s="22">
+        <v>1</v>
       </c>
       <c r="H149" s="22">
-        <v>1940</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15" thickBot="1">
@@ -8261,10 +8261,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>11</v>
@@ -8273,13 +8273,13 @@
         <v>12</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="H150" s="22">
-        <v>790</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15" thickBot="1">
@@ -8287,10 +8287,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>11</v>
@@ -8299,13 +8299,13 @@
         <v>12</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="H151" s="22">
-        <v>957</v>
+        <v>790</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15" thickBot="1">
@@ -8313,7 +8313,7 @@
         <v>8</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C152" s="22" t="s">
         <v>545</v>
@@ -8322,68 +8322,68 @@
         <v>11</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>13</v>
+        <v>477</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>518</v>
+        <v>95</v>
       </c>
       <c r="H152" s="22">
         <v>957</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="47" t="s">
+    <row r="153" spans="1:8" ht="15" thickBot="1">
+      <c r="A153" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="H153" s="22">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="C153" s="49" t="s">
+      <c r="C154" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="D153" s="50" t="s">
+      <c r="D154" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="51" t="s">
+      <c r="E154" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F153" s="52" t="s">
+      <c r="F154" s="52" t="s">
         <v>543</v>
       </c>
-      <c r="G153" s="49" t="s">
+      <c r="G154" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="H153" s="49">
+      <c r="H154" s="49">
         <v>944</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="G154" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="H154" s="5">
-        <v>1447</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8391,13 +8391,13 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>16</v>
+      <c r="D155" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>12</v>
@@ -8405,8 +8405,8 @@
       <c r="F155" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="G155" s="54" t="s">
-        <v>185</v>
+      <c r="G155" s="53" t="s">
+        <v>266</v>
       </c>
       <c r="H155" s="5">
         <v>1447</v>
@@ -8417,13 +8417,13 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>11</v>
+        <v>770</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>12</v>
@@ -8431,11 +8431,11 @@
       <c r="F156" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="G156" s="53" t="s">
+      <c r="G156" s="54" t="s">
         <v>185</v>
       </c>
       <c r="H156" s="5">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8443,13 +8443,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>16</v>
+      <c r="D157" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>12</v>
@@ -8457,7 +8457,7 @@
       <c r="F157" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="G157" s="55" t="s">
+      <c r="G157" s="53" t="s">
         <v>185</v>
       </c>
       <c r="H157" s="5">
@@ -8469,25 +8469,25 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>11</v>
+        <v>774</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G158" s="53" t="s">
-        <v>784</v>
+        <v>771</v>
+      </c>
+      <c r="G158" s="55" t="s">
+        <v>185</v>
       </c>
       <c r="H158" s="5">
-        <v>1616</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8495,13 +8495,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>16</v>
+      <c r="D159" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>12</v>
@@ -8510,7 +8510,7 @@
         <v>282</v>
       </c>
       <c r="G159" s="53" t="s">
-        <v>95</v>
+        <v>784</v>
       </c>
       <c r="H159" s="5">
         <v>1616</v>
@@ -8521,13 +8521,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>11</v>
+        <v>781</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>12</v>
@@ -8536,10 +8536,10 @@
         <v>282</v>
       </c>
       <c r="G160" s="53" t="s">
-        <v>787</v>
+        <v>95</v>
       </c>
       <c r="H160" s="5">
-        <v>1591</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8547,13 +8547,13 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>16</v>
+      <c r="D161" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>12</v>
@@ -8562,7 +8562,7 @@
         <v>282</v>
       </c>
       <c r="G161" s="53" t="s">
-        <v>121</v>
+        <v>787</v>
       </c>
       <c r="H161" s="5">
         <v>1591</v>
@@ -8573,13 +8573,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>11</v>
+        <v>785</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>12</v>
@@ -8588,10 +8588,10 @@
         <v>282</v>
       </c>
       <c r="G162" s="53" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H162" s="5">
-        <v>1528</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8599,13 +8599,13 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>16</v>
+      <c r="D163" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>12</v>
@@ -8614,7 +8614,7 @@
         <v>282</v>
       </c>
       <c r="G163" s="53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H163" s="5">
         <v>1528</v>
@@ -8625,13 +8625,13 @@
         <v>8</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>11</v>
+        <v>788</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>12</v>
@@ -8640,10 +8640,10 @@
         <v>282</v>
       </c>
       <c r="G164" s="53" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H164" s="5">
-        <v>1533</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8651,13 +8651,13 @@
         <v>8</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>16</v>
+      <c r="D165" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>12</v>
@@ -8666,7 +8666,7 @@
         <v>282</v>
       </c>
       <c r="G165" s="53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H165" s="5">
         <v>1533</v>
@@ -8677,23 +8677,25 @@
         <v>8</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>11</v>
+        <v>791</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="G166" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="G166" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="H166" s="5">
-        <v>996</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8701,10 +8703,10 @@
         <v>8</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>11</v>
@@ -8713,11 +8715,9 @@
         <v>12</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" s="53" t="s">
-        <v>799</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="G167" s="5"/>
       <c r="H167" s="5">
         <v>996</v>
       </c>
@@ -8727,25 +8727,25 @@
         <v>8</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>16</v>
+        <v>800</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F168" s="25" t="s">
-        <v>802</v>
-      </c>
-      <c r="G168" s="5">
-        <v>3</v>
+      <c r="F168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="53" t="s">
+        <v>799</v>
       </c>
       <c r="H168" s="5">
-        <v>1269</v>
+        <v>996</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8753,25 +8753,25 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>11</v>
+        <v>801</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>803</v>
-      </c>
-      <c r="G169" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="H169" s="53">
-        <v>1146</v>
+        <v>802</v>
+      </c>
+      <c r="G169" s="5">
+        <v>3</v>
+      </c>
+      <c r="H169" s="5">
+        <v>1269</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8779,13 +8779,13 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="D170" s="5" t="s">
-        <v>16</v>
+      <c r="D170" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>12</v>
@@ -8793,8 +8793,8 @@
       <c r="F170" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="G170" s="5" t="s">
-        <v>92</v>
+      <c r="G170" s="53" t="s">
+        <v>266</v>
       </c>
       <c r="H170" s="53">
         <v>1146</v>
@@ -8805,24 +8805,50 @@
         <v>8</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>11</v>
+        <v>804</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H171" s="53">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="G171" s="53">
+      <c r="G172" s="53">
         <v>1</v>
       </c>
-      <c r="H171" s="53">
+      <c r="H172" s="53">
         <v>2001</v>
       </c>
     </row>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="411">
   <si>
     <t>Execution</t>
   </si>
@@ -55,27 +55,12 @@
     <t>Call Home for Less</t>
   </si>
   <si>
-    <t>USSD_OPT_IN</t>
-  </si>
-  <si>
-    <t>USSD_Long_Code</t>
-  </si>
-  <si>
-    <t>*135#</t>
-  </si>
-  <si>
     <t>6,2,1</t>
   </si>
   <si>
     <t>TC_002</t>
   </si>
   <si>
-    <t>USSD_Short_Code</t>
-  </si>
-  <si>
-    <t>*135*30#</t>
-  </si>
-  <si>
     <t>TC_003</t>
   </si>
   <si>
@@ -91,39 +76,24 @@
     <t>Recharge_More_Time</t>
   </si>
   <si>
-    <t>USSD_Recharge</t>
-  </si>
-  <si>
-    <t>*135*</t>
-  </si>
-  <si>
     <t>TC_006</t>
   </si>
   <si>
     <t>Recharge_More_International</t>
   </si>
   <si>
-    <t>*138*</t>
-  </si>
-  <si>
     <t>TC_007</t>
   </si>
   <si>
     <t>Recharge_More_Data</t>
   </si>
   <si>
-    <t>*131*</t>
-  </si>
-  <si>
     <t>TC_008</t>
   </si>
   <si>
     <t>Recharge_More_Credit</t>
   </si>
   <si>
-    <t>*136*</t>
-  </si>
-  <si>
     <t>TC_009</t>
   </si>
   <si>
@@ -238,9 +208,6 @@
     <t>2min&amp;30MB AED3 Day</t>
   </si>
   <si>
-    <t>*135*3#</t>
-  </si>
-  <si>
     <t>1,1,5,1</t>
   </si>
   <si>
@@ -304,9 +271,6 @@
     <t>Zinger_Monthly_Rec1_FlexiChat_AED25</t>
   </si>
   <si>
-    <t>*135*4#</t>
-  </si>
-  <si>
     <t>1,1,1</t>
   </si>
   <si>
@@ -550,9 +514,6 @@
     <t>SFTier1</t>
   </si>
   <si>
-    <t>*135*25#</t>
-  </si>
-  <si>
     <t>TC_060</t>
   </si>
   <si>
@@ -571,9 +532,6 @@
     <t>Weekly International SMS Bundle</t>
   </si>
   <si>
-    <t>*135*75#</t>
-  </si>
-  <si>
     <t>TC_063</t>
   </si>
   <si>
@@ -622,54 +580,36 @@
     <t>International Minutes2</t>
   </si>
   <si>
-    <t>*135*300#</t>
-  </si>
-  <si>
     <t>TC_069</t>
   </si>
   <si>
     <t>IDDDailyBundle</t>
   </si>
   <si>
-    <t>*135*5#</t>
-  </si>
-  <si>
     <t>TC_070</t>
   </si>
   <si>
     <t>SpecialIDDOfferCVM1</t>
   </si>
   <si>
-    <t>*135*225#</t>
-  </si>
-  <si>
     <t>TC_071</t>
   </si>
   <si>
     <t>SpecialIDDOfferCVM2</t>
   </si>
   <si>
-    <t>*135*422#</t>
-  </si>
-  <si>
     <t>TC_072</t>
   </si>
   <si>
     <t>SpecialIDDOfferCVM3</t>
   </si>
   <si>
-    <t>*135*433#</t>
-  </si>
-  <si>
     <t>TC_073</t>
   </si>
   <si>
     <t>Daily Unlimited Social Bundle</t>
   </si>
   <si>
-    <t>*135*55#</t>
-  </si>
-  <si>
     <t>TC_074</t>
   </si>
   <si>
@@ -793,9 +733,6 @@
     <t>BB300MB</t>
   </si>
   <si>
-    <t>*135*1#</t>
-  </si>
-  <si>
     <t>TC_090</t>
   </si>
   <si>
@@ -841,45 +778,30 @@
     <t>NPPBBAct</t>
   </si>
   <si>
-    <t>*135*2#</t>
-  </si>
-  <si>
     <t>TC_096</t>
   </si>
   <si>
     <t>Start_Stop_Phase1</t>
   </si>
   <si>
-    <t>*555#</t>
-  </si>
-  <si>
     <t>TC_097</t>
   </si>
   <si>
     <t>Start_Stop_Phase2</t>
   </si>
   <si>
-    <t>*800#</t>
-  </si>
-  <si>
     <t>TC_098</t>
   </si>
   <si>
     <t>NewAloActivation</t>
   </si>
   <si>
-    <t>*135*200#</t>
-  </si>
-  <si>
     <t>TC_099</t>
   </si>
   <si>
     <t>KBChatnCallRec</t>
   </si>
   <si>
-    <t>*143#</t>
-  </si>
-  <si>
     <t>TC_100</t>
   </si>
   <si>
@@ -904,9 +826,6 @@
     <t>ICP_Mercury</t>
   </si>
   <si>
-    <t>*135*35#</t>
-  </si>
-  <si>
     <t>Test Scenarios</t>
   </si>
   <si>
@@ -1003,42 +922,27 @@
     <t>IDD Rate Cutters</t>
   </si>
   <si>
-    <t>*135*10#</t>
-  </si>
-  <si>
     <t>SpecialSocial25GBDataBundle</t>
   </si>
   <si>
     <t>Nepal Offer</t>
   </si>
   <si>
-    <t>*135*97#</t>
-  </si>
-  <si>
     <t>HappinessSIM</t>
   </si>
   <si>
     <t>Data24hBundle</t>
   </si>
   <si>
-    <t>*135*3733#</t>
-  </si>
-  <si>
     <t>DailyRoamDataPack</t>
   </si>
   <si>
-    <t>*135*111#</t>
-  </si>
-  <si>
     <t>WeeklyRoamDataPack</t>
   </si>
   <si>
     <t>RoamBndlASubDaily</t>
   </si>
   <si>
-    <t>*135*20#</t>
-  </si>
-  <si>
     <t>RoamBndlASubWeekly</t>
   </si>
   <si>
@@ -1081,33 +985,21 @@
     <t>IntCommunity</t>
   </si>
   <si>
-    <t>*135*71#</t>
-  </si>
-  <si>
     <t>SeamlessCallback</t>
   </si>
   <si>
-    <t xml:space="preserve">*135*20# </t>
-  </si>
-  <si>
     <t>Campaign Management</t>
   </si>
   <si>
     <t>Post Call Notification</t>
   </si>
   <si>
-    <t>*135*50#</t>
-  </si>
-  <si>
     <t>PPU</t>
   </si>
   <si>
     <t>BronzeMPromo</t>
   </si>
   <si>
-    <t>*135*250#</t>
-  </si>
-  <si>
     <t>Roaming Hajj Bundles</t>
   </si>
   <si>
@@ -1117,9 +1009,6 @@
     <t>NonstopDailyDBundle3AED</t>
   </si>
   <si>
-    <t xml:space="preserve">*135# </t>
-  </si>
-  <si>
     <t>5,2,1,1,1,1</t>
   </si>
   <si>
@@ -1132,18 +1021,12 @@
     <t>HotSpotActive</t>
   </si>
   <si>
-    <t>*135*85#</t>
-  </si>
-  <si>
     <t>RoamBndlASubDailyRec</t>
   </si>
   <si>
     <t>Local_PPU</t>
   </si>
   <si>
-    <t>*135*11#</t>
-  </si>
-  <si>
     <t>Roaming_PPU_A_B_GCC</t>
   </si>
   <si>
@@ -1156,140 +1039,227 @@
     <t>7,1,2</t>
   </si>
   <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>5,3,1,1,1</t>
+  </si>
+  <si>
+    <t>5,3,1,2,1</t>
+  </si>
+  <si>
+    <t>5,3,1,3,1</t>
+  </si>
+  <si>
+    <t>135*30</t>
+  </si>
+  <si>
+    <t>135*</t>
+  </si>
+  <si>
+    <t>138*</t>
+  </si>
+  <si>
+    <t>131*</t>
+  </si>
+  <si>
+    <t>136*</t>
+  </si>
+  <si>
+    <t>135*3</t>
+  </si>
+  <si>
+    <t>135*4</t>
+  </si>
+  <si>
+    <t>135*5</t>
+  </si>
+  <si>
+    <t>135*10</t>
+  </si>
+  <si>
+    <t>135*11</t>
+  </si>
+  <si>
+    <t>135*20</t>
+  </si>
+  <si>
+    <t>135*25</t>
+  </si>
+  <si>
+    <t>135*75</t>
+  </si>
+  <si>
+    <t>135*300</t>
+  </si>
+  <si>
+    <t>135*225</t>
+  </si>
+  <si>
+    <t>135*422</t>
+  </si>
+  <si>
+    <t>135*433</t>
+  </si>
+  <si>
+    <t>135*55</t>
+  </si>
+  <si>
+    <t>135*1</t>
+  </si>
+  <si>
+    <t>135*2</t>
+  </si>
+  <si>
+    <t>135*200</t>
+  </si>
+  <si>
+    <t>135*35</t>
+  </si>
+  <si>
+    <t>135*97</t>
+  </si>
+  <si>
+    <t>135*3733</t>
+  </si>
+  <si>
+    <t>135*111</t>
+  </si>
+  <si>
+    <t>135*71</t>
+  </si>
+  <si>
+    <t>135*50</t>
+  </si>
+  <si>
+    <t>135*250</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-*135*20#</t>
-  </si>
-  <si>
-    <t>TC_104</t>
-  </si>
-  <si>
-    <t>TC_105</t>
-  </si>
-  <si>
-    <t>TC_106</t>
-  </si>
-  <si>
-    <t>TC_107</t>
-  </si>
-  <si>
-    <t>TC_108</t>
-  </si>
-  <si>
-    <t>TC_109</t>
-  </si>
-  <si>
-    <t>TC_110</t>
-  </si>
-  <si>
-    <t>TC_111</t>
-  </si>
-  <si>
-    <t>TC_112</t>
-  </si>
-  <si>
-    <t>TC_113</t>
-  </si>
-  <si>
-    <t>TC_114</t>
-  </si>
-  <si>
-    <t>TC_115</t>
-  </si>
-  <si>
-    <t>TC_116</t>
-  </si>
-  <si>
-    <t>TC_117</t>
-  </si>
-  <si>
-    <t>TC_118</t>
-  </si>
-  <si>
-    <t>TC_119</t>
-  </si>
-  <si>
-    <t>TC_120</t>
-  </si>
-  <si>
-    <t>TC_121</t>
-  </si>
-  <si>
-    <t>TC_122</t>
-  </si>
-  <si>
-    <t>TC_123</t>
-  </si>
-  <si>
-    <t>TC_124</t>
-  </si>
-  <si>
-    <t>TC_125</t>
-  </si>
-  <si>
-    <t>TC_126</t>
-  </si>
-  <si>
-    <t>TC_127</t>
-  </si>
-  <si>
-    <t>TC_128</t>
-  </si>
-  <si>
-    <t>TC_129</t>
-  </si>
-  <si>
-    <t>TC_130</t>
-  </si>
-  <si>
-    <t>TC_131</t>
-  </si>
-  <si>
-    <t>TC_132</t>
-  </si>
-  <si>
-    <t>TC_133</t>
-  </si>
-  <si>
-    <t>TC_134</t>
-  </si>
-  <si>
-    <t>TC_135</t>
-  </si>
-  <si>
-    <t>TC_136</t>
-  </si>
-  <si>
-    <t>TC_137</t>
-  </si>
-  <si>
-    <t>TC_138</t>
-  </si>
-  <si>
-    <t>TC_139</t>
-  </si>
-  <si>
-    <t>TC_140</t>
-  </si>
-  <si>
-    <t>TC_141</t>
-  </si>
-  <si>
-    <t>TC_142</t>
-  </si>
-  <si>
-    <t>5,3,1,1,1</t>
-  </si>
-  <si>
-    <t>5,3,1,2,1</t>
-  </si>
-  <si>
-    <t>5,3,1,3,1</t>
+135*20</t>
+  </si>
+  <si>
+    <t>135*85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1495,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1514,9 +1484,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1873,54 +1840,54 @@
       <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="24" t="s">
-        <v>295</v>
+      <c r="B2" s="23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1932,20 +1899,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="8.7265625" style="5"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
@@ -1985,16 +1952,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>286</v>
+      </c>
+      <c r="F2" s="5">
+        <v>135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5">
         <v>820</v>
@@ -2005,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="G3" s="10">
         <v>3</v>
@@ -2031,19 +1998,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
@@ -2057,22 +2024,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>286</v>
+      </c>
+      <c r="F5" s="5">
+        <v>135</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5">
         <v>820</v>
@@ -2083,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
+        <v>271</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="G6" s="10"/>
     </row>
@@ -2104,19 +2071,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>23</v>
+        <v>271</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>383</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -2125,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
+        <v>271</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>384</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -2146,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>271</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -2167,22 +2134,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>36</v>
+        <v>286</v>
+      </c>
+      <c r="F10" s="8">
+        <v>135</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="8">
         <v>1126</v>
@@ -2193,22 +2160,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>39</v>
+        <v>286</v>
+      </c>
+      <c r="F11" s="8">
+        <v>135</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="8">
         <v>1130</v>
@@ -2219,22 +2186,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>42</v>
+        <v>286</v>
+      </c>
+      <c r="F12" s="8">
+        <v>135</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="8">
         <v>1132</v>
@@ -2245,22 +2212,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>45</v>
+        <v>286</v>
+      </c>
+      <c r="F13" s="8">
+        <v>135</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="8">
         <v>1133</v>
@@ -2271,22 +2238,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>48</v>
+        <v>286</v>
+      </c>
+      <c r="F14" s="8">
+        <v>135</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="8">
         <v>1134</v>
@@ -2297,22 +2264,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>51</v>
+        <v>286</v>
+      </c>
+      <c r="F15" s="8">
+        <v>135</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="H15" s="8">
         <v>1135</v>
@@ -2323,22 +2290,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>54</v>
+        <v>286</v>
+      </c>
+      <c r="F16" s="8">
+        <v>135</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="8">
         <v>1136</v>
@@ -2349,22 +2316,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>57</v>
+        <v>286</v>
+      </c>
+      <c r="F17" s="8">
+        <v>135</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="H17" s="8">
         <v>1450</v>
@@ -2375,22 +2342,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>60</v>
+        <v>286</v>
+      </c>
+      <c r="F18" s="8">
+        <v>135</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="H18" s="8">
         <v>1451</v>
@@ -2401,22 +2368,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>63</v>
+        <v>286</v>
+      </c>
+      <c r="F19" s="8">
+        <v>135</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H19" s="8">
         <v>1452</v>
@@ -2427,22 +2394,22 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>418</v>
+        <v>286</v>
+      </c>
+      <c r="F20" s="8">
+        <v>135</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>378</v>
       </c>
       <c r="H20" s="8">
         <v>997</v>
@@ -2453,3151 +2420,3151 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>419</v>
+        <v>286</v>
+      </c>
+      <c r="F21" s="8">
+        <v>135</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>379</v>
       </c>
       <c r="H21" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>420</v>
+        <v>286</v>
+      </c>
+      <c r="F22" s="8">
+        <v>135</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>380</v>
       </c>
       <c r="H22" s="8">
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+    <row r="23" spans="1:8" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>73</v>
+        <v>286</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="H23" s="8">
         <v>1150</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>76</v>
+        <v>286</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="H24" s="8">
         <v>1152</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>79</v>
+        <v>286</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="H25" s="8">
         <v>1153</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>82</v>
+        <v>286</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="H26" s="8">
         <v>1154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>85</v>
+        <v>286</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="H27" s="8">
         <v>1155</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>88</v>
+        <v>286</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="H28" s="8">
         <v>1156</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>91</v>
+        <v>286</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="H29" s="8">
         <v>1158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>95</v>
+        <v>286</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="H30" s="8">
         <v>1619</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>98</v>
+        <v>286</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="H31" s="8">
         <v>1539</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="H32" s="8">
         <v>1613</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+    <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>104</v>
+        <v>286</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="H33" s="8">
         <v>1580</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>107</v>
+        <v>286</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="H34" s="8">
         <v>1581</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+    <row r="35" spans="1:8" ht="15" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>110</v>
+        <v>286</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="H35" s="8">
         <v>1568</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>95</v>
+        <v>286</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="H36" s="8">
         <v>1569</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>98</v>
+        <v>286</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="H37" s="8">
         <v>1570</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="H38" s="8">
         <v>1555</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>104</v>
+        <v>286</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="H39" s="8">
         <v>1565</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>120</v>
+        <v>107</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>121</v>
+        <v>286</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="H40" s="8">
         <v>1563</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>124</v>
+        <v>286</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="H41" s="8">
         <v>1564</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>127</v>
+        <v>286</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="H42" s="8">
         <v>1597</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>129</v>
+        <v>116</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>130</v>
+        <v>286</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H43" s="8">
         <v>1598</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>132</v>
+        <v>119</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>133</v>
+        <v>286</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="H44" s="8">
         <v>1537</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>136</v>
+        <v>286</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="H45" s="8">
         <v>1545</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>139</v>
+        <v>286</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="H46" s="8">
         <v>1544</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+    <row r="47" spans="1:8" ht="15" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>141</v>
+        <v>128</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>142</v>
+        <v>286</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="H47" s="8">
         <v>1543</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+    <row r="48" spans="1:8" ht="15" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>145</v>
+        <v>286</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="H48" s="8">
         <v>1548</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>147</v>
+        <v>134</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>148</v>
+        <v>286</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="H49" s="8">
         <v>1549</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>151</v>
+        <v>286</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="H50" s="8">
         <v>1567</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+    <row r="51" spans="1:8" ht="15" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>153</v>
+        <v>140</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>154</v>
+        <v>286</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="H51" s="8">
         <v>1577</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>157</v>
+        <v>286</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="H52" s="8">
         <v>1578</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>95</v>
+        <v>286</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="H53" s="8">
         <v>1660</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>98</v>
+        <v>286</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="H54" s="8">
         <v>1661</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>163</v>
+        <v>150</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>101</v>
+        <v>286</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="H55" s="8">
         <v>1662</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>166</v>
+        <v>286</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="H56" s="8">
         <v>1663</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>168</v>
+        <v>155</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>169</v>
+        <v>286</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="H57" s="8">
         <v>1664</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>151</v>
+        <v>286</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="H58" s="8">
         <v>1665</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>154</v>
+        <v>286</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="H59" s="8">
         <v>1666</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>175</v>
+        <v>162</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G60" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G60" s="16"/>
       <c r="H60" s="8">
         <v>1694</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>178</v>
+        <v>164</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G61" s="16"/>
       <c r="H61" s="8">
         <v>1695</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>180</v>
+        <v>166</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G62" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" s="16"/>
       <c r="H62" s="8">
         <v>1696</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1">
+    <row r="63" spans="1:8" ht="15" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" s="17">
+        <v>286</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G63" s="16">
         <v>1</v>
       </c>
       <c r="H63" s="8">
         <v>999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+    <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G64" s="17">
+        <v>286</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G64" s="16">
         <v>2</v>
       </c>
       <c r="H64" s="8">
         <v>1003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1">
+    <row r="65" spans="1:8" ht="15" thickBot="1">
       <c r="A65" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>187</v>
+        <v>172</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>188</v>
+        <v>286</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="H65" s="8">
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15" thickBot="1">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>191</v>
+        <v>286</v>
+      </c>
+      <c r="F66" s="22">
+        <v>135</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="H66" s="8">
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>193</v>
+        <v>178</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>194</v>
+        <v>286</v>
+      </c>
+      <c r="F67" s="22">
+        <v>135</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="H67" s="8">
         <v>1147</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>196</v>
+        <v>181</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>197</v>
+        <v>286</v>
+      </c>
+      <c r="F68" s="22">
+        <v>135</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="H68" s="8">
         <v>1149</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+    <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="A69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>199</v>
+        <v>184</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G69" s="17">
+        <v>286</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G69" s="16">
         <v>1</v>
       </c>
       <c r="H69" s="8">
         <v>1650</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G70" s="17">
+        <v>286</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G70" s="16">
         <v>1</v>
       </c>
       <c r="H70" s="8">
         <v>1652</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1">
+    <row r="71" spans="1:8" ht="15" thickBot="1">
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>205</v>
+        <v>188</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="G71" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G71" s="16"/>
       <c r="H71" s="8">
         <v>1654</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>208</v>
+        <v>190</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G72" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="G72" s="16"/>
       <c r="H72" s="8">
         <v>1655</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1">
+    <row r="73" spans="1:8" ht="15" thickBot="1">
       <c r="A73" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>211</v>
+        <v>192</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G73" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="G73" s="16"/>
       <c r="H73" s="8">
         <v>1656</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G74" s="17">
+        <v>286</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="G74" s="16">
         <v>1</v>
       </c>
       <c r="H74" s="8">
         <v>1699</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>217</v>
+        <v>196</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>218</v>
+        <v>286</v>
+      </c>
+      <c r="F75" s="22">
+        <v>135</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="H75" s="8">
         <v>1458</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1">
+    <row r="76" spans="1:8" ht="15" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>220</v>
+        <v>199</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>221</v>
+        <v>286</v>
+      </c>
+      <c r="F76" s="22">
+        <v>135</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="H76" s="8">
         <v>1459</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+    <row r="77" spans="1:8" ht="15" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>223</v>
+        <v>202</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>224</v>
+        <v>286</v>
+      </c>
+      <c r="F77" s="22">
+        <v>135</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="H77" s="8">
         <v>1460</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>226</v>
+        <v>205</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>227</v>
+        <v>286</v>
+      </c>
+      <c r="F78" s="22">
+        <v>135</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="H78" s="8">
         <v>1461</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>229</v>
+        <v>208</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>230</v>
+        <v>286</v>
+      </c>
+      <c r="F79" s="22">
+        <v>135</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="H79" s="8">
         <v>1462</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15" thickBot="1">
       <c r="A80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>232</v>
+        <v>211</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>212</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>233</v>
+        <v>286</v>
+      </c>
+      <c r="F80" s="22">
+        <v>135</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="H80" s="8">
         <v>1463</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>235</v>
+        <v>214</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>230</v>
+        <v>286</v>
+      </c>
+      <c r="F81" s="22">
+        <v>135</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="H81" s="8">
         <v>1464</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15" thickBot="1">
       <c r="A82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>237</v>
+        <v>216</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>233</v>
+        <v>286</v>
+      </c>
+      <c r="F82" s="22">
+        <v>135</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="H82" s="8">
         <v>1465</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>239</v>
+        <v>218</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>240</v>
+        <v>286</v>
+      </c>
+      <c r="F83" s="22">
+        <v>135</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="H83" s="8">
         <v>1467</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15" thickBot="1">
       <c r="A84" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>242</v>
+        <v>221</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>243</v>
+        <v>286</v>
+      </c>
+      <c r="F84" s="22">
+        <v>135</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="H84" s="8">
         <v>1468</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>245</v>
+        <v>224</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>121</v>
+        <v>286</v>
+      </c>
+      <c r="F85" s="22">
+        <v>135</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="H85" s="8">
         <v>1469</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15" thickBot="1">
       <c r="A86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>247</v>
+        <v>226</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>124</v>
+        <v>286</v>
+      </c>
+      <c r="F86" s="22">
+        <v>135</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="H86" s="8">
         <v>1470</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15" thickBot="1">
       <c r="A87" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>249</v>
+        <v>228</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>127</v>
+        <v>286</v>
+      </c>
+      <c r="F87" s="22">
+        <v>135</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="H87" s="8">
         <v>1471</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>251</v>
+        <v>230</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>130</v>
+        <v>286</v>
+      </c>
+      <c r="F88" s="22">
+        <v>135</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="H88" s="8">
         <v>1472</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15" thickBot="1">
       <c r="A89" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>253</v>
+        <v>232</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>254</v>
+        <v>286</v>
+      </c>
+      <c r="F89" s="22">
+        <v>135</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="H89" s="8">
         <v>1269</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15" thickBot="1">
       <c r="A90" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>256</v>
+        <v>235</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>188</v>
+        <v>286</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="H90" s="8">
         <v>1805</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15" thickBot="1">
       <c r="A91" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>259</v>
+        <v>237</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>260</v>
+        <v>286</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="H91" s="8">
         <v>1818</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15" thickBot="1">
       <c r="A92" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>262</v>
+        <v>240</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>263</v>
+        <v>286</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="H92" s="8">
         <v>1819</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15" thickBot="1">
       <c r="A93" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>265</v>
+        <v>243</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>266</v>
+        <v>286</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="H93" s="8">
         <v>1802</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+    <row r="94" spans="1:8" ht="15" thickBot="1">
       <c r="A94" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>268</v>
+        <v>246</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>269</v>
+        <v>286</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="H94" s="8">
         <v>1803</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>268</v>
+        <v>249</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>269</v>
+        <v>286</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="H95" s="8">
         <v>1803</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1">
+    <row r="96" spans="1:8" ht="15" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>272</v>
+        <v>250</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G96" s="17"/>
+        <v>286</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G96" s="16"/>
       <c r="H96" s="8">
         <v>1817</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1">
+    <row r="97" spans="1:8" ht="15" thickBot="1">
       <c r="A97" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>275</v>
+        <v>252</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="G97" s="17">
+        <v>286</v>
+      </c>
+      <c r="F97" s="22">
+        <v>555</v>
+      </c>
+      <c r="G97" s="16">
         <v>1</v>
       </c>
       <c r="H97" s="8">
         <v>1681</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1">
+    <row r="98" spans="1:8" ht="15" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>278</v>
+        <v>254</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="G98" s="17">
+        <v>286</v>
+      </c>
+      <c r="F98" s="22">
+        <v>800</v>
+      </c>
+      <c r="G98" s="16">
         <v>1</v>
       </c>
       <c r="H98" s="8">
         <v>1682</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1">
+    <row r="99" spans="1:8" ht="15" thickBot="1">
       <c r="A99" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>281</v>
+        <v>256</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="G99" s="17">
+        <v>286</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G99" s="16">
         <v>1</v>
       </c>
       <c r="H99" s="8">
         <v>1199</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1">
+    <row r="100" spans="1:8" ht="15" thickBot="1">
       <c r="A100" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>284</v>
+        <v>258</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>95</v>
+        <v>286</v>
+      </c>
+      <c r="F100" s="22">
+        <v>143</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="H100" s="8">
         <v>1616</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" thickBot="1">
+    <row r="101" spans="1:8" ht="15" thickBot="1">
       <c r="A101" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>287</v>
+        <v>260</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>261</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>98</v>
+        <v>286</v>
+      </c>
+      <c r="F101" s="22">
+        <v>143</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="H101" s="8">
         <v>1591</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1">
+    <row r="102" spans="1:8" ht="15" thickBot="1">
       <c r="A102" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>289</v>
+        <v>262</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>121</v>
+        <v>286</v>
+      </c>
+      <c r="F102" s="22">
+        <v>143</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="H102" s="8">
         <v>1528</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1">
+    <row r="103" spans="1:8" ht="15" thickBot="1">
       <c r="A103" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>291</v>
+        <v>264</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>265</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>124</v>
+        <v>286</v>
+      </c>
+      <c r="F103" s="22">
+        <v>143</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="H103" s="8">
         <v>1533</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" thickBot="1">
+    <row r="104" spans="1:8" ht="15" thickBot="1">
       <c r="A104" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>293</v>
+        <v>266</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>188</v>
+        <v>286</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="H104" s="8">
         <v>1523</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1">
+    <row r="105" spans="1:8" ht="15" thickBot="1">
       <c r="A105" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C105" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H105" s="21">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1">
+      <c r="A106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" s="21">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1">
+      <c r="A107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="G107" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1">
+      <c r="A108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="G108" s="27">
+        <v>1</v>
+      </c>
+      <c r="H108" s="21">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" thickBot="1">
+      <c r="A109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G109" s="27"/>
+      <c r="H109" s="21">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" thickBot="1">
+      <c r="A110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G110" s="27"/>
+      <c r="H110" s="21">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1">
+      <c r="A111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G111" s="27"/>
+      <c r="H111" s="21">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" thickBot="1">
+      <c r="A112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G112" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H112" s="21">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickBot="1">
+      <c r="A113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G113" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" s="21">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" thickBot="1">
+      <c r="A114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G114" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" s="21">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15" thickBot="1">
+      <c r="A115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" s="21">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" thickBot="1">
+      <c r="A116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" s="21">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1">
+      <c r="A117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H117" s="21">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" thickBot="1">
+      <c r="A118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H118" s="21">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1">
+      <c r="A119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1">
+      <c r="A120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" thickBot="1">
+      <c r="A121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" thickBot="1">
+      <c r="A122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" thickBot="1">
+      <c r="A123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1">
+      <c r="A124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1">
+      <c r="A125" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" thickBot="1">
+      <c r="A126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" thickBot="1">
+      <c r="A127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1">
+      <c r="A128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" thickBot="1">
+      <c r="A129" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="G129" s="21">
+        <v>1</v>
+      </c>
+      <c r="H129" s="21">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" thickBot="1">
+      <c r="A130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G130" s="21">
+        <v>2</v>
+      </c>
+      <c r="H130" s="21">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1">
+      <c r="A131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F131" s="26">
+        <v>135</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H131" s="21">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" thickBot="1">
+      <c r="A132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G132" s="21">
+        <v>1</v>
+      </c>
+      <c r="H132" s="21">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29.5" thickBot="1">
+      <c r="A133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C133" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="27" t="s">
+      <c r="D133" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="G133" s="21">
+        <v>3</v>
+      </c>
+      <c r="H133" s="21">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" thickBot="1">
+      <c r="A134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F134" s="26">
+        <v>135</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="H134" s="21">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" thickBot="1">
+      <c r="A135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="G105" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H105" s="22">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C106" s="22" t="s">
+      <c r="D135" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" thickBot="1">
+      <c r="A136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C136" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H106" s="22">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C107" s="22" t="s">
+      <c r="D136" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F136" s="26">
+        <v>135</v>
+      </c>
+      <c r="G136" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="27" t="s">
+      <c r="H136" s="21">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" thickBot="1">
+      <c r="A137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C137" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="G107" s="28">
+      <c r="D137" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F137" s="26">
+        <v>135</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H137" s="21">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15" thickBot="1">
+      <c r="A138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="G138" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G108" s="28">
-        <v>1</v>
-      </c>
-      <c r="H108" s="22">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="27" t="s">
+      <c r="H138" s="21">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" thickBot="1">
+      <c r="A139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C139" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="G109" s="28"/>
-      <c r="H109" s="22">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C110" s="22" t="s">
+      <c r="D139" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="21">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" thickBot="1">
+      <c r="A140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C140" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="27" t="s">
+      <c r="D140" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H140" s="21">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" thickBot="1">
+      <c r="A141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C141" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="G110" s="28"/>
-      <c r="H110" s="22">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C111" s="22" t="s">
+      <c r="D141" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H141" s="21">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" thickBot="1">
+      <c r="A142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F142" s="26">
+        <v>135</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H142" s="21">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1">
+      <c r="A143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="G111" s="28"/>
-      <c r="H111" s="22">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G112" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H112" s="22">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A113" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G113" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H113" s="22">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G114" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H114" s="22">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H115" s="22">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="D143" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F143" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="C116" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H116" s="22">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A117" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H117" s="22">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A118" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H118" s="22">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A119" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A121" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A122" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A123" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A126" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="G129" s="22">
-        <v>1</v>
-      </c>
-      <c r="H129" s="22">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A130" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G130" s="22">
-        <v>2</v>
-      </c>
-      <c r="H130" s="22">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A131" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="H131" s="22">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A132" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C132" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="G132" s="22">
-        <v>1</v>
-      </c>
-      <c r="H132" s="22">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A133" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="G133" s="22">
-        <v>3</v>
-      </c>
-      <c r="H133" s="22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A134" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="H134" s="22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A135" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A136" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="H136" s="22">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A137" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="H137" s="22">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A138" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="G138" s="22">
-        <v>1</v>
-      </c>
-      <c r="H138" s="22">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G139" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H139" s="22">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A140" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H140" s="22">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A141" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H141" s="22">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A142" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="H142" s="22">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A143" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="H143" s="22">
+      <c r="G143" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H143" s="21">
         <v>944</v>
       </c>
     </row>
@@ -5615,34 +5582,34 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="6:6">
-      <c r="F6" s="24" t="s">
-        <v>311</v>
+      <c r="F6" s="23" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" s="5" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="5" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" s="5" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="5" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5654,15 +5621,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5678,46 +5645,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5733,87 +5700,87 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="6:12">
       <c r="F4" s="1" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>312</v>
+        <v>274</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="6:12">
-      <c r="F5" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>315</v>
+      <c r="F5" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="6:12">
-      <c r="F6" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>316</v>
+      <c r="F6" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="6:12">
-      <c r="F7" s="26" t="s">
-        <v>319</v>
+      <c r="F7" s="25" t="s">
+        <v>292</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="6:12">
-      <c r="F8" s="26" t="s">
-        <v>320</v>
+      <c r="F8" s="25" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="6:12">
-      <c r="F9" s="26" t="s">
-        <v>321</v>
+      <c r="F9" s="25" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="6:12">
-      <c r="F10" s="26" t="s">
-        <v>322</v>
+      <c r="F10" s="25" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="6:12">
-      <c r="F11" s="26" t="s">
-        <v>323</v>
+      <c r="F11" s="25" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="6:12">
-      <c r="F12" s="26" t="s">
-        <v>324</v>
+      <c r="F12" s="25" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5827,14 +5794,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -5859,13 +5826,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>276</v>
+      </c>
+      <c r="D2" s="5">
+        <v>135</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
@@ -5881,14 +5848,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -5913,16 +5880,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>275</v>
+      </c>
+      <c r="D2">
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="824">
   <si>
     <t>Execution</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Call Home for Less</t>
   </si>
   <si>
-    <t>6,2,1</t>
-  </si>
-  <si>
     <t>TC_002</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>TC_004</t>
   </si>
   <si>
-    <t>6,2,3</t>
-  </si>
-  <si>
     <t>TC_005</t>
   </si>
   <si>
@@ -2499,6 +2493,9 @@
   </si>
   <si>
     <t>135*005</t>
+  </si>
+  <si>
+    <t>6,3,3</t>
   </si>
 </sst>
 </file>
@@ -3229,10 +3226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3245,13 +3242,13 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>0</v>
@@ -3262,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -3276,10 +3273,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
@@ -3287,41 +3284,44 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>8</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>405</v>
@@ -3329,16 +3329,13 @@
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>407</v>
@@ -3349,13 +3346,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -3363,13 +3360,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -3377,13 +3374,13 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -3391,10 +3388,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>407</v>
@@ -3405,10 +3402,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>409</v>
@@ -3419,13 +3416,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>270</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>269</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
@@ -3433,13 +3430,13 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
@@ -3447,13 +3444,13 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>779</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -3461,13 +3458,13 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
@@ -3475,111 +3472,111 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>781</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>8</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>406</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>407</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>8</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>8</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>8</v>
@@ -3587,27 +3584,27 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>8</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>274</v>
+        <v>410</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -3615,10 +3612,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>405</v>
@@ -3629,42 +3626,28 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>407</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>$U$6:$U$12</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$Q$5:$Q$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>$U$7:$U$13</formula1>
+      <formula1>$Q$4:$Q$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3708,10 +3691,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" s="5">
         <v>135</v>
@@ -3762,16 +3745,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3812,169 +3795,169 @@
   <sheetData>
     <row r="1" spans="1:55">
       <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
         <v>413</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>414</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>415</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>416</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>417</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>418</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>419</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>420</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>421</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>422</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>423</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>424</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>425</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>426</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>427</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>428</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>429</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>430</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>431</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>432</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>433</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>434</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>435</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>436</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>437</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>438</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>439</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>440</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>441</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>442</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>443</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>444</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>445</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>446</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>447</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>448</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>449</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>450</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>451</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>452</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>453</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>454</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>455</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>456</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>457</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>458</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>459</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>460</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>461</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>462</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>463</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>464</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>465</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>466</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -3985,70 +3968,70 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="R2" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="S2" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="V2" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="W2" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="X2" s="28" t="s">
         <v>486</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -4056,10 +4039,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -4067,124 +4050,124 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="I4" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="K4" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="L4" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="N4" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="O4" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="P4" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>484</v>
+      </c>
+      <c r="R4" t="s">
         <v>489</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>490</v>
       </c>
-      <c r="Q4" t="s">
-        <v>486</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>491</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>492</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>485</v>
+      </c>
+      <c r="W4" t="s">
         <v>493</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>494</v>
       </c>
-      <c r="V4" t="s">
-        <v>487</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA4" t="s">
         <v>495</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
         <v>496</v>
       </c>
-      <c r="Y4" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>497</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>498</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="AE4" s="28" t="s">
+      <c r="AG4" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="AF4" s="28" t="s">
+      <c r="AH4" t="s">
         <v>502</v>
       </c>
-      <c r="AG4" s="28" t="s">
+      <c r="AI4" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="AI4" s="28" t="s">
+      <c r="AK4" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="AJ4" s="28" t="s">
+      <c r="AL4" t="s">
         <v>506</v>
       </c>
-      <c r="AK4" s="28" t="s">
+      <c r="AM4" t="s">
         <v>507</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>508</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>509</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>510</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -4192,82 +4175,82 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="H5" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="K5" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="L5" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="M5" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="N5" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="N5" s="28" t="s">
+      <c r="P5" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="Q5" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="R5" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="S5" t="s">
         <v>524</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="T5" t="s">
         <v>525</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="W5" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="X5" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="Y5" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="Z5" t="s">
         <v>531</v>
       </c>
-      <c r="Y5" s="28" t="s">
+      <c r="AA5" t="s">
         <v>532</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -4275,10 +4258,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -4286,10 +4269,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -4297,10 +4280,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4331,47 +4314,47 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4383,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4436,16 +4419,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" s="54">
         <v>135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="H2" s="5">
         <v>820</v>
@@ -4456,19 +4439,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G3" s="10">
         <v>3</v>
@@ -4482,19 +4465,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G4" s="10">
         <v>2</v>
@@ -4508,19 +4491,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -4534,22 +4517,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F6" s="54">
         <v>135</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>15</v>
+        <v>823</v>
       </c>
       <c r="H6" s="5">
         <v>820</v>
@@ -4560,19 +4543,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -4581,19 +4564,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -4602,19 +4585,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -4623,19 +4606,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -4644,22 +4627,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F11" s="55">
         <v>135</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H11" s="8">
         <v>1126</v>
@@ -4670,22 +4653,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F12" s="55">
         <v>135</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="8">
         <v>1130</v>
@@ -4696,22 +4679,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F13" s="55">
         <v>135</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" s="8">
         <v>1132</v>
@@ -4722,22 +4705,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F14" s="55">
         <v>135</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14" s="8">
         <v>1133</v>
@@ -4748,22 +4731,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F15" s="55">
         <v>135</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="8">
         <v>1134</v>
@@ -4774,22 +4757,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F16" s="55">
         <v>135</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="8">
         <v>1135</v>
@@ -4800,22 +4783,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F17" s="55">
         <v>135</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="8">
         <v>1136</v>
@@ -4826,22 +4809,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F18" s="55">
         <v>135</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="8">
         <v>1450</v>
@@ -4852,22 +4835,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F19" s="55">
         <v>135</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="8">
         <v>1451</v>
@@ -4878,22 +4861,22 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F20" s="55">
         <v>135</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" s="8">
         <v>1452</v>
@@ -4904,22 +4887,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F21" s="55">
         <v>135</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H21" s="8">
         <v>997</v>
@@ -4930,22 +4913,22 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F22" s="55">
         <v>135</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H22" s="8">
         <v>997</v>
@@ -4956,22 +4939,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F23" s="55">
         <v>135</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H23" s="8">
         <v>1000</v>
@@ -4982,22 +4965,22 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F24" s="55">
         <v>135</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H24" s="8">
         <v>1001</v>
@@ -5008,22 +4991,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H25" s="8">
         <v>1150</v>
@@ -5034,22 +5017,22 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H26" s="8">
         <v>1150</v>
@@ -5060,22 +5043,22 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" s="8">
         <v>1152</v>
@@ -5086,22 +5069,22 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F28" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H28" s="8">
         <v>1150</v>
@@ -5112,22 +5095,22 @@
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="8">
         <v>1153</v>
@@ -5138,22 +5121,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H30" s="8">
         <v>1150</v>
@@ -5164,22 +5147,22 @@
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H31" s="8">
         <v>1155</v>
@@ -5190,22 +5173,22 @@
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="8">
         <v>1150</v>
@@ -5216,22 +5199,22 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H33" s="8">
         <v>1156</v>
@@ -5242,22 +5225,22 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H34" s="8">
         <v>1150</v>
@@ -5268,22 +5251,22 @@
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H35" s="8">
         <v>1150</v>
@@ -5294,22 +5277,22 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F36" s="56" t="s">
-        <v>384</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="H36" s="8">
         <v>1155</v>
@@ -5320,22 +5303,22 @@
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H37" s="8">
         <v>1152</v>
@@ -5346,22 +5329,22 @@
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F38" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H38" s="8">
         <v>1158</v>
@@ -5372,22 +5355,22 @@
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H39" s="8">
         <v>1158</v>
@@ -5398,22 +5381,22 @@
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="H40" s="8">
         <v>1619</v>
@@ -5424,22 +5407,22 @@
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="H41" s="8">
         <v>1539</v>
@@ -5450,22 +5433,22 @@
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="H42" s="8">
         <v>1613</v>
@@ -5476,22 +5459,22 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F43" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="H43" s="8">
         <v>1580</v>
@@ -5502,22 +5485,22 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="H44" s="8">
         <v>1581</v>
@@ -5528,22 +5511,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="H45" s="8">
         <v>1568</v>
@@ -5554,22 +5537,22 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F46" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" s="8">
         <v>1569</v>
@@ -5580,22 +5563,22 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H47" s="8">
         <v>1570</v>
@@ -5606,22 +5589,22 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H48" s="8">
         <v>1555</v>
@@ -5632,22 +5615,22 @@
         <v>8</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H49" s="8">
         <v>1565</v>
@@ -5658,22 +5641,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F50" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="H50" s="8">
         <v>1563</v>
@@ -5684,22 +5667,22 @@
         <v>8</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="H51" s="8">
         <v>1564</v>
@@ -5710,22 +5693,22 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G52" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F52" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="H52" s="8">
         <v>1597</v>
@@ -5736,22 +5719,22 @@
         <v>8</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G53" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F53" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="H53" s="8">
         <v>1598</v>
@@ -5762,22 +5745,22 @@
         <v>8</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F54" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="H54" s="8">
         <v>1537</v>
@@ -5788,22 +5771,22 @@
         <v>8</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F55" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F55" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="H55" s="8">
         <v>1545</v>
@@ -5814,22 +5797,22 @@
         <v>8</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F56" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="H56" s="8">
         <v>1544</v>
@@ -5840,22 +5823,22 @@
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G57" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="H57" s="8">
         <v>1543</v>
@@ -5866,22 +5849,22 @@
         <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G58" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="H58" s="8">
         <v>1548</v>
@@ -5892,22 +5875,22 @@
         <v>8</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="H59" s="8">
         <v>1549</v>
@@ -5918,22 +5901,22 @@
         <v>8</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G60" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F60" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="H60" s="8">
         <v>1567</v>
@@ -5944,22 +5927,22 @@
         <v>8</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>140</v>
       </c>
       <c r="H61" s="8">
         <v>1577</v>
@@ -5970,22 +5953,22 @@
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G62" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="H62" s="8">
         <v>1578</v>
@@ -5996,22 +5979,22 @@
         <v>8</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H63" s="8">
         <v>1660</v>
@@ -6022,22 +6005,22 @@
         <v>8</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H64" s="8">
         <v>1661</v>
@@ -6048,22 +6031,22 @@
         <v>8</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H65" s="8">
         <v>1662</v>
@@ -6074,22 +6057,22 @@
         <v>8</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G66" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="H66" s="8">
         <v>1663</v>
@@ -6100,22 +6083,22 @@
         <v>8</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G67" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F67" s="57" t="s">
-        <v>385</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="H67" s="8">
         <v>1664</v>
@@ -6126,22 +6109,22 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F68" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H68" s="8">
         <v>1665</v>
@@ -6152,22 +6135,22 @@
         <v>8</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F69" s="57" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H69" s="8">
         <v>1666</v>
@@ -6178,19 +6161,19 @@
         <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="8">
@@ -6202,19 +6185,19 @@
         <v>8</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="8">
@@ -6226,19 +6209,19 @@
         <v>8</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F72" s="57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="8">
@@ -6250,19 +6233,19 @@
         <v>8</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F73" s="57" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G73" s="16">
         <v>1</v>
@@ -6276,19 +6259,19 @@
         <v>8</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F74" s="57" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G74" s="16">
         <v>2</v>
@@ -6302,22 +6285,22 @@
         <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="G75" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F75" s="57" t="s">
-        <v>384</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="H75" s="8">
         <v>966</v>
@@ -6328,22 +6311,22 @@
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F76" s="57">
         <v>135</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H76" s="8">
         <v>1145</v>
@@ -6354,22 +6337,22 @@
         <v>8</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F77" s="57">
         <v>135</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H77" s="8">
         <v>1147</v>
@@ -6380,22 +6363,22 @@
         <v>8</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F78" s="57">
         <v>135</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H78" s="8">
         <v>1149</v>
@@ -6406,19 +6389,19 @@
         <v>8</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F79" s="57" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G79" s="16">
         <v>1</v>
@@ -6432,19 +6415,19 @@
         <v>8</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G80" s="16">
         <v>1</v>
@@ -6458,19 +6441,19 @@
         <v>8</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F81" s="57" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="8">
@@ -6482,19 +6465,19 @@
         <v>8</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F82" s="57" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G82" s="16"/>
       <c r="H82" s="8">
@@ -6506,19 +6489,19 @@
         <v>8</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F83" s="57" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="8">
@@ -6530,19 +6513,19 @@
         <v>8</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F84" s="57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G84" s="16">
         <v>1</v>
@@ -6556,22 +6539,22 @@
         <v>8</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F85" s="57">
         <v>135</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H85" s="8">
         <v>1458</v>
@@ -6582,22 +6565,22 @@
         <v>8</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F86" s="57">
         <v>135</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H86" s="8">
         <v>1459</v>
@@ -6608,22 +6591,22 @@
         <v>8</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F87" s="57">
         <v>135</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H87" s="8">
         <v>1460</v>
@@ -6634,22 +6617,22 @@
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F88" s="57">
         <v>135</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H88" s="8">
         <v>1461</v>
@@ -6660,22 +6643,22 @@
         <v>8</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F89" s="57">
         <v>135</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H89" s="8">
         <v>1462</v>
@@ -6686,22 +6669,22 @@
         <v>8</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F90" s="57">
         <v>135</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H90" s="8">
         <v>1463</v>
@@ -6712,22 +6695,22 @@
         <v>8</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F91" s="57">
         <v>135</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H91" s="8">
         <v>1464</v>
@@ -6738,22 +6721,22 @@
         <v>8</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F92" s="57">
         <v>135</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H92" s="8">
         <v>1465</v>
@@ -6764,22 +6747,22 @@
         <v>8</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F93" s="57">
         <v>135</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H93" s="8">
         <v>1467</v>
@@ -6790,22 +6773,22 @@
         <v>8</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F94" s="57">
         <v>135</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H94" s="8">
         <v>1468</v>
@@ -6816,22 +6799,22 @@
         <v>8</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F95" s="57">
         <v>135</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H95" s="8">
         <v>1469</v>
@@ -6842,22 +6825,22 @@
         <v>8</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F96" s="57">
         <v>135</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H96" s="8">
         <v>1470</v>
@@ -6868,22 +6851,22 @@
         <v>8</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F97" s="57">
         <v>135</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H97" s="8">
         <v>1471</v>
@@ -6894,22 +6877,22 @@
         <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F98" s="57">
         <v>135</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H98" s="8">
         <v>1472</v>
@@ -6920,22 +6903,22 @@
         <v>8</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F99" s="57">
         <v>135</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H99" s="8">
         <v>1269</v>
@@ -6946,22 +6929,22 @@
         <v>8</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H100" s="8">
         <v>1805</v>
@@ -6972,22 +6955,22 @@
         <v>8</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F101" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G101" s="16" t="s">
         <v>235</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F101" s="57" t="s">
-        <v>395</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="H101" s="8">
         <v>1818</v>
@@ -6998,22 +6981,22 @@
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F102" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G102" s="16" t="s">
         <v>238</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F102" s="57" t="s">
-        <v>395</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="H102" s="8">
         <v>1819</v>
@@ -7024,22 +7007,22 @@
         <v>8</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F103" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G103" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F103" s="57" t="s">
-        <v>395</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>243</v>
       </c>
       <c r="H103" s="8">
         <v>1802</v>
@@ -7050,22 +7033,22 @@
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F104" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F104" s="57" t="s">
-        <v>395</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="H104" s="8">
         <v>1803</v>
@@ -7076,22 +7059,22 @@
         <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F105" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H105" s="8">
         <v>1803</v>
@@ -7102,19 +7085,19 @@
         <v>8</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F106" s="57" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="8">
@@ -7126,16 +7109,16 @@
         <v>8</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F107" s="57">
         <v>555</v>
@@ -7152,16 +7135,16 @@
         <v>8</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F108" s="57">
         <v>800</v>
@@ -7178,19 +7161,19 @@
         <v>8</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F109" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G109" s="16">
         <v>1</v>
@@ -7204,22 +7187,22 @@
         <v>8</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F110" s="57">
         <v>143</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H110" s="8">
         <v>1616</v>
@@ -7230,22 +7213,22 @@
         <v>8</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F111" s="57">
         <v>143</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H111" s="8">
         <v>1591</v>
@@ -7256,22 +7239,22 @@
         <v>8</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F112" s="57">
         <v>143</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H112" s="8">
         <v>1528</v>
@@ -7282,22 +7265,22 @@
         <v>8</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F113" s="57">
         <v>143</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H113" s="8">
         <v>1533</v>
@@ -7308,22 +7291,22 @@
         <v>8</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C114" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="E114" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F114" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H114" s="8">
         <v>1523</v>
@@ -7334,19 +7317,19 @@
         <v>8</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D115" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F115" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G115" s="16">
         <v>1</v>
@@ -7360,22 +7343,22 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F116" s="58" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H116" s="21">
         <v>828</v>
@@ -7386,22 +7369,22 @@
         <v>8</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F117" s="58" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H117" s="21">
         <v>1157</v>
@@ -7412,19 +7395,19 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F118" s="58" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G118" s="25">
         <v>1</v>
@@ -7435,19 +7418,19 @@
         <v>8</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F119" s="58" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G119" s="25">
         <v>1</v>
@@ -7461,19 +7444,19 @@
         <v>8</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F120" s="58" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G120" s="25"/>
       <c r="H120" s="21">
@@ -7485,19 +7468,19 @@
         <v>8</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F121" s="58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G121" s="25"/>
       <c r="H121" s="21">
@@ -7509,19 +7492,19 @@
         <v>8</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F122" s="58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="21">
@@ -7533,22 +7516,22 @@
         <v>8</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F123" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H123" s="21">
         <v>1232</v>
@@ -7559,22 +7542,22 @@
         <v>8</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F124" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H124" s="21">
         <v>1233</v>
@@ -7585,22 +7568,22 @@
         <v>8</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F125" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H125" s="21">
         <v>1234</v>
@@ -7611,22 +7594,22 @@
         <v>8</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F126" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H126" s="21">
         <v>1235</v>
@@ -7637,22 +7620,22 @@
         <v>8</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F127" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H127" s="21">
         <v>1240</v>
@@ -7663,22 +7646,22 @@
         <v>8</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F128" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H128" s="21">
         <v>1242</v>
@@ -7689,22 +7672,22 @@
         <v>8</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F129" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H129" s="21">
         <v>1243</v>
@@ -7715,19 +7698,19 @@
         <v>8</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F130" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G130" s="21"/>
       <c r="H130" s="21">
@@ -7739,19 +7722,19 @@
         <v>8</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F131" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G131" s="21"/>
       <c r="H131" s="21">
@@ -7763,19 +7746,19 @@
         <v>8</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F132" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G132" s="21"/>
       <c r="H132" s="21">
@@ -7787,19 +7770,19 @@
         <v>8</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F133" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G133" s="21"/>
       <c r="H133" s="21">
@@ -7811,19 +7794,19 @@
         <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F134" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G134" s="21"/>
       <c r="H134" s="21">
@@ -7835,19 +7818,19 @@
         <v>8</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F135" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G135" s="21"/>
       <c r="H135" s="21">
@@ -7859,19 +7842,19 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F136" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="21">
@@ -7883,19 +7866,19 @@
         <v>8</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F137" s="58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="21">
@@ -7907,19 +7890,19 @@
         <v>8</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F138" s="58" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G138" s="21"/>
       <c r="H138" s="21">
@@ -7931,19 +7914,19 @@
         <v>8</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F139" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G139" s="21"/>
       <c r="H139" s="21">
@@ -7955,19 +7938,19 @@
         <v>8</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F140" s="58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G140" s="21">
         <v>1</v>
@@ -7981,19 +7964,19 @@
         <v>8</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F141" s="58" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G141" s="21">
         <v>2</v>
@@ -8007,22 +7990,22 @@
         <v>8</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F142" s="58">
         <v>135</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H142" s="21">
         <v>832</v>
@@ -8033,19 +8016,19 @@
         <v>8</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F143" s="58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G143" s="21">
         <v>1</v>
@@ -8059,19 +8042,19 @@
         <v>8</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F144" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G144" s="21">
         <v>3</v>
@@ -8085,22 +8068,22 @@
         <v>8</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" s="58">
         <v>135</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H145" s="21">
         <v>1800</v>
@@ -8111,19 +8094,19 @@
         <v>8</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F146" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="21">
@@ -8135,22 +8118,22 @@
         <v>8</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F147" s="58">
         <v>135</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H147" s="21">
         <v>1146</v>
@@ -8161,22 +8144,22 @@
         <v>8</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F148" s="58">
         <v>135</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H148" s="21">
         <v>1148</v>
@@ -8187,19 +8170,19 @@
         <v>8</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F149" s="58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G149" s="21">
         <v>1</v>
@@ -8213,22 +8196,22 @@
         <v>8</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F150" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H150" s="21">
         <v>1940</v>
@@ -8239,22 +8222,22 @@
         <v>8</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F151" s="58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H151" s="21">
         <v>790</v>
@@ -8265,22 +8248,22 @@
         <v>8</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F152" s="58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H152" s="21">
         <v>957</v>
@@ -8291,22 +8274,22 @@
         <v>8</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F153" s="58">
         <v>135</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H153" s="21">
         <v>957</v>
@@ -8317,22 +8300,22 @@
         <v>8</v>
       </c>
       <c r="B154" s="46" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D154" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F154" s="59" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G154" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H154" s="47">
         <v>944</v>
@@ -8343,22 +8326,22 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F155" s="54" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H155" s="5">
         <v>1447</v>
@@ -8369,22 +8352,22 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F156" s="54" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H156" s="5">
         <v>1447</v>
@@ -8395,22 +8378,22 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F157" s="54" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G157" s="50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H157" s="5">
         <v>1448</v>
@@ -8421,22 +8404,22 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F158" s="54" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G158" s="52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H158" s="5">
         <v>1448</v>
@@ -8447,22 +8430,22 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F159" s="54">
         <v>143</v>
       </c>
       <c r="G159" s="50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H159" s="5">
         <v>1616</v>
@@ -8473,22 +8456,22 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F160" s="54">
         <v>143</v>
       </c>
       <c r="G160" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H160" s="5">
         <v>1616</v>
@@ -8499,22 +8482,22 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F161" s="54">
         <v>143</v>
       </c>
       <c r="G161" s="50" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H161" s="5">
         <v>1591</v>
@@ -8525,22 +8508,22 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F162" s="54">
         <v>143</v>
       </c>
       <c r="G162" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H162" s="5">
         <v>1591</v>
@@ -8551,22 +8534,22 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F163" s="54">
         <v>143</v>
       </c>
       <c r="G163" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H163" s="5">
         <v>1528</v>
@@ -8577,22 +8560,22 @@
         <v>8</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F164" s="54">
         <v>143</v>
       </c>
       <c r="G164" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H164" s="5">
         <v>1528</v>
@@ -8603,22 +8586,22 @@
         <v>8</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F165" s="54">
         <v>143</v>
       </c>
       <c r="G165" s="50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H165" s="5">
         <v>1533</v>
@@ -8629,22 +8612,22 @@
         <v>8</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F166" s="54">
         <v>143</v>
       </c>
       <c r="G166" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H166" s="5">
         <v>1533</v>
@@ -8655,19 +8638,19 @@
         <v>8</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F167" s="54" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5">
@@ -8679,22 +8662,22 @@
         <v>8</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F168" s="54">
         <v>135</v>
       </c>
       <c r="G168" s="50" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H168" s="5">
         <v>996</v>
@@ -8705,19 +8688,19 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F169" s="60" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G169" s="5">
         <v>3</v>
@@ -8731,22 +8714,22 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F170" s="60" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G170" s="50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H170" s="50">
         <v>1146</v>
@@ -8757,22 +8740,22 @@
         <v>8</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F171" s="60" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H171" s="50">
         <v>1146</v>
@@ -8783,19 +8766,19 @@
         <v>8</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F172" s="54" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G172" s="50">
         <v>1</v>
@@ -9065,751 +9048,751 @@
   <sheetData>
     <row r="1" spans="1:249" s="30" customFormat="1">
       <c r="A1" s="30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="S1" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="Z1" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AC1" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AE1" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AF1" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AG1" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AH1" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AI1" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AK1" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AL1" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AM1" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AN1" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AO1" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AP1" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AR1" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AS1" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AT1" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AU1" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AV1" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AW1" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AX1" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AY1" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AZ1" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="BA1" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="BB1" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="AY1" s="30" t="s">
+      <c r="BC1" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="AZ1" s="30" t="s">
+      <c r="BD1" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="BA1" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="BB1" s="30" t="s">
+      <c r="BE1" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="BC1" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="BD1" s="30" t="s">
+      <c r="BF1" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="BG1" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="BE1" s="30" t="s">
+      <c r="BH1" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="BI1" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="BF1" s="30" t="s">
+      <c r="BJ1" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="BG1" s="30" t="s">
+      <c r="BK1" s="30" t="s">
         <v>569</v>
       </c>
-      <c r="BH1" s="30" t="s">
+      <c r="BL1" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="BI1" s="30" t="s">
+      <c r="BM1" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="BJ1" s="30" t="s">
+      <c r="BN1" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="BK1" s="30" t="s">
+      <c r="BO1" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="BL1" s="30" t="s">
+      <c r="BP1" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="BM1" s="30" t="s">
+      <c r="BQ1" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="BN1" s="30" t="s">
+      <c r="BR1" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="BO1" s="30" t="s">
+      <c r="BS1" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="BP1" s="30" t="s">
+      <c r="BT1" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="BQ1" s="30" t="s">
+      <c r="BU1" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="BR1" s="30" t="s">
+      <c r="BV1" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="BS1" s="30" t="s">
+      <c r="BW1" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="BT1" s="30" t="s">
+      <c r="BX1" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="BU1" s="30" t="s">
+      <c r="BY1" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="BV1" s="30" t="s">
+      <c r="BZ1" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="BW1" s="30" t="s">
+      <c r="CA1" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="BX1" s="30" t="s">
+      <c r="CB1" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="BY1" s="30" t="s">
+      <c r="CC1" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="BZ1" s="30" t="s">
+      <c r="CD1" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="CA1" s="30" t="s">
+      <c r="CE1" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="CB1" s="30" t="s">
+      <c r="CF1" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="CC1" s="30" t="s">
+      <c r="CG1" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="CD1" s="30" t="s">
+      <c r="CH1" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="CE1" s="30" t="s">
+      <c r="CI1" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="CF1" s="30" t="s">
+      <c r="CJ1" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="CG1" s="30" t="s">
+      <c r="CK1" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="CH1" s="30" t="s">
+      <c r="CL1" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CM1" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="CJ1" s="30" t="s">
+      <c r="CN1" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="CK1" s="30" t="s">
+      <c r="CO1" s="30" t="s">
         <v>584</v>
       </c>
-      <c r="CL1" s="30" t="s">
+      <c r="CP1" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="CM1" s="30" t="s">
+      <c r="CQ1" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="CN1" s="30" t="s">
+      <c r="CR1" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="CO1" s="30" t="s">
+      <c r="CS1" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="CP1" s="30" t="s">
+      <c r="CT1" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="CQ1" s="30" t="s">
+      <c r="CU1" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="CR1" s="30" t="s">
+      <c r="CV1" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="CS1" s="30" t="s">
+      <c r="CW1" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="CT1" s="30" t="s">
+      <c r="CX1" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="CU1" s="30" t="s">
+      <c r="CY1" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="CV1" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="CW1" s="30" t="s">
+      <c r="CZ1" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="CX1" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="CY1" s="30" t="s">
+      <c r="DA1" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="CZ1" s="30" t="s">
+      <c r="DB1" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="DA1" s="30" t="s">
+      <c r="DC1" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="DB1" s="30" t="s">
+      <c r="DD1" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="DC1" s="30" t="s">
+      <c r="DE1" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="DD1" s="30" t="s">
+      <c r="DF1" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="DE1" s="30" t="s">
+      <c r="DG1" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="DF1" s="30" t="s">
+      <c r="DH1" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="DG1" s="30" t="s">
+      <c r="DI1" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="DH1" s="30" t="s">
+      <c r="DJ1" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="DI1" s="30" t="s">
+      <c r="DK1" s="30" t="s">
         <v>601</v>
       </c>
-      <c r="DJ1" s="30" t="s">
+      <c r="DL1" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="DK1" s="30" t="s">
+      <c r="DM1" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="DL1" s="30" t="s">
+      <c r="DN1" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="DM1" s="30" t="s">
+      <c r="DO1" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="DN1" s="30" t="s">
+      <c r="DP1" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="DO1" s="30" t="s">
+      <c r="DQ1" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="DP1" s="30" t="s">
+      <c r="DR1" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="DQ1" s="30" t="s">
+      <c r="DS1" s="30" t="s">
         <v>609</v>
       </c>
-      <c r="DR1" s="30" t="s">
+      <c r="DT1" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="DS1" s="30" t="s">
+      <c r="DU1" s="30" t="s">
         <v>611</v>
       </c>
-      <c r="DT1" s="30" t="s">
+      <c r="DV1" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="DU1" s="30" t="s">
+      <c r="DW1" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="DV1" s="30" t="s">
+      <c r="DX1" s="30" t="s">
         <v>614</v>
       </c>
-      <c r="DW1" s="30" t="s">
+      <c r="DY1" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="DX1" s="30" t="s">
+      <c r="DZ1" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="DY1" s="30" t="s">
+      <c r="EA1" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="DZ1" s="30" t="s">
+      <c r="EB1" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="EA1" s="30" t="s">
+      <c r="EC1" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="EB1" s="30" t="s">
+      <c r="ED1" s="30" t="s">
         <v>620</v>
       </c>
-      <c r="EC1" s="30" t="s">
+      <c r="EE1" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="ED1" s="30" t="s">
+      <c r="EF1" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="EE1" s="30" t="s">
+      <c r="EG1" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="EF1" s="30" t="s">
+      <c r="EH1" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="EG1" s="30" t="s">
+      <c r="EI1" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="EH1" s="30" t="s">
+      <c r="EJ1" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="EI1" s="30" t="s">
+      <c r="EK1" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="EJ1" s="30" t="s">
+      <c r="EL1" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="EK1" s="30" t="s">
+      <c r="EM1" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="EL1" s="30" t="s">
+      <c r="EN1" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="EM1" s="30" t="s">
+      <c r="EO1" s="30" t="s">
         <v>631</v>
       </c>
-      <c r="EN1" s="30" t="s">
+      <c r="EP1" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="EO1" s="30" t="s">
+      <c r="EQ1" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="EP1" s="30" t="s">
+      <c r="ER1" s="30" t="s">
         <v>634</v>
       </c>
-      <c r="EQ1" s="30" t="s">
+      <c r="ES1" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="ER1" s="30" t="s">
+      <c r="ET1" s="30" t="s">
         <v>636</v>
       </c>
-      <c r="ES1" s="30" t="s">
+      <c r="EU1" s="30" t="s">
         <v>637</v>
       </c>
-      <c r="ET1" s="30" t="s">
+      <c r="EV1" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="EU1" s="30" t="s">
+      <c r="EW1" s="30" t="s">
         <v>639</v>
       </c>
-      <c r="EV1" s="30" t="s">
+      <c r="EX1" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="EW1" s="30" t="s">
+      <c r="EY1" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="EX1" s="30" t="s">
+      <c r="EZ1" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="EY1" s="30" t="s">
+      <c r="FA1" s="30" t="s">
         <v>643</v>
       </c>
-      <c r="EZ1" s="30" t="s">
+      <c r="FB1" s="30" t="s">
         <v>644</v>
       </c>
-      <c r="FA1" s="30" t="s">
+      <c r="FC1" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="FB1" s="30" t="s">
+      <c r="FD1" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="FC1" s="30" t="s">
+      <c r="FE1" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="FD1" s="30" t="s">
+      <c r="FF1" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="FE1" s="30" t="s">
+      <c r="FG1" s="30" t="s">
         <v>649</v>
       </c>
-      <c r="FF1" s="30" t="s">
+      <c r="FH1" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="FG1" s="30" t="s">
+      <c r="FI1" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="FH1" s="30" t="s">
+      <c r="FJ1" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="FI1" s="30" t="s">
+      <c r="FK1" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="FJ1" s="30" t="s">
+      <c r="FL1" s="30" t="s">
         <v>654</v>
       </c>
-      <c r="FK1" s="30" t="s">
+      <c r="FM1" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="FL1" s="30" t="s">
+      <c r="FN1" s="30" t="s">
         <v>656</v>
       </c>
-      <c r="FM1" s="30" t="s">
+      <c r="FO1" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="FN1" s="30" t="s">
+      <c r="FP1" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="FO1" s="30" t="s">
+      <c r="FQ1" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="FP1" s="30" t="s">
+      <c r="FR1" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="FQ1" s="30" t="s">
+      <c r="FS1" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="FR1" s="30" t="s">
+      <c r="FT1" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="FS1" s="30" t="s">
+      <c r="FU1" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="FT1" s="30" t="s">
+      <c r="FV1" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="FU1" s="30" t="s">
+      <c r="FW1" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="FV1" s="30" t="s">
+      <c r="FX1" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="FW1" s="30" t="s">
+      <c r="FY1" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="FX1" s="30" t="s">
+      <c r="FZ1" s="30" t="s">
         <v>668</v>
       </c>
-      <c r="FY1" s="30" t="s">
+      <c r="GA1" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="FZ1" s="30" t="s">
+      <c r="GB1" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="GA1" s="30" t="s">
+      <c r="GC1" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="GB1" s="30" t="s">
+      <c r="GD1" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="GC1" s="30" t="s">
+      <c r="GE1" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="GD1" s="30" t="s">
+      <c r="GF1" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="GE1" s="30" t="s">
+      <c r="GG1" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="GF1" s="30" t="s">
+      <c r="GH1" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="GG1" s="30" t="s">
+      <c r="GI1" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="GH1" s="30" t="s">
+      <c r="GJ1" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="GI1" s="30" t="s">
+      <c r="GK1" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="GJ1" s="30" t="s">
+      <c r="GL1" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="GK1" s="30" t="s">
+      <c r="GM1" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="GL1" s="30" t="s">
+      <c r="GN1" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="GM1" s="30" t="s">
+      <c r="GO1" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="GN1" s="30" t="s">
+      <c r="GP1" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="GO1" s="30" t="s">
+      <c r="GQ1" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="GP1" s="30" t="s">
+      <c r="GR1" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="GQ1" s="30" t="s">
+      <c r="GS1" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="GR1" s="30" t="s">
+      <c r="GT1" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="GS1" s="30" t="s">
+      <c r="GU1" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="GT1" s="30" t="s">
+      <c r="GV1" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="GU1" s="30" t="s">
+      <c r="GW1" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="GV1" s="30" t="s">
+      <c r="GX1" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="GW1" s="30" t="s">
+      <c r="GY1" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="GX1" s="30" t="s">
+      <c r="GZ1" s="30" t="s">
         <v>694</v>
       </c>
-      <c r="GY1" s="30" t="s">
+      <c r="HA1" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="GZ1" s="30" t="s">
+      <c r="HB1" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="HA1" s="30" t="s">
+      <c r="HC1" s="30" t="s">
         <v>697</v>
       </c>
-      <c r="HB1" s="30" t="s">
+      <c r="HD1" s="30" t="s">
         <v>698</v>
       </c>
-      <c r="HC1" s="30" t="s">
+      <c r="HE1" s="30" t="s">
         <v>699</v>
       </c>
-      <c r="HD1" s="30" t="s">
+      <c r="HF1" s="30" t="s">
         <v>700</v>
       </c>
-      <c r="HE1" s="30" t="s">
+      <c r="HG1" s="30" t="s">
         <v>701</v>
       </c>
-      <c r="HF1" s="30" t="s">
+      <c r="HH1" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="HG1" s="30" t="s">
+      <c r="HI1" s="30" t="s">
         <v>703</v>
       </c>
-      <c r="HH1" s="30" t="s">
+      <c r="HJ1" s="30" t="s">
         <v>704</v>
       </c>
-      <c r="HI1" s="30" t="s">
+      <c r="HK1" s="30" t="s">
         <v>705</v>
       </c>
-      <c r="HJ1" s="30" t="s">
+      <c r="HL1" s="30" t="s">
         <v>706</v>
       </c>
-      <c r="HK1" s="30" t="s">
+      <c r="HM1" s="30" t="s">
         <v>707</v>
       </c>
-      <c r="HL1" s="30" t="s">
+      <c r="HN1" s="30" t="s">
         <v>708</v>
       </c>
-      <c r="HM1" s="30" t="s">
+      <c r="HO1" s="30" t="s">
         <v>709</v>
       </c>
-      <c r="HN1" s="30" t="s">
+      <c r="HP1" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="HO1" s="30" t="s">
+      <c r="HQ1" s="30" t="s">
         <v>711</v>
       </c>
-      <c r="HP1" s="30" t="s">
+      <c r="HR1" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="HQ1" s="30" t="s">
+      <c r="HS1" s="30" t="s">
         <v>713</v>
       </c>
-      <c r="HR1" s="30" t="s">
+      <c r="HT1" s="30" t="s">
         <v>714</v>
       </c>
-      <c r="HS1" s="30" t="s">
+      <c r="HU1" s="30" t="s">
         <v>715</v>
       </c>
-      <c r="HT1" s="30" t="s">
+      <c r="HV1" s="30" t="s">
         <v>716</v>
       </c>
-      <c r="HU1" s="30" t="s">
+      <c r="HW1" s="30" t="s">
         <v>717</v>
       </c>
-      <c r="HV1" s="30" t="s">
+      <c r="HX1" s="30" t="s">
         <v>718</v>
       </c>
-      <c r="HW1" s="30" t="s">
+      <c r="HY1" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="HX1" s="30" t="s">
+      <c r="HZ1" s="30" t="s">
         <v>720</v>
       </c>
-      <c r="HY1" s="30" t="s">
+      <c r="IA1" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="HZ1" s="30" t="s">
+      <c r="IB1" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="IA1" s="30" t="s">
+      <c r="IC1" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="IB1" s="30" t="s">
+      <c r="ID1" s="30" t="s">
         <v>724</v>
       </c>
-      <c r="IC1" s="30" t="s">
+      <c r="IE1" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="ID1" s="30" t="s">
+      <c r="IF1" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="IE1" s="30" t="s">
+      <c r="IG1" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="IF1" s="30" t="s">
+      <c r="IH1" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="IG1" s="30" t="s">
+      <c r="II1" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="IH1" s="30" t="s">
+      <c r="IJ1" s="30" t="s">
         <v>730</v>
       </c>
-      <c r="II1" s="30" t="s">
+      <c r="IK1" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="IJ1" s="30" t="s">
+      <c r="IL1" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="IK1" s="30" t="s">
+      <c r="IM1" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="IL1" s="30" t="s">
+      <c r="IN1" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="IM1" s="30" t="s">
+      <c r="IO1" s="30" t="s">
         <v>735</v>
-      </c>
-      <c r="IN1" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="IO1" s="30" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:249" ht="15" thickBot="1">
@@ -9820,43 +9803,43 @@
         <v>9</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D2" s="33">
         <v>200</v>
       </c>
       <c r="F2" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>739</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="I2" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="K2" s="32" t="s">
         <v>741</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="M2" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="P2" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="R2" s="32">
         <v>268763332</v>
@@ -9868,52 +9851,52 @@
     </row>
     <row r="3" spans="1:249" ht="15" thickBot="1">
       <c r="A3" s="31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D3" s="33">
         <v>200</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G3" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="K3" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="R3" s="32" t="s">
         <v>750</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>743</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>746</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>751</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>752</v>
       </c>
       <c r="AB3" s="35"/>
       <c r="AD3" s="36"/>
@@ -9922,34 +9905,34 @@
     </row>
     <row r="4" spans="1:249" ht="15" thickBot="1">
       <c r="A4" s="31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D4" s="33">
         <v>200</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G4" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>751</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="K4" s="32" t="s">
+        <v>752</v>
+      </c>
+      <c r="L4" s="32" t="s">
         <v>753</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>754</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>755</v>
       </c>
       <c r="AB4" s="35"/>
       <c r="AD4" s="36"/>
@@ -9958,49 +9941,49 @@
     </row>
     <row r="5" spans="1:249" ht="15" thickBot="1">
       <c r="A5" s="31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D5" s="33">
         <v>200</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>754</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>756</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="K5" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="M5" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="N5" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="O5" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="P5" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="Q5" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="R5" s="32">
         <v>268763332</v>
@@ -10012,49 +9995,49 @@
     </row>
     <row r="6" spans="1:249" ht="15" thickBot="1">
       <c r="A6" s="31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D6" s="33">
         <v>200</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G6" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>755</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>757</v>
-      </c>
-      <c r="I6" s="32" t="s">
+      <c r="K6" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="M6" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="N6" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="O6" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="P6" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="Q6" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="R6" s="32">
         <v>268763332</v>
@@ -10066,49 +10049,49 @@
     </row>
     <row r="7" spans="1:249" ht="15" thickBot="1">
       <c r="A7" s="31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D7" s="33">
         <v>200</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>756</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>758</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="K7" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="N7" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="O7" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="P7" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="Q7" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="R7" s="32">
         <v>268763332</v>
@@ -21561,750 +21544,750 @@
   <sheetData>
     <row r="1" spans="1:240">
       <c r="A1" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="S1" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="T1" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="U1" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="Z1" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AC1" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AD1" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AE1" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AF1" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AG1" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AH1" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AI1" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AK1" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AL1" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AM1" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AN1" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AO1" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AP1" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AR1" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AS1" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AT1" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AU1" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="AR1" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="AS1" s="30" t="s">
+      <c r="AV1" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="AT1" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AW1" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="AX1" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AY1" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="AZ1" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="BA1" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="BB1" s="30" t="s">
         <v>569</v>
       </c>
-      <c r="AY1" s="30" t="s">
+      <c r="BC1" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="AZ1" s="30" t="s">
+      <c r="BD1" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BE1" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="BB1" s="30" t="s">
+      <c r="BF1" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="BC1" s="30" t="s">
+      <c r="BG1" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="BD1" s="30" t="s">
+      <c r="BH1" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="BE1" s="30" t="s">
+      <c r="BI1" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="BF1" s="30" t="s">
+      <c r="BJ1" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="BG1" s="30" t="s">
+      <c r="BK1" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="BH1" s="30" t="s">
+      <c r="BL1" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="BI1" s="30" t="s">
+      <c r="BM1" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="BJ1" s="30" t="s">
+      <c r="BN1" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="BK1" s="30" t="s">
+      <c r="BO1" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="BL1" s="30" t="s">
+      <c r="BP1" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="BM1" s="30" t="s">
+      <c r="BQ1" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="BN1" s="30" t="s">
+      <c r="BR1" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="BO1" s="30" t="s">
+      <c r="BS1" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="BP1" s="30" t="s">
+      <c r="BT1" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="BQ1" s="30" t="s">
+      <c r="BU1" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="BR1" s="30" t="s">
+      <c r="BV1" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="BS1" s="30" t="s">
+      <c r="BW1" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="BT1" s="30" t="s">
+      <c r="BX1" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="BU1" s="30" t="s">
+      <c r="BY1" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="BV1" s="30" t="s">
+      <c r="BZ1" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="BW1" s="30" t="s">
+      <c r="CA1" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="BX1" s="30" t="s">
+      <c r="CB1" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="BY1" s="30" t="s">
+      <c r="CC1" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="BZ1" s="30" t="s">
+      <c r="CD1" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="CA1" s="30" t="s">
+      <c r="CE1" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="CB1" s="30" t="s">
+      <c r="CF1" s="30" t="s">
         <v>584</v>
       </c>
-      <c r="CC1" s="30" t="s">
+      <c r="CG1" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="CD1" s="30" t="s">
+      <c r="CH1" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="CE1" s="30" t="s">
+      <c r="CI1" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="CF1" s="30" t="s">
+      <c r="CJ1" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="CG1" s="30" t="s">
+      <c r="CK1" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="CH1" s="30" t="s">
+      <c r="CL1" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CM1" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="CJ1" s="30" t="s">
+      <c r="CN1" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="CK1" s="30" t="s">
+      <c r="CO1" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="CL1" s="30" t="s">
+      <c r="CP1" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="CM1" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="CN1" s="30" t="s">
+      <c r="CQ1" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="CO1" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="CP1" s="30" t="s">
+      <c r="CR1" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="CQ1" s="30" t="s">
+      <c r="CS1" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="CR1" s="30" t="s">
+      <c r="CT1" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="CS1" s="30" t="s">
+      <c r="CU1" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="CT1" s="30" t="s">
+      <c r="CV1" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="CU1" s="30" t="s">
+      <c r="CW1" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="CV1" s="30" t="s">
+      <c r="CX1" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="CW1" s="30" t="s">
+      <c r="CY1" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="CX1" s="30" t="s">
+      <c r="CZ1" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="CY1" s="30" t="s">
+      <c r="DA1" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="CZ1" s="30" t="s">
+      <c r="DB1" s="30" t="s">
         <v>601</v>
       </c>
-      <c r="DA1" s="30" t="s">
+      <c r="DC1" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="DB1" s="30" t="s">
+      <c r="DD1" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="DC1" s="30" t="s">
+      <c r="DE1" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="DD1" s="30" t="s">
+      <c r="DF1" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="DE1" s="30" t="s">
+      <c r="DG1" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="DF1" s="30" t="s">
+      <c r="DH1" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="DG1" s="30" t="s">
+      <c r="DI1" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="DH1" s="30" t="s">
+      <c r="DJ1" s="30" t="s">
         <v>609</v>
       </c>
-      <c r="DI1" s="30" t="s">
+      <c r="DK1" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="DJ1" s="30" t="s">
+      <c r="DL1" s="30" t="s">
         <v>611</v>
       </c>
-      <c r="DK1" s="30" t="s">
+      <c r="DM1" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="DL1" s="30" t="s">
+      <c r="DN1" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="DM1" s="30" t="s">
+      <c r="DO1" s="30" t="s">
         <v>614</v>
       </c>
-      <c r="DN1" s="30" t="s">
+      <c r="DP1" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="DO1" s="30" t="s">
+      <c r="DQ1" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="DP1" s="30" t="s">
+      <c r="DR1" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="DQ1" s="30" t="s">
+      <c r="DS1" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="DR1" s="30" t="s">
+      <c r="DT1" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="DS1" s="30" t="s">
+      <c r="DU1" s="30" t="s">
         <v>620</v>
       </c>
-      <c r="DT1" s="30" t="s">
+      <c r="DV1" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="DU1" s="30" t="s">
+      <c r="DW1" s="30" t="s">
         <v>622</v>
       </c>
-      <c r="DV1" s="30" t="s">
+      <c r="DX1" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="DW1" s="30" t="s">
+      <c r="DY1" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="DX1" s="30" t="s">
+      <c r="DZ1" s="30" t="s">
         <v>625</v>
       </c>
-      <c r="DY1" s="30" t="s">
+      <c r="EA1" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="DZ1" s="30" t="s">
+      <c r="EB1" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="EA1" s="30" t="s">
+      <c r="EC1" s="30" t="s">
         <v>628</v>
       </c>
-      <c r="EB1" s="30" t="s">
+      <c r="ED1" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="EC1" s="30" t="s">
+      <c r="EE1" s="30" t="s">
         <v>630</v>
       </c>
-      <c r="ED1" s="30" t="s">
+      <c r="EF1" s="30" t="s">
         <v>631</v>
       </c>
-      <c r="EE1" s="30" t="s">
+      <c r="EG1" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="EF1" s="30" t="s">
+      <c r="EH1" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="EG1" s="30" t="s">
+      <c r="EI1" s="30" t="s">
         <v>634</v>
       </c>
-      <c r="EH1" s="30" t="s">
+      <c r="EJ1" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="EI1" s="30" t="s">
+      <c r="EK1" s="30" t="s">
         <v>636</v>
       </c>
-      <c r="EJ1" s="30" t="s">
+      <c r="EL1" s="30" t="s">
         <v>637</v>
       </c>
-      <c r="EK1" s="30" t="s">
+      <c r="EM1" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="EL1" s="30" t="s">
+      <c r="EN1" s="30" t="s">
         <v>639</v>
       </c>
-      <c r="EM1" s="30" t="s">
+      <c r="EO1" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="EN1" s="30" t="s">
+      <c r="EP1" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="EO1" s="30" t="s">
+      <c r="EQ1" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="EP1" s="30" t="s">
+      <c r="ER1" s="30" t="s">
         <v>643</v>
       </c>
-      <c r="EQ1" s="30" t="s">
+      <c r="ES1" s="30" t="s">
         <v>644</v>
       </c>
-      <c r="ER1" s="30" t="s">
+      <c r="ET1" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="ES1" s="30" t="s">
+      <c r="EU1" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="ET1" s="30" t="s">
+      <c r="EV1" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="EU1" s="30" t="s">
+      <c r="EW1" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="EV1" s="30" t="s">
+      <c r="EX1" s="30" t="s">
         <v>649</v>
       </c>
-      <c r="EW1" s="30" t="s">
+      <c r="EY1" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="EX1" s="30" t="s">
+      <c r="EZ1" s="30" t="s">
         <v>651</v>
       </c>
-      <c r="EY1" s="30" t="s">
+      <c r="FA1" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="EZ1" s="30" t="s">
+      <c r="FB1" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="FA1" s="30" t="s">
+      <c r="FC1" s="30" t="s">
         <v>654</v>
       </c>
-      <c r="FB1" s="30" t="s">
+      <c r="FD1" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="FC1" s="30" t="s">
+      <c r="FE1" s="30" t="s">
         <v>656</v>
       </c>
-      <c r="FD1" s="30" t="s">
+      <c r="FF1" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="FE1" s="30" t="s">
+      <c r="FG1" s="30" t="s">
         <v>658</v>
       </c>
-      <c r="FF1" s="30" t="s">
+      <c r="FH1" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="FG1" s="30" t="s">
+      <c r="FI1" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="FH1" s="30" t="s">
+      <c r="FJ1" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="FI1" s="30" t="s">
+      <c r="FK1" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="FJ1" s="30" t="s">
+      <c r="FL1" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="FK1" s="30" t="s">
+      <c r="FM1" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="FL1" s="30" t="s">
+      <c r="FN1" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="FM1" s="30" t="s">
+      <c r="FO1" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="FN1" s="30" t="s">
+      <c r="FP1" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="FO1" s="30" t="s">
+      <c r="FQ1" s="30" t="s">
         <v>668</v>
       </c>
-      <c r="FP1" s="30" t="s">
+      <c r="FR1" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="FQ1" s="30" t="s">
+      <c r="FS1" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="FR1" s="30" t="s">
+      <c r="FT1" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="FS1" s="30" t="s">
+      <c r="FU1" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="FT1" s="30" t="s">
+      <c r="FV1" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="FU1" s="30" t="s">
+      <c r="FW1" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="FV1" s="30" t="s">
+      <c r="FX1" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="FW1" s="30" t="s">
+      <c r="FY1" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="FX1" s="30" t="s">
+      <c r="FZ1" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="FY1" s="30" t="s">
+      <c r="GA1" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="FZ1" s="30" t="s">
+      <c r="GB1" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="GA1" s="30" t="s">
+      <c r="GC1" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="GB1" s="30" t="s">
+      <c r="GD1" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="GC1" s="30" t="s">
+      <c r="GE1" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="GD1" s="30" t="s">
+      <c r="GF1" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="GE1" s="30" t="s">
+      <c r="GG1" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="GF1" s="30" t="s">
+      <c r="GH1" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="GG1" s="30" t="s">
+      <c r="GI1" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="GH1" s="30" t="s">
+      <c r="GJ1" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="GI1" s="30" t="s">
+      <c r="GK1" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="GJ1" s="30" t="s">
+      <c r="GL1" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="GK1" s="30" t="s">
+      <c r="GM1" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="GL1" s="30" t="s">
+      <c r="GN1" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="GM1" s="30" t="s">
+      <c r="GO1" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="GN1" s="30" t="s">
+      <c r="GP1" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="GO1" s="30" t="s">
+      <c r="GQ1" s="30" t="s">
         <v>694</v>
       </c>
-      <c r="GP1" s="30" t="s">
+      <c r="GR1" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="GQ1" s="30" t="s">
+      <c r="GS1" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="GR1" s="30" t="s">
+      <c r="GT1" s="30" t="s">
         <v>697</v>
       </c>
-      <c r="GS1" s="30" t="s">
+      <c r="GU1" s="30" t="s">
         <v>698</v>
       </c>
-      <c r="GT1" s="30" t="s">
+      <c r="GV1" s="30" t="s">
         <v>699</v>
       </c>
-      <c r="GU1" s="30" t="s">
+      <c r="GW1" s="30" t="s">
         <v>700</v>
       </c>
-      <c r="GV1" s="30" t="s">
+      <c r="GX1" s="30" t="s">
         <v>701</v>
       </c>
-      <c r="GW1" s="30" t="s">
+      <c r="GY1" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="GX1" s="30" t="s">
+      <c r="GZ1" s="30" t="s">
         <v>703</v>
       </c>
-      <c r="GY1" s="30" t="s">
+      <c r="HA1" s="30" t="s">
         <v>704</v>
       </c>
-      <c r="GZ1" s="30" t="s">
+      <c r="HB1" s="30" t="s">
         <v>705</v>
       </c>
-      <c r="HA1" s="30" t="s">
+      <c r="HC1" s="30" t="s">
         <v>706</v>
       </c>
-      <c r="HB1" s="30" t="s">
+      <c r="HD1" s="30" t="s">
         <v>707</v>
       </c>
-      <c r="HC1" s="30" t="s">
+      <c r="HE1" s="30" t="s">
         <v>708</v>
       </c>
-      <c r="HD1" s="30" t="s">
+      <c r="HF1" s="30" t="s">
         <v>709</v>
       </c>
-      <c r="HE1" s="30" t="s">
+      <c r="HG1" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="HF1" s="30" t="s">
+      <c r="HH1" s="30" t="s">
         <v>711</v>
       </c>
-      <c r="HG1" s="30" t="s">
+      <c r="HI1" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="HH1" s="30" t="s">
+      <c r="HJ1" s="30" t="s">
         <v>713</v>
       </c>
-      <c r="HI1" s="30" t="s">
+      <c r="HK1" s="30" t="s">
         <v>714</v>
       </c>
-      <c r="HJ1" s="30" t="s">
+      <c r="HL1" s="30" t="s">
         <v>715</v>
       </c>
-      <c r="HK1" s="30" t="s">
+      <c r="HM1" s="30" t="s">
         <v>716</v>
       </c>
-      <c r="HL1" s="30" t="s">
+      <c r="HN1" s="30" t="s">
         <v>717</v>
       </c>
-      <c r="HM1" s="30" t="s">
+      <c r="HO1" s="30" t="s">
         <v>718</v>
       </c>
-      <c r="HN1" s="30" t="s">
+      <c r="HP1" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="HO1" s="30" t="s">
+      <c r="HQ1" s="30" t="s">
         <v>720</v>
       </c>
-      <c r="HP1" s="30" t="s">
+      <c r="HR1" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="HQ1" s="30" t="s">
+      <c r="HS1" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="HR1" s="30" t="s">
+      <c r="HT1" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="HS1" s="30" t="s">
+      <c r="HU1" s="30" t="s">
         <v>724</v>
       </c>
-      <c r="HT1" s="30" t="s">
+      <c r="HV1" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="HU1" s="30" t="s">
+      <c r="HW1" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="HV1" s="30" t="s">
+      <c r="HX1" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="HW1" s="30" t="s">
+      <c r="HY1" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="HX1" s="30" t="s">
+      <c r="HZ1" s="30" t="s">
         <v>729</v>
       </c>
-      <c r="HY1" s="30" t="s">
+      <c r="IA1" s="30" t="s">
         <v>730</v>
       </c>
-      <c r="HZ1" s="30" t="s">
+      <c r="IB1" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="IA1" s="30" t="s">
+      <c r="IC1" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="IB1" s="30" t="s">
+      <c r="ID1" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="IC1" s="30" t="s">
+      <c r="IE1" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="ID1" s="30" t="s">
+      <c r="IF1" s="30" t="s">
         <v>735</v>
-      </c>
-      <c r="IE1" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="IF1" s="30" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:240" ht="15" thickBot="1">
       <c r="A2" s="32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I2" s="32">
         <v>268763332</v>
@@ -22543,40 +22526,40 @@
     </row>
     <row r="3" spans="1:240">
       <c r="A3" s="32" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I3" s="32">
         <v>268763332</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="K3" s="37">
         <v>1</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M3" s="37">
         <v>11111000</v>
@@ -22811,28 +22794,28 @@
     </row>
     <row r="4" spans="1:240">
       <c r="A4" s="32" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="H4" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I4" s="32">
         <v>268763332</v>
@@ -23071,28 +23054,28 @@
     </row>
     <row r="5" spans="1:240">
       <c r="A5" s="32" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="F5" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="H5" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I5" s="32">
         <v>268763332</v>
@@ -23331,28 +23314,28 @@
     </row>
     <row r="6" spans="1:240">
       <c r="A6" s="32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="H6" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I6" s="32">
         <v>268763332</v>
@@ -23591,25 +23574,25 @@
     </row>
     <row r="7" spans="1:240">
       <c r="A7" s="32" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>746</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>748</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
@@ -23847,31 +23830,31 @@
     </row>
     <row r="8" spans="1:240">
       <c r="A8" s="32" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="H8" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>749</v>
-      </c>
       <c r="I8" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="37"/>
@@ -24107,25 +24090,25 @@
     </row>
     <row r="9" spans="1:240">
       <c r="A9" s="32" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="E9" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="F9" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>746</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>748</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
@@ -24363,28 +24346,28 @@
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="32" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="F10" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="H10" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I10" s="32">
         <v>268763332</v>
@@ -24623,28 +24606,28 @@
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="32" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="H11" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I11" s="32">
         <v>268763332</v>
@@ -24883,79 +24866,79 @@
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="32" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="E12" s="32" t="s">
         <v>744</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="32" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>744</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="32" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="E14" s="32" t="s">
         <v>744</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="E15" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="F15" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="H15" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I15" s="32">
         <v>268763332</v>
@@ -24963,80 +24946,80 @@
     </row>
     <row r="16" spans="1:240">
       <c r="A16" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="I16" s="32" t="s">
         <v>776</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>743</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>746</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>777</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="E17" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="F17" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="G17" s="32" t="s">
         <v>746</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="E18" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="F18" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="G18" s="32" t="s">
         <v>746</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="H18" s="32" t="s">
         <v>747</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>749</v>
       </c>
       <c r="I18" s="32">
         <v>268763332</v>
@@ -25062,27 +25045,27 @@
   <sheetData>
     <row r="6" spans="6:6">
       <c r="F6" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -25118,46 +25101,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -25183,77 +25166,77 @@
   <sheetData>
     <row r="4" spans="6:12">
       <c r="F4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="L4" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="6:12">
       <c r="F5" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="6:12">
       <c r="F6" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="6:12">
       <c r="F7" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="6:12">
       <c r="F8" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="6:12">
       <c r="F10" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="6:12">
       <c r="F12" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="826">
   <si>
     <t>Execution</t>
   </si>
@@ -2496,6 +2496,12 @@
   </si>
   <si>
     <t>6,3,3</t>
+  </si>
+  <si>
+    <t>USSD_API</t>
+  </si>
+  <si>
+    <t>vlr</t>
   </si>
 </sst>
 </file>
@@ -3228,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -21517,10 +21523,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF18"/>
+  <dimension ref="A1:IF19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25025,6 +25031,17 @@
         <v>268763332</v>
       </c>
     </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>824</v>
+      </c>
+      <c r="B19" t="s">
+        <v>825</v>
+      </c>
+      <c r="C19">
+        <v>971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="balance_enquires" sheetId="6" r:id="rId10"/>
     <sheet name="p2p_transfer" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="489">
   <si>
     <t>Execution</t>
   </si>
@@ -1500,6 +1500,15 @@
   </si>
   <si>
     <t>Flavour#5 - *135# Main menu - Option-5 (MSISDN should be belongs to NPP Value-1051 service class)</t>
+  </si>
+  <si>
+    <t>API_Product_Subscription</t>
+  </si>
+  <si>
+    <t>responseCode</t>
+  </si>
+  <si>
+    <t>CIS_EDR_Validation</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1712,12 +1721,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1784,6 +1817,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2091,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2262,6 +2299,9 @@
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
@@ -2502,7 +2542,18 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>29</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3229,7 +3280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -16552,9 +16603,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF19"/>
+  <dimension ref="A1:IF20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -20061,13 +20112,30 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="A19" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>452</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>453</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>971</v>
       </c>
     </row>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="node_xml_conversion" sheetId="8" r:id="rId1"/>
@@ -1373,9 +1373,6 @@
     <t>user</t>
   </si>
   <si>
-    <t>API_InstallSubscriber</t>
-  </si>
-  <si>
     <t>API_Update_IMSI</t>
   </si>
   <si>
@@ -1509,6 +1506,9 @@
   </si>
   <si>
     <t>CIS_EDR_Validation</t>
+  </si>
+  <si>
+    <t>CS_API_InstallSubscriber</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -2350,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>77</v>
@@ -2364,7 +2364,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>81</v>
@@ -2546,7 +2546,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>75</v>
@@ -3414,16 +3414,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F6" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -3435,16 +3435,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F7" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -3456,16 +3456,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F8" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -3477,16 +3477,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F9" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -3498,16 +3498,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F10" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -3519,16 +3519,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F11" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -3540,16 +3540,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F12" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -3561,16 +3561,16 @@
         <v>19</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F13" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="32"/>
@@ -3583,16 +3583,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F14" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -3604,13 +3604,13 @@
         <v>22</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>461</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>462</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>72</v>
@@ -3625,16 +3625,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F16" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -3646,16 +3646,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F17" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -3667,16 +3667,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F18" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -3688,16 +3688,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F19" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -3709,16 +3709,16 @@
         <v>27</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F20" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -3730,16 +3730,16 @@
         <v>28</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F21" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -3751,16 +3751,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F22" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -3772,16 +3772,16 @@
         <v>30</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F23" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -3793,16 +3793,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F24" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -3814,16 +3814,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F25" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -3835,16 +3835,16 @@
         <v>33</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F26" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -3856,16 +3856,16 @@
         <v>34</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>462</v>
-      </c>
       <c r="F27" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -16605,8 +16605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20061,7 +20061,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>413</v>
@@ -20084,7 +20084,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>413</v>
@@ -20113,10 +20113,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>486</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>487</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>422</v>
@@ -20130,10 +20130,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" t="s">
         <v>452</v>
-      </c>
-      <c r="B20" t="s">
-        <v>453</v>
       </c>
       <c r="C20">
         <v>971</v>

--- a/server/Reference_Sheet.xlsx
+++ b/server/Reference_Sheet.xlsx
@@ -1328,9 +1328,6 @@
     <t>API_DeleteOffer</t>
   </si>
   <si>
-    <t>API_UpdateOffer</t>
-  </si>
-  <si>
     <t>API_UpdateDA</t>
   </si>
   <si>
@@ -1509,6 +1506,9 @@
   </si>
   <si>
     <t>CS_API_InstallSubscriber</t>
+  </si>
+  <si>
+    <t>CS_API_UpdateOffer</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>77</v>
@@ -2364,7 +2364,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>81</v>
@@ -2546,7 +2546,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>75</v>
@@ -3414,16 +3414,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F6" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -3435,16 +3435,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F7" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -3456,16 +3456,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F8" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -3477,16 +3477,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F9" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -3498,16 +3498,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F10" s="36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -3519,16 +3519,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F11" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -3540,16 +3540,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F12" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -3561,16 +3561,16 @@
         <v>19</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F13" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="32"/>
@@ -3583,16 +3583,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F14" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -3604,13 +3604,13 @@
         <v>22</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>460</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>461</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>72</v>
@@ -3625,16 +3625,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F16" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -3646,16 +3646,16 @@
         <v>24</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F17" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -3667,16 +3667,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F18" s="39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -3688,16 +3688,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F19" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -3709,16 +3709,16 @@
         <v>27</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F20" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -3730,16 +3730,16 @@
         <v>28</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F21" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -3751,16 +3751,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F22" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -3772,16 +3772,16 @@
         <v>30</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F23" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -3793,16 +3793,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="F24" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -3814,16 +3814,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D25" s="7" t="s">
+    